--- a/Data Files/Input Validation/02. receivedate/Auto_ReceiveDate_C2-1.xlsx
+++ b/Data Files/Input Validation/02. receivedate/Auto_ReceiveDate_C2-1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="71">
   <si>
     <t xml:space="preserve">contractNo</t>
   </si>
@@ -158,6 +158,9 @@
   </si>
   <si>
     <t xml:space="preserve">TG-HNM-L14-752</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-09-01</t>
   </si>
   <si>
     <t xml:space="preserve">2023-08-16</t>
@@ -362,7 +365,7 @@
   <dimension ref="A1:XFD996"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.66796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -565,67 +568,67 @@
         <v>46</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="T2" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="U2" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="R2" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="V2" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="W2" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Z2" s="2"/>
       <c r="AA2" s="2"/>
@@ -633,42 +636,42 @@
       <c r="AC2" s="2"/>
       <c r="AD2" s="2"/>
       <c r="AE2" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AG2" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AI2" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AJ2" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AK2" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AM2" s="2"/>
       <c r="AN2" s="2"/>
       <c r="AO2" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="AP2" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AQ2" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AR2" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AS2" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AT2" s="2"/>
       <c r="AU2" s="2"/>

--- a/Data Files/Input Validation/02. receivedate/Auto_ReceiveDate_C2-1.xlsx
+++ b/Data Files/Input Validation/02. receivedate/Auto_ReceiveDate_C2-1.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="70">
   <si>
     <t xml:space="preserve">contractNo</t>
   </si>
@@ -161,9 +161,6 @@
   </si>
   <si>
     <t xml:space="preserve">2023-09-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-08-16</t>
   </si>
   <si>
     <t xml:space="preserve">0</t>
@@ -365,7 +362,7 @@
   <dimension ref="A1:XFD996"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.66796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -568,67 +565,67 @@
         <v>46</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="3" t="s">
         <v>51</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>52</v>
       </c>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="M2" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="N2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="O2" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="P2" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q2" s="2" t="s">
+      <c r="R2" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="S2" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="T2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="V2" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="T2" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="V2" s="2" t="s">
+      <c r="W2" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="W2" s="2" t="s">
+      <c r="X2" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="X2" s="2" t="s">
+      <c r="Y2" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="Y2" s="2" t="s">
-        <v>62</v>
       </c>
       <c r="Z2" s="2"/>
       <c r="AA2" s="2"/>
@@ -636,42 +633,42 @@
       <c r="AC2" s="2"/>
       <c r="AD2" s="2"/>
       <c r="AE2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF2" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="AF2" s="2" t="s">
+      <c r="AG2" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="AG2" s="2" t="s">
+      <c r="AH2" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="AH2" s="2" t="s">
+      <c r="AI2" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="AI2" s="2" t="s">
-        <v>67</v>
-      </c>
       <c r="AJ2" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="AK2" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AM2" s="2"/>
       <c r="AN2" s="2"/>
       <c r="AO2" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="AP2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AR2" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="AP2" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="AQ2" s="2" t="s">
+      <c r="AS2" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="AR2" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="AS2" s="2" t="s">
-        <v>70</v>
       </c>
       <c r="AT2" s="2"/>
       <c r="AU2" s="2"/>

--- a/Data Files/Input Validation/02. receivedate/Auto_ReceiveDate_C2-1.xlsx
+++ b/Data Files/Input Validation/02. receivedate/Auto_ReceiveDate_C2-1.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\Chang Date\file\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CFCA491-FB30-4AF3-9685-A013D4217574}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Worksheet" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -20,252 +25,231 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="71">
   <si>
-    <t xml:space="preserve">contractNo</t>
+    <t>contractNo</t>
   </si>
   <si>
-    <t xml:space="preserve">creationDate</t>
+    <t>creationDate</t>
   </si>
   <si>
-    <t xml:space="preserve">receiveDate</t>
+    <t>receiveDate</t>
   </si>
   <si>
-    <t xml:space="preserve">selectType</t>
+    <t>selectType</t>
   </si>
   <si>
-    <t xml:space="preserve">typeCode</t>
+    <t>typeCode</t>
   </si>
   <si>
-    <t xml:space="preserve">effectiveDate</t>
+    <t>effectiveDate</t>
   </si>
   <si>
-    <t xml:space="preserve">expireDate</t>
+    <t>expireDate</t>
   </si>
   <si>
-    <t xml:space="preserve">sendFormType</t>
+    <t>sendFormType</t>
   </si>
   <si>
-    <t xml:space="preserve">fillingNo</t>
+    <t>fillingNo</t>
   </si>
   <si>
-    <t xml:space="preserve">overdueFlag</t>
+    <t>overdueFlag</t>
   </si>
   <si>
-    <t xml:space="preserve">dupNumber</t>
+    <t>dupNumber</t>
   </si>
   <si>
-    <t xml:space="preserve">instAmount</t>
+    <t>instAmount</t>
   </si>
   <si>
-    <t xml:space="preserve">taxPayerId</t>
+    <t>taxPayerId</t>
   </si>
   <si>
-    <t xml:space="preserve">branchNo</t>
+    <t>branchNo</t>
   </si>
   <si>
-    <t xml:space="preserve">taxPayerBranchType</t>
+    <t>taxPayerBranchType</t>
   </si>
   <si>
-    <t xml:space="preserve">taxPayerRelationship</t>
+    <t>taxPayerRelationship</t>
   </si>
   <si>
-    <t xml:space="preserve">contractPartyId</t>
+    <t>contractPartyId</t>
   </si>
   <si>
-    <t xml:space="preserve">contractPartyFirstName</t>
+    <t>contractPartyFirstName</t>
   </si>
   <si>
-    <t xml:space="preserve">contractPartyLastName</t>
+    <t>contractPartyLastName</t>
   </si>
   <si>
-    <t xml:space="preserve">contractPartyBranchNo</t>
+    <t>contractPartyBranchNo</t>
   </si>
   <si>
-    <t xml:space="preserve">contractPartyBranchType</t>
+    <t>contractPartyBranchType</t>
   </si>
   <si>
-    <t xml:space="preserve">buildingName</t>
+    <t>buildingName</t>
   </si>
   <si>
-    <t xml:space="preserve">roomNo</t>
+    <t>roomNo</t>
   </si>
   <si>
-    <t xml:space="preserve">floorNo</t>
+    <t>floorNo</t>
   </si>
   <si>
-    <t xml:space="preserve">villageName</t>
+    <t>villageName</t>
   </si>
   <si>
-    <t xml:space="preserve">buildingNumber</t>
+    <t>buildingNumber</t>
   </si>
   <si>
-    <t xml:space="preserve">moo</t>
+    <t>moo</t>
   </si>
   <si>
-    <t xml:space="preserve">soiName</t>
+    <t>soiName</t>
   </si>
   <si>
-    <t xml:space="preserve">junctionName</t>
+    <t>junctionName</t>
   </si>
   <si>
-    <t xml:space="preserve">streetName</t>
+    <t>streetName</t>
   </si>
   <si>
-    <t xml:space="preserve">subdistrict</t>
+    <t>subdistrict</t>
   </si>
   <si>
-    <t xml:space="preserve">district</t>
+    <t>district</t>
   </si>
   <si>
-    <t xml:space="preserve">province</t>
+    <t>province</t>
   </si>
   <si>
-    <t xml:space="preserve">postCode</t>
+    <t>postCode</t>
   </si>
   <si>
-    <t xml:space="preserve">countryId</t>
+    <t>countryId</t>
   </si>
   <si>
-    <t xml:space="preserve">totalParty</t>
+    <t>totalParty</t>
   </si>
   <si>
-    <t xml:space="preserve">arrayDetail</t>
+    <t>arrayDetail</t>
   </si>
   <si>
-    <t xml:space="preserve">relateParty</t>
+    <t>relateParty</t>
   </si>
   <si>
-    <t xml:space="preserve">relateContract</t>
+    <t>relateContract</t>
   </si>
   <si>
-    <t xml:space="preserve">dupDutyAmount</t>
+    <t>dupDutyAmount</t>
   </si>
   <si>
-    <t xml:space="preserve">issueNumber</t>
+    <t>issueNumber</t>
   </si>
   <si>
-    <t xml:space="preserve">userId</t>
+    <t>userId</t>
   </si>
   <si>
-    <t xml:space="preserve">entityId</t>
+    <t>entityId</t>
   </si>
   <si>
-    <t xml:space="preserve">senderRole</t>
+    <t>senderRole</t>
   </si>
   <si>
-    <t xml:space="preserve">formType</t>
+    <t>formType</t>
   </si>
   <si>
-    <t xml:space="preserve">TG-HNM-L14-752</t>
+    <t>TG-HNM-L14-752</t>
   </si>
   <si>
-    <t xml:space="preserve">2023-09-01</t>
+    <t>2023-09-01</t>
   </si>
   <si>
-    <t xml:space="preserve">0</t>
+    <t>0</t>
   </si>
   <si>
-    <t xml:space="preserve">1</t>
+    <t>1</t>
   </si>
   <si>
-    <t xml:space="preserve">2023-08-22</t>
+    <t>2023-08-22</t>
   </si>
   <si>
-    <t xml:space="preserve">2023-12-31</t>
+    <t>2023-12-31</t>
   </si>
   <si>
-    <t xml:space="preserve">new_entry</t>
+    <t>new_entry</t>
   </si>
   <si>
-    <t xml:space="preserve">51000</t>
+    <t>51000</t>
   </si>
   <si>
-    <t xml:space="preserve">0105556078229</t>
+    <t>0105556078229</t>
   </si>
   <si>
-    <t xml:space="preserve">O</t>
+    <t>O</t>
   </si>
   <si>
-    <t xml:space="preserve">1721000011382</t>
+    <t>1721000011382</t>
   </si>
   <si>
-    <t xml:space="preserve">สมหมาย</t>
+    <t>สมหมาย</t>
   </si>
   <si>
-    <t xml:space="preserve">ดั่งใจหวัง</t>
+    <t>ดั่งใจหวัง</t>
   </si>
   <si>
-    <t xml:space="preserve">888/77</t>
+    <t>888/77</t>
   </si>
   <si>
-    <t xml:space="preserve">99</t>
+    <t>99</t>
   </si>
   <si>
-    <t xml:space="preserve">9</t>
+    <t>9</t>
   </si>
   <si>
-    <t xml:space="preserve">หมู่บ้านรื่นรนย์</t>
+    <t>หมู่บ้านรื่นรนย์</t>
   </si>
   <si>
-    <t xml:space="preserve">ตำบลหนองใหญ่</t>
+    <t>ตำบลหนองใหญ่</t>
   </si>
   <si>
-    <t xml:space="preserve">อำเภอหนองใหญ่</t>
+    <t>อำเภอหนองใหญ่</t>
   </si>
   <si>
-    <t xml:space="preserve">จังหวัดนนทบุรี</t>
+    <t>จังหวัดนนทบุรี</t>
   </si>
   <si>
-    <t xml:space="preserve">10600</t>
+    <t>10600</t>
   </si>
   <si>
-    <t xml:space="preserve">TH</t>
+    <t>TH</t>
   </si>
   <si>
-    <t xml:space="preserve">[2|2|1|d1|d2|d3|d4|d5|d6|10000|1000|51000|5]</t>
+    <t>[2|2|1|d1|d2|d3|d4|d5|d6|10000|1000|51000|5]</t>
   </si>
   <si>
-    <t xml:space="preserve">U0105556078229000</t>
+    <t>U0105556078229000</t>
   </si>
   <si>
-    <t xml:space="preserve">AS9</t>
+    <t>AS9</t>
+  </si>
+  <si>
+    <t>2023-09-16</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="@"/>
-    <numFmt numFmtId="166" formatCode="#,##0.00"/>
-  </numFmts>
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="0"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="222"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="222"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="222"/>
     </font>
     <font>
       <sz val="10"/>
@@ -284,7 +268,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -292,130 +276,389 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-  </cellStyleXfs>
-  <cellXfs count="6">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:XFD996"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.66796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="12.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="10.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="9.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="8.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="10.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="13.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="7.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="11" style="1" width="10.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="14.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="8.76"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="18.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="19.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="14.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="20.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="20.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="20.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="1" width="22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="1" width="12.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="23" style="1" width="7.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="1" width="6.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="25" style="1" width="11.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="26" style="1" width="13.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="27" style="1" width="4.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="28" min="28" style="1" width="8.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="29" min="29" style="1" width="12.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="30" min="30" style="1" width="10.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="31" min="31" style="1" width="13.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="32" min="32" style="1" width="14.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="33" min="33" style="1" width="11.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="34" min="34" style="1" width="8.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="35" style="1" width="8.76"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="36" min="36" style="1" width="9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="37" style="1" width="42.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="38" min="38" style="1" width="10"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="39" min="39" style="1" width="12.76"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="40" min="40" style="1" width="14.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="41" min="41" style="1" width="11.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="42" min="42" style="1" width="17.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="43" min="43" style="1" width="18.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="44" min="44" style="1" width="10.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="45" min="45" style="1" width="8.76"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16380" min="46" style="1" width="2.67"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="16384" style="1" width="2.67"/>
+    <col min="1" max="1" width="12.88671875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.88671875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.88671875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.33203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13.21875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="7.5546875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="11" style="1" customWidth="1"/>
+    <col min="11" max="12" width="10.44140625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="14.109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="8.77734375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="18.6640625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="19.109375" style="1" customWidth="1"/>
+    <col min="17" max="17" width="14.44140625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="20.6640625" style="1" customWidth="1"/>
+    <col min="19" max="19" width="20.44140625" style="1" customWidth="1"/>
+    <col min="20" max="20" width="20.109375" style="1" customWidth="1"/>
+    <col min="21" max="21" width="22" style="1" customWidth="1"/>
+    <col min="22" max="22" width="12.109375" style="1" customWidth="1"/>
+    <col min="23" max="23" width="7.44140625" style="1" customWidth="1"/>
+    <col min="24" max="24" width="6.88671875" style="1" customWidth="1"/>
+    <col min="25" max="25" width="11.44140625" style="1" customWidth="1"/>
+    <col min="26" max="26" width="13.88671875" style="1" customWidth="1"/>
+    <col min="27" max="27" width="4.5546875" style="1" customWidth="1"/>
+    <col min="28" max="28" width="8.109375" style="1" customWidth="1"/>
+    <col min="29" max="29" width="12.33203125" style="1" customWidth="1"/>
+    <col min="30" max="30" width="10.6640625" style="1" customWidth="1"/>
+    <col min="31" max="31" width="13.44140625" style="1" customWidth="1"/>
+    <col min="32" max="32" width="14.109375" style="1" customWidth="1"/>
+    <col min="33" max="33" width="11.6640625" style="1" customWidth="1"/>
+    <col min="34" max="34" width="8.6640625" style="1" customWidth="1"/>
+    <col min="35" max="35" width="8.77734375" style="1" customWidth="1"/>
+    <col min="36" max="36" width="9" style="1" customWidth="1"/>
+    <col min="37" max="37" width="42.77734375" style="1" customWidth="1"/>
+    <col min="38" max="38" width="10" style="1" customWidth="1"/>
+    <col min="39" max="39" width="12.77734375" style="1" customWidth="1"/>
+    <col min="40" max="40" width="14.44140625" style="1" customWidth="1"/>
+    <col min="41" max="41" width="11.6640625" style="1" customWidth="1"/>
+    <col min="42" max="42" width="17.21875" style="1" customWidth="1"/>
+    <col min="43" max="43" width="18.44140625" style="1" customWidth="1"/>
+    <col min="44" max="44" width="10.21875" style="1" customWidth="1"/>
+    <col min="45" max="45" width="8.77734375" style="1" customWidth="1"/>
+    <col min="46" max="16380" width="2.6640625" style="1"/>
+    <col min="16384" max="16384" width="2.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:50 16384:16384" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -557,12 +800,12 @@
       <c r="AW1" s="2"/>
       <c r="AX1" s="2"/>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:50 16384:16384" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>45</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>46</v>
@@ -676,7 +919,7 @@
       <c r="AW2" s="2"/>
       <c r="AX2" s="2"/>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:50 16384:16384" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -727,9 +970,9 @@
       <c r="AV3" s="2"/>
       <c r="AW3" s="2"/>
       <c r="AX3" s="2"/>
-      <c r="XFD3" s="4"/>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="XFD3"/>
+    </row>
+    <row r="4" spans="1:50 16384:16384" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -781,7 +1024,7 @@
       <c r="AW4" s="2"/>
       <c r="AX4" s="2"/>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:50 16384:16384" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -833,7 +1076,7 @@
       <c r="AW5" s="2"/>
       <c r="AX5" s="2"/>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:50 16384:16384" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -885,7 +1128,7 @@
       <c r="AW6" s="2"/>
       <c r="AX6" s="2"/>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:50 16384:16384" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -935,14 +1178,14 @@
       <c r="AW7" s="2"/>
       <c r="AX7" s="2"/>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:50 16384:16384" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
       <c r="D8" s="2"/>
-      <c r="E8" s="5"/>
+      <c r="E8" s="4"/>
       <c r="G8" s="2"/>
-      <c r="H8" s="5"/>
+      <c r="H8" s="4"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
@@ -986,12 +1229,12 @@
       <c r="AW8" s="2"/>
       <c r="AX8" s="2"/>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:50 16384:16384" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
       <c r="D9" s="2"/>
-      <c r="E9" s="5"/>
+      <c r="E9" s="4"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
@@ -1037,12 +1280,12 @@
       <c r="AW9" s="2"/>
       <c r="AX9" s="2"/>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:50 16384:16384" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
       <c r="D10" s="2"/>
-      <c r="E10" s="5"/>
+      <c r="E10" s="4"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
@@ -1088,12 +1331,12 @@
       <c r="AW10" s="2"/>
       <c r="AX10" s="2"/>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:50 16384:16384" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
       <c r="D11" s="2"/>
-      <c r="E11" s="5"/>
+      <c r="E11" s="4"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
@@ -1139,12 +1382,12 @@
       <c r="AW11" s="2"/>
       <c r="AX11" s="2"/>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:50 16384:16384" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
-      <c r="E12" s="5"/>
+      <c r="E12" s="4"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
@@ -1191,7 +1434,7 @@
       <c r="AW12" s="2"/>
       <c r="AX12" s="2"/>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:50 16384:16384" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -1242,7 +1485,7 @@
       <c r="AW13" s="2"/>
       <c r="AX13" s="2"/>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:50 16384:16384" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -1294,7 +1537,7 @@
       <c r="AW14" s="2"/>
       <c r="AX14" s="2"/>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:50 16384:16384" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -1346,7 +1589,7 @@
       <c r="AW15" s="2"/>
       <c r="AX15" s="2"/>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:50 16384:16384" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -1398,7 +1641,7 @@
       <c r="AW16" s="2"/>
       <c r="AX16" s="2"/>
     </row>
-    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -1450,7 +1693,7 @@
       <c r="AW17" s="2"/>
       <c r="AX17" s="2"/>
     </row>
-    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -1502,7 +1745,7 @@
       <c r="AW18" s="2"/>
       <c r="AX18" s="2"/>
     </row>
-    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -1554,7 +1797,7 @@
       <c r="AW19" s="2"/>
       <c r="AX19" s="2"/>
     </row>
-    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -1606,7 +1849,7 @@
       <c r="AW20" s="2"/>
       <c r="AX20" s="2"/>
     </row>
-    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -1658,7 +1901,7 @@
       <c r="AW21" s="2"/>
       <c r="AX21" s="2"/>
     </row>
-    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -1710,7 +1953,7 @@
       <c r="AW22" s="2"/>
       <c r="AX22" s="2"/>
     </row>
-    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -1762,7 +2005,7 @@
       <c r="AW23" s="2"/>
       <c r="AX23" s="2"/>
     </row>
-    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -1814,7 +2057,7 @@
       <c r="AW24" s="2"/>
       <c r="AX24" s="2"/>
     </row>
-    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -1866,7 +2109,7 @@
       <c r="AW25" s="2"/>
       <c r="AX25" s="2"/>
     </row>
-    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -1918,7 +2161,7 @@
       <c r="AW26" s="2"/>
       <c r="AX26" s="2"/>
     </row>
-    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -1970,7 +2213,7 @@
       <c r="AW27" s="2"/>
       <c r="AX27" s="2"/>
     </row>
-    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -2022,7 +2265,7 @@
       <c r="AW28" s="2"/>
       <c r="AX28" s="2"/>
     </row>
-    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -2074,7 +2317,7 @@
       <c r="AW29" s="2"/>
       <c r="AX29" s="2"/>
     </row>
-    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -2126,7 +2369,7 @@
       <c r="AW30" s="2"/>
       <c r="AX30" s="2"/>
     </row>
-    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -2178,7 +2421,7 @@
       <c r="AW31" s="2"/>
       <c r="AX31" s="2"/>
     </row>
-    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -2230,7 +2473,7 @@
       <c r="AW32" s="2"/>
       <c r="AX32" s="2"/>
     </row>
-    <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -2282,7 +2525,7 @@
       <c r="AW33" s="2"/>
       <c r="AX33" s="2"/>
     </row>
-    <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -2334,7 +2577,7 @@
       <c r="AW34" s="2"/>
       <c r="AX34" s="2"/>
     </row>
-    <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -2386,7 +2629,7 @@
       <c r="AW35" s="2"/>
       <c r="AX35" s="2"/>
     </row>
-    <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="36" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -2438,7 +2681,7 @@
       <c r="AW36" s="2"/>
       <c r="AX36" s="2"/>
     </row>
-    <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="37" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -2490,7 +2733,7 @@
       <c r="AW37" s="2"/>
       <c r="AX37" s="2"/>
     </row>
-    <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="38" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -2542,7 +2785,7 @@
       <c r="AW38" s="2"/>
       <c r="AX38" s="2"/>
     </row>
-    <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="39" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -2594,7 +2837,7 @@
       <c r="AW39" s="2"/>
       <c r="AX39" s="2"/>
     </row>
-    <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="40" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -2646,7 +2889,7 @@
       <c r="AW40" s="2"/>
       <c r="AX40" s="2"/>
     </row>
-    <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="41" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -2698,7 +2941,7 @@
       <c r="AW41" s="2"/>
       <c r="AX41" s="2"/>
     </row>
-    <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="42" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -2750,7 +2993,7 @@
       <c r="AW42" s="2"/>
       <c r="AX42" s="2"/>
     </row>
-    <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="43" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -2802,7 +3045,7 @@
       <c r="AW43" s="2"/>
       <c r="AX43" s="2"/>
     </row>
-    <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="44" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -2854,7 +3097,7 @@
       <c r="AW44" s="2"/>
       <c r="AX44" s="2"/>
     </row>
-    <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="45" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -2906,7 +3149,7 @@
       <c r="AW45" s="2"/>
       <c r="AX45" s="2"/>
     </row>
-    <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="46" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -2958,7 +3201,7 @@
       <c r="AW46" s="2"/>
       <c r="AX46" s="2"/>
     </row>
-    <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="47" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -3010,7 +3253,7 @@
       <c r="AW47" s="2"/>
       <c r="AX47" s="2"/>
     </row>
-    <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="48" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -3062,7 +3305,7 @@
       <c r="AW48" s="2"/>
       <c r="AX48" s="2"/>
     </row>
-    <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="49" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -3114,7 +3357,7 @@
       <c r="AW49" s="2"/>
       <c r="AX49" s="2"/>
     </row>
-    <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="50" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -3166,7 +3409,7 @@
       <c r="AW50" s="2"/>
       <c r="AX50" s="2"/>
     </row>
-    <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="51" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -3218,7 +3461,7 @@
       <c r="AW51" s="2"/>
       <c r="AX51" s="2"/>
     </row>
-    <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="52" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -3270,7 +3513,7 @@
       <c r="AW52" s="2"/>
       <c r="AX52" s="2"/>
     </row>
-    <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="53" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -3322,7 +3565,7 @@
       <c r="AW53" s="2"/>
       <c r="AX53" s="2"/>
     </row>
-    <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="54" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -3374,7 +3617,7 @@
       <c r="AW54" s="2"/>
       <c r="AX54" s="2"/>
     </row>
-    <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="55" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -3426,7 +3669,7 @@
       <c r="AW55" s="2"/>
       <c r="AX55" s="2"/>
     </row>
-    <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="56" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -3478,7 +3721,7 @@
       <c r="AW56" s="2"/>
       <c r="AX56" s="2"/>
     </row>
-    <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="57" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -3530,7 +3773,7 @@
       <c r="AW57" s="2"/>
       <c r="AX57" s="2"/>
     </row>
-    <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="58" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
@@ -3582,7 +3825,7 @@
       <c r="AW58" s="2"/>
       <c r="AX58" s="2"/>
     </row>
-    <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="59" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -3634,7 +3877,7 @@
       <c r="AW59" s="2"/>
       <c r="AX59" s="2"/>
     </row>
-    <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="60" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -3686,7 +3929,7 @@
       <c r="AW60" s="2"/>
       <c r="AX60" s="2"/>
     </row>
-    <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="61" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -3738,7 +3981,7 @@
       <c r="AW61" s="2"/>
       <c r="AX61" s="2"/>
     </row>
-    <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="62" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -3790,7 +4033,7 @@
       <c r="AW62" s="2"/>
       <c r="AX62" s="2"/>
     </row>
-    <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="63" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -3842,7 +4085,7 @@
       <c r="AW63" s="2"/>
       <c r="AX63" s="2"/>
     </row>
-    <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="64" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -3894,7 +4137,7 @@
       <c r="AW64" s="2"/>
       <c r="AX64" s="2"/>
     </row>
-    <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="65" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
@@ -3946,7 +4189,7 @@
       <c r="AW65" s="2"/>
       <c r="AX65" s="2"/>
     </row>
-    <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="66" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
@@ -3998,7 +4241,7 @@
       <c r="AW66" s="2"/>
       <c r="AX66" s="2"/>
     </row>
-    <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="67" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
@@ -4050,7 +4293,7 @@
       <c r="AW67" s="2"/>
       <c r="AX67" s="2"/>
     </row>
-    <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="68" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
@@ -4102,7 +4345,7 @@
       <c r="AW68" s="2"/>
       <c r="AX68" s="2"/>
     </row>
-    <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="69" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
@@ -4154,7 +4397,7 @@
       <c r="AW69" s="2"/>
       <c r="AX69" s="2"/>
     </row>
-    <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="70" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
@@ -4206,7 +4449,7 @@
       <c r="AW70" s="2"/>
       <c r="AX70" s="2"/>
     </row>
-    <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="71" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -4258,7 +4501,7 @@
       <c r="AW71" s="2"/>
       <c r="AX71" s="2"/>
     </row>
-    <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="72" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -4310,7 +4553,7 @@
       <c r="AW72" s="2"/>
       <c r="AX72" s="2"/>
     </row>
-    <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="73" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -4362,7 +4605,7 @@
       <c r="AW73" s="2"/>
       <c r="AX73" s="2"/>
     </row>
-    <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="74" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -4414,7 +4657,7 @@
       <c r="AW74" s="2"/>
       <c r="AX74" s="2"/>
     </row>
-    <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="75" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -4466,7 +4709,7 @@
       <c r="AW75" s="2"/>
       <c r="AX75" s="2"/>
     </row>
-    <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="76" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -4518,7 +4761,7 @@
       <c r="AW76" s="2"/>
       <c r="AX76" s="2"/>
     </row>
-    <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="77" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -4570,7 +4813,7 @@
       <c r="AW77" s="2"/>
       <c r="AX77" s="2"/>
     </row>
-    <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="78" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -4622,7 +4865,7 @@
       <c r="AW78" s="2"/>
       <c r="AX78" s="2"/>
     </row>
-    <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="79" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -4674,7 +4917,7 @@
       <c r="AW79" s="2"/>
       <c r="AX79" s="2"/>
     </row>
-    <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="80" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -4726,7 +4969,7 @@
       <c r="AW80" s="2"/>
       <c r="AX80" s="2"/>
     </row>
-    <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="81" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -4778,7 +5021,7 @@
       <c r="AW81" s="2"/>
       <c r="AX81" s="2"/>
     </row>
-    <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="82" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -4830,7 +5073,7 @@
       <c r="AW82" s="2"/>
       <c r="AX82" s="2"/>
     </row>
-    <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="83" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -4882,7 +5125,7 @@
       <c r="AW83" s="2"/>
       <c r="AX83" s="2"/>
     </row>
-    <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="84" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -4934,7 +5177,7 @@
       <c r="AW84" s="2"/>
       <c r="AX84" s="2"/>
     </row>
-    <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="85" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -4986,7 +5229,7 @@
       <c r="AW85" s="2"/>
       <c r="AX85" s="2"/>
     </row>
-    <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="86" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -5038,7 +5281,7 @@
       <c r="AW86" s="2"/>
       <c r="AX86" s="2"/>
     </row>
-    <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="87" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
@@ -5090,7 +5333,7 @@
       <c r="AW87" s="2"/>
       <c r="AX87" s="2"/>
     </row>
-    <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="88" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
@@ -5142,7 +5385,7 @@
       <c r="AW88" s="2"/>
       <c r="AX88" s="2"/>
     </row>
-    <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="89" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
@@ -5194,7 +5437,7 @@
       <c r="AW89" s="2"/>
       <c r="AX89" s="2"/>
     </row>
-    <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="90" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
@@ -5246,7 +5489,7 @@
       <c r="AW90" s="2"/>
       <c r="AX90" s="2"/>
     </row>
-    <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="91" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -5298,7 +5541,7 @@
       <c r="AW91" s="2"/>
       <c r="AX91" s="2"/>
     </row>
-    <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="92" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
@@ -5350,7 +5593,7 @@
       <c r="AW92" s="2"/>
       <c r="AX92" s="2"/>
     </row>
-    <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="93" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
@@ -5402,7 +5645,7 @@
       <c r="AW93" s="2"/>
       <c r="AX93" s="2"/>
     </row>
-    <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="94" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -5454,7 +5697,7 @@
       <c r="AW94" s="2"/>
       <c r="AX94" s="2"/>
     </row>
-    <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="95" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
@@ -5506,7 +5749,7 @@
       <c r="AW95" s="2"/>
       <c r="AX95" s="2"/>
     </row>
-    <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="96" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -5558,7 +5801,7 @@
       <c r="AW96" s="2"/>
       <c r="AX96" s="2"/>
     </row>
-    <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="97" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -5610,7 +5853,7 @@
       <c r="AW97" s="2"/>
       <c r="AX97" s="2"/>
     </row>
-    <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="98" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -5662,7 +5905,7 @@
       <c r="AW98" s="2"/>
       <c r="AX98" s="2"/>
     </row>
-    <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="99" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
@@ -5714,7 +5957,7 @@
       <c r="AW99" s="2"/>
       <c r="AX99" s="2"/>
     </row>
-    <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="100" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -5766,7 +6009,7 @@
       <c r="AW100" s="2"/>
       <c r="AX100" s="2"/>
     </row>
-    <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="101" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
@@ -5818,7 +6061,7 @@
       <c r="AW101" s="2"/>
       <c r="AX101" s="2"/>
     </row>
-    <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="102" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -5870,7 +6113,7 @@
       <c r="AW102" s="2"/>
       <c r="AX102" s="2"/>
     </row>
-    <row r="103" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="103" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
@@ -5922,7 +6165,7 @@
       <c r="AW103" s="2"/>
       <c r="AX103" s="2"/>
     </row>
-    <row r="104" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="104" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -5974,7 +6217,7 @@
       <c r="AW104" s="2"/>
       <c r="AX104" s="2"/>
     </row>
-    <row r="105" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="105" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -6026,7 +6269,7 @@
       <c r="AW105" s="2"/>
       <c r="AX105" s="2"/>
     </row>
-    <row r="106" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="106" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -6078,7 +6321,7 @@
       <c r="AW106" s="2"/>
       <c r="AX106" s="2"/>
     </row>
-    <row r="107" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="107" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -6130,7 +6373,7 @@
       <c r="AW107" s="2"/>
       <c r="AX107" s="2"/>
     </row>
-    <row r="108" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="108" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -6182,7 +6425,7 @@
       <c r="AW108" s="2"/>
       <c r="AX108" s="2"/>
     </row>
-    <row r="109" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="109" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
@@ -6234,7 +6477,7 @@
       <c r="AW109" s="2"/>
       <c r="AX109" s="2"/>
     </row>
-    <row r="110" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="110" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -6286,7 +6529,7 @@
       <c r="AW110" s="2"/>
       <c r="AX110" s="2"/>
     </row>
-    <row r="111" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="111" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
@@ -6338,7 +6581,7 @@
       <c r="AW111" s="2"/>
       <c r="AX111" s="2"/>
     </row>
-    <row r="112" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="112" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
@@ -6390,7 +6633,7 @@
       <c r="AW112" s="2"/>
       <c r="AX112" s="2"/>
     </row>
-    <row r="113" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="113" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -6442,7 +6685,7 @@
       <c r="AW113" s="2"/>
       <c r="AX113" s="2"/>
     </row>
-    <row r="114" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="114" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
@@ -6494,7 +6737,7 @@
       <c r="AW114" s="2"/>
       <c r="AX114" s="2"/>
     </row>
-    <row r="115" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="115" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
@@ -6546,7 +6789,7 @@
       <c r="AW115" s="2"/>
       <c r="AX115" s="2"/>
     </row>
-    <row r="116" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="116" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
@@ -6598,7 +6841,7 @@
       <c r="AW116" s="2"/>
       <c r="AX116" s="2"/>
     </row>
-    <row r="117" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="117" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
@@ -6650,7 +6893,7 @@
       <c r="AW117" s="2"/>
       <c r="AX117" s="2"/>
     </row>
-    <row r="118" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="118" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
@@ -6702,7 +6945,7 @@
       <c r="AW118" s="2"/>
       <c r="AX118" s="2"/>
     </row>
-    <row r="119" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="119" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
@@ -6754,7 +6997,7 @@
       <c r="AW119" s="2"/>
       <c r="AX119" s="2"/>
     </row>
-    <row r="120" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="120" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
@@ -6806,7 +7049,7 @@
       <c r="AW120" s="2"/>
       <c r="AX120" s="2"/>
     </row>
-    <row r="121" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="121" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
@@ -6858,7 +7101,7 @@
       <c r="AW121" s="2"/>
       <c r="AX121" s="2"/>
     </row>
-    <row r="122" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="122" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
@@ -6910,7 +7153,7 @@
       <c r="AW122" s="2"/>
       <c r="AX122" s="2"/>
     </row>
-    <row r="123" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="123" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
@@ -6962,7 +7205,7 @@
       <c r="AW123" s="2"/>
       <c r="AX123" s="2"/>
     </row>
-    <row r="124" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="124" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
@@ -7014,7 +7257,7 @@
       <c r="AW124" s="2"/>
       <c r="AX124" s="2"/>
     </row>
-    <row r="125" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="125" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
@@ -7066,7 +7309,7 @@
       <c r="AW125" s="2"/>
       <c r="AX125" s="2"/>
     </row>
-    <row r="126" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="126" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
@@ -7118,7 +7361,7 @@
       <c r="AW126" s="2"/>
       <c r="AX126" s="2"/>
     </row>
-    <row r="127" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="127" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
@@ -7170,7 +7413,7 @@
       <c r="AW127" s="2"/>
       <c r="AX127" s="2"/>
     </row>
-    <row r="128" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="128" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
@@ -7222,7 +7465,7 @@
       <c r="AW128" s="2"/>
       <c r="AX128" s="2"/>
     </row>
-    <row r="129" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="129" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
@@ -7274,7 +7517,7 @@
       <c r="AW129" s="2"/>
       <c r="AX129" s="2"/>
     </row>
-    <row r="130" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="130" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
@@ -7326,7 +7569,7 @@
       <c r="AW130" s="2"/>
       <c r="AX130" s="2"/>
     </row>
-    <row r="131" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="131" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
@@ -7378,7 +7621,7 @@
       <c r="AW131" s="2"/>
       <c r="AX131" s="2"/>
     </row>
-    <row r="132" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="132" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
@@ -7430,7 +7673,7 @@
       <c r="AW132" s="2"/>
       <c r="AX132" s="2"/>
     </row>
-    <row r="133" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="133" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
@@ -7482,7 +7725,7 @@
       <c r="AW133" s="2"/>
       <c r="AX133" s="2"/>
     </row>
-    <row r="134" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="134" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="2"/>
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
@@ -7534,7 +7777,7 @@
       <c r="AW134" s="2"/>
       <c r="AX134" s="2"/>
     </row>
-    <row r="135" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="135" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="2"/>
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
@@ -7586,7 +7829,7 @@
       <c r="AW135" s="2"/>
       <c r="AX135" s="2"/>
     </row>
-    <row r="136" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="136" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="2"/>
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
@@ -7638,7 +7881,7 @@
       <c r="AW136" s="2"/>
       <c r="AX136" s="2"/>
     </row>
-    <row r="137" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="137" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="2"/>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
@@ -7690,7 +7933,7 @@
       <c r="AW137" s="2"/>
       <c r="AX137" s="2"/>
     </row>
-    <row r="138" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="138" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="2"/>
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
@@ -7742,7 +7985,7 @@
       <c r="AW138" s="2"/>
       <c r="AX138" s="2"/>
     </row>
-    <row r="139" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="139" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="2"/>
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
@@ -7794,7 +8037,7 @@
       <c r="AW139" s="2"/>
       <c r="AX139" s="2"/>
     </row>
-    <row r="140" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="140" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="2"/>
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
@@ -7846,7 +8089,7 @@
       <c r="AW140" s="2"/>
       <c r="AX140" s="2"/>
     </row>
-    <row r="141" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="141" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="2"/>
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
@@ -7898,7 +8141,7 @@
       <c r="AW141" s="2"/>
       <c r="AX141" s="2"/>
     </row>
-    <row r="142" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="142" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="2"/>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
@@ -7950,7 +8193,7 @@
       <c r="AW142" s="2"/>
       <c r="AX142" s="2"/>
     </row>
-    <row r="143" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="143" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="2"/>
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
@@ -8002,7 +8245,7 @@
       <c r="AW143" s="2"/>
       <c r="AX143" s="2"/>
     </row>
-    <row r="144" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="144" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="2"/>
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
@@ -8054,7 +8297,7 @@
       <c r="AW144" s="2"/>
       <c r="AX144" s="2"/>
     </row>
-    <row r="145" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="145" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="2"/>
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
@@ -8106,7 +8349,7 @@
       <c r="AW145" s="2"/>
       <c r="AX145" s="2"/>
     </row>
-    <row r="146" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="146" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="2"/>
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
@@ -8158,7 +8401,7 @@
       <c r="AW146" s="2"/>
       <c r="AX146" s="2"/>
     </row>
-    <row r="147" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="147" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="2"/>
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
@@ -8210,7 +8453,7 @@
       <c r="AW147" s="2"/>
       <c r="AX147" s="2"/>
     </row>
-    <row r="148" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="148" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="2"/>
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
@@ -8262,7 +8505,7 @@
       <c r="AW148" s="2"/>
       <c r="AX148" s="2"/>
     </row>
-    <row r="149" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="149" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="2"/>
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
@@ -8314,7 +8557,7 @@
       <c r="AW149" s="2"/>
       <c r="AX149" s="2"/>
     </row>
-    <row r="150" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="150" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="2"/>
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
@@ -8366,7 +8609,7 @@
       <c r="AW150" s="2"/>
       <c r="AX150" s="2"/>
     </row>
-    <row r="151" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="151" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="2"/>
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
@@ -8418,7 +8661,7 @@
       <c r="AW151" s="2"/>
       <c r="AX151" s="2"/>
     </row>
-    <row r="152" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="152" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="2"/>
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
@@ -8470,7 +8713,7 @@
       <c r="AW152" s="2"/>
       <c r="AX152" s="2"/>
     </row>
-    <row r="153" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="153" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="2"/>
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
@@ -8522,7 +8765,7 @@
       <c r="AW153" s="2"/>
       <c r="AX153" s="2"/>
     </row>
-    <row r="154" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="154" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="2"/>
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
@@ -8574,7 +8817,7 @@
       <c r="AW154" s="2"/>
       <c r="AX154" s="2"/>
     </row>
-    <row r="155" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="155" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="2"/>
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
@@ -8626,7 +8869,7 @@
       <c r="AW155" s="2"/>
       <c r="AX155" s="2"/>
     </row>
-    <row r="156" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="156" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="2"/>
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
@@ -8678,7 +8921,7 @@
       <c r="AW156" s="2"/>
       <c r="AX156" s="2"/>
     </row>
-    <row r="157" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="157" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="2"/>
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
@@ -8730,7 +8973,7 @@
       <c r="AW157" s="2"/>
       <c r="AX157" s="2"/>
     </row>
-    <row r="158" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="158" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="2"/>
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
@@ -8782,7 +9025,7 @@
       <c r="AW158" s="2"/>
       <c r="AX158" s="2"/>
     </row>
-    <row r="159" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="159" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="2"/>
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
@@ -8834,7 +9077,7 @@
       <c r="AW159" s="2"/>
       <c r="AX159" s="2"/>
     </row>
-    <row r="160" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="160" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="2"/>
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
@@ -8886,7 +9129,7 @@
       <c r="AW160" s="2"/>
       <c r="AX160" s="2"/>
     </row>
-    <row r="161" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="161" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="2"/>
       <c r="B161" s="2"/>
       <c r="C161" s="2"/>
@@ -8938,7 +9181,7 @@
       <c r="AW161" s="2"/>
       <c r="AX161" s="2"/>
     </row>
-    <row r="162" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="162" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="2"/>
       <c r="B162" s="2"/>
       <c r="C162" s="2"/>
@@ -8990,7 +9233,7 @@
       <c r="AW162" s="2"/>
       <c r="AX162" s="2"/>
     </row>
-    <row r="163" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="163" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="2"/>
       <c r="B163" s="2"/>
       <c r="C163" s="2"/>
@@ -9042,7 +9285,7 @@
       <c r="AW163" s="2"/>
       <c r="AX163" s="2"/>
     </row>
-    <row r="164" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="164" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" s="2"/>
       <c r="B164" s="2"/>
       <c r="C164" s="2"/>
@@ -9094,7 +9337,7 @@
       <c r="AW164" s="2"/>
       <c r="AX164" s="2"/>
     </row>
-    <row r="165" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="165" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="2"/>
       <c r="B165" s="2"/>
       <c r="C165" s="2"/>
@@ -9146,7 +9389,7 @@
       <c r="AW165" s="2"/>
       <c r="AX165" s="2"/>
     </row>
-    <row r="166" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="166" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="2"/>
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
@@ -9198,7 +9441,7 @@
       <c r="AW166" s="2"/>
       <c r="AX166" s="2"/>
     </row>
-    <row r="167" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="167" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="2"/>
       <c r="B167" s="2"/>
       <c r="C167" s="2"/>
@@ -9250,7 +9493,7 @@
       <c r="AW167" s="2"/>
       <c r="AX167" s="2"/>
     </row>
-    <row r="168" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="168" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="2"/>
       <c r="B168" s="2"/>
       <c r="C168" s="2"/>
@@ -9302,7 +9545,7 @@
       <c r="AW168" s="2"/>
       <c r="AX168" s="2"/>
     </row>
-    <row r="169" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="169" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="2"/>
       <c r="B169" s="2"/>
       <c r="C169" s="2"/>
@@ -9354,7 +9597,7 @@
       <c r="AW169" s="2"/>
       <c r="AX169" s="2"/>
     </row>
-    <row r="170" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="170" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" s="2"/>
       <c r="B170" s="2"/>
       <c r="C170" s="2"/>
@@ -9406,7 +9649,7 @@
       <c r="AW170" s="2"/>
       <c r="AX170" s="2"/>
     </row>
-    <row r="171" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="171" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="2"/>
       <c r="B171" s="2"/>
       <c r="C171" s="2"/>
@@ -9458,7 +9701,7 @@
       <c r="AW171" s="2"/>
       <c r="AX171" s="2"/>
     </row>
-    <row r="172" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="172" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="2"/>
       <c r="B172" s="2"/>
       <c r="C172" s="2"/>
@@ -9510,7 +9753,7 @@
       <c r="AW172" s="2"/>
       <c r="AX172" s="2"/>
     </row>
-    <row r="173" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="173" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="2"/>
       <c r="B173" s="2"/>
       <c r="C173" s="2"/>
@@ -9562,7 +9805,7 @@
       <c r="AW173" s="2"/>
       <c r="AX173" s="2"/>
     </row>
-    <row r="174" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="174" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" s="2"/>
       <c r="B174" s="2"/>
       <c r="C174" s="2"/>
@@ -9614,7 +9857,7 @@
       <c r="AW174" s="2"/>
       <c r="AX174" s="2"/>
     </row>
-    <row r="175" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="175" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" s="2"/>
       <c r="B175" s="2"/>
       <c r="C175" s="2"/>
@@ -9666,7 +9909,7 @@
       <c r="AW175" s="2"/>
       <c r="AX175" s="2"/>
     </row>
-    <row r="176" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="176" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" s="2"/>
       <c r="B176" s="2"/>
       <c r="C176" s="2"/>
@@ -9718,7 +9961,7 @@
       <c r="AW176" s="2"/>
       <c r="AX176" s="2"/>
     </row>
-    <row r="177" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="177" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" s="2"/>
       <c r="B177" s="2"/>
       <c r="C177" s="2"/>
@@ -9770,7 +10013,7 @@
       <c r="AW177" s="2"/>
       <c r="AX177" s="2"/>
     </row>
-    <row r="178" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="178" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178" s="2"/>
       <c r="B178" s="2"/>
       <c r="C178" s="2"/>
@@ -9822,7 +10065,7 @@
       <c r="AW178" s="2"/>
       <c r="AX178" s="2"/>
     </row>
-    <row r="179" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="179" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179" s="2"/>
       <c r="B179" s="2"/>
       <c r="C179" s="2"/>
@@ -9874,7 +10117,7 @@
       <c r="AW179" s="2"/>
       <c r="AX179" s="2"/>
     </row>
-    <row r="180" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="180" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180" s="2"/>
       <c r="B180" s="2"/>
       <c r="C180" s="2"/>
@@ -9926,7 +10169,7 @@
       <c r="AW180" s="2"/>
       <c r="AX180" s="2"/>
     </row>
-    <row r="181" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="181" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A181" s="2"/>
       <c r="B181" s="2"/>
       <c r="C181" s="2"/>
@@ -9978,7 +10221,7 @@
       <c r="AW181" s="2"/>
       <c r="AX181" s="2"/>
     </row>
-    <row r="182" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="182" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A182" s="2"/>
       <c r="B182" s="2"/>
       <c r="C182" s="2"/>
@@ -10030,7 +10273,7 @@
       <c r="AW182" s="2"/>
       <c r="AX182" s="2"/>
     </row>
-    <row r="183" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="183" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A183" s="2"/>
       <c r="B183" s="2"/>
       <c r="C183" s="2"/>
@@ -10082,7 +10325,7 @@
       <c r="AW183" s="2"/>
       <c r="AX183" s="2"/>
     </row>
-    <row r="184" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="184" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A184" s="2"/>
       <c r="B184" s="2"/>
       <c r="C184" s="2"/>
@@ -10134,7 +10377,7 @@
       <c r="AW184" s="2"/>
       <c r="AX184" s="2"/>
     </row>
-    <row r="185" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="185" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A185" s="2"/>
       <c r="B185" s="2"/>
       <c r="C185" s="2"/>
@@ -10186,7 +10429,7 @@
       <c r="AW185" s="2"/>
       <c r="AX185" s="2"/>
     </row>
-    <row r="186" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="186" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186" s="2"/>
       <c r="B186" s="2"/>
       <c r="C186" s="2"/>
@@ -10238,7 +10481,7 @@
       <c r="AW186" s="2"/>
       <c r="AX186" s="2"/>
     </row>
-    <row r="187" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="187" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A187" s="2"/>
       <c r="B187" s="2"/>
       <c r="C187" s="2"/>
@@ -10290,7 +10533,7 @@
       <c r="AW187" s="2"/>
       <c r="AX187" s="2"/>
     </row>
-    <row r="188" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="188" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A188" s="2"/>
       <c r="B188" s="2"/>
       <c r="C188" s="2"/>
@@ -10342,7 +10585,7 @@
       <c r="AW188" s="2"/>
       <c r="AX188" s="2"/>
     </row>
-    <row r="189" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="189" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A189" s="2"/>
       <c r="B189" s="2"/>
       <c r="C189" s="2"/>
@@ -10394,7 +10637,7 @@
       <c r="AW189" s="2"/>
       <c r="AX189" s="2"/>
     </row>
-    <row r="190" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="190" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A190" s="2"/>
       <c r="B190" s="2"/>
       <c r="C190" s="2"/>
@@ -10446,7 +10689,7 @@
       <c r="AW190" s="2"/>
       <c r="AX190" s="2"/>
     </row>
-    <row r="191" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="191" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A191" s="2"/>
       <c r="B191" s="2"/>
       <c r="C191" s="2"/>
@@ -10498,7 +10741,7 @@
       <c r="AW191" s="2"/>
       <c r="AX191" s="2"/>
     </row>
-    <row r="192" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="192" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A192" s="2"/>
       <c r="B192" s="2"/>
       <c r="C192" s="2"/>
@@ -10550,7 +10793,7 @@
       <c r="AW192" s="2"/>
       <c r="AX192" s="2"/>
     </row>
-    <row r="193" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="193" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A193" s="2"/>
       <c r="B193" s="2"/>
       <c r="C193" s="2"/>
@@ -10602,7 +10845,7 @@
       <c r="AW193" s="2"/>
       <c r="AX193" s="2"/>
     </row>
-    <row r="194" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="194" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A194" s="2"/>
       <c r="B194" s="2"/>
       <c r="C194" s="2"/>
@@ -10654,7 +10897,7 @@
       <c r="AW194" s="2"/>
       <c r="AX194" s="2"/>
     </row>
-    <row r="195" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="195" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A195" s="2"/>
       <c r="B195" s="2"/>
       <c r="C195" s="2"/>
@@ -10706,7 +10949,7 @@
       <c r="AW195" s="2"/>
       <c r="AX195" s="2"/>
     </row>
-    <row r="196" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="196" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A196" s="2"/>
       <c r="B196" s="2"/>
       <c r="C196" s="2"/>
@@ -10758,7 +11001,7 @@
       <c r="AW196" s="2"/>
       <c r="AX196" s="2"/>
     </row>
-    <row r="197" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="197" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A197" s="2"/>
       <c r="B197" s="2"/>
       <c r="C197" s="2"/>
@@ -10810,7 +11053,7 @@
       <c r="AW197" s="2"/>
       <c r="AX197" s="2"/>
     </row>
-    <row r="198" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="198" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A198" s="2"/>
       <c r="B198" s="2"/>
       <c r="C198" s="2"/>
@@ -10862,7 +11105,7 @@
       <c r="AW198" s="2"/>
       <c r="AX198" s="2"/>
     </row>
-    <row r="199" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="199" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A199" s="2"/>
       <c r="B199" s="2"/>
       <c r="C199" s="2"/>
@@ -10914,7 +11157,7 @@
       <c r="AW199" s="2"/>
       <c r="AX199" s="2"/>
     </row>
-    <row r="200" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="200" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A200" s="2"/>
       <c r="B200" s="2"/>
       <c r="C200" s="2"/>
@@ -10966,7 +11209,7 @@
       <c r="AW200" s="2"/>
       <c r="AX200" s="2"/>
     </row>
-    <row r="201" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="201" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A201" s="2"/>
       <c r="B201" s="2"/>
       <c r="C201" s="2"/>
@@ -11018,7 +11261,7 @@
       <c r="AW201" s="2"/>
       <c r="AX201" s="2"/>
     </row>
-    <row r="202" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="202" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A202" s="2"/>
       <c r="B202" s="2"/>
       <c r="C202" s="2"/>
@@ -11070,7 +11313,7 @@
       <c r="AW202" s="2"/>
       <c r="AX202" s="2"/>
     </row>
-    <row r="203" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="203" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A203" s="2"/>
       <c r="B203" s="2"/>
       <c r="C203" s="2"/>
@@ -11122,7 +11365,7 @@
       <c r="AW203" s="2"/>
       <c r="AX203" s="2"/>
     </row>
-    <row r="204" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="204" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A204" s="2"/>
       <c r="B204" s="2"/>
       <c r="C204" s="2"/>
@@ -11174,7 +11417,7 @@
       <c r="AW204" s="2"/>
       <c r="AX204" s="2"/>
     </row>
-    <row r="205" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="205" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A205" s="2"/>
       <c r="B205" s="2"/>
       <c r="C205" s="2"/>
@@ -11226,7 +11469,7 @@
       <c r="AW205" s="2"/>
       <c r="AX205" s="2"/>
     </row>
-    <row r="206" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="206" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A206" s="2"/>
       <c r="B206" s="2"/>
       <c r="C206" s="2"/>
@@ -11278,7 +11521,7 @@
       <c r="AW206" s="2"/>
       <c r="AX206" s="2"/>
     </row>
-    <row r="207" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="207" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A207" s="2"/>
       <c r="B207" s="2"/>
       <c r="C207" s="2"/>
@@ -11330,7 +11573,7 @@
       <c r="AW207" s="2"/>
       <c r="AX207" s="2"/>
     </row>
-    <row r="208" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="208" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A208" s="2"/>
       <c r="B208" s="2"/>
       <c r="C208" s="2"/>
@@ -11382,7 +11625,7 @@
       <c r="AW208" s="2"/>
       <c r="AX208" s="2"/>
     </row>
-    <row r="209" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="209" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A209" s="2"/>
       <c r="B209" s="2"/>
       <c r="C209" s="2"/>
@@ -11434,7 +11677,7 @@
       <c r="AW209" s="2"/>
       <c r="AX209" s="2"/>
     </row>
-    <row r="210" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="210" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A210" s="2"/>
       <c r="B210" s="2"/>
       <c r="C210" s="2"/>
@@ -11486,7 +11729,7 @@
       <c r="AW210" s="2"/>
       <c r="AX210" s="2"/>
     </row>
-    <row r="211" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="211" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A211" s="2"/>
       <c r="B211" s="2"/>
       <c r="C211" s="2"/>
@@ -11538,7 +11781,7 @@
       <c r="AW211" s="2"/>
       <c r="AX211" s="2"/>
     </row>
-    <row r="212" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="212" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A212" s="2"/>
       <c r="B212" s="2"/>
       <c r="C212" s="2"/>
@@ -11590,7 +11833,7 @@
       <c r="AW212" s="2"/>
       <c r="AX212" s="2"/>
     </row>
-    <row r="213" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="213" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A213" s="2"/>
       <c r="B213" s="2"/>
       <c r="C213" s="2"/>
@@ -11642,7 +11885,7 @@
       <c r="AW213" s="2"/>
       <c r="AX213" s="2"/>
     </row>
-    <row r="214" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="214" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A214" s="2"/>
       <c r="B214" s="2"/>
       <c r="C214" s="2"/>
@@ -11694,7 +11937,7 @@
       <c r="AW214" s="2"/>
       <c r="AX214" s="2"/>
     </row>
-    <row r="215" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="215" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A215" s="2"/>
       <c r="B215" s="2"/>
       <c r="C215" s="2"/>
@@ -11746,7 +11989,7 @@
       <c r="AW215" s="2"/>
       <c r="AX215" s="2"/>
     </row>
-    <row r="216" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="216" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A216" s="2"/>
       <c r="B216" s="2"/>
       <c r="C216" s="2"/>
@@ -11798,7 +12041,7 @@
       <c r="AW216" s="2"/>
       <c r="AX216" s="2"/>
     </row>
-    <row r="217" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="217" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A217" s="2"/>
       <c r="B217" s="2"/>
       <c r="C217" s="2"/>
@@ -11850,7 +12093,7 @@
       <c r="AW217" s="2"/>
       <c r="AX217" s="2"/>
     </row>
-    <row r="218" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="218" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A218" s="2"/>
       <c r="B218" s="2"/>
       <c r="C218" s="2"/>
@@ -11902,7 +12145,7 @@
       <c r="AW218" s="2"/>
       <c r="AX218" s="2"/>
     </row>
-    <row r="219" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="219" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A219" s="2"/>
       <c r="B219" s="2"/>
       <c r="C219" s="2"/>
@@ -11954,7 +12197,7 @@
       <c r="AW219" s="2"/>
       <c r="AX219" s="2"/>
     </row>
-    <row r="220" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="220" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A220" s="2"/>
       <c r="B220" s="2"/>
       <c r="C220" s="2"/>
@@ -12006,7 +12249,7 @@
       <c r="AW220" s="2"/>
       <c r="AX220" s="2"/>
     </row>
-    <row r="221" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="221" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A221" s="2"/>
       <c r="B221" s="2"/>
       <c r="C221" s="2"/>
@@ -12058,7 +12301,7 @@
       <c r="AW221" s="2"/>
       <c r="AX221" s="2"/>
     </row>
-    <row r="222" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="222" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A222" s="2"/>
       <c r="B222" s="2"/>
       <c r="C222" s="2"/>
@@ -12110,7 +12353,7 @@
       <c r="AW222" s="2"/>
       <c r="AX222" s="2"/>
     </row>
-    <row r="223" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="223" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A223" s="2"/>
       <c r="B223" s="2"/>
       <c r="C223" s="2"/>
@@ -12162,7 +12405,7 @@
       <c r="AW223" s="2"/>
       <c r="AX223" s="2"/>
     </row>
-    <row r="224" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="224" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A224" s="2"/>
       <c r="B224" s="2"/>
       <c r="C224" s="2"/>
@@ -12214,7 +12457,7 @@
       <c r="AW224" s="2"/>
       <c r="AX224" s="2"/>
     </row>
-    <row r="225" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="225" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A225" s="2"/>
       <c r="B225" s="2"/>
       <c r="C225" s="2"/>
@@ -12266,7 +12509,7 @@
       <c r="AW225" s="2"/>
       <c r="AX225" s="2"/>
     </row>
-    <row r="226" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="226" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A226" s="2"/>
       <c r="B226" s="2"/>
       <c r="C226" s="2"/>
@@ -12318,7 +12561,7 @@
       <c r="AW226" s="2"/>
       <c r="AX226" s="2"/>
     </row>
-    <row r="227" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="227" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A227" s="2"/>
       <c r="B227" s="2"/>
       <c r="C227" s="2"/>
@@ -12370,7 +12613,7 @@
       <c r="AW227" s="2"/>
       <c r="AX227" s="2"/>
     </row>
-    <row r="228" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="228" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A228" s="2"/>
       <c r="B228" s="2"/>
       <c r="C228" s="2"/>
@@ -12422,7 +12665,7 @@
       <c r="AW228" s="2"/>
       <c r="AX228" s="2"/>
     </row>
-    <row r="229" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="229" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A229" s="2"/>
       <c r="B229" s="2"/>
       <c r="C229" s="2"/>
@@ -12474,7 +12717,7 @@
       <c r="AW229" s="2"/>
       <c r="AX229" s="2"/>
     </row>
-    <row r="230" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="230" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A230" s="2"/>
       <c r="B230" s="2"/>
       <c r="C230" s="2"/>
@@ -12526,7 +12769,7 @@
       <c r="AW230" s="2"/>
       <c r="AX230" s="2"/>
     </row>
-    <row r="231" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="231" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A231" s="2"/>
       <c r="B231" s="2"/>
       <c r="C231" s="2"/>
@@ -12578,7 +12821,7 @@
       <c r="AW231" s="2"/>
       <c r="AX231" s="2"/>
     </row>
-    <row r="232" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="232" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A232" s="2"/>
       <c r="B232" s="2"/>
       <c r="C232" s="2"/>
@@ -12630,7 +12873,7 @@
       <c r="AW232" s="2"/>
       <c r="AX232" s="2"/>
     </row>
-    <row r="233" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="233" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A233" s="2"/>
       <c r="B233" s="2"/>
       <c r="C233" s="2"/>
@@ -12682,7 +12925,7 @@
       <c r="AW233" s="2"/>
       <c r="AX233" s="2"/>
     </row>
-    <row r="234" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="234" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A234" s="2"/>
       <c r="B234" s="2"/>
       <c r="C234" s="2"/>
@@ -12734,7 +12977,7 @@
       <c r="AW234" s="2"/>
       <c r="AX234" s="2"/>
     </row>
-    <row r="235" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="235" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A235" s="2"/>
       <c r="B235" s="2"/>
       <c r="C235" s="2"/>
@@ -12786,7 +13029,7 @@
       <c r="AW235" s="2"/>
       <c r="AX235" s="2"/>
     </row>
-    <row r="236" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="236" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A236" s="2"/>
       <c r="B236" s="2"/>
       <c r="C236" s="2"/>
@@ -12838,7 +13081,7 @@
       <c r="AW236" s="2"/>
       <c r="AX236" s="2"/>
     </row>
-    <row r="237" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="237" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A237" s="2"/>
       <c r="B237" s="2"/>
       <c r="C237" s="2"/>
@@ -12890,7 +13133,7 @@
       <c r="AW237" s="2"/>
       <c r="AX237" s="2"/>
     </row>
-    <row r="238" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="238" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A238" s="2"/>
       <c r="B238" s="2"/>
       <c r="C238" s="2"/>
@@ -12942,7 +13185,7 @@
       <c r="AW238" s="2"/>
       <c r="AX238" s="2"/>
     </row>
-    <row r="239" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="239" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A239" s="2"/>
       <c r="B239" s="2"/>
       <c r="C239" s="2"/>
@@ -12994,7 +13237,7 @@
       <c r="AW239" s="2"/>
       <c r="AX239" s="2"/>
     </row>
-    <row r="240" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="240" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A240" s="2"/>
       <c r="B240" s="2"/>
       <c r="C240" s="2"/>
@@ -13046,7 +13289,7 @@
       <c r="AW240" s="2"/>
       <c r="AX240" s="2"/>
     </row>
-    <row r="241" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="241" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A241" s="2"/>
       <c r="B241" s="2"/>
       <c r="C241" s="2"/>
@@ -13098,7 +13341,7 @@
       <c r="AW241" s="2"/>
       <c r="AX241" s="2"/>
     </row>
-    <row r="242" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="242" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A242" s="2"/>
       <c r="B242" s="2"/>
       <c r="C242" s="2"/>
@@ -13150,7 +13393,7 @@
       <c r="AW242" s="2"/>
       <c r="AX242" s="2"/>
     </row>
-    <row r="243" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="243" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A243" s="2"/>
       <c r="B243" s="2"/>
       <c r="C243" s="2"/>
@@ -13202,7 +13445,7 @@
       <c r="AW243" s="2"/>
       <c r="AX243" s="2"/>
     </row>
-    <row r="244" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="244" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A244" s="2"/>
       <c r="B244" s="2"/>
       <c r="C244" s="2"/>
@@ -13254,7 +13497,7 @@
       <c r="AW244" s="2"/>
       <c r="AX244" s="2"/>
     </row>
-    <row r="245" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="245" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A245" s="2"/>
       <c r="B245" s="2"/>
       <c r="C245" s="2"/>
@@ -13306,7 +13549,7 @@
       <c r="AW245" s="2"/>
       <c r="AX245" s="2"/>
     </row>
-    <row r="246" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="246" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A246" s="2"/>
       <c r="B246" s="2"/>
       <c r="C246" s="2"/>
@@ -13358,7 +13601,7 @@
       <c r="AW246" s="2"/>
       <c r="AX246" s="2"/>
     </row>
-    <row r="247" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="247" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A247" s="2"/>
       <c r="B247" s="2"/>
       <c r="C247" s="2"/>
@@ -13410,7 +13653,7 @@
       <c r="AW247" s="2"/>
       <c r="AX247" s="2"/>
     </row>
-    <row r="248" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="248" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A248" s="2"/>
       <c r="B248" s="2"/>
       <c r="C248" s="2"/>
@@ -13462,7 +13705,7 @@
       <c r="AW248" s="2"/>
       <c r="AX248" s="2"/>
     </row>
-    <row r="249" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="249" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A249" s="2"/>
       <c r="B249" s="2"/>
       <c r="C249" s="2"/>
@@ -13514,7 +13757,7 @@
       <c r="AW249" s="2"/>
       <c r="AX249" s="2"/>
     </row>
-    <row r="250" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="250" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A250" s="2"/>
       <c r="B250" s="2"/>
       <c r="C250" s="2"/>
@@ -13566,7 +13809,7 @@
       <c r="AW250" s="2"/>
       <c r="AX250" s="2"/>
     </row>
-    <row r="251" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="251" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A251" s="2"/>
       <c r="B251" s="2"/>
       <c r="C251" s="2"/>
@@ -13618,7 +13861,7 @@
       <c r="AW251" s="2"/>
       <c r="AX251" s="2"/>
     </row>
-    <row r="252" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="252" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A252" s="2"/>
       <c r="B252" s="2"/>
       <c r="C252" s="2"/>
@@ -13670,7 +13913,7 @@
       <c r="AW252" s="2"/>
       <c r="AX252" s="2"/>
     </row>
-    <row r="253" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="253" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A253" s="2"/>
       <c r="B253" s="2"/>
       <c r="C253" s="2"/>
@@ -13722,7 +13965,7 @@
       <c r="AW253" s="2"/>
       <c r="AX253" s="2"/>
     </row>
-    <row r="254" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="254" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A254" s="2"/>
       <c r="B254" s="2"/>
       <c r="C254" s="2"/>
@@ -13774,7 +14017,7 @@
       <c r="AW254" s="2"/>
       <c r="AX254" s="2"/>
     </row>
-    <row r="255" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="255" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A255" s="2"/>
       <c r="B255" s="2"/>
       <c r="C255" s="2"/>
@@ -13826,7 +14069,7 @@
       <c r="AW255" s="2"/>
       <c r="AX255" s="2"/>
     </row>
-    <row r="256" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="256" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A256" s="2"/>
       <c r="B256" s="2"/>
       <c r="C256" s="2"/>
@@ -13878,7 +14121,7 @@
       <c r="AW256" s="2"/>
       <c r="AX256" s="2"/>
     </row>
-    <row r="257" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="257" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A257" s="2"/>
       <c r="B257" s="2"/>
       <c r="C257" s="2"/>
@@ -13930,7 +14173,7 @@
       <c r="AW257" s="2"/>
       <c r="AX257" s="2"/>
     </row>
-    <row r="258" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="258" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A258" s="2"/>
       <c r="B258" s="2"/>
       <c r="C258" s="2"/>
@@ -13982,7 +14225,7 @@
       <c r="AW258" s="2"/>
       <c r="AX258" s="2"/>
     </row>
-    <row r="259" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="259" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A259" s="2"/>
       <c r="B259" s="2"/>
       <c r="C259" s="2"/>
@@ -14034,7 +14277,7 @@
       <c r="AW259" s="2"/>
       <c r="AX259" s="2"/>
     </row>
-    <row r="260" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="260" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A260" s="2"/>
       <c r="B260" s="2"/>
       <c r="C260" s="2"/>
@@ -14086,7 +14329,7 @@
       <c r="AW260" s="2"/>
       <c r="AX260" s="2"/>
     </row>
-    <row r="261" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="261" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A261" s="2"/>
       <c r="B261" s="2"/>
       <c r="C261" s="2"/>
@@ -14138,7 +14381,7 @@
       <c r="AW261" s="2"/>
       <c r="AX261" s="2"/>
     </row>
-    <row r="262" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="262" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A262" s="2"/>
       <c r="B262" s="2"/>
       <c r="C262" s="2"/>
@@ -14190,7 +14433,7 @@
       <c r="AW262" s="2"/>
       <c r="AX262" s="2"/>
     </row>
-    <row r="263" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="263" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A263" s="2"/>
       <c r="B263" s="2"/>
       <c r="C263" s="2"/>
@@ -14242,7 +14485,7 @@
       <c r="AW263" s="2"/>
       <c r="AX263" s="2"/>
     </row>
-    <row r="264" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="264" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A264" s="2"/>
       <c r="B264" s="2"/>
       <c r="C264" s="2"/>
@@ -14294,7 +14537,7 @@
       <c r="AW264" s="2"/>
       <c r="AX264" s="2"/>
     </row>
-    <row r="265" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="265" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A265" s="2"/>
       <c r="B265" s="2"/>
       <c r="C265" s="2"/>
@@ -14346,7 +14589,7 @@
       <c r="AW265" s="2"/>
       <c r="AX265" s="2"/>
     </row>
-    <row r="266" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="266" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A266" s="2"/>
       <c r="B266" s="2"/>
       <c r="C266" s="2"/>
@@ -14398,7 +14641,7 @@
       <c r="AW266" s="2"/>
       <c r="AX266" s="2"/>
     </row>
-    <row r="267" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="267" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A267" s="2"/>
       <c r="B267" s="2"/>
       <c r="C267" s="2"/>
@@ -14450,7 +14693,7 @@
       <c r="AW267" s="2"/>
       <c r="AX267" s="2"/>
     </row>
-    <row r="268" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="268" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A268" s="2"/>
       <c r="B268" s="2"/>
       <c r="C268" s="2"/>
@@ -14502,7 +14745,7 @@
       <c r="AW268" s="2"/>
       <c r="AX268" s="2"/>
     </row>
-    <row r="269" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="269" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A269" s="2"/>
       <c r="B269" s="2"/>
       <c r="C269" s="2"/>
@@ -14554,7 +14797,7 @@
       <c r="AW269" s="2"/>
       <c r="AX269" s="2"/>
     </row>
-    <row r="270" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="270" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A270" s="2"/>
       <c r="B270" s="2"/>
       <c r="C270" s="2"/>
@@ -14606,7 +14849,7 @@
       <c r="AW270" s="2"/>
       <c r="AX270" s="2"/>
     </row>
-    <row r="271" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="271" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A271" s="2"/>
       <c r="B271" s="2"/>
       <c r="C271" s="2"/>
@@ -14658,7 +14901,7 @@
       <c r="AW271" s="2"/>
       <c r="AX271" s="2"/>
     </row>
-    <row r="272" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="272" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A272" s="2"/>
       <c r="B272" s="2"/>
       <c r="C272" s="2"/>
@@ -14710,7 +14953,7 @@
       <c r="AW272" s="2"/>
       <c r="AX272" s="2"/>
     </row>
-    <row r="273" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="273" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A273" s="2"/>
       <c r="B273" s="2"/>
       <c r="C273" s="2"/>
@@ -14762,7 +15005,7 @@
       <c r="AW273" s="2"/>
       <c r="AX273" s="2"/>
     </row>
-    <row r="274" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="274" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A274" s="2"/>
       <c r="B274" s="2"/>
       <c r="C274" s="2"/>
@@ -14814,7 +15057,7 @@
       <c r="AW274" s="2"/>
       <c r="AX274" s="2"/>
     </row>
-    <row r="275" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="275" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A275" s="2"/>
       <c r="B275" s="2"/>
       <c r="C275" s="2"/>
@@ -14866,7 +15109,7 @@
       <c r="AW275" s="2"/>
       <c r="AX275" s="2"/>
     </row>
-    <row r="276" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="276" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A276" s="2"/>
       <c r="B276" s="2"/>
       <c r="C276" s="2"/>
@@ -14918,7 +15161,7 @@
       <c r="AW276" s="2"/>
       <c r="AX276" s="2"/>
     </row>
-    <row r="277" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="277" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A277" s="2"/>
       <c r="B277" s="2"/>
       <c r="C277" s="2"/>
@@ -14970,7 +15213,7 @@
       <c r="AW277" s="2"/>
       <c r="AX277" s="2"/>
     </row>
-    <row r="278" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="278" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A278" s="2"/>
       <c r="B278" s="2"/>
       <c r="C278" s="2"/>
@@ -15022,7 +15265,7 @@
       <c r="AW278" s="2"/>
       <c r="AX278" s="2"/>
     </row>
-    <row r="279" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="279" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A279" s="2"/>
       <c r="B279" s="2"/>
       <c r="C279" s="2"/>
@@ -15074,7 +15317,7 @@
       <c r="AW279" s="2"/>
       <c r="AX279" s="2"/>
     </row>
-    <row r="280" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="280" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A280" s="2"/>
       <c r="B280" s="2"/>
       <c r="C280" s="2"/>
@@ -15126,7 +15369,7 @@
       <c r="AW280" s="2"/>
       <c r="AX280" s="2"/>
     </row>
-    <row r="281" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="281" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A281" s="2"/>
       <c r="B281" s="2"/>
       <c r="C281" s="2"/>
@@ -15178,7 +15421,7 @@
       <c r="AW281" s="2"/>
       <c r="AX281" s="2"/>
     </row>
-    <row r="282" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="282" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A282" s="2"/>
       <c r="B282" s="2"/>
       <c r="C282" s="2"/>
@@ -15230,7 +15473,7 @@
       <c r="AW282" s="2"/>
       <c r="AX282" s="2"/>
     </row>
-    <row r="283" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="283" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A283" s="2"/>
       <c r="B283" s="2"/>
       <c r="C283" s="2"/>
@@ -15282,7 +15525,7 @@
       <c r="AW283" s="2"/>
       <c r="AX283" s="2"/>
     </row>
-    <row r="284" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="284" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A284" s="2"/>
       <c r="B284" s="2"/>
       <c r="C284" s="2"/>
@@ -15334,7 +15577,7 @@
       <c r="AW284" s="2"/>
       <c r="AX284" s="2"/>
     </row>
-    <row r="285" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="285" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A285" s="2"/>
       <c r="B285" s="2"/>
       <c r="C285" s="2"/>
@@ -15386,7 +15629,7 @@
       <c r="AW285" s="2"/>
       <c r="AX285" s="2"/>
     </row>
-    <row r="286" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="286" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A286" s="2"/>
       <c r="B286" s="2"/>
       <c r="C286" s="2"/>
@@ -15438,7 +15681,7 @@
       <c r="AW286" s="2"/>
       <c r="AX286" s="2"/>
     </row>
-    <row r="287" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="287" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A287" s="2"/>
       <c r="B287" s="2"/>
       <c r="C287" s="2"/>
@@ -15490,7 +15733,7 @@
       <c r="AW287" s="2"/>
       <c r="AX287" s="2"/>
     </row>
-    <row r="288" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="288" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A288" s="2"/>
       <c r="B288" s="2"/>
       <c r="C288" s="2"/>
@@ -15542,7 +15785,7 @@
       <c r="AW288" s="2"/>
       <c r="AX288" s="2"/>
     </row>
-    <row r="289" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="289" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A289" s="2"/>
       <c r="B289" s="2"/>
       <c r="C289" s="2"/>
@@ -15594,7 +15837,7 @@
       <c r="AW289" s="2"/>
       <c r="AX289" s="2"/>
     </row>
-    <row r="290" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="290" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A290" s="2"/>
       <c r="B290" s="2"/>
       <c r="C290" s="2"/>
@@ -15646,7 +15889,7 @@
       <c r="AW290" s="2"/>
       <c r="AX290" s="2"/>
     </row>
-    <row r="291" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="291" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A291" s="2"/>
       <c r="B291" s="2"/>
       <c r="C291" s="2"/>
@@ -15698,7 +15941,7 @@
       <c r="AW291" s="2"/>
       <c r="AX291" s="2"/>
     </row>
-    <row r="292" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="292" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A292" s="2"/>
       <c r="B292" s="2"/>
       <c r="C292" s="2"/>
@@ -15750,7 +15993,7 @@
       <c r="AW292" s="2"/>
       <c r="AX292" s="2"/>
     </row>
-    <row r="293" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="293" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A293" s="2"/>
       <c r="B293" s="2"/>
       <c r="C293" s="2"/>
@@ -15802,7 +16045,7 @@
       <c r="AW293" s="2"/>
       <c r="AX293" s="2"/>
     </row>
-    <row r="294" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="294" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A294" s="2"/>
       <c r="B294" s="2"/>
       <c r="C294" s="2"/>
@@ -15854,7 +16097,7 @@
       <c r="AW294" s="2"/>
       <c r="AX294" s="2"/>
     </row>
-    <row r="295" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="295" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A295" s="2"/>
       <c r="B295" s="2"/>
       <c r="C295" s="2"/>
@@ -15906,7 +16149,7 @@
       <c r="AW295" s="2"/>
       <c r="AX295" s="2"/>
     </row>
-    <row r="296" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="296" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A296" s="2"/>
       <c r="B296" s="2"/>
       <c r="C296" s="2"/>
@@ -15958,7 +16201,7 @@
       <c r="AW296" s="2"/>
       <c r="AX296" s="2"/>
     </row>
-    <row r="297" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="297" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A297" s="2"/>
       <c r="B297" s="2"/>
       <c r="C297" s="2"/>
@@ -16010,7 +16253,7 @@
       <c r="AW297" s="2"/>
       <c r="AX297" s="2"/>
     </row>
-    <row r="298" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="298" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A298" s="2"/>
       <c r="B298" s="2"/>
       <c r="C298" s="2"/>
@@ -16062,7 +16305,7 @@
       <c r="AW298" s="2"/>
       <c r="AX298" s="2"/>
     </row>
-    <row r="299" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="299" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A299" s="2"/>
       <c r="B299" s="2"/>
       <c r="C299" s="2"/>
@@ -16114,7 +16357,7 @@
       <c r="AW299" s="2"/>
       <c r="AX299" s="2"/>
     </row>
-    <row r="300" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="300" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A300" s="2"/>
       <c r="B300" s="2"/>
       <c r="C300" s="2"/>
@@ -16166,7 +16409,7 @@
       <c r="AW300" s="2"/>
       <c r="AX300" s="2"/>
     </row>
-    <row r="301" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="301" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A301" s="2"/>
       <c r="B301" s="2"/>
       <c r="C301" s="2"/>
@@ -16218,7 +16461,7 @@
       <c r="AW301" s="2"/>
       <c r="AX301" s="2"/>
     </row>
-    <row r="302" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="302" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A302" s="2"/>
       <c r="B302" s="2"/>
       <c r="C302" s="2"/>
@@ -16270,7 +16513,7 @@
       <c r="AW302" s="2"/>
       <c r="AX302" s="2"/>
     </row>
-    <row r="303" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="303" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A303" s="2"/>
       <c r="B303" s="2"/>
       <c r="C303" s="2"/>
@@ -16322,7 +16565,7 @@
       <c r="AW303" s="2"/>
       <c r="AX303" s="2"/>
     </row>
-    <row r="304" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="304" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A304" s="2"/>
       <c r="B304" s="2"/>
       <c r="C304" s="2"/>
@@ -16374,7 +16617,7 @@
       <c r="AW304" s="2"/>
       <c r="AX304" s="2"/>
     </row>
-    <row r="305" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="305" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A305" s="2"/>
       <c r="B305" s="2"/>
       <c r="C305" s="2"/>
@@ -16426,7 +16669,7 @@
       <c r="AW305" s="2"/>
       <c r="AX305" s="2"/>
     </row>
-    <row r="306" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="306" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A306" s="2"/>
       <c r="B306" s="2"/>
       <c r="C306" s="2"/>
@@ -16478,7 +16721,7 @@
       <c r="AW306" s="2"/>
       <c r="AX306" s="2"/>
     </row>
-    <row r="307" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="307" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A307" s="2"/>
       <c r="B307" s="2"/>
       <c r="C307" s="2"/>
@@ -16530,7 +16773,7 @@
       <c r="AW307" s="2"/>
       <c r="AX307" s="2"/>
     </row>
-    <row r="308" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="308" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A308" s="2"/>
       <c r="B308" s="2"/>
       <c r="C308" s="2"/>
@@ -16582,7 +16825,7 @@
       <c r="AW308" s="2"/>
       <c r="AX308" s="2"/>
     </row>
-    <row r="309" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="309" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A309" s="2"/>
       <c r="B309" s="2"/>
       <c r="C309" s="2"/>
@@ -16634,7 +16877,7 @@
       <c r="AW309" s="2"/>
       <c r="AX309" s="2"/>
     </row>
-    <row r="310" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="310" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A310" s="2"/>
       <c r="B310" s="2"/>
       <c r="C310" s="2"/>
@@ -16686,7 +16929,7 @@
       <c r="AW310" s="2"/>
       <c r="AX310" s="2"/>
     </row>
-    <row r="311" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="311" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A311" s="2"/>
       <c r="B311" s="2"/>
       <c r="C311" s="2"/>
@@ -16738,7 +16981,7 @@
       <c r="AW311" s="2"/>
       <c r="AX311" s="2"/>
     </row>
-    <row r="312" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="312" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A312" s="2"/>
       <c r="B312" s="2"/>
       <c r="C312" s="2"/>
@@ -16790,7 +17033,7 @@
       <c r="AW312" s="2"/>
       <c r="AX312" s="2"/>
     </row>
-    <row r="313" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="313" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A313" s="2"/>
       <c r="B313" s="2"/>
       <c r="C313" s="2"/>
@@ -16842,7 +17085,7 @@
       <c r="AW313" s="2"/>
       <c r="AX313" s="2"/>
     </row>
-    <row r="314" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="314" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A314" s="2"/>
       <c r="B314" s="2"/>
       <c r="C314" s="2"/>
@@ -16894,7 +17137,7 @@
       <c r="AW314" s="2"/>
       <c r="AX314" s="2"/>
     </row>
-    <row r="315" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="315" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A315" s="2"/>
       <c r="B315" s="2"/>
       <c r="C315" s="2"/>
@@ -16946,7 +17189,7 @@
       <c r="AW315" s="2"/>
       <c r="AX315" s="2"/>
     </row>
-    <row r="316" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="316" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A316" s="2"/>
       <c r="B316" s="2"/>
       <c r="C316" s="2"/>
@@ -16998,7 +17241,7 @@
       <c r="AW316" s="2"/>
       <c r="AX316" s="2"/>
     </row>
-    <row r="317" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="317" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A317" s="2"/>
       <c r="B317" s="2"/>
       <c r="C317" s="2"/>
@@ -17050,7 +17293,7 @@
       <c r="AW317" s="2"/>
       <c r="AX317" s="2"/>
     </row>
-    <row r="318" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="318" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A318" s="2"/>
       <c r="B318" s="2"/>
       <c r="C318" s="2"/>
@@ -17102,7 +17345,7 @@
       <c r="AW318" s="2"/>
       <c r="AX318" s="2"/>
     </row>
-    <row r="319" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="319" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A319" s="2"/>
       <c r="B319" s="2"/>
       <c r="C319" s="2"/>
@@ -17154,7 +17397,7 @@
       <c r="AW319" s="2"/>
       <c r="AX319" s="2"/>
     </row>
-    <row r="320" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="320" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A320" s="2"/>
       <c r="B320" s="2"/>
       <c r="C320" s="2"/>
@@ -17206,7 +17449,7 @@
       <c r="AW320" s="2"/>
       <c r="AX320" s="2"/>
     </row>
-    <row r="321" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="321" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A321" s="2"/>
       <c r="B321" s="2"/>
       <c r="C321" s="2"/>
@@ -17258,7 +17501,7 @@
       <c r="AW321" s="2"/>
       <c r="AX321" s="2"/>
     </row>
-    <row r="322" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="322" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A322" s="2"/>
       <c r="B322" s="2"/>
       <c r="C322" s="2"/>
@@ -17310,7 +17553,7 @@
       <c r="AW322" s="2"/>
       <c r="AX322" s="2"/>
     </row>
-    <row r="323" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="323" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A323" s="2"/>
       <c r="B323" s="2"/>
       <c r="C323" s="2"/>
@@ -17362,7 +17605,7 @@
       <c r="AW323" s="2"/>
       <c r="AX323" s="2"/>
     </row>
-    <row r="324" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="324" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A324" s="2"/>
       <c r="B324" s="2"/>
       <c r="C324" s="2"/>
@@ -17414,7 +17657,7 @@
       <c r="AW324" s="2"/>
       <c r="AX324" s="2"/>
     </row>
-    <row r="325" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="325" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A325" s="2"/>
       <c r="B325" s="2"/>
       <c r="C325" s="2"/>
@@ -17466,7 +17709,7 @@
       <c r="AW325" s="2"/>
       <c r="AX325" s="2"/>
     </row>
-    <row r="326" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="326" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A326" s="2"/>
       <c r="B326" s="2"/>
       <c r="C326" s="2"/>
@@ -17518,7 +17761,7 @@
       <c r="AW326" s="2"/>
       <c r="AX326" s="2"/>
     </row>
-    <row r="327" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="327" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A327" s="2"/>
       <c r="B327" s="2"/>
       <c r="C327" s="2"/>
@@ -17570,7 +17813,7 @@
       <c r="AW327" s="2"/>
       <c r="AX327" s="2"/>
     </row>
-    <row r="328" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="328" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A328" s="2"/>
       <c r="B328" s="2"/>
       <c r="C328" s="2"/>
@@ -17622,7 +17865,7 @@
       <c r="AW328" s="2"/>
       <c r="AX328" s="2"/>
     </row>
-    <row r="329" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="329" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A329" s="2"/>
       <c r="B329" s="2"/>
       <c r="C329" s="2"/>
@@ -17674,7 +17917,7 @@
       <c r="AW329" s="2"/>
       <c r="AX329" s="2"/>
     </row>
-    <row r="330" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="330" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A330" s="2"/>
       <c r="B330" s="2"/>
       <c r="C330" s="2"/>
@@ -17726,7 +17969,7 @@
       <c r="AW330" s="2"/>
       <c r="AX330" s="2"/>
     </row>
-    <row r="331" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="331" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A331" s="2"/>
       <c r="B331" s="2"/>
       <c r="C331" s="2"/>
@@ -17778,7 +18021,7 @@
       <c r="AW331" s="2"/>
       <c r="AX331" s="2"/>
     </row>
-    <row r="332" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="332" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A332" s="2"/>
       <c r="B332" s="2"/>
       <c r="C332" s="2"/>
@@ -17830,7 +18073,7 @@
       <c r="AW332" s="2"/>
       <c r="AX332" s="2"/>
     </row>
-    <row r="333" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="333" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A333" s="2"/>
       <c r="B333" s="2"/>
       <c r="C333" s="2"/>
@@ -17882,7 +18125,7 @@
       <c r="AW333" s="2"/>
       <c r="AX333" s="2"/>
     </row>
-    <row r="334" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="334" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A334" s="2"/>
       <c r="B334" s="2"/>
       <c r="C334" s="2"/>
@@ -17934,7 +18177,7 @@
       <c r="AW334" s="2"/>
       <c r="AX334" s="2"/>
     </row>
-    <row r="335" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="335" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A335" s="2"/>
       <c r="B335" s="2"/>
       <c r="C335" s="2"/>
@@ -17986,7 +18229,7 @@
       <c r="AW335" s="2"/>
       <c r="AX335" s="2"/>
     </row>
-    <row r="336" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="336" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A336" s="2"/>
       <c r="B336" s="2"/>
       <c r="C336" s="2"/>
@@ -18038,7 +18281,7 @@
       <c r="AW336" s="2"/>
       <c r="AX336" s="2"/>
     </row>
-    <row r="337" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="337" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A337" s="2"/>
       <c r="B337" s="2"/>
       <c r="C337" s="2"/>
@@ -18090,7 +18333,7 @@
       <c r="AW337" s="2"/>
       <c r="AX337" s="2"/>
     </row>
-    <row r="338" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="338" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A338" s="2"/>
       <c r="B338" s="2"/>
       <c r="C338" s="2"/>
@@ -18142,7 +18385,7 @@
       <c r="AW338" s="2"/>
       <c r="AX338" s="2"/>
     </row>
-    <row r="339" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="339" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A339" s="2"/>
       <c r="B339" s="2"/>
       <c r="C339" s="2"/>
@@ -18194,7 +18437,7 @@
       <c r="AW339" s="2"/>
       <c r="AX339" s="2"/>
     </row>
-    <row r="340" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="340" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A340" s="2"/>
       <c r="B340" s="2"/>
       <c r="C340" s="2"/>
@@ -18246,7 +18489,7 @@
       <c r="AW340" s="2"/>
       <c r="AX340" s="2"/>
     </row>
-    <row r="341" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="341" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A341" s="2"/>
       <c r="B341" s="2"/>
       <c r="C341" s="2"/>
@@ -18298,7 +18541,7 @@
       <c r="AW341" s="2"/>
       <c r="AX341" s="2"/>
     </row>
-    <row r="342" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="342" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A342" s="2"/>
       <c r="B342" s="2"/>
       <c r="C342" s="2"/>
@@ -18350,7 +18593,7 @@
       <c r="AW342" s="2"/>
       <c r="AX342" s="2"/>
     </row>
-    <row r="343" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="343" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A343" s="2"/>
       <c r="B343" s="2"/>
       <c r="C343" s="2"/>
@@ -18402,7 +18645,7 @@
       <c r="AW343" s="2"/>
       <c r="AX343" s="2"/>
     </row>
-    <row r="344" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="344" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A344" s="2"/>
       <c r="B344" s="2"/>
       <c r="C344" s="2"/>
@@ -18454,7 +18697,7 @@
       <c r="AW344" s="2"/>
       <c r="AX344" s="2"/>
     </row>
-    <row r="345" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="345" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A345" s="2"/>
       <c r="B345" s="2"/>
       <c r="C345" s="2"/>
@@ -18506,7 +18749,7 @@
       <c r="AW345" s="2"/>
       <c r="AX345" s="2"/>
     </row>
-    <row r="346" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="346" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A346" s="2"/>
       <c r="B346" s="2"/>
       <c r="C346" s="2"/>
@@ -18558,7 +18801,7 @@
       <c r="AW346" s="2"/>
       <c r="AX346" s="2"/>
     </row>
-    <row r="347" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="347" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A347" s="2"/>
       <c r="B347" s="2"/>
       <c r="C347" s="2"/>
@@ -18610,7 +18853,7 @@
       <c r="AW347" s="2"/>
       <c r="AX347" s="2"/>
     </row>
-    <row r="348" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="348" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A348" s="2"/>
       <c r="B348" s="2"/>
       <c r="C348" s="2"/>
@@ -18662,7 +18905,7 @@
       <c r="AW348" s="2"/>
       <c r="AX348" s="2"/>
     </row>
-    <row r="349" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="349" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A349" s="2"/>
       <c r="B349" s="2"/>
       <c r="C349" s="2"/>
@@ -18714,7 +18957,7 @@
       <c r="AW349" s="2"/>
       <c r="AX349" s="2"/>
     </row>
-    <row r="350" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="350" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A350" s="2"/>
       <c r="B350" s="2"/>
       <c r="C350" s="2"/>
@@ -18766,7 +19009,7 @@
       <c r="AW350" s="2"/>
       <c r="AX350" s="2"/>
     </row>
-    <row r="351" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="351" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A351" s="2"/>
       <c r="B351" s="2"/>
       <c r="C351" s="2"/>
@@ -18818,7 +19061,7 @@
       <c r="AW351" s="2"/>
       <c r="AX351" s="2"/>
     </row>
-    <row r="352" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="352" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A352" s="2"/>
       <c r="B352" s="2"/>
       <c r="C352" s="2"/>
@@ -18870,7 +19113,7 @@
       <c r="AW352" s="2"/>
       <c r="AX352" s="2"/>
     </row>
-    <row r="353" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="353" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A353" s="2"/>
       <c r="B353" s="2"/>
       <c r="C353" s="2"/>
@@ -18922,7 +19165,7 @@
       <c r="AW353" s="2"/>
       <c r="AX353" s="2"/>
     </row>
-    <row r="354" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="354" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A354" s="2"/>
       <c r="B354" s="2"/>
       <c r="C354" s="2"/>
@@ -18974,7 +19217,7 @@
       <c r="AW354" s="2"/>
       <c r="AX354" s="2"/>
     </row>
-    <row r="355" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="355" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A355" s="2"/>
       <c r="B355" s="2"/>
       <c r="C355" s="2"/>
@@ -19026,7 +19269,7 @@
       <c r="AW355" s="2"/>
       <c r="AX355" s="2"/>
     </row>
-    <row r="356" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="356" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A356" s="2"/>
       <c r="B356" s="2"/>
       <c r="C356" s="2"/>
@@ -19078,7 +19321,7 @@
       <c r="AW356" s="2"/>
       <c r="AX356" s="2"/>
     </row>
-    <row r="357" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="357" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A357" s="2"/>
       <c r="B357" s="2"/>
       <c r="C357" s="2"/>
@@ -19130,7 +19373,7 @@
       <c r="AW357" s="2"/>
       <c r="AX357" s="2"/>
     </row>
-    <row r="358" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="358" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A358" s="2"/>
       <c r="B358" s="2"/>
       <c r="C358" s="2"/>
@@ -19182,7 +19425,7 @@
       <c r="AW358" s="2"/>
       <c r="AX358" s="2"/>
     </row>
-    <row r="359" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="359" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A359" s="2"/>
       <c r="B359" s="2"/>
       <c r="C359" s="2"/>
@@ -19234,7 +19477,7 @@
       <c r="AW359" s="2"/>
       <c r="AX359" s="2"/>
     </row>
-    <row r="360" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="360" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A360" s="2"/>
       <c r="B360" s="2"/>
       <c r="C360" s="2"/>
@@ -19286,7 +19529,7 @@
       <c r="AW360" s="2"/>
       <c r="AX360" s="2"/>
     </row>
-    <row r="361" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="361" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A361" s="2"/>
       <c r="B361" s="2"/>
       <c r="C361" s="2"/>
@@ -19338,7 +19581,7 @@
       <c r="AW361" s="2"/>
       <c r="AX361" s="2"/>
     </row>
-    <row r="362" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="362" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A362" s="2"/>
       <c r="B362" s="2"/>
       <c r="C362" s="2"/>
@@ -19390,7 +19633,7 @@
       <c r="AW362" s="2"/>
       <c r="AX362" s="2"/>
     </row>
-    <row r="363" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="363" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A363" s="2"/>
       <c r="B363" s="2"/>
       <c r="C363" s="2"/>
@@ -19442,7 +19685,7 @@
       <c r="AW363" s="2"/>
       <c r="AX363" s="2"/>
     </row>
-    <row r="364" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="364" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A364" s="2"/>
       <c r="B364" s="2"/>
       <c r="C364" s="2"/>
@@ -19494,7 +19737,7 @@
       <c r="AW364" s="2"/>
       <c r="AX364" s="2"/>
     </row>
-    <row r="365" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="365" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A365" s="2"/>
       <c r="B365" s="2"/>
       <c r="C365" s="2"/>
@@ -19546,7 +19789,7 @@
       <c r="AW365" s="2"/>
       <c r="AX365" s="2"/>
     </row>
-    <row r="366" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="366" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A366" s="2"/>
       <c r="B366" s="2"/>
       <c r="C366" s="2"/>
@@ -19598,7 +19841,7 @@
       <c r="AW366" s="2"/>
       <c r="AX366" s="2"/>
     </row>
-    <row r="367" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="367" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A367" s="2"/>
       <c r="B367" s="2"/>
       <c r="C367" s="2"/>
@@ -19650,7 +19893,7 @@
       <c r="AW367" s="2"/>
       <c r="AX367" s="2"/>
     </row>
-    <row r="368" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="368" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A368" s="2"/>
       <c r="B368" s="2"/>
       <c r="C368" s="2"/>
@@ -19702,7 +19945,7 @@
       <c r="AW368" s="2"/>
       <c r="AX368" s="2"/>
     </row>
-    <row r="369" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="369" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A369" s="2"/>
       <c r="B369" s="2"/>
       <c r="C369" s="2"/>
@@ -19754,7 +19997,7 @@
       <c r="AW369" s="2"/>
       <c r="AX369" s="2"/>
     </row>
-    <row r="370" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="370" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A370" s="2"/>
       <c r="B370" s="2"/>
       <c r="C370" s="2"/>
@@ -19806,7 +20049,7 @@
       <c r="AW370" s="2"/>
       <c r="AX370" s="2"/>
     </row>
-    <row r="371" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="371" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A371" s="2"/>
       <c r="B371" s="2"/>
       <c r="C371" s="2"/>
@@ -19858,7 +20101,7 @@
       <c r="AW371" s="2"/>
       <c r="AX371" s="2"/>
     </row>
-    <row r="372" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="372" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A372" s="2"/>
       <c r="B372" s="2"/>
       <c r="C372" s="2"/>
@@ -19910,7 +20153,7 @@
       <c r="AW372" s="2"/>
       <c r="AX372" s="2"/>
     </row>
-    <row r="373" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="373" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A373" s="2"/>
       <c r="B373" s="2"/>
       <c r="C373" s="2"/>
@@ -19962,7 +20205,7 @@
       <c r="AW373" s="2"/>
       <c r="AX373" s="2"/>
     </row>
-    <row r="374" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="374" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A374" s="2"/>
       <c r="B374" s="2"/>
       <c r="C374" s="2"/>
@@ -20014,7 +20257,7 @@
       <c r="AW374" s="2"/>
       <c r="AX374" s="2"/>
     </row>
-    <row r="375" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="375" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A375" s="2"/>
       <c r="B375" s="2"/>
       <c r="C375" s="2"/>
@@ -20066,7 +20309,7 @@
       <c r="AW375" s="2"/>
       <c r="AX375" s="2"/>
     </row>
-    <row r="376" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="376" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A376" s="2"/>
       <c r="B376" s="2"/>
       <c r="C376" s="2"/>
@@ -20118,7 +20361,7 @@
       <c r="AW376" s="2"/>
       <c r="AX376" s="2"/>
     </row>
-    <row r="377" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="377" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A377" s="2"/>
       <c r="B377" s="2"/>
       <c r="C377" s="2"/>
@@ -20170,7 +20413,7 @@
       <c r="AW377" s="2"/>
       <c r="AX377" s="2"/>
     </row>
-    <row r="378" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="378" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A378" s="2"/>
       <c r="B378" s="2"/>
       <c r="C378" s="2"/>
@@ -20222,7 +20465,7 @@
       <c r="AW378" s="2"/>
       <c r="AX378" s="2"/>
     </row>
-    <row r="379" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="379" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A379" s="2"/>
       <c r="B379" s="2"/>
       <c r="C379" s="2"/>
@@ -20274,7 +20517,7 @@
       <c r="AW379" s="2"/>
       <c r="AX379" s="2"/>
     </row>
-    <row r="380" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="380" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A380" s="2"/>
       <c r="B380" s="2"/>
       <c r="C380" s="2"/>
@@ -20326,7 +20569,7 @@
       <c r="AW380" s="2"/>
       <c r="AX380" s="2"/>
     </row>
-    <row r="381" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="381" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A381" s="2"/>
       <c r="B381" s="2"/>
       <c r="C381" s="2"/>
@@ -20378,7 +20621,7 @@
       <c r="AW381" s="2"/>
       <c r="AX381" s="2"/>
     </row>
-    <row r="382" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="382" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A382" s="2"/>
       <c r="B382" s="2"/>
       <c r="C382" s="2"/>
@@ -20430,7 +20673,7 @@
       <c r="AW382" s="2"/>
       <c r="AX382" s="2"/>
     </row>
-    <row r="383" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="383" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A383" s="2"/>
       <c r="B383" s="2"/>
       <c r="C383" s="2"/>
@@ -20482,7 +20725,7 @@
       <c r="AW383" s="2"/>
       <c r="AX383" s="2"/>
     </row>
-    <row r="384" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="384" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A384" s="2"/>
       <c r="B384" s="2"/>
       <c r="C384" s="2"/>
@@ -20534,7 +20777,7 @@
       <c r="AW384" s="2"/>
       <c r="AX384" s="2"/>
     </row>
-    <row r="385" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="385" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A385" s="2"/>
       <c r="B385" s="2"/>
       <c r="C385" s="2"/>
@@ -20586,7 +20829,7 @@
       <c r="AW385" s="2"/>
       <c r="AX385" s="2"/>
     </row>
-    <row r="386" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="386" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A386" s="2"/>
       <c r="B386" s="2"/>
       <c r="C386" s="2"/>
@@ -20638,7 +20881,7 @@
       <c r="AW386" s="2"/>
       <c r="AX386" s="2"/>
     </row>
-    <row r="387" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="387" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A387" s="2"/>
       <c r="B387" s="2"/>
       <c r="C387" s="2"/>
@@ -20690,7 +20933,7 @@
       <c r="AW387" s="2"/>
       <c r="AX387" s="2"/>
     </row>
-    <row r="388" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="388" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A388" s="2"/>
       <c r="B388" s="2"/>
       <c r="C388" s="2"/>
@@ -20742,7 +20985,7 @@
       <c r="AW388" s="2"/>
       <c r="AX388" s="2"/>
     </row>
-    <row r="389" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="389" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A389" s="2"/>
       <c r="B389" s="2"/>
       <c r="C389" s="2"/>
@@ -20794,7 +21037,7 @@
       <c r="AW389" s="2"/>
       <c r="AX389" s="2"/>
     </row>
-    <row r="390" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="390" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A390" s="2"/>
       <c r="B390" s="2"/>
       <c r="C390" s="2"/>
@@ -20846,7 +21089,7 @@
       <c r="AW390" s="2"/>
       <c r="AX390" s="2"/>
     </row>
-    <row r="391" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="391" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A391" s="2"/>
       <c r="B391" s="2"/>
       <c r="C391" s="2"/>
@@ -20898,7 +21141,7 @@
       <c r="AW391" s="2"/>
       <c r="AX391" s="2"/>
     </row>
-    <row r="392" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="392" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A392" s="2"/>
       <c r="B392" s="2"/>
       <c r="C392" s="2"/>
@@ -20950,7 +21193,7 @@
       <c r="AW392" s="2"/>
       <c r="AX392" s="2"/>
     </row>
-    <row r="393" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="393" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A393" s="2"/>
       <c r="B393" s="2"/>
       <c r="C393" s="2"/>
@@ -21002,7 +21245,7 @@
       <c r="AW393" s="2"/>
       <c r="AX393" s="2"/>
     </row>
-    <row r="394" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="394" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A394" s="2"/>
       <c r="B394" s="2"/>
       <c r="C394" s="2"/>
@@ -21054,7 +21297,7 @@
       <c r="AW394" s="2"/>
       <c r="AX394" s="2"/>
     </row>
-    <row r="395" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="395" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A395" s="2"/>
       <c r="B395" s="2"/>
       <c r="C395" s="2"/>
@@ -21106,7 +21349,7 @@
       <c r="AW395" s="2"/>
       <c r="AX395" s="2"/>
     </row>
-    <row r="396" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="396" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A396" s="2"/>
       <c r="B396" s="2"/>
       <c r="C396" s="2"/>
@@ -21158,7 +21401,7 @@
       <c r="AW396" s="2"/>
       <c r="AX396" s="2"/>
     </row>
-    <row r="397" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="397" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A397" s="2"/>
       <c r="B397" s="2"/>
       <c r="C397" s="2"/>
@@ -21210,7 +21453,7 @@
       <c r="AW397" s="2"/>
       <c r="AX397" s="2"/>
     </row>
-    <row r="398" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="398" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A398" s="2"/>
       <c r="B398" s="2"/>
       <c r="C398" s="2"/>
@@ -21262,7 +21505,7 @@
       <c r="AW398" s="2"/>
       <c r="AX398" s="2"/>
     </row>
-    <row r="399" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="399" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A399" s="2"/>
       <c r="B399" s="2"/>
       <c r="C399" s="2"/>
@@ -21314,7 +21557,7 @@
       <c r="AW399" s="2"/>
       <c r="AX399" s="2"/>
     </row>
-    <row r="400" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="400" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A400" s="2"/>
       <c r="B400" s="2"/>
       <c r="C400" s="2"/>
@@ -21366,7 +21609,7 @@
       <c r="AW400" s="2"/>
       <c r="AX400" s="2"/>
     </row>
-    <row r="401" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="401" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A401" s="2"/>
       <c r="B401" s="2"/>
       <c r="C401" s="2"/>
@@ -21418,7 +21661,7 @@
       <c r="AW401" s="2"/>
       <c r="AX401" s="2"/>
     </row>
-    <row r="402" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="402" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A402" s="2"/>
       <c r="B402" s="2"/>
       <c r="C402" s="2"/>
@@ -21470,7 +21713,7 @@
       <c r="AW402" s="2"/>
       <c r="AX402" s="2"/>
     </row>
-    <row r="403" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="403" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A403" s="2"/>
       <c r="B403" s="2"/>
       <c r="C403" s="2"/>
@@ -21522,7 +21765,7 @@
       <c r="AW403" s="2"/>
       <c r="AX403" s="2"/>
     </row>
-    <row r="404" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="404" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A404" s="2"/>
       <c r="B404" s="2"/>
       <c r="C404" s="2"/>
@@ -21574,7 +21817,7 @@
       <c r="AW404" s="2"/>
       <c r="AX404" s="2"/>
     </row>
-    <row r="405" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="405" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A405" s="2"/>
       <c r="B405" s="2"/>
       <c r="C405" s="2"/>
@@ -21626,7 +21869,7 @@
       <c r="AW405" s="2"/>
       <c r="AX405" s="2"/>
     </row>
-    <row r="406" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="406" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A406" s="2"/>
       <c r="B406" s="2"/>
       <c r="C406" s="2"/>
@@ -21678,7 +21921,7 @@
       <c r="AW406" s="2"/>
       <c r="AX406" s="2"/>
     </row>
-    <row r="407" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="407" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A407" s="2"/>
       <c r="B407" s="2"/>
       <c r="C407" s="2"/>
@@ -21730,7 +21973,7 @@
       <c r="AW407" s="2"/>
       <c r="AX407" s="2"/>
     </row>
-    <row r="408" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="408" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A408" s="2"/>
       <c r="B408" s="2"/>
       <c r="C408" s="2"/>
@@ -21782,7 +22025,7 @@
       <c r="AW408" s="2"/>
       <c r="AX408" s="2"/>
     </row>
-    <row r="409" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="409" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A409" s="2"/>
       <c r="B409" s="2"/>
       <c r="C409" s="2"/>
@@ -21834,7 +22077,7 @@
       <c r="AW409" s="2"/>
       <c r="AX409" s="2"/>
     </row>
-    <row r="410" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="410" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A410" s="2"/>
       <c r="B410" s="2"/>
       <c r="C410" s="2"/>
@@ -21886,7 +22129,7 @@
       <c r="AW410" s="2"/>
       <c r="AX410" s="2"/>
     </row>
-    <row r="411" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="411" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A411" s="2"/>
       <c r="B411" s="2"/>
       <c r="C411" s="2"/>
@@ -21938,7 +22181,7 @@
       <c r="AW411" s="2"/>
       <c r="AX411" s="2"/>
     </row>
-    <row r="412" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="412" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A412" s="2"/>
       <c r="B412" s="2"/>
       <c r="C412" s="2"/>
@@ -21990,7 +22233,7 @@
       <c r="AW412" s="2"/>
       <c r="AX412" s="2"/>
     </row>
-    <row r="413" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="413" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A413" s="2"/>
       <c r="B413" s="2"/>
       <c r="C413" s="2"/>
@@ -22042,7 +22285,7 @@
       <c r="AW413" s="2"/>
       <c r="AX413" s="2"/>
     </row>
-    <row r="414" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="414" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A414" s="2"/>
       <c r="B414" s="2"/>
       <c r="C414" s="2"/>
@@ -22094,7 +22337,7 @@
       <c r="AW414" s="2"/>
       <c r="AX414" s="2"/>
     </row>
-    <row r="415" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="415" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A415" s="2"/>
       <c r="B415" s="2"/>
       <c r="C415" s="2"/>
@@ -22146,7 +22389,7 @@
       <c r="AW415" s="2"/>
       <c r="AX415" s="2"/>
     </row>
-    <row r="416" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="416" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A416" s="2"/>
       <c r="B416" s="2"/>
       <c r="C416" s="2"/>
@@ -22198,7 +22441,7 @@
       <c r="AW416" s="2"/>
       <c r="AX416" s="2"/>
     </row>
-    <row r="417" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="417" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A417" s="2"/>
       <c r="B417" s="2"/>
       <c r="C417" s="2"/>
@@ -22250,7 +22493,7 @@
       <c r="AW417" s="2"/>
       <c r="AX417" s="2"/>
     </row>
-    <row r="418" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="418" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A418" s="2"/>
       <c r="B418" s="2"/>
       <c r="C418" s="2"/>
@@ -22302,7 +22545,7 @@
       <c r="AW418" s="2"/>
       <c r="AX418" s="2"/>
     </row>
-    <row r="419" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="419" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A419" s="2"/>
       <c r="B419" s="2"/>
       <c r="C419" s="2"/>
@@ -22354,7 +22597,7 @@
       <c r="AW419" s="2"/>
       <c r="AX419" s="2"/>
     </row>
-    <row r="420" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="420" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A420" s="2"/>
       <c r="B420" s="2"/>
       <c r="C420" s="2"/>
@@ -22406,7 +22649,7 @@
       <c r="AW420" s="2"/>
       <c r="AX420" s="2"/>
     </row>
-    <row r="421" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="421" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A421" s="2"/>
       <c r="B421" s="2"/>
       <c r="C421" s="2"/>
@@ -22458,7 +22701,7 @@
       <c r="AW421" s="2"/>
       <c r="AX421" s="2"/>
     </row>
-    <row r="422" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="422" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A422" s="2"/>
       <c r="B422" s="2"/>
       <c r="C422" s="2"/>
@@ -22510,7 +22753,7 @@
       <c r="AW422" s="2"/>
       <c r="AX422" s="2"/>
     </row>
-    <row r="423" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="423" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A423" s="2"/>
       <c r="B423" s="2"/>
       <c r="C423" s="2"/>
@@ -22562,7 +22805,7 @@
       <c r="AW423" s="2"/>
       <c r="AX423" s="2"/>
     </row>
-    <row r="424" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="424" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A424" s="2"/>
       <c r="B424" s="2"/>
       <c r="C424" s="2"/>
@@ -22614,7 +22857,7 @@
       <c r="AW424" s="2"/>
       <c r="AX424" s="2"/>
     </row>
-    <row r="425" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="425" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A425" s="2"/>
       <c r="B425" s="2"/>
       <c r="C425" s="2"/>
@@ -22666,7 +22909,7 @@
       <c r="AW425" s="2"/>
       <c r="AX425" s="2"/>
     </row>
-    <row r="426" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="426" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A426" s="2"/>
       <c r="B426" s="2"/>
       <c r="C426" s="2"/>
@@ -22718,7 +22961,7 @@
       <c r="AW426" s="2"/>
       <c r="AX426" s="2"/>
     </row>
-    <row r="427" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="427" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A427" s="2"/>
       <c r="B427" s="2"/>
       <c r="C427" s="2"/>
@@ -22770,7 +23013,7 @@
       <c r="AW427" s="2"/>
       <c r="AX427" s="2"/>
     </row>
-    <row r="428" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="428" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A428" s="2"/>
       <c r="B428" s="2"/>
       <c r="C428" s="2"/>
@@ -22822,7 +23065,7 @@
       <c r="AW428" s="2"/>
       <c r="AX428" s="2"/>
     </row>
-    <row r="429" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="429" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A429" s="2"/>
       <c r="B429" s="2"/>
       <c r="C429" s="2"/>
@@ -22874,7 +23117,7 @@
       <c r="AW429" s="2"/>
       <c r="AX429" s="2"/>
     </row>
-    <row r="430" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="430" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A430" s="2"/>
       <c r="B430" s="2"/>
       <c r="C430" s="2"/>
@@ -22926,7 +23169,7 @@
       <c r="AW430" s="2"/>
       <c r="AX430" s="2"/>
     </row>
-    <row r="431" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="431" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A431" s="2"/>
       <c r="B431" s="2"/>
       <c r="C431" s="2"/>
@@ -22978,7 +23221,7 @@
       <c r="AW431" s="2"/>
       <c r="AX431" s="2"/>
     </row>
-    <row r="432" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="432" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A432" s="2"/>
       <c r="B432" s="2"/>
       <c r="C432" s="2"/>
@@ -23030,7 +23273,7 @@
       <c r="AW432" s="2"/>
       <c r="AX432" s="2"/>
     </row>
-    <row r="433" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="433" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A433" s="2"/>
       <c r="B433" s="2"/>
       <c r="C433" s="2"/>
@@ -23082,7 +23325,7 @@
       <c r="AW433" s="2"/>
       <c r="AX433" s="2"/>
     </row>
-    <row r="434" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="434" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A434" s="2"/>
       <c r="B434" s="2"/>
       <c r="C434" s="2"/>
@@ -23134,7 +23377,7 @@
       <c r="AW434" s="2"/>
       <c r="AX434" s="2"/>
     </row>
-    <row r="435" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="435" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A435" s="2"/>
       <c r="B435" s="2"/>
       <c r="C435" s="2"/>
@@ -23186,7 +23429,7 @@
       <c r="AW435" s="2"/>
       <c r="AX435" s="2"/>
     </row>
-    <row r="436" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="436" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A436" s="2"/>
       <c r="B436" s="2"/>
       <c r="C436" s="2"/>
@@ -23238,7 +23481,7 @@
       <c r="AW436" s="2"/>
       <c r="AX436" s="2"/>
     </row>
-    <row r="437" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="437" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A437" s="2"/>
       <c r="B437" s="2"/>
       <c r="C437" s="2"/>
@@ -23290,7 +23533,7 @@
       <c r="AW437" s="2"/>
       <c r="AX437" s="2"/>
     </row>
-    <row r="438" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="438" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A438" s="2"/>
       <c r="B438" s="2"/>
       <c r="C438" s="2"/>
@@ -23342,7 +23585,7 @@
       <c r="AW438" s="2"/>
       <c r="AX438" s="2"/>
     </row>
-    <row r="439" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="439" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A439" s="2"/>
       <c r="B439" s="2"/>
       <c r="C439" s="2"/>
@@ -23394,7 +23637,7 @@
       <c r="AW439" s="2"/>
       <c r="AX439" s="2"/>
     </row>
-    <row r="440" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="440" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A440" s="2"/>
       <c r="B440" s="2"/>
       <c r="C440" s="2"/>
@@ -23446,7 +23689,7 @@
       <c r="AW440" s="2"/>
       <c r="AX440" s="2"/>
     </row>
-    <row r="441" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="441" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A441" s="2"/>
       <c r="B441" s="2"/>
       <c r="C441" s="2"/>
@@ -23498,7 +23741,7 @@
       <c r="AW441" s="2"/>
       <c r="AX441" s="2"/>
     </row>
-    <row r="442" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="442" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A442" s="2"/>
       <c r="B442" s="2"/>
       <c r="C442" s="2"/>
@@ -23550,7 +23793,7 @@
       <c r="AW442" s="2"/>
       <c r="AX442" s="2"/>
     </row>
-    <row r="443" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="443" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A443" s="2"/>
       <c r="B443" s="2"/>
       <c r="C443" s="2"/>
@@ -23602,7 +23845,7 @@
       <c r="AW443" s="2"/>
       <c r="AX443" s="2"/>
     </row>
-    <row r="444" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="444" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A444" s="2"/>
       <c r="B444" s="2"/>
       <c r="C444" s="2"/>
@@ -23654,7 +23897,7 @@
       <c r="AW444" s="2"/>
       <c r="AX444" s="2"/>
     </row>
-    <row r="445" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="445" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A445" s="2"/>
       <c r="B445" s="2"/>
       <c r="C445" s="2"/>
@@ -23706,7 +23949,7 @@
       <c r="AW445" s="2"/>
       <c r="AX445" s="2"/>
     </row>
-    <row r="446" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="446" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A446" s="2"/>
       <c r="B446" s="2"/>
       <c r="C446" s="2"/>
@@ -23758,7 +24001,7 @@
       <c r="AW446" s="2"/>
       <c r="AX446" s="2"/>
     </row>
-    <row r="447" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="447" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A447" s="2"/>
       <c r="B447" s="2"/>
       <c r="C447" s="2"/>
@@ -23810,7 +24053,7 @@
       <c r="AW447" s="2"/>
       <c r="AX447" s="2"/>
     </row>
-    <row r="448" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="448" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A448" s="2"/>
       <c r="B448" s="2"/>
       <c r="C448" s="2"/>
@@ -23862,7 +24105,7 @@
       <c r="AW448" s="2"/>
       <c r="AX448" s="2"/>
     </row>
-    <row r="449" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="449" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A449" s="2"/>
       <c r="B449" s="2"/>
       <c r="C449" s="2"/>
@@ -23914,7 +24157,7 @@
       <c r="AW449" s="2"/>
       <c r="AX449" s="2"/>
     </row>
-    <row r="450" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="450" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A450" s="2"/>
       <c r="B450" s="2"/>
       <c r="C450" s="2"/>
@@ -23966,7 +24209,7 @@
       <c r="AW450" s="2"/>
       <c r="AX450" s="2"/>
     </row>
-    <row r="451" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="451" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A451" s="2"/>
       <c r="B451" s="2"/>
       <c r="C451" s="2"/>
@@ -24018,7 +24261,7 @@
       <c r="AW451" s="2"/>
       <c r="AX451" s="2"/>
     </row>
-    <row r="452" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="452" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A452" s="2"/>
       <c r="B452" s="2"/>
       <c r="C452" s="2"/>
@@ -24070,7 +24313,7 @@
       <c r="AW452" s="2"/>
       <c r="AX452" s="2"/>
     </row>
-    <row r="453" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="453" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A453" s="2"/>
       <c r="B453" s="2"/>
       <c r="C453" s="2"/>
@@ -24122,7 +24365,7 @@
       <c r="AW453" s="2"/>
       <c r="AX453" s="2"/>
     </row>
-    <row r="454" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="454" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A454" s="2"/>
       <c r="B454" s="2"/>
       <c r="C454" s="2"/>
@@ -24174,7 +24417,7 @@
       <c r="AW454" s="2"/>
       <c r="AX454" s="2"/>
     </row>
-    <row r="455" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="455" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A455" s="2"/>
       <c r="B455" s="2"/>
       <c r="C455" s="2"/>
@@ -24226,7 +24469,7 @@
       <c r="AW455" s="2"/>
       <c r="AX455" s="2"/>
     </row>
-    <row r="456" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="456" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A456" s="2"/>
       <c r="B456" s="2"/>
       <c r="C456" s="2"/>
@@ -24278,7 +24521,7 @@
       <c r="AW456" s="2"/>
       <c r="AX456" s="2"/>
     </row>
-    <row r="457" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="457" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A457" s="2"/>
       <c r="B457" s="2"/>
       <c r="C457" s="2"/>
@@ -24330,7 +24573,7 @@
       <c r="AW457" s="2"/>
       <c r="AX457" s="2"/>
     </row>
-    <row r="458" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="458" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A458" s="2"/>
       <c r="B458" s="2"/>
       <c r="C458" s="2"/>
@@ -24382,7 +24625,7 @@
       <c r="AW458" s="2"/>
       <c r="AX458" s="2"/>
     </row>
-    <row r="459" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="459" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A459" s="2"/>
       <c r="B459" s="2"/>
       <c r="C459" s="2"/>
@@ -24434,7 +24677,7 @@
       <c r="AW459" s="2"/>
       <c r="AX459" s="2"/>
     </row>
-    <row r="460" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="460" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A460" s="2"/>
       <c r="B460" s="2"/>
       <c r="C460" s="2"/>
@@ -24486,7 +24729,7 @@
       <c r="AW460" s="2"/>
       <c r="AX460" s="2"/>
     </row>
-    <row r="461" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="461" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A461" s="2"/>
       <c r="B461" s="2"/>
       <c r="C461" s="2"/>
@@ -24538,7 +24781,7 @@
       <c r="AW461" s="2"/>
       <c r="AX461" s="2"/>
     </row>
-    <row r="462" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="462" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A462" s="2"/>
       <c r="B462" s="2"/>
       <c r="C462" s="2"/>
@@ -24590,7 +24833,7 @@
       <c r="AW462" s="2"/>
       <c r="AX462" s="2"/>
     </row>
-    <row r="463" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="463" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A463" s="2"/>
       <c r="B463" s="2"/>
       <c r="C463" s="2"/>
@@ -24642,7 +24885,7 @@
       <c r="AW463" s="2"/>
       <c r="AX463" s="2"/>
     </row>
-    <row r="464" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="464" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A464" s="2"/>
       <c r="B464" s="2"/>
       <c r="C464" s="2"/>
@@ -24694,7 +24937,7 @@
       <c r="AW464" s="2"/>
       <c r="AX464" s="2"/>
     </row>
-    <row r="465" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="465" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A465" s="2"/>
       <c r="B465" s="2"/>
       <c r="C465" s="2"/>
@@ -24746,7 +24989,7 @@
       <c r="AW465" s="2"/>
       <c r="AX465" s="2"/>
     </row>
-    <row r="466" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="466" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A466" s="2"/>
       <c r="B466" s="2"/>
       <c r="C466" s="2"/>
@@ -24798,7 +25041,7 @@
       <c r="AW466" s="2"/>
       <c r="AX466" s="2"/>
     </row>
-    <row r="467" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="467" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A467" s="2"/>
       <c r="B467" s="2"/>
       <c r="C467" s="2"/>
@@ -24850,7 +25093,7 @@
       <c r="AW467" s="2"/>
       <c r="AX467" s="2"/>
     </row>
-    <row r="468" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="468" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A468" s="2"/>
       <c r="B468" s="2"/>
       <c r="C468" s="2"/>
@@ -24902,7 +25145,7 @@
       <c r="AW468" s="2"/>
       <c r="AX468" s="2"/>
     </row>
-    <row r="469" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="469" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A469" s="2"/>
       <c r="B469" s="2"/>
       <c r="C469" s="2"/>
@@ -24954,7 +25197,7 @@
       <c r="AW469" s="2"/>
       <c r="AX469" s="2"/>
     </row>
-    <row r="470" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="470" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A470" s="2"/>
       <c r="B470" s="2"/>
       <c r="C470" s="2"/>
@@ -25006,7 +25249,7 @@
       <c r="AW470" s="2"/>
       <c r="AX470" s="2"/>
     </row>
-    <row r="471" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="471" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A471" s="2"/>
       <c r="B471" s="2"/>
       <c r="C471" s="2"/>
@@ -25058,7 +25301,7 @@
       <c r="AW471" s="2"/>
       <c r="AX471" s="2"/>
     </row>
-    <row r="472" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="472" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A472" s="2"/>
       <c r="B472" s="2"/>
       <c r="C472" s="2"/>
@@ -25110,7 +25353,7 @@
       <c r="AW472" s="2"/>
       <c r="AX472" s="2"/>
     </row>
-    <row r="473" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="473" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A473" s="2"/>
       <c r="B473" s="2"/>
       <c r="C473" s="2"/>
@@ -25162,7 +25405,7 @@
       <c r="AW473" s="2"/>
       <c r="AX473" s="2"/>
     </row>
-    <row r="474" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="474" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A474" s="2"/>
       <c r="B474" s="2"/>
       <c r="C474" s="2"/>
@@ -25214,7 +25457,7 @@
       <c r="AW474" s="2"/>
       <c r="AX474" s="2"/>
     </row>
-    <row r="475" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="475" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A475" s="2"/>
       <c r="B475" s="2"/>
       <c r="C475" s="2"/>
@@ -25266,7 +25509,7 @@
       <c r="AW475" s="2"/>
       <c r="AX475" s="2"/>
     </row>
-    <row r="476" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="476" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A476" s="2"/>
       <c r="B476" s="2"/>
       <c r="C476" s="2"/>
@@ -25318,7 +25561,7 @@
       <c r="AW476" s="2"/>
       <c r="AX476" s="2"/>
     </row>
-    <row r="477" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="477" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A477" s="2"/>
       <c r="B477" s="2"/>
       <c r="C477" s="2"/>
@@ -25370,7 +25613,7 @@
       <c r="AW477" s="2"/>
       <c r="AX477" s="2"/>
     </row>
-    <row r="478" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="478" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A478" s="2"/>
       <c r="B478" s="2"/>
       <c r="C478" s="2"/>
@@ -25422,7 +25665,7 @@
       <c r="AW478" s="2"/>
       <c r="AX478" s="2"/>
     </row>
-    <row r="479" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="479" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A479" s="2"/>
       <c r="B479" s="2"/>
       <c r="C479" s="2"/>
@@ -25474,7 +25717,7 @@
       <c r="AW479" s="2"/>
       <c r="AX479" s="2"/>
     </row>
-    <row r="480" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="480" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A480" s="2"/>
       <c r="B480" s="2"/>
       <c r="C480" s="2"/>
@@ -25526,7 +25769,7 @@
       <c r="AW480" s="2"/>
       <c r="AX480" s="2"/>
     </row>
-    <row r="481" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="481" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A481" s="2"/>
       <c r="B481" s="2"/>
       <c r="C481" s="2"/>
@@ -25578,7 +25821,7 @@
       <c r="AW481" s="2"/>
       <c r="AX481" s="2"/>
     </row>
-    <row r="482" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="482" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A482" s="2"/>
       <c r="B482" s="2"/>
       <c r="C482" s="2"/>
@@ -25630,7 +25873,7 @@
       <c r="AW482" s="2"/>
       <c r="AX482" s="2"/>
     </row>
-    <row r="483" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="483" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A483" s="2"/>
       <c r="B483" s="2"/>
       <c r="C483" s="2"/>
@@ -25682,7 +25925,7 @@
       <c r="AW483" s="2"/>
       <c r="AX483" s="2"/>
     </row>
-    <row r="484" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="484" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A484" s="2"/>
       <c r="B484" s="2"/>
       <c r="C484" s="2"/>
@@ -25734,7 +25977,7 @@
       <c r="AW484" s="2"/>
       <c r="AX484" s="2"/>
     </row>
-    <row r="485" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="485" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A485" s="2"/>
       <c r="B485" s="2"/>
       <c r="C485" s="2"/>
@@ -25786,7 +26029,7 @@
       <c r="AW485" s="2"/>
       <c r="AX485" s="2"/>
     </row>
-    <row r="486" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="486" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A486" s="2"/>
       <c r="B486" s="2"/>
       <c r="C486" s="2"/>
@@ -25838,7 +26081,7 @@
       <c r="AW486" s="2"/>
       <c r="AX486" s="2"/>
     </row>
-    <row r="487" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="487" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A487" s="2"/>
       <c r="B487" s="2"/>
       <c r="C487" s="2"/>
@@ -25890,7 +26133,7 @@
       <c r="AW487" s="2"/>
       <c r="AX487" s="2"/>
     </row>
-    <row r="488" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="488" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A488" s="2"/>
       <c r="B488" s="2"/>
       <c r="C488" s="2"/>
@@ -25942,7 +26185,7 @@
       <c r="AW488" s="2"/>
       <c r="AX488" s="2"/>
     </row>
-    <row r="489" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="489" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A489" s="2"/>
       <c r="B489" s="2"/>
       <c r="C489" s="2"/>
@@ -25994,7 +26237,7 @@
       <c r="AW489" s="2"/>
       <c r="AX489" s="2"/>
     </row>
-    <row r="490" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="490" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A490" s="2"/>
       <c r="B490" s="2"/>
       <c r="C490" s="2"/>
@@ -26046,7 +26289,7 @@
       <c r="AW490" s="2"/>
       <c r="AX490" s="2"/>
     </row>
-    <row r="491" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="491" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A491" s="2"/>
       <c r="B491" s="2"/>
       <c r="C491" s="2"/>
@@ -26098,7 +26341,7 @@
       <c r="AW491" s="2"/>
       <c r="AX491" s="2"/>
     </row>
-    <row r="492" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="492" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A492" s="2"/>
       <c r="B492" s="2"/>
       <c r="C492" s="2"/>
@@ -26150,7 +26393,7 @@
       <c r="AW492" s="2"/>
       <c r="AX492" s="2"/>
     </row>
-    <row r="493" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="493" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A493" s="2"/>
       <c r="B493" s="2"/>
       <c r="C493" s="2"/>
@@ -26202,7 +26445,7 @@
       <c r="AW493" s="2"/>
       <c r="AX493" s="2"/>
     </row>
-    <row r="494" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="494" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A494" s="2"/>
       <c r="B494" s="2"/>
       <c r="C494" s="2"/>
@@ -26254,7 +26497,7 @@
       <c r="AW494" s="2"/>
       <c r="AX494" s="2"/>
     </row>
-    <row r="495" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="495" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A495" s="2"/>
       <c r="B495" s="2"/>
       <c r="C495" s="2"/>
@@ -26306,7 +26549,7 @@
       <c r="AW495" s="2"/>
       <c r="AX495" s="2"/>
     </row>
-    <row r="496" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="496" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A496" s="2"/>
       <c r="B496" s="2"/>
       <c r="C496" s="2"/>
@@ -26358,7 +26601,7 @@
       <c r="AW496" s="2"/>
       <c r="AX496" s="2"/>
     </row>
-    <row r="497" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="497" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A497" s="2"/>
       <c r="B497" s="2"/>
       <c r="C497" s="2"/>
@@ -26410,7 +26653,7 @@
       <c r="AW497" s="2"/>
       <c r="AX497" s="2"/>
     </row>
-    <row r="498" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="498" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A498" s="2"/>
       <c r="B498" s="2"/>
       <c r="C498" s="2"/>
@@ -26462,7 +26705,7 @@
       <c r="AW498" s="2"/>
       <c r="AX498" s="2"/>
     </row>
-    <row r="499" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="499" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A499" s="2"/>
       <c r="B499" s="2"/>
       <c r="C499" s="2"/>
@@ -26514,7 +26757,7 @@
       <c r="AW499" s="2"/>
       <c r="AX499" s="2"/>
     </row>
-    <row r="500" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="500" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A500" s="2"/>
       <c r="B500" s="2"/>
       <c r="C500" s="2"/>
@@ -26566,7 +26809,7 @@
       <c r="AW500" s="2"/>
       <c r="AX500" s="2"/>
     </row>
-    <row r="501" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="501" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A501" s="2"/>
       <c r="B501" s="2"/>
       <c r="C501" s="2"/>
@@ -26618,7 +26861,7 @@
       <c r="AW501" s="2"/>
       <c r="AX501" s="2"/>
     </row>
-    <row r="502" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="502" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A502" s="2"/>
       <c r="B502" s="2"/>
       <c r="C502" s="2"/>
@@ -26670,7 +26913,7 @@
       <c r="AW502" s="2"/>
       <c r="AX502" s="2"/>
     </row>
-    <row r="503" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="503" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A503" s="2"/>
       <c r="B503" s="2"/>
       <c r="C503" s="2"/>
@@ -26722,7 +26965,7 @@
       <c r="AW503" s="2"/>
       <c r="AX503" s="2"/>
     </row>
-    <row r="504" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="504" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A504" s="2"/>
       <c r="B504" s="2"/>
       <c r="C504" s="2"/>
@@ -26774,7 +27017,7 @@
       <c r="AW504" s="2"/>
       <c r="AX504" s="2"/>
     </row>
-    <row r="505" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="505" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A505" s="2"/>
       <c r="B505" s="2"/>
       <c r="C505" s="2"/>
@@ -26826,7 +27069,7 @@
       <c r="AW505" s="2"/>
       <c r="AX505" s="2"/>
     </row>
-    <row r="506" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="506" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A506" s="2"/>
       <c r="B506" s="2"/>
       <c r="C506" s="2"/>
@@ -26878,7 +27121,7 @@
       <c r="AW506" s="2"/>
       <c r="AX506" s="2"/>
     </row>
-    <row r="507" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="507" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A507" s="2"/>
       <c r="B507" s="2"/>
       <c r="C507" s="2"/>
@@ -26930,7 +27173,7 @@
       <c r="AW507" s="2"/>
       <c r="AX507" s="2"/>
     </row>
-    <row r="508" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="508" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A508" s="2"/>
       <c r="B508" s="2"/>
       <c r="C508" s="2"/>
@@ -26982,7 +27225,7 @@
       <c r="AW508" s="2"/>
       <c r="AX508" s="2"/>
     </row>
-    <row r="509" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="509" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A509" s="2"/>
       <c r="B509" s="2"/>
       <c r="C509" s="2"/>
@@ -27034,7 +27277,7 @@
       <c r="AW509" s="2"/>
       <c r="AX509" s="2"/>
     </row>
-    <row r="510" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="510" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A510" s="2"/>
       <c r="B510" s="2"/>
       <c r="C510" s="2"/>
@@ -27086,7 +27329,7 @@
       <c r="AW510" s="2"/>
       <c r="AX510" s="2"/>
     </row>
-    <row r="511" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="511" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A511" s="2"/>
       <c r="B511" s="2"/>
       <c r="C511" s="2"/>
@@ -27138,7 +27381,7 @@
       <c r="AW511" s="2"/>
       <c r="AX511" s="2"/>
     </row>
-    <row r="512" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="512" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A512" s="2"/>
       <c r="B512" s="2"/>
       <c r="C512" s="2"/>
@@ -27190,7 +27433,7 @@
       <c r="AW512" s="2"/>
       <c r="AX512" s="2"/>
     </row>
-    <row r="513" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="513" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A513" s="2"/>
       <c r="B513" s="2"/>
       <c r="C513" s="2"/>
@@ -27242,7 +27485,7 @@
       <c r="AW513" s="2"/>
       <c r="AX513" s="2"/>
     </row>
-    <row r="514" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="514" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A514" s="2"/>
       <c r="B514" s="2"/>
       <c r="C514" s="2"/>
@@ -27294,7 +27537,7 @@
       <c r="AW514" s="2"/>
       <c r="AX514" s="2"/>
     </row>
-    <row r="515" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="515" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A515" s="2"/>
       <c r="B515" s="2"/>
       <c r="C515" s="2"/>
@@ -27346,7 +27589,7 @@
       <c r="AW515" s="2"/>
       <c r="AX515" s="2"/>
     </row>
-    <row r="516" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="516" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A516" s="2"/>
       <c r="B516" s="2"/>
       <c r="C516" s="2"/>
@@ -27398,7 +27641,7 @@
       <c r="AW516" s="2"/>
       <c r="AX516" s="2"/>
     </row>
-    <row r="517" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="517" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A517" s="2"/>
       <c r="B517" s="2"/>
       <c r="C517" s="2"/>
@@ -27450,7 +27693,7 @@
       <c r="AW517" s="2"/>
       <c r="AX517" s="2"/>
     </row>
-    <row r="518" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="518" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A518" s="2"/>
       <c r="B518" s="2"/>
       <c r="C518" s="2"/>
@@ -27502,7 +27745,7 @@
       <c r="AW518" s="2"/>
       <c r="AX518" s="2"/>
     </row>
-    <row r="519" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="519" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A519" s="2"/>
       <c r="B519" s="2"/>
       <c r="C519" s="2"/>
@@ -27554,7 +27797,7 @@
       <c r="AW519" s="2"/>
       <c r="AX519" s="2"/>
     </row>
-    <row r="520" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="520" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A520" s="2"/>
       <c r="B520" s="2"/>
       <c r="C520" s="2"/>
@@ -27606,7 +27849,7 @@
       <c r="AW520" s="2"/>
       <c r="AX520" s="2"/>
     </row>
-    <row r="521" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="521" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A521" s="2"/>
       <c r="B521" s="2"/>
       <c r="C521" s="2"/>
@@ -27658,7 +27901,7 @@
       <c r="AW521" s="2"/>
       <c r="AX521" s="2"/>
     </row>
-    <row r="522" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="522" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A522" s="2"/>
       <c r="B522" s="2"/>
       <c r="C522" s="2"/>
@@ -27710,7 +27953,7 @@
       <c r="AW522" s="2"/>
       <c r="AX522" s="2"/>
     </row>
-    <row r="523" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="523" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A523" s="2"/>
       <c r="B523" s="2"/>
       <c r="C523" s="2"/>
@@ -27762,7 +28005,7 @@
       <c r="AW523" s="2"/>
       <c r="AX523" s="2"/>
     </row>
-    <row r="524" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="524" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A524" s="2"/>
       <c r="B524" s="2"/>
       <c r="C524" s="2"/>
@@ -27814,7 +28057,7 @@
       <c r="AW524" s="2"/>
       <c r="AX524" s="2"/>
     </row>
-    <row r="525" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="525" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A525" s="2"/>
       <c r="B525" s="2"/>
       <c r="C525" s="2"/>
@@ -27866,7 +28109,7 @@
       <c r="AW525" s="2"/>
       <c r="AX525" s="2"/>
     </row>
-    <row r="526" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="526" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A526" s="2"/>
       <c r="B526" s="2"/>
       <c r="C526" s="2"/>
@@ -27918,7 +28161,7 @@
       <c r="AW526" s="2"/>
       <c r="AX526" s="2"/>
     </row>
-    <row r="527" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="527" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A527" s="2"/>
       <c r="B527" s="2"/>
       <c r="C527" s="2"/>
@@ -27970,7 +28213,7 @@
       <c r="AW527" s="2"/>
       <c r="AX527" s="2"/>
     </row>
-    <row r="528" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="528" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A528" s="2"/>
       <c r="B528" s="2"/>
       <c r="C528" s="2"/>
@@ -28022,7 +28265,7 @@
       <c r="AW528" s="2"/>
       <c r="AX528" s="2"/>
     </row>
-    <row r="529" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="529" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A529" s="2"/>
       <c r="B529" s="2"/>
       <c r="C529" s="2"/>
@@ -28074,7 +28317,7 @@
       <c r="AW529" s="2"/>
       <c r="AX529" s="2"/>
     </row>
-    <row r="530" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="530" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A530" s="2"/>
       <c r="B530" s="2"/>
       <c r="C530" s="2"/>
@@ -28126,7 +28369,7 @@
       <c r="AW530" s="2"/>
       <c r="AX530" s="2"/>
     </row>
-    <row r="531" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="531" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A531" s="2"/>
       <c r="B531" s="2"/>
       <c r="C531" s="2"/>
@@ -28178,7 +28421,7 @@
       <c r="AW531" s="2"/>
       <c r="AX531" s="2"/>
     </row>
-    <row r="532" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="532" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A532" s="2"/>
       <c r="B532" s="2"/>
       <c r="C532" s="2"/>
@@ -28230,7 +28473,7 @@
       <c r="AW532" s="2"/>
       <c r="AX532" s="2"/>
     </row>
-    <row r="533" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="533" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A533" s="2"/>
       <c r="B533" s="2"/>
       <c r="C533" s="2"/>
@@ -28282,7 +28525,7 @@
       <c r="AW533" s="2"/>
       <c r="AX533" s="2"/>
     </row>
-    <row r="534" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="534" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A534" s="2"/>
       <c r="B534" s="2"/>
       <c r="C534" s="2"/>
@@ -28334,7 +28577,7 @@
       <c r="AW534" s="2"/>
       <c r="AX534" s="2"/>
     </row>
-    <row r="535" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="535" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A535" s="2"/>
       <c r="B535" s="2"/>
       <c r="C535" s="2"/>
@@ -28386,7 +28629,7 @@
       <c r="AW535" s="2"/>
       <c r="AX535" s="2"/>
     </row>
-    <row r="536" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="536" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A536" s="2"/>
       <c r="B536" s="2"/>
       <c r="C536" s="2"/>
@@ -28438,7 +28681,7 @@
       <c r="AW536" s="2"/>
       <c r="AX536" s="2"/>
     </row>
-    <row r="537" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="537" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A537" s="2"/>
       <c r="B537" s="2"/>
       <c r="C537" s="2"/>
@@ -28490,7 +28733,7 @@
       <c r="AW537" s="2"/>
       <c r="AX537" s="2"/>
     </row>
-    <row r="538" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="538" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A538" s="2"/>
       <c r="B538" s="2"/>
       <c r="C538" s="2"/>
@@ -28542,7 +28785,7 @@
       <c r="AW538" s="2"/>
       <c r="AX538" s="2"/>
     </row>
-    <row r="539" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="539" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A539" s="2"/>
       <c r="B539" s="2"/>
       <c r="C539" s="2"/>
@@ -28594,7 +28837,7 @@
       <c r="AW539" s="2"/>
       <c r="AX539" s="2"/>
     </row>
-    <row r="540" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="540" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A540" s="2"/>
       <c r="B540" s="2"/>
       <c r="C540" s="2"/>
@@ -28646,7 +28889,7 @@
       <c r="AW540" s="2"/>
       <c r="AX540" s="2"/>
     </row>
-    <row r="541" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="541" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A541" s="2"/>
       <c r="B541" s="2"/>
       <c r="C541" s="2"/>
@@ -28698,7 +28941,7 @@
       <c r="AW541" s="2"/>
       <c r="AX541" s="2"/>
     </row>
-    <row r="542" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="542" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A542" s="2"/>
       <c r="B542" s="2"/>
       <c r="C542" s="2"/>
@@ -28750,7 +28993,7 @@
       <c r="AW542" s="2"/>
       <c r="AX542" s="2"/>
     </row>
-    <row r="543" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="543" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A543" s="2"/>
       <c r="B543" s="2"/>
       <c r="C543" s="2"/>
@@ -28802,7 +29045,7 @@
       <c r="AW543" s="2"/>
       <c r="AX543" s="2"/>
     </row>
-    <row r="544" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="544" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A544" s="2"/>
       <c r="B544" s="2"/>
       <c r="C544" s="2"/>
@@ -28854,7 +29097,7 @@
       <c r="AW544" s="2"/>
       <c r="AX544" s="2"/>
     </row>
-    <row r="545" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="545" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A545" s="2"/>
       <c r="B545" s="2"/>
       <c r="C545" s="2"/>
@@ -28906,7 +29149,7 @@
       <c r="AW545" s="2"/>
       <c r="AX545" s="2"/>
     </row>
-    <row r="546" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="546" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A546" s="2"/>
       <c r="B546" s="2"/>
       <c r="C546" s="2"/>
@@ -28958,7 +29201,7 @@
       <c r="AW546" s="2"/>
       <c r="AX546" s="2"/>
     </row>
-    <row r="547" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="547" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A547" s="2"/>
       <c r="B547" s="2"/>
       <c r="C547" s="2"/>
@@ -29010,7 +29253,7 @@
       <c r="AW547" s="2"/>
       <c r="AX547" s="2"/>
     </row>
-    <row r="548" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="548" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A548" s="2"/>
       <c r="B548" s="2"/>
       <c r="C548" s="2"/>
@@ -29062,7 +29305,7 @@
       <c r="AW548" s="2"/>
       <c r="AX548" s="2"/>
     </row>
-    <row r="549" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="549" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A549" s="2"/>
       <c r="B549" s="2"/>
       <c r="C549" s="2"/>
@@ -29114,7 +29357,7 @@
       <c r="AW549" s="2"/>
       <c r="AX549" s="2"/>
     </row>
-    <row r="550" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="550" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A550" s="2"/>
       <c r="B550" s="2"/>
       <c r="C550" s="2"/>
@@ -29166,7 +29409,7 @@
       <c r="AW550" s="2"/>
       <c r="AX550" s="2"/>
     </row>
-    <row r="551" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="551" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A551" s="2"/>
       <c r="B551" s="2"/>
       <c r="C551" s="2"/>
@@ -29218,7 +29461,7 @@
       <c r="AW551" s="2"/>
       <c r="AX551" s="2"/>
     </row>
-    <row r="552" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="552" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A552" s="2"/>
       <c r="B552" s="2"/>
       <c r="C552" s="2"/>
@@ -29270,7 +29513,7 @@
       <c r="AW552" s="2"/>
       <c r="AX552" s="2"/>
     </row>
-    <row r="553" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="553" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A553" s="2"/>
       <c r="B553" s="2"/>
       <c r="C553" s="2"/>
@@ -29322,7 +29565,7 @@
       <c r="AW553" s="2"/>
       <c r="AX553" s="2"/>
     </row>
-    <row r="554" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="554" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A554" s="2"/>
       <c r="B554" s="2"/>
       <c r="C554" s="2"/>
@@ -29374,7 +29617,7 @@
       <c r="AW554" s="2"/>
       <c r="AX554" s="2"/>
     </row>
-    <row r="555" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="555" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A555" s="2"/>
       <c r="B555" s="2"/>
       <c r="C555" s="2"/>
@@ -29426,7 +29669,7 @@
       <c r="AW555" s="2"/>
       <c r="AX555" s="2"/>
     </row>
-    <row r="556" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="556" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A556" s="2"/>
       <c r="B556" s="2"/>
       <c r="C556" s="2"/>
@@ -29478,7 +29721,7 @@
       <c r="AW556" s="2"/>
       <c r="AX556" s="2"/>
     </row>
-    <row r="557" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="557" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A557" s="2"/>
       <c r="B557" s="2"/>
       <c r="C557" s="2"/>
@@ -29530,7 +29773,7 @@
       <c r="AW557" s="2"/>
       <c r="AX557" s="2"/>
     </row>
-    <row r="558" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="558" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A558" s="2"/>
       <c r="B558" s="2"/>
       <c r="C558" s="2"/>
@@ -29582,7 +29825,7 @@
       <c r="AW558" s="2"/>
       <c r="AX558" s="2"/>
     </row>
-    <row r="559" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="559" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A559" s="2"/>
       <c r="B559" s="2"/>
       <c r="C559" s="2"/>
@@ -29634,7 +29877,7 @@
       <c r="AW559" s="2"/>
       <c r="AX559" s="2"/>
     </row>
-    <row r="560" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="560" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A560" s="2"/>
       <c r="B560" s="2"/>
       <c r="C560" s="2"/>
@@ -29686,7 +29929,7 @@
       <c r="AW560" s="2"/>
       <c r="AX560" s="2"/>
     </row>
-    <row r="561" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="561" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A561" s="2"/>
       <c r="B561" s="2"/>
       <c r="C561" s="2"/>
@@ -29738,7 +29981,7 @@
       <c r="AW561" s="2"/>
       <c r="AX561" s="2"/>
     </row>
-    <row r="562" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="562" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A562" s="2"/>
       <c r="B562" s="2"/>
       <c r="C562" s="2"/>
@@ -29790,7 +30033,7 @@
       <c r="AW562" s="2"/>
       <c r="AX562" s="2"/>
     </row>
-    <row r="563" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="563" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A563" s="2"/>
       <c r="B563" s="2"/>
       <c r="C563" s="2"/>
@@ -29842,7 +30085,7 @@
       <c r="AW563" s="2"/>
       <c r="AX563" s="2"/>
     </row>
-    <row r="564" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="564" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A564" s="2"/>
       <c r="B564" s="2"/>
       <c r="C564" s="2"/>
@@ -29894,7 +30137,7 @@
       <c r="AW564" s="2"/>
       <c r="AX564" s="2"/>
     </row>
-    <row r="565" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="565" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A565" s="2"/>
       <c r="B565" s="2"/>
       <c r="C565" s="2"/>
@@ -29946,7 +30189,7 @@
       <c r="AW565" s="2"/>
       <c r="AX565" s="2"/>
     </row>
-    <row r="566" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="566" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A566" s="2"/>
       <c r="B566" s="2"/>
       <c r="C566" s="2"/>
@@ -29998,7 +30241,7 @@
       <c r="AW566" s="2"/>
       <c r="AX566" s="2"/>
     </row>
-    <row r="567" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="567" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A567" s="2"/>
       <c r="B567" s="2"/>
       <c r="C567" s="2"/>
@@ -30050,7 +30293,7 @@
       <c r="AW567" s="2"/>
       <c r="AX567" s="2"/>
     </row>
-    <row r="568" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="568" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A568" s="2"/>
       <c r="B568" s="2"/>
       <c r="C568" s="2"/>
@@ -30102,7 +30345,7 @@
       <c r="AW568" s="2"/>
       <c r="AX568" s="2"/>
     </row>
-    <row r="569" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="569" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A569" s="2"/>
       <c r="B569" s="2"/>
       <c r="C569" s="2"/>
@@ -30154,7 +30397,7 @@
       <c r="AW569" s="2"/>
       <c r="AX569" s="2"/>
     </row>
-    <row r="570" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="570" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A570" s="2"/>
       <c r="B570" s="2"/>
       <c r="C570" s="2"/>
@@ -30206,7 +30449,7 @@
       <c r="AW570" s="2"/>
       <c r="AX570" s="2"/>
     </row>
-    <row r="571" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="571" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A571" s="2"/>
       <c r="B571" s="2"/>
       <c r="C571" s="2"/>
@@ -30258,7 +30501,7 @@
       <c r="AW571" s="2"/>
       <c r="AX571" s="2"/>
     </row>
-    <row r="572" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="572" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A572" s="2"/>
       <c r="B572" s="2"/>
       <c r="C572" s="2"/>
@@ -30310,7 +30553,7 @@
       <c r="AW572" s="2"/>
       <c r="AX572" s="2"/>
     </row>
-    <row r="573" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="573" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A573" s="2"/>
       <c r="B573" s="2"/>
       <c r="C573" s="2"/>
@@ -30362,7 +30605,7 @@
       <c r="AW573" s="2"/>
       <c r="AX573" s="2"/>
     </row>
-    <row r="574" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="574" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A574" s="2"/>
       <c r="B574" s="2"/>
       <c r="C574" s="2"/>
@@ -30414,7 +30657,7 @@
       <c r="AW574" s="2"/>
       <c r="AX574" s="2"/>
     </row>
-    <row r="575" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="575" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A575" s="2"/>
       <c r="B575" s="2"/>
       <c r="C575" s="2"/>
@@ -30466,7 +30709,7 @@
       <c r="AW575" s="2"/>
       <c r="AX575" s="2"/>
     </row>
-    <row r="576" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="576" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A576" s="2"/>
       <c r="B576" s="2"/>
       <c r="C576" s="2"/>
@@ -30518,7 +30761,7 @@
       <c r="AW576" s="2"/>
       <c r="AX576" s="2"/>
     </row>
-    <row r="577" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="577" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A577" s="2"/>
       <c r="B577" s="2"/>
       <c r="C577" s="2"/>
@@ -30570,7 +30813,7 @@
       <c r="AW577" s="2"/>
       <c r="AX577" s="2"/>
     </row>
-    <row r="578" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="578" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A578" s="2"/>
       <c r="B578" s="2"/>
       <c r="C578" s="2"/>
@@ -30622,7 +30865,7 @@
       <c r="AW578" s="2"/>
       <c r="AX578" s="2"/>
     </row>
-    <row r="579" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="579" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A579" s="2"/>
       <c r="B579" s="2"/>
       <c r="C579" s="2"/>
@@ -30674,7 +30917,7 @@
       <c r="AW579" s="2"/>
       <c r="AX579" s="2"/>
     </row>
-    <row r="580" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="580" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A580" s="2"/>
       <c r="B580" s="2"/>
       <c r="C580" s="2"/>
@@ -30726,7 +30969,7 @@
       <c r="AW580" s="2"/>
       <c r="AX580" s="2"/>
     </row>
-    <row r="581" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="581" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A581" s="2"/>
       <c r="B581" s="2"/>
       <c r="C581" s="2"/>
@@ -30778,7 +31021,7 @@
       <c r="AW581" s="2"/>
       <c r="AX581" s="2"/>
     </row>
-    <row r="582" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="582" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A582" s="2"/>
       <c r="B582" s="2"/>
       <c r="C582" s="2"/>
@@ -30830,7 +31073,7 @@
       <c r="AW582" s="2"/>
       <c r="AX582" s="2"/>
     </row>
-    <row r="583" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="583" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A583" s="2"/>
       <c r="B583" s="2"/>
       <c r="C583" s="2"/>
@@ -30882,7 +31125,7 @@
       <c r="AW583" s="2"/>
       <c r="AX583" s="2"/>
     </row>
-    <row r="584" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="584" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A584" s="2"/>
       <c r="B584" s="2"/>
       <c r="C584" s="2"/>
@@ -30934,7 +31177,7 @@
       <c r="AW584" s="2"/>
       <c r="AX584" s="2"/>
     </row>
-    <row r="585" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="585" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A585" s="2"/>
       <c r="B585" s="2"/>
       <c r="C585" s="2"/>
@@ -30986,7 +31229,7 @@
       <c r="AW585" s="2"/>
       <c r="AX585" s="2"/>
     </row>
-    <row r="586" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="586" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A586" s="2"/>
       <c r="B586" s="2"/>
       <c r="C586" s="2"/>
@@ -31038,7 +31281,7 @@
       <c r="AW586" s="2"/>
       <c r="AX586" s="2"/>
     </row>
-    <row r="587" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="587" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A587" s="2"/>
       <c r="B587" s="2"/>
       <c r="C587" s="2"/>
@@ -31090,7 +31333,7 @@
       <c r="AW587" s="2"/>
       <c r="AX587" s="2"/>
     </row>
-    <row r="588" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="588" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A588" s="2"/>
       <c r="B588" s="2"/>
       <c r="C588" s="2"/>
@@ -31142,7 +31385,7 @@
       <c r="AW588" s="2"/>
       <c r="AX588" s="2"/>
     </row>
-    <row r="589" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="589" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A589" s="2"/>
       <c r="B589" s="2"/>
       <c r="C589" s="2"/>
@@ -31194,7 +31437,7 @@
       <c r="AW589" s="2"/>
       <c r="AX589" s="2"/>
     </row>
-    <row r="590" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="590" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A590" s="2"/>
       <c r="B590" s="2"/>
       <c r="C590" s="2"/>
@@ -31246,7 +31489,7 @@
       <c r="AW590" s="2"/>
       <c r="AX590" s="2"/>
     </row>
-    <row r="591" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="591" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A591" s="2"/>
       <c r="B591" s="2"/>
       <c r="C591" s="2"/>
@@ -31298,7 +31541,7 @@
       <c r="AW591" s="2"/>
       <c r="AX591" s="2"/>
     </row>
-    <row r="592" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="592" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A592" s="2"/>
       <c r="B592" s="2"/>
       <c r="C592" s="2"/>
@@ -31350,7 +31593,7 @@
       <c r="AW592" s="2"/>
       <c r="AX592" s="2"/>
     </row>
-    <row r="593" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="593" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A593" s="2"/>
       <c r="B593" s="2"/>
       <c r="C593" s="2"/>
@@ -31402,7 +31645,7 @@
       <c r="AW593" s="2"/>
       <c r="AX593" s="2"/>
     </row>
-    <row r="594" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="594" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A594" s="2"/>
       <c r="B594" s="2"/>
       <c r="C594" s="2"/>
@@ -31454,7 +31697,7 @@
       <c r="AW594" s="2"/>
       <c r="AX594" s="2"/>
     </row>
-    <row r="595" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="595" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A595" s="2"/>
       <c r="B595" s="2"/>
       <c r="C595" s="2"/>
@@ -31506,7 +31749,7 @@
       <c r="AW595" s="2"/>
       <c r="AX595" s="2"/>
     </row>
-    <row r="596" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="596" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A596" s="2"/>
       <c r="B596" s="2"/>
       <c r="C596" s="2"/>
@@ -31558,7 +31801,7 @@
       <c r="AW596" s="2"/>
       <c r="AX596" s="2"/>
     </row>
-    <row r="597" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="597" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A597" s="2"/>
       <c r="B597" s="2"/>
       <c r="C597" s="2"/>
@@ -31610,7 +31853,7 @@
       <c r="AW597" s="2"/>
       <c r="AX597" s="2"/>
     </row>
-    <row r="598" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="598" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A598" s="2"/>
       <c r="B598" s="2"/>
       <c r="C598" s="2"/>
@@ -31662,7 +31905,7 @@
       <c r="AW598" s="2"/>
       <c r="AX598" s="2"/>
     </row>
-    <row r="599" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="599" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A599" s="2"/>
       <c r="B599" s="2"/>
       <c r="C599" s="2"/>
@@ -31714,7 +31957,7 @@
       <c r="AW599" s="2"/>
       <c r="AX599" s="2"/>
     </row>
-    <row r="600" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="600" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A600" s="2"/>
       <c r="B600" s="2"/>
       <c r="C600" s="2"/>
@@ -31766,7 +32009,7 @@
       <c r="AW600" s="2"/>
       <c r="AX600" s="2"/>
     </row>
-    <row r="601" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="601" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A601" s="2"/>
       <c r="B601" s="2"/>
       <c r="C601" s="2"/>
@@ -31818,7 +32061,7 @@
       <c r="AW601" s="2"/>
       <c r="AX601" s="2"/>
     </row>
-    <row r="602" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="602" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A602" s="2"/>
       <c r="B602" s="2"/>
       <c r="C602" s="2"/>
@@ -31870,7 +32113,7 @@
       <c r="AW602" s="2"/>
       <c r="AX602" s="2"/>
     </row>
-    <row r="603" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="603" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A603" s="2"/>
       <c r="B603" s="2"/>
       <c r="C603" s="2"/>
@@ -31922,7 +32165,7 @@
       <c r="AW603" s="2"/>
       <c r="AX603" s="2"/>
     </row>
-    <row r="604" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="604" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A604" s="2"/>
       <c r="B604" s="2"/>
       <c r="C604" s="2"/>
@@ -31974,7 +32217,7 @@
       <c r="AW604" s="2"/>
       <c r="AX604" s="2"/>
     </row>
-    <row r="605" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="605" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A605" s="2"/>
       <c r="B605" s="2"/>
       <c r="C605" s="2"/>
@@ -32026,7 +32269,7 @@
       <c r="AW605" s="2"/>
       <c r="AX605" s="2"/>
     </row>
-    <row r="606" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="606" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A606" s="2"/>
       <c r="B606" s="2"/>
       <c r="C606" s="2"/>
@@ -32078,7 +32321,7 @@
       <c r="AW606" s="2"/>
       <c r="AX606" s="2"/>
     </row>
-    <row r="607" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="607" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A607" s="2"/>
       <c r="B607" s="2"/>
       <c r="C607" s="2"/>
@@ -32130,7 +32373,7 @@
       <c r="AW607" s="2"/>
       <c r="AX607" s="2"/>
     </row>
-    <row r="608" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="608" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A608" s="2"/>
       <c r="B608" s="2"/>
       <c r="C608" s="2"/>
@@ -32182,7 +32425,7 @@
       <c r="AW608" s="2"/>
       <c r="AX608" s="2"/>
     </row>
-    <row r="609" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="609" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A609" s="2"/>
       <c r="B609" s="2"/>
       <c r="C609" s="2"/>
@@ -32234,7 +32477,7 @@
       <c r="AW609" s="2"/>
       <c r="AX609" s="2"/>
     </row>
-    <row r="610" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="610" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A610" s="2"/>
       <c r="B610" s="2"/>
       <c r="C610" s="2"/>
@@ -32286,7 +32529,7 @@
       <c r="AW610" s="2"/>
       <c r="AX610" s="2"/>
     </row>
-    <row r="611" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="611" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A611" s="2"/>
       <c r="B611" s="2"/>
       <c r="C611" s="2"/>
@@ -32338,7 +32581,7 @@
       <c r="AW611" s="2"/>
       <c r="AX611" s="2"/>
     </row>
-    <row r="612" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="612" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A612" s="2"/>
       <c r="B612" s="2"/>
       <c r="C612" s="2"/>
@@ -32390,7 +32633,7 @@
       <c r="AW612" s="2"/>
       <c r="AX612" s="2"/>
     </row>
-    <row r="613" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="613" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A613" s="2"/>
       <c r="B613" s="2"/>
       <c r="C613" s="2"/>
@@ -32442,7 +32685,7 @@
       <c r="AW613" s="2"/>
       <c r="AX613" s="2"/>
     </row>
-    <row r="614" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="614" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A614" s="2"/>
       <c r="B614" s="2"/>
       <c r="C614" s="2"/>
@@ -32494,7 +32737,7 @@
       <c r="AW614" s="2"/>
       <c r="AX614" s="2"/>
     </row>
-    <row r="615" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="615" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A615" s="2"/>
       <c r="B615" s="2"/>
       <c r="C615" s="2"/>
@@ -32546,7 +32789,7 @@
       <c r="AW615" s="2"/>
       <c r="AX615" s="2"/>
     </row>
-    <row r="616" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="616" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A616" s="2"/>
       <c r="B616" s="2"/>
       <c r="C616" s="2"/>
@@ -32598,7 +32841,7 @@
       <c r="AW616" s="2"/>
       <c r="AX616" s="2"/>
     </row>
-    <row r="617" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="617" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A617" s="2"/>
       <c r="B617" s="2"/>
       <c r="C617" s="2"/>
@@ -32650,7 +32893,7 @@
       <c r="AW617" s="2"/>
       <c r="AX617" s="2"/>
     </row>
-    <row r="618" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="618" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A618" s="2"/>
       <c r="B618" s="2"/>
       <c r="C618" s="2"/>
@@ -32702,7 +32945,7 @@
       <c r="AW618" s="2"/>
       <c r="AX618" s="2"/>
     </row>
-    <row r="619" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="619" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A619" s="2"/>
       <c r="B619" s="2"/>
       <c r="C619" s="2"/>
@@ -32754,7 +32997,7 @@
       <c r="AW619" s="2"/>
       <c r="AX619" s="2"/>
     </row>
-    <row r="620" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="620" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A620" s="2"/>
       <c r="B620" s="2"/>
       <c r="C620" s="2"/>
@@ -32806,7 +33049,7 @@
       <c r="AW620" s="2"/>
       <c r="AX620" s="2"/>
     </row>
-    <row r="621" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="621" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A621" s="2"/>
       <c r="B621" s="2"/>
       <c r="C621" s="2"/>
@@ -32858,7 +33101,7 @@
       <c r="AW621" s="2"/>
       <c r="AX621" s="2"/>
     </row>
-    <row r="622" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="622" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A622" s="2"/>
       <c r="B622" s="2"/>
       <c r="C622" s="2"/>
@@ -32910,7 +33153,7 @@
       <c r="AW622" s="2"/>
       <c r="AX622" s="2"/>
     </row>
-    <row r="623" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="623" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A623" s="2"/>
       <c r="B623" s="2"/>
       <c r="C623" s="2"/>
@@ -32962,7 +33205,7 @@
       <c r="AW623" s="2"/>
       <c r="AX623" s="2"/>
     </row>
-    <row r="624" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="624" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A624" s="2"/>
       <c r="B624" s="2"/>
       <c r="C624" s="2"/>
@@ -33014,7 +33257,7 @@
       <c r="AW624" s="2"/>
       <c r="AX624" s="2"/>
     </row>
-    <row r="625" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="625" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A625" s="2"/>
       <c r="B625" s="2"/>
       <c r="C625" s="2"/>
@@ -33066,7 +33309,7 @@
       <c r="AW625" s="2"/>
       <c r="AX625" s="2"/>
     </row>
-    <row r="626" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="626" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A626" s="2"/>
       <c r="B626" s="2"/>
       <c r="C626" s="2"/>
@@ -33118,7 +33361,7 @@
       <c r="AW626" s="2"/>
       <c r="AX626" s="2"/>
     </row>
-    <row r="627" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="627" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A627" s="2"/>
       <c r="B627" s="2"/>
       <c r="C627" s="2"/>
@@ -33170,7 +33413,7 @@
       <c r="AW627" s="2"/>
       <c r="AX627" s="2"/>
     </row>
-    <row r="628" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="628" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A628" s="2"/>
       <c r="B628" s="2"/>
       <c r="C628" s="2"/>
@@ -33222,7 +33465,7 @@
       <c r="AW628" s="2"/>
       <c r="AX628" s="2"/>
     </row>
-    <row r="629" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="629" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A629" s="2"/>
       <c r="B629" s="2"/>
       <c r="C629" s="2"/>
@@ -33274,7 +33517,7 @@
       <c r="AW629" s="2"/>
       <c r="AX629" s="2"/>
     </row>
-    <row r="630" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="630" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A630" s="2"/>
       <c r="B630" s="2"/>
       <c r="C630" s="2"/>
@@ -33326,7 +33569,7 @@
       <c r="AW630" s="2"/>
       <c r="AX630" s="2"/>
     </row>
-    <row r="631" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="631" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A631" s="2"/>
       <c r="B631" s="2"/>
       <c r="C631" s="2"/>
@@ -33378,7 +33621,7 @@
       <c r="AW631" s="2"/>
       <c r="AX631" s="2"/>
     </row>
-    <row r="632" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="632" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A632" s="2"/>
       <c r="B632" s="2"/>
       <c r="C632" s="2"/>
@@ -33430,7 +33673,7 @@
       <c r="AW632" s="2"/>
       <c r="AX632" s="2"/>
     </row>
-    <row r="633" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="633" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A633" s="2"/>
       <c r="B633" s="2"/>
       <c r="C633" s="2"/>
@@ -33482,7 +33725,7 @@
       <c r="AW633" s="2"/>
       <c r="AX633" s="2"/>
     </row>
-    <row r="634" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="634" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A634" s="2"/>
       <c r="B634" s="2"/>
       <c r="C634" s="2"/>
@@ -33534,7 +33777,7 @@
       <c r="AW634" s="2"/>
       <c r="AX634" s="2"/>
     </row>
-    <row r="635" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="635" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A635" s="2"/>
       <c r="B635" s="2"/>
       <c r="C635" s="2"/>
@@ -33586,7 +33829,7 @@
       <c r="AW635" s="2"/>
       <c r="AX635" s="2"/>
     </row>
-    <row r="636" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="636" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A636" s="2"/>
       <c r="B636" s="2"/>
       <c r="C636" s="2"/>
@@ -33638,7 +33881,7 @@
       <c r="AW636" s="2"/>
       <c r="AX636" s="2"/>
     </row>
-    <row r="637" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="637" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A637" s="2"/>
       <c r="B637" s="2"/>
       <c r="C637" s="2"/>
@@ -33690,7 +33933,7 @@
       <c r="AW637" s="2"/>
       <c r="AX637" s="2"/>
     </row>
-    <row r="638" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="638" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A638" s="2"/>
       <c r="B638" s="2"/>
       <c r="C638" s="2"/>
@@ -33742,7 +33985,7 @@
       <c r="AW638" s="2"/>
       <c r="AX638" s="2"/>
     </row>
-    <row r="639" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="639" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A639" s="2"/>
       <c r="B639" s="2"/>
       <c r="C639" s="2"/>
@@ -33794,7 +34037,7 @@
       <c r="AW639" s="2"/>
       <c r="AX639" s="2"/>
     </row>
-    <row r="640" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="640" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A640" s="2"/>
       <c r="B640" s="2"/>
       <c r="C640" s="2"/>
@@ -33846,7 +34089,7 @@
       <c r="AW640" s="2"/>
       <c r="AX640" s="2"/>
     </row>
-    <row r="641" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="641" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A641" s="2"/>
       <c r="B641" s="2"/>
       <c r="C641" s="2"/>
@@ -33898,7 +34141,7 @@
       <c r="AW641" s="2"/>
       <c r="AX641" s="2"/>
     </row>
-    <row r="642" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="642" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A642" s="2"/>
       <c r="B642" s="2"/>
       <c r="C642" s="2"/>
@@ -33950,7 +34193,7 @@
       <c r="AW642" s="2"/>
       <c r="AX642" s="2"/>
     </row>
-    <row r="643" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="643" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A643" s="2"/>
       <c r="B643" s="2"/>
       <c r="C643" s="2"/>
@@ -34002,7 +34245,7 @@
       <c r="AW643" s="2"/>
       <c r="AX643" s="2"/>
     </row>
-    <row r="644" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="644" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A644" s="2"/>
       <c r="B644" s="2"/>
       <c r="C644" s="2"/>
@@ -34054,7 +34297,7 @@
       <c r="AW644" s="2"/>
       <c r="AX644" s="2"/>
     </row>
-    <row r="645" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="645" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A645" s="2"/>
       <c r="B645" s="2"/>
       <c r="C645" s="2"/>
@@ -34106,7 +34349,7 @@
       <c r="AW645" s="2"/>
       <c r="AX645" s="2"/>
     </row>
-    <row r="646" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="646" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A646" s="2"/>
       <c r="B646" s="2"/>
       <c r="C646" s="2"/>
@@ -34158,7 +34401,7 @@
       <c r="AW646" s="2"/>
       <c r="AX646" s="2"/>
     </row>
-    <row r="647" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="647" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A647" s="2"/>
       <c r="B647" s="2"/>
       <c r="C647" s="2"/>
@@ -34210,7 +34453,7 @@
       <c r="AW647" s="2"/>
       <c r="AX647" s="2"/>
     </row>
-    <row r="648" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="648" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A648" s="2"/>
       <c r="B648" s="2"/>
       <c r="C648" s="2"/>
@@ -34262,7 +34505,7 @@
       <c r="AW648" s="2"/>
       <c r="AX648" s="2"/>
     </row>
-    <row r="649" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="649" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A649" s="2"/>
       <c r="B649" s="2"/>
       <c r="C649" s="2"/>
@@ -34314,7 +34557,7 @@
       <c r="AW649" s="2"/>
       <c r="AX649" s="2"/>
     </row>
-    <row r="650" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="650" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A650" s="2"/>
       <c r="B650" s="2"/>
       <c r="C650" s="2"/>
@@ -34366,7 +34609,7 @@
       <c r="AW650" s="2"/>
       <c r="AX650" s="2"/>
     </row>
-    <row r="651" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="651" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A651" s="2"/>
       <c r="B651" s="2"/>
       <c r="C651" s="2"/>
@@ -34418,7 +34661,7 @@
       <c r="AW651" s="2"/>
       <c r="AX651" s="2"/>
     </row>
-    <row r="652" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="652" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A652" s="2"/>
       <c r="B652" s="2"/>
       <c r="C652" s="2"/>
@@ -34470,7 +34713,7 @@
       <c r="AW652" s="2"/>
       <c r="AX652" s="2"/>
     </row>
-    <row r="653" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="653" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A653" s="2"/>
       <c r="B653" s="2"/>
       <c r="C653" s="2"/>
@@ -34522,7 +34765,7 @@
       <c r="AW653" s="2"/>
       <c r="AX653" s="2"/>
     </row>
-    <row r="654" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="654" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A654" s="2"/>
       <c r="B654" s="2"/>
       <c r="C654" s="2"/>
@@ -34574,7 +34817,7 @@
       <c r="AW654" s="2"/>
       <c r="AX654" s="2"/>
     </row>
-    <row r="655" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="655" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A655" s="2"/>
       <c r="B655" s="2"/>
       <c r="C655" s="2"/>
@@ -34626,7 +34869,7 @@
       <c r="AW655" s="2"/>
       <c r="AX655" s="2"/>
     </row>
-    <row r="656" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="656" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A656" s="2"/>
       <c r="B656" s="2"/>
       <c r="C656" s="2"/>
@@ -34678,7 +34921,7 @@
       <c r="AW656" s="2"/>
       <c r="AX656" s="2"/>
     </row>
-    <row r="657" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="657" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A657" s="2"/>
       <c r="B657" s="2"/>
       <c r="C657" s="2"/>
@@ -34730,7 +34973,7 @@
       <c r="AW657" s="2"/>
       <c r="AX657" s="2"/>
     </row>
-    <row r="658" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="658" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A658" s="2"/>
       <c r="B658" s="2"/>
       <c r="C658" s="2"/>
@@ -34782,7 +35025,7 @@
       <c r="AW658" s="2"/>
       <c r="AX658" s="2"/>
     </row>
-    <row r="659" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="659" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A659" s="2"/>
       <c r="B659" s="2"/>
       <c r="C659" s="2"/>
@@ -34834,7 +35077,7 @@
       <c r="AW659" s="2"/>
       <c r="AX659" s="2"/>
     </row>
-    <row r="660" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="660" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A660" s="2"/>
       <c r="B660" s="2"/>
       <c r="C660" s="2"/>
@@ -34886,7 +35129,7 @@
       <c r="AW660" s="2"/>
       <c r="AX660" s="2"/>
     </row>
-    <row r="661" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="661" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A661" s="2"/>
       <c r="B661" s="2"/>
       <c r="C661" s="2"/>
@@ -34938,7 +35181,7 @@
       <c r="AW661" s="2"/>
       <c r="AX661" s="2"/>
     </row>
-    <row r="662" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="662" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A662" s="2"/>
       <c r="B662" s="2"/>
       <c r="C662" s="2"/>
@@ -34990,7 +35233,7 @@
       <c r="AW662" s="2"/>
       <c r="AX662" s="2"/>
     </row>
-    <row r="663" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="663" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A663" s="2"/>
       <c r="B663" s="2"/>
       <c r="C663" s="2"/>
@@ -35042,7 +35285,7 @@
       <c r="AW663" s="2"/>
       <c r="AX663" s="2"/>
     </row>
-    <row r="664" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="664" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A664" s="2"/>
       <c r="B664" s="2"/>
       <c r="C664" s="2"/>
@@ -35094,7 +35337,7 @@
       <c r="AW664" s="2"/>
       <c r="AX664" s="2"/>
     </row>
-    <row r="665" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="665" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A665" s="2"/>
       <c r="B665" s="2"/>
       <c r="C665" s="2"/>
@@ -35146,7 +35389,7 @@
       <c r="AW665" s="2"/>
       <c r="AX665" s="2"/>
     </row>
-    <row r="666" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="666" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A666" s="2"/>
       <c r="B666" s="2"/>
       <c r="C666" s="2"/>
@@ -35198,7 +35441,7 @@
       <c r="AW666" s="2"/>
       <c r="AX666" s="2"/>
     </row>
-    <row r="667" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="667" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A667" s="2"/>
       <c r="B667" s="2"/>
       <c r="C667" s="2"/>
@@ -35250,7 +35493,7 @@
       <c r="AW667" s="2"/>
       <c r="AX667" s="2"/>
     </row>
-    <row r="668" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="668" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A668" s="2"/>
       <c r="B668" s="2"/>
       <c r="C668" s="2"/>
@@ -35302,7 +35545,7 @@
       <c r="AW668" s="2"/>
       <c r="AX668" s="2"/>
     </row>
-    <row r="669" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="669" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A669" s="2"/>
       <c r="B669" s="2"/>
       <c r="C669" s="2"/>
@@ -35354,7 +35597,7 @@
       <c r="AW669" s="2"/>
       <c r="AX669" s="2"/>
     </row>
-    <row r="670" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="670" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A670" s="2"/>
       <c r="B670" s="2"/>
       <c r="C670" s="2"/>
@@ -35406,7 +35649,7 @@
       <c r="AW670" s="2"/>
       <c r="AX670" s="2"/>
     </row>
-    <row r="671" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="671" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A671" s="2"/>
       <c r="B671" s="2"/>
       <c r="C671" s="2"/>
@@ -35458,7 +35701,7 @@
       <c r="AW671" s="2"/>
       <c r="AX671" s="2"/>
     </row>
-    <row r="672" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="672" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A672" s="2"/>
       <c r="B672" s="2"/>
       <c r="C672" s="2"/>
@@ -35510,7 +35753,7 @@
       <c r="AW672" s="2"/>
       <c r="AX672" s="2"/>
     </row>
-    <row r="673" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="673" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A673" s="2"/>
       <c r="B673" s="2"/>
       <c r="C673" s="2"/>
@@ -35562,7 +35805,7 @@
       <c r="AW673" s="2"/>
       <c r="AX673" s="2"/>
     </row>
-    <row r="674" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="674" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A674" s="2"/>
       <c r="B674" s="2"/>
       <c r="C674" s="2"/>
@@ -35614,7 +35857,7 @@
       <c r="AW674" s="2"/>
       <c r="AX674" s="2"/>
     </row>
-    <row r="675" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="675" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A675" s="2"/>
       <c r="B675" s="2"/>
       <c r="C675" s="2"/>
@@ -35666,7 +35909,7 @@
       <c r="AW675" s="2"/>
       <c r="AX675" s="2"/>
     </row>
-    <row r="676" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="676" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A676" s="2"/>
       <c r="B676" s="2"/>
       <c r="C676" s="2"/>
@@ -35718,7 +35961,7 @@
       <c r="AW676" s="2"/>
       <c r="AX676" s="2"/>
     </row>
-    <row r="677" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="677" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A677" s="2"/>
       <c r="B677" s="2"/>
       <c r="C677" s="2"/>
@@ -35770,7 +36013,7 @@
       <c r="AW677" s="2"/>
       <c r="AX677" s="2"/>
     </row>
-    <row r="678" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="678" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A678" s="2"/>
       <c r="B678" s="2"/>
       <c r="C678" s="2"/>
@@ -35822,7 +36065,7 @@
       <c r="AW678" s="2"/>
       <c r="AX678" s="2"/>
     </row>
-    <row r="679" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="679" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A679" s="2"/>
       <c r="B679" s="2"/>
       <c r="C679" s="2"/>
@@ -35874,7 +36117,7 @@
       <c r="AW679" s="2"/>
       <c r="AX679" s="2"/>
     </row>
-    <row r="680" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="680" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A680" s="2"/>
       <c r="B680" s="2"/>
       <c r="C680" s="2"/>
@@ -35926,7 +36169,7 @@
       <c r="AW680" s="2"/>
       <c r="AX680" s="2"/>
     </row>
-    <row r="681" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="681" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A681" s="2"/>
       <c r="B681" s="2"/>
       <c r="C681" s="2"/>
@@ -35978,7 +36221,7 @@
       <c r="AW681" s="2"/>
       <c r="AX681" s="2"/>
     </row>
-    <row r="682" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="682" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A682" s="2"/>
       <c r="B682" s="2"/>
       <c r="C682" s="2"/>
@@ -36030,7 +36273,7 @@
       <c r="AW682" s="2"/>
       <c r="AX682" s="2"/>
     </row>
-    <row r="683" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="683" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A683" s="2"/>
       <c r="B683" s="2"/>
       <c r="C683" s="2"/>
@@ -36082,7 +36325,7 @@
       <c r="AW683" s="2"/>
       <c r="AX683" s="2"/>
     </row>
-    <row r="684" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="684" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A684" s="2"/>
       <c r="B684" s="2"/>
       <c r="C684" s="2"/>
@@ -36134,7 +36377,7 @@
       <c r="AW684" s="2"/>
       <c r="AX684" s="2"/>
     </row>
-    <row r="685" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="685" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A685" s="2"/>
       <c r="B685" s="2"/>
       <c r="C685" s="2"/>
@@ -36186,7 +36429,7 @@
       <c r="AW685" s="2"/>
       <c r="AX685" s="2"/>
     </row>
-    <row r="686" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="686" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A686" s="2"/>
       <c r="B686" s="2"/>
       <c r="C686" s="2"/>
@@ -36238,7 +36481,7 @@
       <c r="AW686" s="2"/>
       <c r="AX686" s="2"/>
     </row>
-    <row r="687" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="687" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A687" s="2"/>
       <c r="B687" s="2"/>
       <c r="C687" s="2"/>
@@ -36290,7 +36533,7 @@
       <c r="AW687" s="2"/>
       <c r="AX687" s="2"/>
     </row>
-    <row r="688" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="688" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A688" s="2"/>
       <c r="B688" s="2"/>
       <c r="C688" s="2"/>
@@ -36342,7 +36585,7 @@
       <c r="AW688" s="2"/>
       <c r="AX688" s="2"/>
     </row>
-    <row r="689" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="689" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A689" s="2"/>
       <c r="B689" s="2"/>
       <c r="C689" s="2"/>
@@ -36394,7 +36637,7 @@
       <c r="AW689" s="2"/>
       <c r="AX689" s="2"/>
     </row>
-    <row r="690" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="690" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A690" s="2"/>
       <c r="B690" s="2"/>
       <c r="C690" s="2"/>
@@ -36446,7 +36689,7 @@
       <c r="AW690" s="2"/>
       <c r="AX690" s="2"/>
     </row>
-    <row r="691" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="691" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A691" s="2"/>
       <c r="B691" s="2"/>
       <c r="C691" s="2"/>
@@ -36498,7 +36741,7 @@
       <c r="AW691" s="2"/>
       <c r="AX691" s="2"/>
     </row>
-    <row r="692" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="692" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A692" s="2"/>
       <c r="B692" s="2"/>
       <c r="C692" s="2"/>
@@ -36550,7 +36793,7 @@
       <c r="AW692" s="2"/>
       <c r="AX692" s="2"/>
     </row>
-    <row r="693" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="693" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A693" s="2"/>
       <c r="B693" s="2"/>
       <c r="C693" s="2"/>
@@ -36602,7 +36845,7 @@
       <c r="AW693" s="2"/>
       <c r="AX693" s="2"/>
     </row>
-    <row r="694" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="694" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A694" s="2"/>
       <c r="B694" s="2"/>
       <c r="C694" s="2"/>
@@ -36654,7 +36897,7 @@
       <c r="AW694" s="2"/>
       <c r="AX694" s="2"/>
     </row>
-    <row r="695" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="695" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A695" s="2"/>
       <c r="B695" s="2"/>
       <c r="C695" s="2"/>
@@ -36706,7 +36949,7 @@
       <c r="AW695" s="2"/>
       <c r="AX695" s="2"/>
     </row>
-    <row r="696" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="696" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A696" s="2"/>
       <c r="B696" s="2"/>
       <c r="C696" s="2"/>
@@ -36758,7 +37001,7 @@
       <c r="AW696" s="2"/>
       <c r="AX696" s="2"/>
     </row>
-    <row r="697" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="697" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A697" s="2"/>
       <c r="B697" s="2"/>
       <c r="C697" s="2"/>
@@ -36810,7 +37053,7 @@
       <c r="AW697" s="2"/>
       <c r="AX697" s="2"/>
     </row>
-    <row r="698" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="698" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A698" s="2"/>
       <c r="B698" s="2"/>
       <c r="C698" s="2"/>
@@ -36862,7 +37105,7 @@
       <c r="AW698" s="2"/>
       <c r="AX698" s="2"/>
     </row>
-    <row r="699" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="699" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A699" s="2"/>
       <c r="B699" s="2"/>
       <c r="C699" s="2"/>
@@ -36914,7 +37157,7 @@
       <c r="AW699" s="2"/>
       <c r="AX699" s="2"/>
     </row>
-    <row r="700" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="700" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A700" s="2"/>
       <c r="B700" s="2"/>
       <c r="C700" s="2"/>
@@ -36966,7 +37209,7 @@
       <c r="AW700" s="2"/>
       <c r="AX700" s="2"/>
     </row>
-    <row r="701" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="701" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A701" s="2"/>
       <c r="B701" s="2"/>
       <c r="C701" s="2"/>
@@ -37018,7 +37261,7 @@
       <c r="AW701" s="2"/>
       <c r="AX701" s="2"/>
     </row>
-    <row r="702" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="702" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A702" s="2"/>
       <c r="B702" s="2"/>
       <c r="C702" s="2"/>
@@ -37070,7 +37313,7 @@
       <c r="AW702" s="2"/>
       <c r="AX702" s="2"/>
     </row>
-    <row r="703" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="703" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A703" s="2"/>
       <c r="B703" s="2"/>
       <c r="C703" s="2"/>
@@ -37122,7 +37365,7 @@
       <c r="AW703" s="2"/>
       <c r="AX703" s="2"/>
     </row>
-    <row r="704" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="704" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A704" s="2"/>
       <c r="B704" s="2"/>
       <c r="C704" s="2"/>
@@ -37174,7 +37417,7 @@
       <c r="AW704" s="2"/>
       <c r="AX704" s="2"/>
     </row>
-    <row r="705" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="705" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A705" s="2"/>
       <c r="B705" s="2"/>
       <c r="C705" s="2"/>
@@ -37226,7 +37469,7 @@
       <c r="AW705" s="2"/>
       <c r="AX705" s="2"/>
     </row>
-    <row r="706" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="706" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A706" s="2"/>
       <c r="B706" s="2"/>
       <c r="C706" s="2"/>
@@ -37278,7 +37521,7 @@
       <c r="AW706" s="2"/>
       <c r="AX706" s="2"/>
     </row>
-    <row r="707" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="707" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A707" s="2"/>
       <c r="B707" s="2"/>
       <c r="C707" s="2"/>
@@ -37330,7 +37573,7 @@
       <c r="AW707" s="2"/>
       <c r="AX707" s="2"/>
     </row>
-    <row r="708" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="708" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A708" s="2"/>
       <c r="B708" s="2"/>
       <c r="C708" s="2"/>
@@ -37382,7 +37625,7 @@
       <c r="AW708" s="2"/>
       <c r="AX708" s="2"/>
     </row>
-    <row r="709" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="709" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A709" s="2"/>
       <c r="B709" s="2"/>
       <c r="C709" s="2"/>
@@ -37434,7 +37677,7 @@
       <c r="AW709" s="2"/>
       <c r="AX709" s="2"/>
     </row>
-    <row r="710" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="710" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A710" s="2"/>
       <c r="B710" s="2"/>
       <c r="C710" s="2"/>
@@ -37486,7 +37729,7 @@
       <c r="AW710" s="2"/>
       <c r="AX710" s="2"/>
     </row>
-    <row r="711" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="711" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A711" s="2"/>
       <c r="B711" s="2"/>
       <c r="C711" s="2"/>
@@ -37538,7 +37781,7 @@
       <c r="AW711" s="2"/>
       <c r="AX711" s="2"/>
     </row>
-    <row r="712" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="712" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A712" s="2"/>
       <c r="B712" s="2"/>
       <c r="C712" s="2"/>
@@ -37590,7 +37833,7 @@
       <c r="AW712" s="2"/>
       <c r="AX712" s="2"/>
     </row>
-    <row r="713" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="713" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A713" s="2"/>
       <c r="B713" s="2"/>
       <c r="C713" s="2"/>
@@ -37642,7 +37885,7 @@
       <c r="AW713" s="2"/>
       <c r="AX713" s="2"/>
     </row>
-    <row r="714" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="714" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A714" s="2"/>
       <c r="B714" s="2"/>
       <c r="C714" s="2"/>
@@ -37694,7 +37937,7 @@
       <c r="AW714" s="2"/>
       <c r="AX714" s="2"/>
     </row>
-    <row r="715" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="715" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A715" s="2"/>
       <c r="B715" s="2"/>
       <c r="C715" s="2"/>
@@ -37746,7 +37989,7 @@
       <c r="AW715" s="2"/>
       <c r="AX715" s="2"/>
     </row>
-    <row r="716" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="716" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A716" s="2"/>
       <c r="B716" s="2"/>
       <c r="C716" s="2"/>
@@ -37798,7 +38041,7 @@
       <c r="AW716" s="2"/>
       <c r="AX716" s="2"/>
     </row>
-    <row r="717" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="717" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A717" s="2"/>
       <c r="B717" s="2"/>
       <c r="C717" s="2"/>
@@ -37850,7 +38093,7 @@
       <c r="AW717" s="2"/>
       <c r="AX717" s="2"/>
     </row>
-    <row r="718" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="718" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A718" s="2"/>
       <c r="B718" s="2"/>
       <c r="C718" s="2"/>
@@ -37902,7 +38145,7 @@
       <c r="AW718" s="2"/>
       <c r="AX718" s="2"/>
     </row>
-    <row r="719" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="719" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A719" s="2"/>
       <c r="B719" s="2"/>
       <c r="C719" s="2"/>
@@ -37954,7 +38197,7 @@
       <c r="AW719" s="2"/>
       <c r="AX719" s="2"/>
     </row>
-    <row r="720" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="720" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A720" s="2"/>
       <c r="B720" s="2"/>
       <c r="C720" s="2"/>
@@ -38006,7 +38249,7 @@
       <c r="AW720" s="2"/>
       <c r="AX720" s="2"/>
     </row>
-    <row r="721" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="721" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A721" s="2"/>
       <c r="B721" s="2"/>
       <c r="C721" s="2"/>
@@ -38058,7 +38301,7 @@
       <c r="AW721" s="2"/>
       <c r="AX721" s="2"/>
     </row>
-    <row r="722" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="722" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A722" s="2"/>
       <c r="B722" s="2"/>
       <c r="C722" s="2"/>
@@ -38110,7 +38353,7 @@
       <c r="AW722" s="2"/>
       <c r="AX722" s="2"/>
     </row>
-    <row r="723" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="723" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A723" s="2"/>
       <c r="B723" s="2"/>
       <c r="C723" s="2"/>
@@ -38162,7 +38405,7 @@
       <c r="AW723" s="2"/>
       <c r="AX723" s="2"/>
     </row>
-    <row r="724" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="724" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A724" s="2"/>
       <c r="B724" s="2"/>
       <c r="C724" s="2"/>
@@ -38214,7 +38457,7 @@
       <c r="AW724" s="2"/>
       <c r="AX724" s="2"/>
     </row>
-    <row r="725" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="725" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A725" s="2"/>
       <c r="B725" s="2"/>
       <c r="C725" s="2"/>
@@ -38266,7 +38509,7 @@
       <c r="AW725" s="2"/>
       <c r="AX725" s="2"/>
     </row>
-    <row r="726" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="726" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A726" s="2"/>
       <c r="B726" s="2"/>
       <c r="C726" s="2"/>
@@ -38318,7 +38561,7 @@
       <c r="AW726" s="2"/>
       <c r="AX726" s="2"/>
     </row>
-    <row r="727" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="727" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A727" s="2"/>
       <c r="B727" s="2"/>
       <c r="C727" s="2"/>
@@ -38370,7 +38613,7 @@
       <c r="AW727" s="2"/>
       <c r="AX727" s="2"/>
     </row>
-    <row r="728" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="728" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A728" s="2"/>
       <c r="B728" s="2"/>
       <c r="C728" s="2"/>
@@ -38422,7 +38665,7 @@
       <c r="AW728" s="2"/>
       <c r="AX728" s="2"/>
     </row>
-    <row r="729" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="729" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A729" s="2"/>
       <c r="B729" s="2"/>
       <c r="C729" s="2"/>
@@ -38474,7 +38717,7 @@
       <c r="AW729" s="2"/>
       <c r="AX729" s="2"/>
     </row>
-    <row r="730" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="730" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A730" s="2"/>
       <c r="B730" s="2"/>
       <c r="C730" s="2"/>
@@ -38526,7 +38769,7 @@
       <c r="AW730" s="2"/>
       <c r="AX730" s="2"/>
     </row>
-    <row r="731" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="731" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A731" s="2"/>
       <c r="B731" s="2"/>
       <c r="C731" s="2"/>
@@ -38578,7 +38821,7 @@
       <c r="AW731" s="2"/>
       <c r="AX731" s="2"/>
     </row>
-    <row r="732" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="732" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A732" s="2"/>
       <c r="B732" s="2"/>
       <c r="C732" s="2"/>
@@ -38630,7 +38873,7 @@
       <c r="AW732" s="2"/>
       <c r="AX732" s="2"/>
     </row>
-    <row r="733" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="733" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A733" s="2"/>
       <c r="B733" s="2"/>
       <c r="C733" s="2"/>
@@ -38682,7 +38925,7 @@
       <c r="AW733" s="2"/>
       <c r="AX733" s="2"/>
     </row>
-    <row r="734" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="734" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A734" s="2"/>
       <c r="B734" s="2"/>
       <c r="C734" s="2"/>
@@ -38734,7 +38977,7 @@
       <c r="AW734" s="2"/>
       <c r="AX734" s="2"/>
     </row>
-    <row r="735" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="735" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A735" s="2"/>
       <c r="B735" s="2"/>
       <c r="C735" s="2"/>
@@ -38786,7 +39029,7 @@
       <c r="AW735" s="2"/>
       <c r="AX735" s="2"/>
     </row>
-    <row r="736" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="736" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A736" s="2"/>
       <c r="B736" s="2"/>
       <c r="C736" s="2"/>
@@ -38838,7 +39081,7 @@
       <c r="AW736" s="2"/>
       <c r="AX736" s="2"/>
     </row>
-    <row r="737" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="737" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A737" s="2"/>
       <c r="B737" s="2"/>
       <c r="C737" s="2"/>
@@ -38890,7 +39133,7 @@
       <c r="AW737" s="2"/>
       <c r="AX737" s="2"/>
     </row>
-    <row r="738" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="738" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A738" s="2"/>
       <c r="B738" s="2"/>
       <c r="C738" s="2"/>
@@ -38942,7 +39185,7 @@
       <c r="AW738" s="2"/>
       <c r="AX738" s="2"/>
     </row>
-    <row r="739" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="739" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A739" s="2"/>
       <c r="B739" s="2"/>
       <c r="C739" s="2"/>
@@ -38994,7 +39237,7 @@
       <c r="AW739" s="2"/>
       <c r="AX739" s="2"/>
     </row>
-    <row r="740" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="740" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A740" s="2"/>
       <c r="B740" s="2"/>
       <c r="C740" s="2"/>
@@ -39046,7 +39289,7 @@
       <c r="AW740" s="2"/>
       <c r="AX740" s="2"/>
     </row>
-    <row r="741" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="741" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A741" s="2"/>
       <c r="B741" s="2"/>
       <c r="C741" s="2"/>
@@ -39098,7 +39341,7 @@
       <c r="AW741" s="2"/>
       <c r="AX741" s="2"/>
     </row>
-    <row r="742" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="742" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A742" s="2"/>
       <c r="B742" s="2"/>
       <c r="C742" s="2"/>
@@ -39150,7 +39393,7 @@
       <c r="AW742" s="2"/>
       <c r="AX742" s="2"/>
     </row>
-    <row r="743" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="743" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A743" s="2"/>
       <c r="B743" s="2"/>
       <c r="C743" s="2"/>
@@ -39202,7 +39445,7 @@
       <c r="AW743" s="2"/>
       <c r="AX743" s="2"/>
     </row>
-    <row r="744" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="744" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A744" s="2"/>
       <c r="B744" s="2"/>
       <c r="C744" s="2"/>
@@ -39254,7 +39497,7 @@
       <c r="AW744" s="2"/>
       <c r="AX744" s="2"/>
     </row>
-    <row r="745" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="745" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A745" s="2"/>
       <c r="B745" s="2"/>
       <c r="C745" s="2"/>
@@ -39306,7 +39549,7 @@
       <c r="AW745" s="2"/>
       <c r="AX745" s="2"/>
     </row>
-    <row r="746" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="746" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A746" s="2"/>
       <c r="B746" s="2"/>
       <c r="C746" s="2"/>
@@ -39358,7 +39601,7 @@
       <c r="AW746" s="2"/>
       <c r="AX746" s="2"/>
     </row>
-    <row r="747" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="747" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A747" s="2"/>
       <c r="B747" s="2"/>
       <c r="C747" s="2"/>
@@ -39410,7 +39653,7 @@
       <c r="AW747" s="2"/>
       <c r="AX747" s="2"/>
     </row>
-    <row r="748" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="748" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A748" s="2"/>
       <c r="B748" s="2"/>
       <c r="C748" s="2"/>
@@ -39462,7 +39705,7 @@
       <c r="AW748" s="2"/>
       <c r="AX748" s="2"/>
     </row>
-    <row r="749" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="749" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A749" s="2"/>
       <c r="B749" s="2"/>
       <c r="C749" s="2"/>
@@ -39514,7 +39757,7 @@
       <c r="AW749" s="2"/>
       <c r="AX749" s="2"/>
     </row>
-    <row r="750" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="750" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A750" s="2"/>
       <c r="B750" s="2"/>
       <c r="C750" s="2"/>
@@ -39566,7 +39809,7 @@
       <c r="AW750" s="2"/>
       <c r="AX750" s="2"/>
     </row>
-    <row r="751" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="751" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A751" s="2"/>
       <c r="B751" s="2"/>
       <c r="C751" s="2"/>
@@ -39618,7 +39861,7 @@
       <c r="AW751" s="2"/>
       <c r="AX751" s="2"/>
     </row>
-    <row r="752" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="752" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A752" s="2"/>
       <c r="B752" s="2"/>
       <c r="C752" s="2"/>
@@ -39670,7 +39913,7 @@
       <c r="AW752" s="2"/>
       <c r="AX752" s="2"/>
     </row>
-    <row r="753" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="753" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A753" s="2"/>
       <c r="B753" s="2"/>
       <c r="C753" s="2"/>
@@ -39722,7 +39965,7 @@
       <c r="AW753" s="2"/>
       <c r="AX753" s="2"/>
     </row>
-    <row r="754" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="754" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A754" s="2"/>
       <c r="B754" s="2"/>
       <c r="C754" s="2"/>
@@ -39774,7 +40017,7 @@
       <c r="AW754" s="2"/>
       <c r="AX754" s="2"/>
     </row>
-    <row r="755" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="755" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A755" s="2"/>
       <c r="B755" s="2"/>
       <c r="C755" s="2"/>
@@ -39826,7 +40069,7 @@
       <c r="AW755" s="2"/>
       <c r="AX755" s="2"/>
     </row>
-    <row r="756" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="756" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A756" s="2"/>
       <c r="B756" s="2"/>
       <c r="C756" s="2"/>
@@ -39878,7 +40121,7 @@
       <c r="AW756" s="2"/>
       <c r="AX756" s="2"/>
     </row>
-    <row r="757" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="757" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A757" s="2"/>
       <c r="B757" s="2"/>
       <c r="C757" s="2"/>
@@ -39930,7 +40173,7 @@
       <c r="AW757" s="2"/>
       <c r="AX757" s="2"/>
     </row>
-    <row r="758" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="758" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A758" s="2"/>
       <c r="B758" s="2"/>
       <c r="C758" s="2"/>
@@ -39982,7 +40225,7 @@
       <c r="AW758" s="2"/>
       <c r="AX758" s="2"/>
     </row>
-    <row r="759" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="759" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A759" s="2"/>
       <c r="B759" s="2"/>
       <c r="C759" s="2"/>
@@ -40034,7 +40277,7 @@
       <c r="AW759" s="2"/>
       <c r="AX759" s="2"/>
     </row>
-    <row r="760" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="760" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A760" s="2"/>
       <c r="B760" s="2"/>
       <c r="C760" s="2"/>
@@ -40086,7 +40329,7 @@
       <c r="AW760" s="2"/>
       <c r="AX760" s="2"/>
     </row>
-    <row r="761" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="761" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A761" s="2"/>
       <c r="B761" s="2"/>
       <c r="C761" s="2"/>
@@ -40138,7 +40381,7 @@
       <c r="AW761" s="2"/>
       <c r="AX761" s="2"/>
     </row>
-    <row r="762" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="762" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A762" s="2"/>
       <c r="B762" s="2"/>
       <c r="C762" s="2"/>
@@ -40190,7 +40433,7 @@
       <c r="AW762" s="2"/>
       <c r="AX762" s="2"/>
     </row>
-    <row r="763" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="763" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A763" s="2"/>
       <c r="B763" s="2"/>
       <c r="C763" s="2"/>
@@ -40242,7 +40485,7 @@
       <c r="AW763" s="2"/>
       <c r="AX763" s="2"/>
     </row>
-    <row r="764" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="764" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A764" s="2"/>
       <c r="B764" s="2"/>
       <c r="C764" s="2"/>
@@ -40294,7 +40537,7 @@
       <c r="AW764" s="2"/>
       <c r="AX764" s="2"/>
     </row>
-    <row r="765" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="765" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A765" s="2"/>
       <c r="B765" s="2"/>
       <c r="C765" s="2"/>
@@ -40346,7 +40589,7 @@
       <c r="AW765" s="2"/>
       <c r="AX765" s="2"/>
     </row>
-    <row r="766" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="766" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A766" s="2"/>
       <c r="B766" s="2"/>
       <c r="C766" s="2"/>
@@ -40398,7 +40641,7 @@
       <c r="AW766" s="2"/>
       <c r="AX766" s="2"/>
     </row>
-    <row r="767" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="767" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A767" s="2"/>
       <c r="B767" s="2"/>
       <c r="C767" s="2"/>
@@ -40450,7 +40693,7 @@
       <c r="AW767" s="2"/>
       <c r="AX767" s="2"/>
     </row>
-    <row r="768" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="768" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A768" s="2"/>
       <c r="B768" s="2"/>
       <c r="C768" s="2"/>
@@ -40502,7 +40745,7 @@
       <c r="AW768" s="2"/>
       <c r="AX768" s="2"/>
     </row>
-    <row r="769" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="769" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A769" s="2"/>
       <c r="B769" s="2"/>
       <c r="C769" s="2"/>
@@ -40554,7 +40797,7 @@
       <c r="AW769" s="2"/>
       <c r="AX769" s="2"/>
     </row>
-    <row r="770" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="770" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A770" s="2"/>
       <c r="B770" s="2"/>
       <c r="C770" s="2"/>
@@ -40606,7 +40849,7 @@
       <c r="AW770" s="2"/>
       <c r="AX770" s="2"/>
     </row>
-    <row r="771" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="771" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A771" s="2"/>
       <c r="B771" s="2"/>
       <c r="C771" s="2"/>
@@ -40658,7 +40901,7 @@
       <c r="AW771" s="2"/>
       <c r="AX771" s="2"/>
     </row>
-    <row r="772" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="772" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A772" s="2"/>
       <c r="B772" s="2"/>
       <c r="C772" s="2"/>
@@ -40710,7 +40953,7 @@
       <c r="AW772" s="2"/>
       <c r="AX772" s="2"/>
     </row>
-    <row r="773" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="773" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A773" s="2"/>
       <c r="B773" s="2"/>
       <c r="C773" s="2"/>
@@ -40762,7 +41005,7 @@
       <c r="AW773" s="2"/>
       <c r="AX773" s="2"/>
     </row>
-    <row r="774" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="774" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A774" s="2"/>
       <c r="B774" s="2"/>
       <c r="C774" s="2"/>
@@ -40814,7 +41057,7 @@
       <c r="AW774" s="2"/>
       <c r="AX774" s="2"/>
     </row>
-    <row r="775" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="775" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A775" s="2"/>
       <c r="B775" s="2"/>
       <c r="C775" s="2"/>
@@ -40866,7 +41109,7 @@
       <c r="AW775" s="2"/>
       <c r="AX775" s="2"/>
     </row>
-    <row r="776" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="776" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A776" s="2"/>
       <c r="B776" s="2"/>
       <c r="C776" s="2"/>
@@ -40918,7 +41161,7 @@
       <c r="AW776" s="2"/>
       <c r="AX776" s="2"/>
     </row>
-    <row r="777" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="777" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A777" s="2"/>
       <c r="B777" s="2"/>
       <c r="C777" s="2"/>
@@ -40970,7 +41213,7 @@
       <c r="AW777" s="2"/>
       <c r="AX777" s="2"/>
     </row>
-    <row r="778" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="778" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A778" s="2"/>
       <c r="B778" s="2"/>
       <c r="C778" s="2"/>
@@ -41022,7 +41265,7 @@
       <c r="AW778" s="2"/>
       <c r="AX778" s="2"/>
     </row>
-    <row r="779" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="779" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A779" s="2"/>
       <c r="B779" s="2"/>
       <c r="C779" s="2"/>
@@ -41074,7 +41317,7 @@
       <c r="AW779" s="2"/>
       <c r="AX779" s="2"/>
     </row>
-    <row r="780" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="780" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A780" s="2"/>
       <c r="B780" s="2"/>
       <c r="C780" s="2"/>
@@ -41126,7 +41369,7 @@
       <c r="AW780" s="2"/>
       <c r="AX780" s="2"/>
     </row>
-    <row r="781" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="781" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A781" s="2"/>
       <c r="B781" s="2"/>
       <c r="C781" s="2"/>
@@ -41178,7 +41421,7 @@
       <c r="AW781" s="2"/>
       <c r="AX781" s="2"/>
     </row>
-    <row r="782" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="782" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A782" s="2"/>
       <c r="B782" s="2"/>
       <c r="C782" s="2"/>
@@ -41230,7 +41473,7 @@
       <c r="AW782" s="2"/>
       <c r="AX782" s="2"/>
     </row>
-    <row r="783" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="783" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A783" s="2"/>
       <c r="B783" s="2"/>
       <c r="C783" s="2"/>
@@ -41282,7 +41525,7 @@
       <c r="AW783" s="2"/>
       <c r="AX783" s="2"/>
     </row>
-    <row r="784" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="784" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A784" s="2"/>
       <c r="B784" s="2"/>
       <c r="C784" s="2"/>
@@ -41334,7 +41577,7 @@
       <c r="AW784" s="2"/>
       <c r="AX784" s="2"/>
     </row>
-    <row r="785" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="785" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A785" s="2"/>
       <c r="B785" s="2"/>
       <c r="C785" s="2"/>
@@ -41386,7 +41629,7 @@
       <c r="AW785" s="2"/>
       <c r="AX785" s="2"/>
     </row>
-    <row r="786" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="786" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A786" s="2"/>
       <c r="B786" s="2"/>
       <c r="C786" s="2"/>
@@ -41438,7 +41681,7 @@
       <c r="AW786" s="2"/>
       <c r="AX786" s="2"/>
     </row>
-    <row r="787" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="787" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A787" s="2"/>
       <c r="B787" s="2"/>
       <c r="C787" s="2"/>
@@ -41490,7 +41733,7 @@
       <c r="AW787" s="2"/>
       <c r="AX787" s="2"/>
     </row>
-    <row r="788" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="788" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A788" s="2"/>
       <c r="B788" s="2"/>
       <c r="C788" s="2"/>
@@ -41542,7 +41785,7 @@
       <c r="AW788" s="2"/>
       <c r="AX788" s="2"/>
     </row>
-    <row r="789" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="789" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A789" s="2"/>
       <c r="B789" s="2"/>
       <c r="C789" s="2"/>
@@ -41594,7 +41837,7 @@
       <c r="AW789" s="2"/>
       <c r="AX789" s="2"/>
     </row>
-    <row r="790" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="790" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A790" s="2"/>
       <c r="B790" s="2"/>
       <c r="C790" s="2"/>
@@ -41646,7 +41889,7 @@
       <c r="AW790" s="2"/>
       <c r="AX790" s="2"/>
     </row>
-    <row r="791" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="791" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A791" s="2"/>
       <c r="B791" s="2"/>
       <c r="C791" s="2"/>
@@ -41698,7 +41941,7 @@
       <c r="AW791" s="2"/>
       <c r="AX791" s="2"/>
     </row>
-    <row r="792" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="792" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A792" s="2"/>
       <c r="B792" s="2"/>
       <c r="C792" s="2"/>
@@ -41750,7 +41993,7 @@
       <c r="AW792" s="2"/>
       <c r="AX792" s="2"/>
     </row>
-    <row r="793" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="793" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A793" s="2"/>
       <c r="B793" s="2"/>
       <c r="C793" s="2"/>
@@ -41802,7 +42045,7 @@
       <c r="AW793" s="2"/>
       <c r="AX793" s="2"/>
     </row>
-    <row r="794" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="794" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A794" s="2"/>
       <c r="B794" s="2"/>
       <c r="C794" s="2"/>
@@ -41854,7 +42097,7 @@
       <c r="AW794" s="2"/>
       <c r="AX794" s="2"/>
     </row>
-    <row r="795" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="795" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A795" s="2"/>
       <c r="B795" s="2"/>
       <c r="C795" s="2"/>
@@ -41906,7 +42149,7 @@
       <c r="AW795" s="2"/>
       <c r="AX795" s="2"/>
     </row>
-    <row r="796" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="796" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A796" s="2"/>
       <c r="B796" s="2"/>
       <c r="C796" s="2"/>
@@ -41958,7 +42201,7 @@
       <c r="AW796" s="2"/>
       <c r="AX796" s="2"/>
     </row>
-    <row r="797" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="797" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A797" s="2"/>
       <c r="B797" s="2"/>
       <c r="C797" s="2"/>
@@ -42010,7 +42253,7 @@
       <c r="AW797" s="2"/>
       <c r="AX797" s="2"/>
     </row>
-    <row r="798" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="798" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A798" s="2"/>
       <c r="B798" s="2"/>
       <c r="C798" s="2"/>
@@ -42062,7 +42305,7 @@
       <c r="AW798" s="2"/>
       <c r="AX798" s="2"/>
     </row>
-    <row r="799" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="799" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A799" s="2"/>
       <c r="B799" s="2"/>
       <c r="C799" s="2"/>
@@ -42114,7 +42357,7 @@
       <c r="AW799" s="2"/>
       <c r="AX799" s="2"/>
     </row>
-    <row r="800" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="800" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A800" s="2"/>
       <c r="B800" s="2"/>
       <c r="C800" s="2"/>
@@ -42166,7 +42409,7 @@
       <c r="AW800" s="2"/>
       <c r="AX800" s="2"/>
     </row>
-    <row r="801" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="801" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A801" s="2"/>
       <c r="B801" s="2"/>
       <c r="C801" s="2"/>
@@ -42218,7 +42461,7 @@
       <c r="AW801" s="2"/>
       <c r="AX801" s="2"/>
     </row>
-    <row r="802" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="802" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A802" s="2"/>
       <c r="B802" s="2"/>
       <c r="C802" s="2"/>
@@ -42270,7 +42513,7 @@
       <c r="AW802" s="2"/>
       <c r="AX802" s="2"/>
     </row>
-    <row r="803" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="803" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A803" s="2"/>
       <c r="B803" s="2"/>
       <c r="C803" s="2"/>
@@ -42322,7 +42565,7 @@
       <c r="AW803" s="2"/>
       <c r="AX803" s="2"/>
     </row>
-    <row r="804" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="804" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A804" s="2"/>
       <c r="B804" s="2"/>
       <c r="C804" s="2"/>
@@ -42374,7 +42617,7 @@
       <c r="AW804" s="2"/>
       <c r="AX804" s="2"/>
     </row>
-    <row r="805" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="805" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A805" s="2"/>
       <c r="B805" s="2"/>
       <c r="C805" s="2"/>
@@ -42426,7 +42669,7 @@
       <c r="AW805" s="2"/>
       <c r="AX805" s="2"/>
     </row>
-    <row r="806" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="806" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A806" s="2"/>
       <c r="B806" s="2"/>
       <c r="C806" s="2"/>
@@ -42478,7 +42721,7 @@
       <c r="AW806" s="2"/>
       <c r="AX806" s="2"/>
     </row>
-    <row r="807" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="807" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A807" s="2"/>
       <c r="B807" s="2"/>
       <c r="C807" s="2"/>
@@ -42530,7 +42773,7 @@
       <c r="AW807" s="2"/>
       <c r="AX807" s="2"/>
     </row>
-    <row r="808" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="808" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A808" s="2"/>
       <c r="B808" s="2"/>
       <c r="C808" s="2"/>
@@ -42582,7 +42825,7 @@
       <c r="AW808" s="2"/>
       <c r="AX808" s="2"/>
     </row>
-    <row r="809" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="809" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A809" s="2"/>
       <c r="B809" s="2"/>
       <c r="C809" s="2"/>
@@ -42634,7 +42877,7 @@
       <c r="AW809" s="2"/>
       <c r="AX809" s="2"/>
     </row>
-    <row r="810" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="810" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A810" s="2"/>
       <c r="B810" s="2"/>
       <c r="C810" s="2"/>
@@ -42686,7 +42929,7 @@
       <c r="AW810" s="2"/>
       <c r="AX810" s="2"/>
     </row>
-    <row r="811" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="811" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A811" s="2"/>
       <c r="B811" s="2"/>
       <c r="C811" s="2"/>
@@ -42738,7 +42981,7 @@
       <c r="AW811" s="2"/>
       <c r="AX811" s="2"/>
     </row>
-    <row r="812" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="812" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A812" s="2"/>
       <c r="B812" s="2"/>
       <c r="C812" s="2"/>
@@ -42790,7 +43033,7 @@
       <c r="AW812" s="2"/>
       <c r="AX812" s="2"/>
     </row>
-    <row r="813" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="813" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A813" s="2"/>
       <c r="B813" s="2"/>
       <c r="C813" s="2"/>
@@ -42842,7 +43085,7 @@
       <c r="AW813" s="2"/>
       <c r="AX813" s="2"/>
     </row>
-    <row r="814" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="814" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A814" s="2"/>
       <c r="B814" s="2"/>
       <c r="C814" s="2"/>
@@ -42894,7 +43137,7 @@
       <c r="AW814" s="2"/>
       <c r="AX814" s="2"/>
     </row>
-    <row r="815" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="815" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A815" s="2"/>
       <c r="B815" s="2"/>
       <c r="C815" s="2"/>
@@ -42946,7 +43189,7 @@
       <c r="AW815" s="2"/>
       <c r="AX815" s="2"/>
     </row>
-    <row r="816" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="816" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A816" s="2"/>
       <c r="B816" s="2"/>
       <c r="C816" s="2"/>
@@ -42998,7 +43241,7 @@
       <c r="AW816" s="2"/>
       <c r="AX816" s="2"/>
     </row>
-    <row r="817" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="817" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A817" s="2"/>
       <c r="B817" s="2"/>
       <c r="C817" s="2"/>
@@ -43050,7 +43293,7 @@
       <c r="AW817" s="2"/>
       <c r="AX817" s="2"/>
     </row>
-    <row r="818" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="818" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A818" s="2"/>
       <c r="B818" s="2"/>
       <c r="C818" s="2"/>
@@ -43102,7 +43345,7 @@
       <c r="AW818" s="2"/>
       <c r="AX818" s="2"/>
     </row>
-    <row r="819" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="819" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A819" s="2"/>
       <c r="B819" s="2"/>
       <c r="C819" s="2"/>
@@ -43154,7 +43397,7 @@
       <c r="AW819" s="2"/>
       <c r="AX819" s="2"/>
     </row>
-    <row r="820" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="820" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A820" s="2"/>
       <c r="B820" s="2"/>
       <c r="C820" s="2"/>
@@ -43206,7 +43449,7 @@
       <c r="AW820" s="2"/>
       <c r="AX820" s="2"/>
     </row>
-    <row r="821" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="821" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A821" s="2"/>
       <c r="B821" s="2"/>
       <c r="C821" s="2"/>
@@ -43258,7 +43501,7 @@
       <c r="AW821" s="2"/>
       <c r="AX821" s="2"/>
     </row>
-    <row r="822" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="822" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A822" s="2"/>
       <c r="B822" s="2"/>
       <c r="C822" s="2"/>
@@ -43310,7 +43553,7 @@
       <c r="AW822" s="2"/>
       <c r="AX822" s="2"/>
     </row>
-    <row r="823" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="823" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A823" s="2"/>
       <c r="B823" s="2"/>
       <c r="C823" s="2"/>
@@ -43362,7 +43605,7 @@
       <c r="AW823" s="2"/>
       <c r="AX823" s="2"/>
     </row>
-    <row r="824" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="824" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A824" s="2"/>
       <c r="B824" s="2"/>
       <c r="C824" s="2"/>
@@ -43414,7 +43657,7 @@
       <c r="AW824" s="2"/>
       <c r="AX824" s="2"/>
     </row>
-    <row r="825" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="825" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A825" s="2"/>
       <c r="B825" s="2"/>
       <c r="C825" s="2"/>
@@ -43466,7 +43709,7 @@
       <c r="AW825" s="2"/>
       <c r="AX825" s="2"/>
     </row>
-    <row r="826" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="826" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A826" s="2"/>
       <c r="B826" s="2"/>
       <c r="C826" s="2"/>
@@ -43518,7 +43761,7 @@
       <c r="AW826" s="2"/>
       <c r="AX826" s="2"/>
     </row>
-    <row r="827" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="827" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A827" s="2"/>
       <c r="B827" s="2"/>
       <c r="C827" s="2"/>
@@ -43570,7 +43813,7 @@
       <c r="AW827" s="2"/>
       <c r="AX827" s="2"/>
     </row>
-    <row r="828" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="828" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A828" s="2"/>
       <c r="B828" s="2"/>
       <c r="C828" s="2"/>
@@ -43622,7 +43865,7 @@
       <c r="AW828" s="2"/>
       <c r="AX828" s="2"/>
     </row>
-    <row r="829" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="829" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A829" s="2"/>
       <c r="B829" s="2"/>
       <c r="C829" s="2"/>
@@ -43674,7 +43917,7 @@
       <c r="AW829" s="2"/>
       <c r="AX829" s="2"/>
     </row>
-    <row r="830" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="830" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A830" s="2"/>
       <c r="B830" s="2"/>
       <c r="C830" s="2"/>
@@ -43726,7 +43969,7 @@
       <c r="AW830" s="2"/>
       <c r="AX830" s="2"/>
     </row>
-    <row r="831" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="831" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A831" s="2"/>
       <c r="B831" s="2"/>
       <c r="C831" s="2"/>
@@ -43778,7 +44021,7 @@
       <c r="AW831" s="2"/>
       <c r="AX831" s="2"/>
     </row>
-    <row r="832" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="832" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A832" s="2"/>
       <c r="B832" s="2"/>
       <c r="C832" s="2"/>
@@ -43830,7 +44073,7 @@
       <c r="AW832" s="2"/>
       <c r="AX832" s="2"/>
     </row>
-    <row r="833" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="833" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A833" s="2"/>
       <c r="B833" s="2"/>
       <c r="C833" s="2"/>
@@ -43882,7 +44125,7 @@
       <c r="AW833" s="2"/>
       <c r="AX833" s="2"/>
     </row>
-    <row r="834" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="834" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A834" s="2"/>
       <c r="B834" s="2"/>
       <c r="C834" s="2"/>
@@ -43934,7 +44177,7 @@
       <c r="AW834" s="2"/>
       <c r="AX834" s="2"/>
     </row>
-    <row r="835" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="835" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A835" s="2"/>
       <c r="B835" s="2"/>
       <c r="C835" s="2"/>
@@ -43986,7 +44229,7 @@
       <c r="AW835" s="2"/>
       <c r="AX835" s="2"/>
     </row>
-    <row r="836" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="836" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A836" s="2"/>
       <c r="B836" s="2"/>
       <c r="C836" s="2"/>
@@ -44038,7 +44281,7 @@
       <c r="AW836" s="2"/>
       <c r="AX836" s="2"/>
     </row>
-    <row r="837" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="837" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A837" s="2"/>
       <c r="B837" s="2"/>
       <c r="C837" s="2"/>
@@ -44090,7 +44333,7 @@
       <c r="AW837" s="2"/>
       <c r="AX837" s="2"/>
     </row>
-    <row r="838" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="838" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A838" s="2"/>
       <c r="B838" s="2"/>
       <c r="C838" s="2"/>
@@ -44142,7 +44385,7 @@
       <c r="AW838" s="2"/>
       <c r="AX838" s="2"/>
     </row>
-    <row r="839" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="839" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A839" s="2"/>
       <c r="B839" s="2"/>
       <c r="C839" s="2"/>
@@ -44194,7 +44437,7 @@
       <c r="AW839" s="2"/>
       <c r="AX839" s="2"/>
     </row>
-    <row r="840" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="840" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A840" s="2"/>
       <c r="B840" s="2"/>
       <c r="C840" s="2"/>
@@ -44246,7 +44489,7 @@
       <c r="AW840" s="2"/>
       <c r="AX840" s="2"/>
     </row>
-    <row r="841" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="841" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A841" s="2"/>
       <c r="B841" s="2"/>
       <c r="C841" s="2"/>
@@ -44298,7 +44541,7 @@
       <c r="AW841" s="2"/>
       <c r="AX841" s="2"/>
     </row>
-    <row r="842" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="842" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A842" s="2"/>
       <c r="B842" s="2"/>
       <c r="C842" s="2"/>
@@ -44350,7 +44593,7 @@
       <c r="AW842" s="2"/>
       <c r="AX842" s="2"/>
     </row>
-    <row r="843" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="843" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A843" s="2"/>
       <c r="B843" s="2"/>
       <c r="C843" s="2"/>
@@ -44402,7 +44645,7 @@
       <c r="AW843" s="2"/>
       <c r="AX843" s="2"/>
     </row>
-    <row r="844" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="844" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A844" s="2"/>
       <c r="B844" s="2"/>
       <c r="C844" s="2"/>
@@ -44454,7 +44697,7 @@
       <c r="AW844" s="2"/>
       <c r="AX844" s="2"/>
     </row>
-    <row r="845" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="845" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A845" s="2"/>
       <c r="B845" s="2"/>
       <c r="C845" s="2"/>
@@ -44506,7 +44749,7 @@
       <c r="AW845" s="2"/>
       <c r="AX845" s="2"/>
     </row>
-    <row r="846" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="846" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A846" s="2"/>
       <c r="B846" s="2"/>
       <c r="C846" s="2"/>
@@ -44558,7 +44801,7 @@
       <c r="AW846" s="2"/>
       <c r="AX846" s="2"/>
     </row>
-    <row r="847" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="847" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A847" s="2"/>
       <c r="B847" s="2"/>
       <c r="C847" s="2"/>
@@ -44610,7 +44853,7 @@
       <c r="AW847" s="2"/>
       <c r="AX847" s="2"/>
     </row>
-    <row r="848" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="848" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A848" s="2"/>
       <c r="B848" s="2"/>
       <c r="C848" s="2"/>
@@ -44662,7 +44905,7 @@
       <c r="AW848" s="2"/>
       <c r="AX848" s="2"/>
     </row>
-    <row r="849" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="849" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A849" s="2"/>
       <c r="B849" s="2"/>
       <c r="C849" s="2"/>
@@ -44714,7 +44957,7 @@
       <c r="AW849" s="2"/>
       <c r="AX849" s="2"/>
     </row>
-    <row r="850" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="850" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A850" s="2"/>
       <c r="B850" s="2"/>
       <c r="C850" s="2"/>
@@ -44766,7 +45009,7 @@
       <c r="AW850" s="2"/>
       <c r="AX850" s="2"/>
     </row>
-    <row r="851" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="851" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A851" s="2"/>
       <c r="B851" s="2"/>
       <c r="C851" s="2"/>
@@ -44818,7 +45061,7 @@
       <c r="AW851" s="2"/>
       <c r="AX851" s="2"/>
     </row>
-    <row r="852" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="852" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A852" s="2"/>
       <c r="B852" s="2"/>
       <c r="C852" s="2"/>
@@ -44870,7 +45113,7 @@
       <c r="AW852" s="2"/>
       <c r="AX852" s="2"/>
     </row>
-    <row r="853" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="853" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A853" s="2"/>
       <c r="B853" s="2"/>
       <c r="C853" s="2"/>
@@ -44922,7 +45165,7 @@
       <c r="AW853" s="2"/>
       <c r="AX853" s="2"/>
     </row>
-    <row r="854" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="854" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A854" s="2"/>
       <c r="B854" s="2"/>
       <c r="C854" s="2"/>
@@ -44974,7 +45217,7 @@
       <c r="AW854" s="2"/>
       <c r="AX854" s="2"/>
     </row>
-    <row r="855" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="855" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A855" s="2"/>
       <c r="B855" s="2"/>
       <c r="C855" s="2"/>
@@ -45026,7 +45269,7 @@
       <c r="AW855" s="2"/>
       <c r="AX855" s="2"/>
     </row>
-    <row r="856" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="856" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A856" s="2"/>
       <c r="B856" s="2"/>
       <c r="C856" s="2"/>
@@ -45078,7 +45321,7 @@
       <c r="AW856" s="2"/>
       <c r="AX856" s="2"/>
     </row>
-    <row r="857" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="857" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A857" s="2"/>
       <c r="B857" s="2"/>
       <c r="C857" s="2"/>
@@ -45130,7 +45373,7 @@
       <c r="AW857" s="2"/>
       <c r="AX857" s="2"/>
     </row>
-    <row r="858" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="858" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A858" s="2"/>
       <c r="B858" s="2"/>
       <c r="C858" s="2"/>
@@ -45182,7 +45425,7 @@
       <c r="AW858" s="2"/>
       <c r="AX858" s="2"/>
     </row>
-    <row r="859" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="859" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A859" s="2"/>
       <c r="B859" s="2"/>
       <c r="C859" s="2"/>
@@ -45234,7 +45477,7 @@
       <c r="AW859" s="2"/>
       <c r="AX859" s="2"/>
     </row>
-    <row r="860" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="860" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A860" s="2"/>
       <c r="B860" s="2"/>
       <c r="C860" s="2"/>
@@ -45286,7 +45529,7 @@
       <c r="AW860" s="2"/>
       <c r="AX860" s="2"/>
     </row>
-    <row r="861" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="861" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A861" s="2"/>
       <c r="B861" s="2"/>
       <c r="C861" s="2"/>
@@ -45338,7 +45581,7 @@
       <c r="AW861" s="2"/>
       <c r="AX861" s="2"/>
     </row>
-    <row r="862" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="862" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A862" s="2"/>
       <c r="B862" s="2"/>
       <c r="C862" s="2"/>
@@ -45390,7 +45633,7 @@
       <c r="AW862" s="2"/>
       <c r="AX862" s="2"/>
     </row>
-    <row r="863" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="863" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A863" s="2"/>
       <c r="B863" s="2"/>
       <c r="C863" s="2"/>
@@ -45442,7 +45685,7 @@
       <c r="AW863" s="2"/>
       <c r="AX863" s="2"/>
     </row>
-    <row r="864" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="864" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A864" s="2"/>
       <c r="B864" s="2"/>
       <c r="C864" s="2"/>
@@ -45494,7 +45737,7 @@
       <c r="AW864" s="2"/>
       <c r="AX864" s="2"/>
     </row>
-    <row r="865" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="865" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A865" s="2"/>
       <c r="B865" s="2"/>
       <c r="C865" s="2"/>
@@ -45546,7 +45789,7 @@
       <c r="AW865" s="2"/>
       <c r="AX865" s="2"/>
     </row>
-    <row r="866" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="866" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A866" s="2"/>
       <c r="B866" s="2"/>
       <c r="C866" s="2"/>
@@ -45598,7 +45841,7 @@
       <c r="AW866" s="2"/>
       <c r="AX866" s="2"/>
     </row>
-    <row r="867" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="867" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A867" s="2"/>
       <c r="B867" s="2"/>
       <c r="C867" s="2"/>
@@ -45650,7 +45893,7 @@
       <c r="AW867" s="2"/>
       <c r="AX867" s="2"/>
     </row>
-    <row r="868" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="868" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A868" s="2"/>
       <c r="B868" s="2"/>
       <c r="C868" s="2"/>
@@ -45702,7 +45945,7 @@
       <c r="AW868" s="2"/>
       <c r="AX868" s="2"/>
     </row>
-    <row r="869" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="869" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A869" s="2"/>
       <c r="B869" s="2"/>
       <c r="C869" s="2"/>
@@ -45754,7 +45997,7 @@
       <c r="AW869" s="2"/>
       <c r="AX869" s="2"/>
     </row>
-    <row r="870" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="870" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A870" s="2"/>
       <c r="B870" s="2"/>
       <c r="C870" s="2"/>
@@ -45806,7 +46049,7 @@
       <c r="AW870" s="2"/>
       <c r="AX870" s="2"/>
     </row>
-    <row r="871" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="871" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A871" s="2"/>
       <c r="B871" s="2"/>
       <c r="C871" s="2"/>
@@ -45858,7 +46101,7 @@
       <c r="AW871" s="2"/>
       <c r="AX871" s="2"/>
     </row>
-    <row r="872" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="872" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A872" s="2"/>
       <c r="B872" s="2"/>
       <c r="C872" s="2"/>
@@ -45910,7 +46153,7 @@
       <c r="AW872" s="2"/>
       <c r="AX872" s="2"/>
     </row>
-    <row r="873" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="873" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A873" s="2"/>
       <c r="B873" s="2"/>
       <c r="C873" s="2"/>
@@ -45962,7 +46205,7 @@
       <c r="AW873" s="2"/>
       <c r="AX873" s="2"/>
     </row>
-    <row r="874" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="874" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A874" s="2"/>
       <c r="B874" s="2"/>
       <c r="C874" s="2"/>
@@ -46014,7 +46257,7 @@
       <c r="AW874" s="2"/>
       <c r="AX874" s="2"/>
     </row>
-    <row r="875" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="875" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A875" s="2"/>
       <c r="B875" s="2"/>
       <c r="C875" s="2"/>
@@ -46066,7 +46309,7 @@
       <c r="AW875" s="2"/>
       <c r="AX875" s="2"/>
     </row>
-    <row r="876" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="876" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A876" s="2"/>
       <c r="B876" s="2"/>
       <c r="C876" s="2"/>
@@ -46118,7 +46361,7 @@
       <c r="AW876" s="2"/>
       <c r="AX876" s="2"/>
     </row>
-    <row r="877" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="877" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A877" s="2"/>
       <c r="B877" s="2"/>
       <c r="C877" s="2"/>
@@ -46170,7 +46413,7 @@
       <c r="AW877" s="2"/>
       <c r="AX877" s="2"/>
     </row>
-    <row r="878" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="878" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A878" s="2"/>
       <c r="B878" s="2"/>
       <c r="C878" s="2"/>
@@ -46222,7 +46465,7 @@
       <c r="AW878" s="2"/>
       <c r="AX878" s="2"/>
     </row>
-    <row r="879" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="879" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A879" s="2"/>
       <c r="B879" s="2"/>
       <c r="C879" s="2"/>
@@ -46274,7 +46517,7 @@
       <c r="AW879" s="2"/>
       <c r="AX879" s="2"/>
     </row>
-    <row r="880" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="880" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A880" s="2"/>
       <c r="B880" s="2"/>
       <c r="C880" s="2"/>
@@ -46326,7 +46569,7 @@
       <c r="AW880" s="2"/>
       <c r="AX880" s="2"/>
     </row>
-    <row r="881" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="881" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A881" s="2"/>
       <c r="B881" s="2"/>
       <c r="C881" s="2"/>
@@ -46378,7 +46621,7 @@
       <c r="AW881" s="2"/>
       <c r="AX881" s="2"/>
     </row>
-    <row r="882" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="882" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A882" s="2"/>
       <c r="B882" s="2"/>
       <c r="C882" s="2"/>
@@ -46430,7 +46673,7 @@
       <c r="AW882" s="2"/>
       <c r="AX882" s="2"/>
     </row>
-    <row r="883" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="883" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A883" s="2"/>
       <c r="B883" s="2"/>
       <c r="C883" s="2"/>
@@ -46482,7 +46725,7 @@
       <c r="AW883" s="2"/>
       <c r="AX883" s="2"/>
     </row>
-    <row r="884" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="884" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A884" s="2"/>
       <c r="B884" s="2"/>
       <c r="C884" s="2"/>
@@ -46534,7 +46777,7 @@
       <c r="AW884" s="2"/>
       <c r="AX884" s="2"/>
     </row>
-    <row r="885" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="885" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A885" s="2"/>
       <c r="B885" s="2"/>
       <c r="C885" s="2"/>
@@ -46586,7 +46829,7 @@
       <c r="AW885" s="2"/>
       <c r="AX885" s="2"/>
     </row>
-    <row r="886" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="886" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A886" s="2"/>
       <c r="B886" s="2"/>
       <c r="C886" s="2"/>
@@ -46638,7 +46881,7 @@
       <c r="AW886" s="2"/>
       <c r="AX886" s="2"/>
     </row>
-    <row r="887" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="887" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A887" s="2"/>
       <c r="B887" s="2"/>
       <c r="C887" s="2"/>
@@ -46690,7 +46933,7 @@
       <c r="AW887" s="2"/>
       <c r="AX887" s="2"/>
     </row>
-    <row r="888" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="888" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A888" s="2"/>
       <c r="B888" s="2"/>
       <c r="C888" s="2"/>
@@ -46742,7 +46985,7 @@
       <c r="AW888" s="2"/>
       <c r="AX888" s="2"/>
     </row>
-    <row r="889" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="889" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A889" s="2"/>
       <c r="B889" s="2"/>
       <c r="C889" s="2"/>
@@ -46794,7 +47037,7 @@
       <c r="AW889" s="2"/>
       <c r="AX889" s="2"/>
     </row>
-    <row r="890" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="890" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A890" s="2"/>
       <c r="B890" s="2"/>
       <c r="C890" s="2"/>
@@ -46846,7 +47089,7 @@
       <c r="AW890" s="2"/>
       <c r="AX890" s="2"/>
     </row>
-    <row r="891" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="891" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A891" s="2"/>
       <c r="B891" s="2"/>
       <c r="C891" s="2"/>
@@ -46898,7 +47141,7 @@
       <c r="AW891" s="2"/>
       <c r="AX891" s="2"/>
     </row>
-    <row r="892" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="892" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A892" s="2"/>
       <c r="B892" s="2"/>
       <c r="C892" s="2"/>
@@ -46950,7 +47193,7 @@
       <c r="AW892" s="2"/>
       <c r="AX892" s="2"/>
     </row>
-    <row r="893" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="893" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A893" s="2"/>
       <c r="B893" s="2"/>
       <c r="C893" s="2"/>
@@ -47002,7 +47245,7 @@
       <c r="AW893" s="2"/>
       <c r="AX893" s="2"/>
     </row>
-    <row r="894" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="894" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A894" s="2"/>
       <c r="B894" s="2"/>
       <c r="C894" s="2"/>
@@ -47054,7 +47297,7 @@
       <c r="AW894" s="2"/>
       <c r="AX894" s="2"/>
     </row>
-    <row r="895" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="895" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A895" s="2"/>
       <c r="B895" s="2"/>
       <c r="C895" s="2"/>
@@ -47106,7 +47349,7 @@
       <c r="AW895" s="2"/>
       <c r="AX895" s="2"/>
     </row>
-    <row r="896" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="896" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A896" s="2"/>
       <c r="B896" s="2"/>
       <c r="C896" s="2"/>
@@ -47158,7 +47401,7 @@
       <c r="AW896" s="2"/>
       <c r="AX896" s="2"/>
     </row>
-    <row r="897" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="897" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A897" s="2"/>
       <c r="B897" s="2"/>
       <c r="C897" s="2"/>
@@ -47210,7 +47453,7 @@
       <c r="AW897" s="2"/>
       <c r="AX897" s="2"/>
     </row>
-    <row r="898" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="898" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A898" s="2"/>
       <c r="B898" s="2"/>
       <c r="C898" s="2"/>
@@ -47262,7 +47505,7 @@
       <c r="AW898" s="2"/>
       <c r="AX898" s="2"/>
     </row>
-    <row r="899" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="899" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A899" s="2"/>
       <c r="B899" s="2"/>
       <c r="C899" s="2"/>
@@ -47314,7 +47557,7 @@
       <c r="AW899" s="2"/>
       <c r="AX899" s="2"/>
     </row>
-    <row r="900" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="900" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A900" s="2"/>
       <c r="B900" s="2"/>
       <c r="C900" s="2"/>
@@ -47366,7 +47609,7 @@
       <c r="AW900" s="2"/>
       <c r="AX900" s="2"/>
     </row>
-    <row r="901" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="901" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A901" s="2"/>
       <c r="B901" s="2"/>
       <c r="C901" s="2"/>
@@ -47418,7 +47661,7 @@
       <c r="AW901" s="2"/>
       <c r="AX901" s="2"/>
     </row>
-    <row r="902" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="902" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A902" s="2"/>
       <c r="B902" s="2"/>
       <c r="C902" s="2"/>
@@ -47470,7 +47713,7 @@
       <c r="AW902" s="2"/>
       <c r="AX902" s="2"/>
     </row>
-    <row r="903" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="903" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A903" s="2"/>
       <c r="B903" s="2"/>
       <c r="C903" s="2"/>
@@ -47522,7 +47765,7 @@
       <c r="AW903" s="2"/>
       <c r="AX903" s="2"/>
     </row>
-    <row r="904" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="904" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A904" s="2"/>
       <c r="B904" s="2"/>
       <c r="C904" s="2"/>
@@ -47574,7 +47817,7 @@
       <c r="AW904" s="2"/>
       <c r="AX904" s="2"/>
     </row>
-    <row r="905" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="905" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A905" s="2"/>
       <c r="B905" s="2"/>
       <c r="C905" s="2"/>
@@ -47626,7 +47869,7 @@
       <c r="AW905" s="2"/>
       <c r="AX905" s="2"/>
     </row>
-    <row r="906" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="906" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A906" s="2"/>
       <c r="B906" s="2"/>
       <c r="C906" s="2"/>
@@ -47678,7 +47921,7 @@
       <c r="AW906" s="2"/>
       <c r="AX906" s="2"/>
     </row>
-    <row r="907" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="907" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A907" s="2"/>
       <c r="B907" s="2"/>
       <c r="C907" s="2"/>
@@ -47730,7 +47973,7 @@
       <c r="AW907" s="2"/>
       <c r="AX907" s="2"/>
     </row>
-    <row r="908" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="908" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A908" s="2"/>
       <c r="B908" s="2"/>
       <c r="C908" s="2"/>
@@ -47782,7 +48025,7 @@
       <c r="AW908" s="2"/>
       <c r="AX908" s="2"/>
     </row>
-    <row r="909" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="909" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A909" s="2"/>
       <c r="B909" s="2"/>
       <c r="C909" s="2"/>
@@ -47834,7 +48077,7 @@
       <c r="AW909" s="2"/>
       <c r="AX909" s="2"/>
     </row>
-    <row r="910" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="910" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A910" s="2"/>
       <c r="B910" s="2"/>
       <c r="C910" s="2"/>
@@ -47886,7 +48129,7 @@
       <c r="AW910" s="2"/>
       <c r="AX910" s="2"/>
     </row>
-    <row r="911" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="911" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A911" s="2"/>
       <c r="B911" s="2"/>
       <c r="C911" s="2"/>
@@ -47938,7 +48181,7 @@
       <c r="AW911" s="2"/>
       <c r="AX911" s="2"/>
     </row>
-    <row r="912" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="912" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A912" s="2"/>
       <c r="B912" s="2"/>
       <c r="C912" s="2"/>
@@ -47990,7 +48233,7 @@
       <c r="AW912" s="2"/>
       <c r="AX912" s="2"/>
     </row>
-    <row r="913" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="913" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A913" s="2"/>
       <c r="B913" s="2"/>
       <c r="C913" s="2"/>
@@ -48042,7 +48285,7 @@
       <c r="AW913" s="2"/>
       <c r="AX913" s="2"/>
     </row>
-    <row r="914" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="914" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A914" s="2"/>
       <c r="B914" s="2"/>
       <c r="C914" s="2"/>
@@ -48094,7 +48337,7 @@
       <c r="AW914" s="2"/>
       <c r="AX914" s="2"/>
     </row>
-    <row r="915" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="915" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A915" s="2"/>
       <c r="B915" s="2"/>
       <c r="C915" s="2"/>
@@ -48146,7 +48389,7 @@
       <c r="AW915" s="2"/>
       <c r="AX915" s="2"/>
     </row>
-    <row r="916" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="916" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A916" s="2"/>
       <c r="B916" s="2"/>
       <c r="C916" s="2"/>
@@ -48198,7 +48441,7 @@
       <c r="AW916" s="2"/>
       <c r="AX916" s="2"/>
     </row>
-    <row r="917" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="917" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A917" s="2"/>
       <c r="B917" s="2"/>
       <c r="C917" s="2"/>
@@ -48250,7 +48493,7 @@
       <c r="AW917" s="2"/>
       <c r="AX917" s="2"/>
     </row>
-    <row r="918" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="918" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A918" s="2"/>
       <c r="B918" s="2"/>
       <c r="C918" s="2"/>
@@ -48302,7 +48545,7 @@
       <c r="AW918" s="2"/>
       <c r="AX918" s="2"/>
     </row>
-    <row r="919" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="919" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A919" s="2"/>
       <c r="B919" s="2"/>
       <c r="C919" s="2"/>
@@ -48354,7 +48597,7 @@
       <c r="AW919" s="2"/>
       <c r="AX919" s="2"/>
     </row>
-    <row r="920" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="920" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A920" s="2"/>
       <c r="B920" s="2"/>
       <c r="C920" s="2"/>
@@ -48406,7 +48649,7 @@
       <c r="AW920" s="2"/>
       <c r="AX920" s="2"/>
     </row>
-    <row r="921" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="921" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A921" s="2"/>
       <c r="B921" s="2"/>
       <c r="C921" s="2"/>
@@ -48458,7 +48701,7 @@
       <c r="AW921" s="2"/>
       <c r="AX921" s="2"/>
     </row>
-    <row r="922" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="922" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A922" s="2"/>
       <c r="B922" s="2"/>
       <c r="C922" s="2"/>
@@ -48510,7 +48753,7 @@
       <c r="AW922" s="2"/>
       <c r="AX922" s="2"/>
     </row>
-    <row r="923" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="923" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A923" s="2"/>
       <c r="B923" s="2"/>
       <c r="C923" s="2"/>
@@ -48562,7 +48805,7 @@
       <c r="AW923" s="2"/>
       <c r="AX923" s="2"/>
     </row>
-    <row r="924" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="924" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A924" s="2"/>
       <c r="B924" s="2"/>
       <c r="C924" s="2"/>
@@ -48614,7 +48857,7 @@
       <c r="AW924" s="2"/>
       <c r="AX924" s="2"/>
     </row>
-    <row r="925" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="925" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A925" s="2"/>
       <c r="B925" s="2"/>
       <c r="C925" s="2"/>
@@ -48666,7 +48909,7 @@
       <c r="AW925" s="2"/>
       <c r="AX925" s="2"/>
     </row>
-    <row r="926" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="926" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A926" s="2"/>
       <c r="B926" s="2"/>
       <c r="C926" s="2"/>
@@ -48718,7 +48961,7 @@
       <c r="AW926" s="2"/>
       <c r="AX926" s="2"/>
     </row>
-    <row r="927" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="927" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A927" s="2"/>
       <c r="B927" s="2"/>
       <c r="C927" s="2"/>
@@ -48770,7 +49013,7 @@
       <c r="AW927" s="2"/>
       <c r="AX927" s="2"/>
     </row>
-    <row r="928" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="928" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A928" s="2"/>
       <c r="B928" s="2"/>
       <c r="C928" s="2"/>
@@ -48822,7 +49065,7 @@
       <c r="AW928" s="2"/>
       <c r="AX928" s="2"/>
     </row>
-    <row r="929" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="929" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A929" s="2"/>
       <c r="B929" s="2"/>
       <c r="C929" s="2"/>
@@ -48874,7 +49117,7 @@
       <c r="AW929" s="2"/>
       <c r="AX929" s="2"/>
     </row>
-    <row r="930" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="930" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A930" s="2"/>
       <c r="B930" s="2"/>
       <c r="C930" s="2"/>
@@ -48926,7 +49169,7 @@
       <c r="AW930" s="2"/>
       <c r="AX930" s="2"/>
     </row>
-    <row r="931" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="931" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A931" s="2"/>
       <c r="B931" s="2"/>
       <c r="C931" s="2"/>
@@ -48978,7 +49221,7 @@
       <c r="AW931" s="2"/>
       <c r="AX931" s="2"/>
     </row>
-    <row r="932" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="932" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A932" s="2"/>
       <c r="B932" s="2"/>
       <c r="C932" s="2"/>
@@ -49030,7 +49273,7 @@
       <c r="AW932" s="2"/>
       <c r="AX932" s="2"/>
     </row>
-    <row r="933" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="933" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A933" s="2"/>
       <c r="B933" s="2"/>
       <c r="C933" s="2"/>
@@ -49082,7 +49325,7 @@
       <c r="AW933" s="2"/>
       <c r="AX933" s="2"/>
     </row>
-    <row r="934" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="934" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A934" s="2"/>
       <c r="B934" s="2"/>
       <c r="C934" s="2"/>
@@ -49134,7 +49377,7 @@
       <c r="AW934" s="2"/>
       <c r="AX934" s="2"/>
     </row>
-    <row r="935" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="935" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A935" s="2"/>
       <c r="B935" s="2"/>
       <c r="C935" s="2"/>
@@ -49186,7 +49429,7 @@
       <c r="AW935" s="2"/>
       <c r="AX935" s="2"/>
     </row>
-    <row r="936" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="936" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A936" s="2"/>
       <c r="B936" s="2"/>
       <c r="C936" s="2"/>
@@ -49238,7 +49481,7 @@
       <c r="AW936" s="2"/>
       <c r="AX936" s="2"/>
     </row>
-    <row r="937" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="937" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A937" s="2"/>
       <c r="B937" s="2"/>
       <c r="C937" s="2"/>
@@ -49290,7 +49533,7 @@
       <c r="AW937" s="2"/>
       <c r="AX937" s="2"/>
     </row>
-    <row r="938" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="938" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A938" s="2"/>
       <c r="B938" s="2"/>
       <c r="C938" s="2"/>
@@ -49342,7 +49585,7 @@
       <c r="AW938" s="2"/>
       <c r="AX938" s="2"/>
     </row>
-    <row r="939" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="939" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A939" s="2"/>
       <c r="B939" s="2"/>
       <c r="C939" s="2"/>
@@ -49394,7 +49637,7 @@
       <c r="AW939" s="2"/>
       <c r="AX939" s="2"/>
     </row>
-    <row r="940" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="940" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A940" s="2"/>
       <c r="B940" s="2"/>
       <c r="C940" s="2"/>
@@ -49446,7 +49689,7 @@
       <c r="AW940" s="2"/>
       <c r="AX940" s="2"/>
     </row>
-    <row r="941" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="941" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A941" s="2"/>
       <c r="B941" s="2"/>
       <c r="C941" s="2"/>
@@ -49498,7 +49741,7 @@
       <c r="AW941" s="2"/>
       <c r="AX941" s="2"/>
     </row>
-    <row r="942" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="942" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A942" s="2"/>
       <c r="B942" s="2"/>
       <c r="C942" s="2"/>
@@ -49550,7 +49793,7 @@
       <c r="AW942" s="2"/>
       <c r="AX942" s="2"/>
     </row>
-    <row r="943" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="943" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A943" s="2"/>
       <c r="B943" s="2"/>
       <c r="C943" s="2"/>
@@ -49602,7 +49845,7 @@
       <c r="AW943" s="2"/>
       <c r="AX943" s="2"/>
     </row>
-    <row r="944" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="944" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A944" s="2"/>
       <c r="B944" s="2"/>
       <c r="C944" s="2"/>
@@ -49654,7 +49897,7 @@
       <c r="AW944" s="2"/>
       <c r="AX944" s="2"/>
     </row>
-    <row r="945" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="945" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A945" s="2"/>
       <c r="B945" s="2"/>
       <c r="C945" s="2"/>
@@ -49706,7 +49949,7 @@
       <c r="AW945" s="2"/>
       <c r="AX945" s="2"/>
     </row>
-    <row r="946" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="946" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A946" s="2"/>
       <c r="B946" s="2"/>
       <c r="C946" s="2"/>
@@ -49758,7 +50001,7 @@
       <c r="AW946" s="2"/>
       <c r="AX946" s="2"/>
     </row>
-    <row r="947" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="947" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A947" s="2"/>
       <c r="B947" s="2"/>
       <c r="C947" s="2"/>
@@ -49810,7 +50053,7 @@
       <c r="AW947" s="2"/>
       <c r="AX947" s="2"/>
     </row>
-    <row r="948" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="948" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A948" s="2"/>
       <c r="B948" s="2"/>
       <c r="C948" s="2"/>
@@ -49862,7 +50105,7 @@
       <c r="AW948" s="2"/>
       <c r="AX948" s="2"/>
     </row>
-    <row r="949" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="949" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A949" s="2"/>
       <c r="B949" s="2"/>
       <c r="C949" s="2"/>
@@ -49914,7 +50157,7 @@
       <c r="AW949" s="2"/>
       <c r="AX949" s="2"/>
     </row>
-    <row r="950" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="950" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A950" s="2"/>
       <c r="B950" s="2"/>
       <c r="C950" s="2"/>
@@ -49966,7 +50209,7 @@
       <c r="AW950" s="2"/>
       <c r="AX950" s="2"/>
     </row>
-    <row r="951" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="951" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A951" s="2"/>
       <c r="B951" s="2"/>
       <c r="C951" s="2"/>
@@ -50018,7 +50261,7 @@
       <c r="AW951" s="2"/>
       <c r="AX951" s="2"/>
     </row>
-    <row r="952" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="952" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A952" s="2"/>
       <c r="B952" s="2"/>
       <c r="C952" s="2"/>
@@ -50070,7 +50313,7 @@
       <c r="AW952" s="2"/>
       <c r="AX952" s="2"/>
     </row>
-    <row r="953" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="953" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A953" s="2"/>
       <c r="B953" s="2"/>
       <c r="C953" s="2"/>
@@ -50122,7 +50365,7 @@
       <c r="AW953" s="2"/>
       <c r="AX953" s="2"/>
     </row>
-    <row r="954" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="954" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A954" s="2"/>
       <c r="B954" s="2"/>
       <c r="C954" s="2"/>
@@ -50174,7 +50417,7 @@
       <c r="AW954" s="2"/>
       <c r="AX954" s="2"/>
     </row>
-    <row r="955" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="955" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A955" s="2"/>
       <c r="B955" s="2"/>
       <c r="C955" s="2"/>
@@ -50226,7 +50469,7 @@
       <c r="AW955" s="2"/>
       <c r="AX955" s="2"/>
     </row>
-    <row r="956" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="956" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A956" s="2"/>
       <c r="B956" s="2"/>
       <c r="C956" s="2"/>
@@ -50278,7 +50521,7 @@
       <c r="AW956" s="2"/>
       <c r="AX956" s="2"/>
     </row>
-    <row r="957" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="957" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A957" s="2"/>
       <c r="B957" s="2"/>
       <c r="C957" s="2"/>
@@ -50330,7 +50573,7 @@
       <c r="AW957" s="2"/>
       <c r="AX957" s="2"/>
     </row>
-    <row r="958" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="958" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A958" s="2"/>
       <c r="B958" s="2"/>
       <c r="C958" s="2"/>
@@ -50382,7 +50625,7 @@
       <c r="AW958" s="2"/>
       <c r="AX958" s="2"/>
     </row>
-    <row r="959" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="959" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A959" s="2"/>
       <c r="B959" s="2"/>
       <c r="C959" s="2"/>
@@ -50434,7 +50677,7 @@
       <c r="AW959" s="2"/>
       <c r="AX959" s="2"/>
     </row>
-    <row r="960" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="960" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A960" s="2"/>
       <c r="B960" s="2"/>
       <c r="C960" s="2"/>
@@ -50486,7 +50729,7 @@
       <c r="AW960" s="2"/>
       <c r="AX960" s="2"/>
     </row>
-    <row r="961" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="961" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A961" s="2"/>
       <c r="B961" s="2"/>
       <c r="C961" s="2"/>
@@ -50538,7 +50781,7 @@
       <c r="AW961" s="2"/>
       <c r="AX961" s="2"/>
     </row>
-    <row r="962" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="962" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A962" s="2"/>
       <c r="B962" s="2"/>
       <c r="C962" s="2"/>
@@ -50590,7 +50833,7 @@
       <c r="AW962" s="2"/>
       <c r="AX962" s="2"/>
     </row>
-    <row r="963" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="963" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A963" s="2"/>
       <c r="B963" s="2"/>
       <c r="C963" s="2"/>
@@ -50642,7 +50885,7 @@
       <c r="AW963" s="2"/>
       <c r="AX963" s="2"/>
     </row>
-    <row r="964" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="964" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A964" s="2"/>
       <c r="B964" s="2"/>
       <c r="C964" s="2"/>
@@ -50694,7 +50937,7 @@
       <c r="AW964" s="2"/>
       <c r="AX964" s="2"/>
     </row>
-    <row r="965" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="965" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A965" s="2"/>
       <c r="B965" s="2"/>
       <c r="C965" s="2"/>
@@ -50746,7 +50989,7 @@
       <c r="AW965" s="2"/>
       <c r="AX965" s="2"/>
     </row>
-    <row r="966" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="966" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A966" s="2"/>
       <c r="B966" s="2"/>
       <c r="C966" s="2"/>
@@ -50798,7 +51041,7 @@
       <c r="AW966" s="2"/>
       <c r="AX966" s="2"/>
     </row>
-    <row r="967" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="967" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A967" s="2"/>
       <c r="B967" s="2"/>
       <c r="C967" s="2"/>
@@ -50850,7 +51093,7 @@
       <c r="AW967" s="2"/>
       <c r="AX967" s="2"/>
     </row>
-    <row r="968" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="968" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A968" s="2"/>
       <c r="B968" s="2"/>
       <c r="C968" s="2"/>
@@ -50902,7 +51145,7 @@
       <c r="AW968" s="2"/>
       <c r="AX968" s="2"/>
     </row>
-    <row r="969" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="969" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A969" s="2"/>
       <c r="B969" s="2"/>
       <c r="C969" s="2"/>
@@ -50954,7 +51197,7 @@
       <c r="AW969" s="2"/>
       <c r="AX969" s="2"/>
     </row>
-    <row r="970" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="970" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A970" s="2"/>
       <c r="B970" s="2"/>
       <c r="C970" s="2"/>
@@ -51006,7 +51249,7 @@
       <c r="AW970" s="2"/>
       <c r="AX970" s="2"/>
     </row>
-    <row r="971" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="971" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A971" s="2"/>
       <c r="B971" s="2"/>
       <c r="C971" s="2"/>
@@ -51058,7 +51301,7 @@
       <c r="AW971" s="2"/>
       <c r="AX971" s="2"/>
     </row>
-    <row r="972" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="972" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A972" s="2"/>
       <c r="B972" s="2"/>
       <c r="C972" s="2"/>
@@ -51110,7 +51353,7 @@
       <c r="AW972" s="2"/>
       <c r="AX972" s="2"/>
     </row>
-    <row r="973" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="973" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A973" s="2"/>
       <c r="B973" s="2"/>
       <c r="C973" s="2"/>
@@ -51162,7 +51405,7 @@
       <c r="AW973" s="2"/>
       <c r="AX973" s="2"/>
     </row>
-    <row r="974" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="974" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A974" s="2"/>
       <c r="B974" s="2"/>
       <c r="C974" s="2"/>
@@ -51214,7 +51457,7 @@
       <c r="AW974" s="2"/>
       <c r="AX974" s="2"/>
     </row>
-    <row r="975" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="975" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A975" s="2"/>
       <c r="B975" s="2"/>
       <c r="C975" s="2"/>
@@ -51266,7 +51509,7 @@
       <c r="AW975" s="2"/>
       <c r="AX975" s="2"/>
     </row>
-    <row r="976" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="976" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A976" s="2"/>
       <c r="B976" s="2"/>
       <c r="C976" s="2"/>
@@ -51318,7 +51561,7 @@
       <c r="AW976" s="2"/>
       <c r="AX976" s="2"/>
     </row>
-    <row r="977" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="977" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A977" s="2"/>
       <c r="B977" s="2"/>
       <c r="C977" s="2"/>
@@ -51370,7 +51613,7 @@
       <c r="AW977" s="2"/>
       <c r="AX977" s="2"/>
     </row>
-    <row r="978" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="978" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A978" s="2"/>
       <c r="B978" s="2"/>
       <c r="C978" s="2"/>
@@ -51422,7 +51665,7 @@
       <c r="AW978" s="2"/>
       <c r="AX978" s="2"/>
     </row>
-    <row r="979" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="979" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A979" s="2"/>
       <c r="B979" s="2"/>
       <c r="C979" s="2"/>
@@ -51474,7 +51717,7 @@
       <c r="AW979" s="2"/>
       <c r="AX979" s="2"/>
     </row>
-    <row r="980" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="980" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A980" s="2"/>
       <c r="B980" s="2"/>
       <c r="C980" s="2"/>
@@ -51526,7 +51769,7 @@
       <c r="AW980" s="2"/>
       <c r="AX980" s="2"/>
     </row>
-    <row r="981" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="981" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A981" s="2"/>
       <c r="B981" s="2"/>
       <c r="C981" s="2"/>
@@ -51578,7 +51821,7 @@
       <c r="AW981" s="2"/>
       <c r="AX981" s="2"/>
     </row>
-    <row r="982" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="982" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A982" s="2"/>
       <c r="B982" s="2"/>
       <c r="C982" s="2"/>
@@ -51630,7 +51873,7 @@
       <c r="AW982" s="2"/>
       <c r="AX982" s="2"/>
     </row>
-    <row r="983" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="983" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A983" s="2"/>
       <c r="B983" s="2"/>
       <c r="C983" s="2"/>
@@ -51682,7 +51925,7 @@
       <c r="AW983" s="2"/>
       <c r="AX983" s="2"/>
     </row>
-    <row r="984" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="984" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A984" s="2"/>
       <c r="B984" s="2"/>
       <c r="C984" s="2"/>
@@ -51734,7 +51977,7 @@
       <c r="AW984" s="2"/>
       <c r="AX984" s="2"/>
     </row>
-    <row r="985" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="985" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A985" s="2"/>
       <c r="B985" s="2"/>
       <c r="C985" s="2"/>
@@ -51786,7 +52029,7 @@
       <c r="AW985" s="2"/>
       <c r="AX985" s="2"/>
     </row>
-    <row r="986" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="986" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A986" s="2"/>
       <c r="B986" s="2"/>
       <c r="C986" s="2"/>
@@ -51838,7 +52081,7 @@
       <c r="AW986" s="2"/>
       <c r="AX986" s="2"/>
     </row>
-    <row r="987" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="987" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A987" s="2"/>
       <c r="B987" s="2"/>
       <c r="C987" s="2"/>
@@ -51890,7 +52133,7 @@
       <c r="AW987" s="2"/>
       <c r="AX987" s="2"/>
     </row>
-    <row r="988" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="988" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A988" s="2"/>
       <c r="B988" s="2"/>
       <c r="C988" s="2"/>
@@ -51942,7 +52185,7 @@
       <c r="AW988" s="2"/>
       <c r="AX988" s="2"/>
     </row>
-    <row r="989" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="989" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A989" s="2"/>
       <c r="B989" s="2"/>
       <c r="C989" s="2"/>
@@ -51994,7 +52237,7 @@
       <c r="AW989" s="2"/>
       <c r="AX989" s="2"/>
     </row>
-    <row r="990" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="990" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A990" s="2"/>
       <c r="B990" s="2"/>
       <c r="C990" s="2"/>
@@ -52046,7 +52289,7 @@
       <c r="AW990" s="2"/>
       <c r="AX990" s="2"/>
     </row>
-    <row r="991" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="991" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A991" s="2"/>
       <c r="B991" s="2"/>
       <c r="C991" s="2"/>
@@ -52098,7 +52341,7 @@
       <c r="AW991" s="2"/>
       <c r="AX991" s="2"/>
     </row>
-    <row r="992" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="992" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A992" s="2"/>
       <c r="B992" s="2"/>
       <c r="C992" s="2"/>
@@ -52150,7 +52393,7 @@
       <c r="AW992" s="2"/>
       <c r="AX992" s="2"/>
     </row>
-    <row r="993" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="993" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A993" s="2"/>
       <c r="B993" s="2"/>
       <c r="C993" s="2"/>
@@ -52202,7 +52445,7 @@
       <c r="AW993" s="2"/>
       <c r="AX993" s="2"/>
     </row>
-    <row r="994" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="994" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A994" s="2"/>
       <c r="B994" s="2"/>
       <c r="C994" s="2"/>
@@ -52254,7 +52497,7 @@
       <c r="AW994" s="2"/>
       <c r="AX994" s="2"/>
     </row>
-    <row r="995" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="995" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A995" s="2"/>
       <c r="B995" s="2"/>
       <c r="C995" s="2"/>
@@ -52306,7 +52549,7 @@
       <c r="AW995" s="2"/>
       <c r="AX995" s="2"/>
     </row>
-    <row r="996" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="996" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A996" s="2"/>
       <c r="B996" s="2"/>
       <c r="C996" s="2"/>
@@ -52359,12 +52602,7 @@
       <c r="AX996" s="2"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/Data Files/Input Validation/02. receivedate/Auto_ReceiveDate_C2-1.xlsx
+++ b/Data Files/Input Validation/02. receivedate/Auto_ReceiveDate_C2-1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CFCA491-FB30-4AF3-9685-A013D4217574}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C23CB102-084B-4833-A615-0AA930BB19FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2304" yWindow="2304" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -165,9 +165,6 @@
     <t>TG-HNM-L14-752</t>
   </si>
   <si>
-    <t>2023-09-01</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
@@ -238,6 +235,9 @@
   </si>
   <si>
     <t>2023-09-16</t>
+  </si>
+  <si>
+    <t>2023-10-01</t>
   </si>
 </sst>
 </file>
@@ -605,7 +605,7 @@
   <dimension ref="A1:XFD996"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -808,67 +808,67 @@
         <v>70</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="3" t="s">
         <v>50</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>51</v>
       </c>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="N2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="O2" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="P2" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q2" s="2" t="s">
+      <c r="R2" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="S2" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="T2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="V2" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="T2" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="V2" s="2" t="s">
+      <c r="W2" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="W2" s="2" t="s">
+      <c r="X2" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="X2" s="2" t="s">
+      <c r="Y2" s="2" t="s">
         <v>60</v>
-      </c>
-      <c r="Y2" s="2" t="s">
-        <v>61</v>
       </c>
       <c r="Z2" s="2"/>
       <c r="AA2" s="2"/>
@@ -876,42 +876,42 @@
       <c r="AC2" s="2"/>
       <c r="AD2" s="2"/>
       <c r="AE2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AF2" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="AF2" s="2" t="s">
+      <c r="AG2" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="AG2" s="2" t="s">
+      <c r="AH2" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="AH2" s="2" t="s">
+      <c r="AI2" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="AI2" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="AJ2" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AK2" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AM2" s="2"/>
       <c r="AN2" s="2"/>
       <c r="AO2" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="AP2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AQ2" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="AR2" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="AP2" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="AQ2" s="2" t="s">
+      <c r="AS2" s="2" t="s">
         <v>68</v>
-      </c>
-      <c r="AR2" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="AS2" s="2" t="s">
-        <v>69</v>
       </c>
       <c r="AT2" s="2"/>
       <c r="AU2" s="2"/>

--- a/Data Files/Input Validation/02. receivedate/Auto_ReceiveDate_C2-1.xlsx
+++ b/Data Files/Input Validation/02. receivedate/Auto_ReceiveDate_C2-1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C23CB102-084B-4833-A615-0AA930BB19FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3308796-377C-4CF7-82AE-C48C6BA70EE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2304" yWindow="2304" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="72">
   <si>
     <t>contractNo</t>
   </si>
@@ -238,6 +238,9 @@
   </si>
   <si>
     <t>2023-10-01</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
@@ -605,7 +608,7 @@
   <dimension ref="A1:XFD996"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="AO2" sqref="AO2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -899,7 +902,7 @@
       <c r="AM2" s="2"/>
       <c r="AN2" s="2"/>
       <c r="AO2" s="3" t="s">
-        <v>46</v>
+        <v>71</v>
       </c>
       <c r="AP2" s="2" t="s">
         <v>52</v>

--- a/Data Files/Input Validation/02. receivedate/Auto_ReceiveDate_C2-1.xlsx
+++ b/Data Files/Input Validation/02. receivedate/Auto_ReceiveDate_C2-1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3308796-377C-4CF7-82AE-C48C6BA70EE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5B2B69D-C80C-4B98-9D82-0A99BF126703}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2304" yWindow="2304" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1116" yWindow="1116" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -237,10 +237,10 @@
     <t>2023-09-16</t>
   </si>
   <si>
-    <t>2023-10-01</t>
+    <t/>
   </si>
   <si>
-    <t/>
+    <t>2023-11-01</t>
   </si>
 </sst>
 </file>
@@ -808,7 +808,7 @@
         <v>45</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>69</v>
@@ -902,7 +902,7 @@
       <c r="AM2" s="2"/>
       <c r="AN2" s="2"/>
       <c r="AO2" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AP2" s="2" t="s">
         <v>52</v>

--- a/Data Files/Input Validation/02. receivedate/Auto_ReceiveDate_C2-1.xlsx
+++ b/Data Files/Input Validation/02. receivedate/Auto_ReceiveDate_C2-1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Game\Desktop\Chang Date\file\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\test gestamp\Data Files\Input Validation\02. receivedate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5B2B69D-C80C-4B98-9D82-0A99BF126703}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A2C2416-A5FD-4A73-A8C1-A2D59C1275B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1116" yWindow="1116" windowWidth="10980" windowHeight="10584" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1125" yWindow="2340" windowWidth="27675" windowHeight="12675" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="72">
   <si>
     <t>contractNo</t>
   </si>
@@ -240,7 +240,7 @@
     <t/>
   </si>
   <si>
-    <t>2023-11-01</t>
+    <t>2023-11-16</t>
   </si>
 </sst>
 </file>
@@ -608,60 +608,59 @@
   <dimension ref="A1:XFD996"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AO2" sqref="AO2"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="2.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.88671875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.88671875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.88671875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="12.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="12" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.33203125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="13.21875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="7.5546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.28515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13.28515625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="7.5703125" style="1" customWidth="1"/>
     <col min="10" max="10" width="11" style="1" customWidth="1"/>
-    <col min="11" max="12" width="10.44140625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="14.109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="8.77734375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="18.6640625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="19.109375" style="1" customWidth="1"/>
-    <col min="17" max="17" width="14.44140625" style="1" customWidth="1"/>
-    <col min="18" max="18" width="20.6640625" style="1" customWidth="1"/>
-    <col min="19" max="19" width="20.44140625" style="1" customWidth="1"/>
-    <col min="20" max="20" width="20.109375" style="1" customWidth="1"/>
+    <col min="11" max="12" width="10.42578125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="14.140625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="8.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="18.7109375" style="1" customWidth="1"/>
+    <col min="16" max="16" width="19.140625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" customWidth="1"/>
+    <col min="18" max="18" width="20.7109375" style="1" customWidth="1"/>
+    <col min="19" max="19" width="20.42578125" style="1" customWidth="1"/>
+    <col min="20" max="20" width="20.140625" style="1" customWidth="1"/>
     <col min="21" max="21" width="22" style="1" customWidth="1"/>
-    <col min="22" max="22" width="12.109375" style="1" customWidth="1"/>
-    <col min="23" max="23" width="7.44140625" style="1" customWidth="1"/>
-    <col min="24" max="24" width="6.88671875" style="1" customWidth="1"/>
-    <col min="25" max="25" width="11.44140625" style="1" customWidth="1"/>
-    <col min="26" max="26" width="13.88671875" style="1" customWidth="1"/>
-    <col min="27" max="27" width="4.5546875" style="1" customWidth="1"/>
-    <col min="28" max="28" width="8.109375" style="1" customWidth="1"/>
-    <col min="29" max="29" width="12.33203125" style="1" customWidth="1"/>
-    <col min="30" max="30" width="10.6640625" style="1" customWidth="1"/>
-    <col min="31" max="31" width="13.44140625" style="1" customWidth="1"/>
-    <col min="32" max="32" width="14.109375" style="1" customWidth="1"/>
-    <col min="33" max="33" width="11.6640625" style="1" customWidth="1"/>
-    <col min="34" max="34" width="8.6640625" style="1" customWidth="1"/>
-    <col min="35" max="35" width="8.77734375" style="1" customWidth="1"/>
+    <col min="22" max="22" width="12.140625" style="1" customWidth="1"/>
+    <col min="23" max="23" width="7.42578125" style="1" customWidth="1"/>
+    <col min="24" max="24" width="6.85546875" style="1" customWidth="1"/>
+    <col min="25" max="25" width="11.42578125" style="1" customWidth="1"/>
+    <col min="26" max="26" width="13.85546875" style="1" customWidth="1"/>
+    <col min="27" max="27" width="4.5703125" style="1" customWidth="1"/>
+    <col min="28" max="28" width="8.140625" style="1" customWidth="1"/>
+    <col min="29" max="29" width="12.28515625" style="1" customWidth="1"/>
+    <col min="30" max="30" width="10.7109375" style="1" customWidth="1"/>
+    <col min="31" max="31" width="13.42578125" style="1" customWidth="1"/>
+    <col min="32" max="32" width="14.140625" style="1" customWidth="1"/>
+    <col min="33" max="33" width="11.7109375" style="1" customWidth="1"/>
+    <col min="34" max="35" width="8.7109375" style="1" customWidth="1"/>
     <col min="36" max="36" width="9" style="1" customWidth="1"/>
-    <col min="37" max="37" width="42.77734375" style="1" customWidth="1"/>
+    <col min="37" max="37" width="42.7109375" style="1" customWidth="1"/>
     <col min="38" max="38" width="10" style="1" customWidth="1"/>
-    <col min="39" max="39" width="12.77734375" style="1" customWidth="1"/>
-    <col min="40" max="40" width="14.44140625" style="1" customWidth="1"/>
-    <col min="41" max="41" width="11.6640625" style="1" customWidth="1"/>
-    <col min="42" max="42" width="17.21875" style="1" customWidth="1"/>
-    <col min="43" max="43" width="18.44140625" style="1" customWidth="1"/>
-    <col min="44" max="44" width="10.21875" style="1" customWidth="1"/>
-    <col min="45" max="45" width="8.77734375" style="1" customWidth="1"/>
-    <col min="46" max="16380" width="2.6640625" style="1"/>
-    <col min="16384" max="16384" width="2.6640625" style="1"/>
+    <col min="39" max="39" width="12.7109375" style="1" customWidth="1"/>
+    <col min="40" max="40" width="14.42578125" style="1" customWidth="1"/>
+    <col min="41" max="41" width="11.7109375" style="1" customWidth="1"/>
+    <col min="42" max="42" width="17.28515625" style="1" customWidth="1"/>
+    <col min="43" max="43" width="18.42578125" style="1" customWidth="1"/>
+    <col min="44" max="44" width="10.28515625" style="1" customWidth="1"/>
+    <col min="45" max="45" width="8.7109375" style="1" customWidth="1"/>
+    <col min="46" max="16380" width="2.7109375" style="1"/>
+    <col min="16384" max="16384" width="2.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50 16384:16384" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:50 16384:16384" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -803,7 +802,7 @@
       <c r="AW1" s="2"/>
       <c r="AX1" s="2"/>
     </row>
-    <row r="2" spans="1:50 16384:16384" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:50 16384:16384" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>45</v>
       </c>
@@ -829,7 +828,9 @@
         <v>50</v>
       </c>
       <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
+      <c r="J2" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="K2" s="2"/>
       <c r="L2" s="2" t="s">
         <v>51</v>
@@ -922,7 +923,7 @@
       <c r="AW2" s="2"/>
       <c r="AX2" s="2"/>
     </row>
-    <row r="3" spans="1:50 16384:16384" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:50 16384:16384" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -975,7 +976,7 @@
       <c r="AX3" s="2"/>
       <c r="XFD3"/>
     </row>
-    <row r="4" spans="1:50 16384:16384" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:50 16384:16384" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -1027,7 +1028,7 @@
       <c r="AW4" s="2"/>
       <c r="AX4" s="2"/>
     </row>
-    <row r="5" spans="1:50 16384:16384" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:50 16384:16384" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -1079,7 +1080,7 @@
       <c r="AW5" s="2"/>
       <c r="AX5" s="2"/>
     </row>
-    <row r="6" spans="1:50 16384:16384" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:50 16384:16384" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -1131,7 +1132,7 @@
       <c r="AW6" s="2"/>
       <c r="AX6" s="2"/>
     </row>
-    <row r="7" spans="1:50 16384:16384" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:50 16384:16384" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -1181,7 +1182,7 @@
       <c r="AW7" s="2"/>
       <c r="AX7" s="2"/>
     </row>
-    <row r="8" spans="1:50 16384:16384" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:50 16384:16384" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -1232,7 +1233,7 @@
       <c r="AW8" s="2"/>
       <c r="AX8" s="2"/>
     </row>
-    <row r="9" spans="1:50 16384:16384" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:50 16384:16384" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -1283,7 +1284,7 @@
       <c r="AW9" s="2"/>
       <c r="AX9" s="2"/>
     </row>
-    <row r="10" spans="1:50 16384:16384" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:50 16384:16384" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -1334,7 +1335,7 @@
       <c r="AW10" s="2"/>
       <c r="AX10" s="2"/>
     </row>
-    <row r="11" spans="1:50 16384:16384" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:50 16384:16384" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -1385,7 +1386,7 @@
       <c r="AW11" s="2"/>
       <c r="AX11" s="2"/>
     </row>
-    <row r="12" spans="1:50 16384:16384" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:50 16384:16384" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -1437,7 +1438,7 @@
       <c r="AW12" s="2"/>
       <c r="AX12" s="2"/>
     </row>
-    <row r="13" spans="1:50 16384:16384" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:50 16384:16384" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -1488,7 +1489,7 @@
       <c r="AW13" s="2"/>
       <c r="AX13" s="2"/>
     </row>
-    <row r="14" spans="1:50 16384:16384" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:50 16384:16384" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -1540,7 +1541,7 @@
       <c r="AW14" s="2"/>
       <c r="AX14" s="2"/>
     </row>
-    <row r="15" spans="1:50 16384:16384" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:50 16384:16384" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -1592,7 +1593,7 @@
       <c r="AW15" s="2"/>
       <c r="AX15" s="2"/>
     </row>
-    <row r="16" spans="1:50 16384:16384" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:50 16384:16384" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -1644,7 +1645,7 @@
       <c r="AW16" s="2"/>
       <c r="AX16" s="2"/>
     </row>
-    <row r="17" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -1696,7 +1697,7 @@
       <c r="AW17" s="2"/>
       <c r="AX17" s="2"/>
     </row>
-    <row r="18" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -1748,7 +1749,7 @@
       <c r="AW18" s="2"/>
       <c r="AX18" s="2"/>
     </row>
-    <row r="19" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -1800,7 +1801,7 @@
       <c r="AW19" s="2"/>
       <c r="AX19" s="2"/>
     </row>
-    <row r="20" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -1852,7 +1853,7 @@
       <c r="AW20" s="2"/>
       <c r="AX20" s="2"/>
     </row>
-    <row r="21" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -1904,7 +1905,7 @@
       <c r="AW21" s="2"/>
       <c r="AX21" s="2"/>
     </row>
-    <row r="22" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -1956,7 +1957,7 @@
       <c r="AW22" s="2"/>
       <c r="AX22" s="2"/>
     </row>
-    <row r="23" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -2008,7 +2009,7 @@
       <c r="AW23" s="2"/>
       <c r="AX23" s="2"/>
     </row>
-    <row r="24" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -2060,7 +2061,7 @@
       <c r="AW24" s="2"/>
       <c r="AX24" s="2"/>
     </row>
-    <row r="25" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -2112,7 +2113,7 @@
       <c r="AW25" s="2"/>
       <c r="AX25" s="2"/>
     </row>
-    <row r="26" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -2164,7 +2165,7 @@
       <c r="AW26" s="2"/>
       <c r="AX26" s="2"/>
     </row>
-    <row r="27" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -2216,7 +2217,7 @@
       <c r="AW27" s="2"/>
       <c r="AX27" s="2"/>
     </row>
-    <row r="28" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -2268,7 +2269,7 @@
       <c r="AW28" s="2"/>
       <c r="AX28" s="2"/>
     </row>
-    <row r="29" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -2320,7 +2321,7 @@
       <c r="AW29" s="2"/>
       <c r="AX29" s="2"/>
     </row>
-    <row r="30" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -2372,7 +2373,7 @@
       <c r="AW30" s="2"/>
       <c r="AX30" s="2"/>
     </row>
-    <row r="31" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -2424,7 +2425,7 @@
       <c r="AW31" s="2"/>
       <c r="AX31" s="2"/>
     </row>
-    <row r="32" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -2476,7 +2477,7 @@
       <c r="AW32" s="2"/>
       <c r="AX32" s="2"/>
     </row>
-    <row r="33" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -2528,7 +2529,7 @@
       <c r="AW33" s="2"/>
       <c r="AX33" s="2"/>
     </row>
-    <row r="34" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -2580,7 +2581,7 @@
       <c r="AW34" s="2"/>
       <c r="AX34" s="2"/>
     </row>
-    <row r="35" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -2632,7 +2633,7 @@
       <c r="AW35" s="2"/>
       <c r="AX35" s="2"/>
     </row>
-    <row r="36" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -2684,7 +2685,7 @@
       <c r="AW36" s="2"/>
       <c r="AX36" s="2"/>
     </row>
-    <row r="37" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -2736,7 +2737,7 @@
       <c r="AW37" s="2"/>
       <c r="AX37" s="2"/>
     </row>
-    <row r="38" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -2788,7 +2789,7 @@
       <c r="AW38" s="2"/>
       <c r="AX38" s="2"/>
     </row>
-    <row r="39" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -2840,7 +2841,7 @@
       <c r="AW39" s="2"/>
       <c r="AX39" s="2"/>
     </row>
-    <row r="40" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -2892,7 +2893,7 @@
       <c r="AW40" s="2"/>
       <c r="AX40" s="2"/>
     </row>
-    <row r="41" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -2944,7 +2945,7 @@
       <c r="AW41" s="2"/>
       <c r="AX41" s="2"/>
     </row>
-    <row r="42" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -2996,7 +2997,7 @@
       <c r="AW42" s="2"/>
       <c r="AX42" s="2"/>
     </row>
-    <row r="43" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -3048,7 +3049,7 @@
       <c r="AW43" s="2"/>
       <c r="AX43" s="2"/>
     </row>
-    <row r="44" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -3100,7 +3101,7 @@
       <c r="AW44" s="2"/>
       <c r="AX44" s="2"/>
     </row>
-    <row r="45" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -3152,7 +3153,7 @@
       <c r="AW45" s="2"/>
       <c r="AX45" s="2"/>
     </row>
-    <row r="46" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -3204,7 +3205,7 @@
       <c r="AW46" s="2"/>
       <c r="AX46" s="2"/>
     </row>
-    <row r="47" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -3256,7 +3257,7 @@
       <c r="AW47" s="2"/>
       <c r="AX47" s="2"/>
     </row>
-    <row r="48" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -3308,7 +3309,7 @@
       <c r="AW48" s="2"/>
       <c r="AX48" s="2"/>
     </row>
-    <row r="49" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -3360,7 +3361,7 @@
       <c r="AW49" s="2"/>
       <c r="AX49" s="2"/>
     </row>
-    <row r="50" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -3412,7 +3413,7 @@
       <c r="AW50" s="2"/>
       <c r="AX50" s="2"/>
     </row>
-    <row r="51" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -3464,7 +3465,7 @@
       <c r="AW51" s="2"/>
       <c r="AX51" s="2"/>
     </row>
-    <row r="52" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -3516,7 +3517,7 @@
       <c r="AW52" s="2"/>
       <c r="AX52" s="2"/>
     </row>
-    <row r="53" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -3568,7 +3569,7 @@
       <c r="AW53" s="2"/>
       <c r="AX53" s="2"/>
     </row>
-    <row r="54" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -3620,7 +3621,7 @@
       <c r="AW54" s="2"/>
       <c r="AX54" s="2"/>
     </row>
-    <row r="55" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -3672,7 +3673,7 @@
       <c r="AW55" s="2"/>
       <c r="AX55" s="2"/>
     </row>
-    <row r="56" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -3724,7 +3725,7 @@
       <c r="AW56" s="2"/>
       <c r="AX56" s="2"/>
     </row>
-    <row r="57" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -3776,7 +3777,7 @@
       <c r="AW57" s="2"/>
       <c r="AX57" s="2"/>
     </row>
-    <row r="58" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
@@ -3828,7 +3829,7 @@
       <c r="AW58" s="2"/>
       <c r="AX58" s="2"/>
     </row>
-    <row r="59" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -3880,7 +3881,7 @@
       <c r="AW59" s="2"/>
       <c r="AX59" s="2"/>
     </row>
-    <row r="60" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -3932,7 +3933,7 @@
       <c r="AW60" s="2"/>
       <c r="AX60" s="2"/>
     </row>
-    <row r="61" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -3984,7 +3985,7 @@
       <c r="AW61" s="2"/>
       <c r="AX61" s="2"/>
     </row>
-    <row r="62" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -4036,7 +4037,7 @@
       <c r="AW62" s="2"/>
       <c r="AX62" s="2"/>
     </row>
-    <row r="63" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -4088,7 +4089,7 @@
       <c r="AW63" s="2"/>
       <c r="AX63" s="2"/>
     </row>
-    <row r="64" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -4140,7 +4141,7 @@
       <c r="AW64" s="2"/>
       <c r="AX64" s="2"/>
     </row>
-    <row r="65" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
@@ -4192,7 +4193,7 @@
       <c r="AW65" s="2"/>
       <c r="AX65" s="2"/>
     </row>
-    <row r="66" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
@@ -4244,7 +4245,7 @@
       <c r="AW66" s="2"/>
       <c r="AX66" s="2"/>
     </row>
-    <row r="67" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
@@ -4296,7 +4297,7 @@
       <c r="AW67" s="2"/>
       <c r="AX67" s="2"/>
     </row>
-    <row r="68" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
@@ -4348,7 +4349,7 @@
       <c r="AW68" s="2"/>
       <c r="AX68" s="2"/>
     </row>
-    <row r="69" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
@@ -4400,7 +4401,7 @@
       <c r="AW69" s="2"/>
       <c r="AX69" s="2"/>
     </row>
-    <row r="70" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
@@ -4452,7 +4453,7 @@
       <c r="AW70" s="2"/>
       <c r="AX70" s="2"/>
     </row>
-    <row r="71" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -4504,7 +4505,7 @@
       <c r="AW71" s="2"/>
       <c r="AX71" s="2"/>
     </row>
-    <row r="72" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -4556,7 +4557,7 @@
       <c r="AW72" s="2"/>
       <c r="AX72" s="2"/>
     </row>
-    <row r="73" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -4608,7 +4609,7 @@
       <c r="AW73" s="2"/>
       <c r="AX73" s="2"/>
     </row>
-    <row r="74" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -4660,7 +4661,7 @@
       <c r="AW74" s="2"/>
       <c r="AX74" s="2"/>
     </row>
-    <row r="75" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -4712,7 +4713,7 @@
       <c r="AW75" s="2"/>
       <c r="AX75" s="2"/>
     </row>
-    <row r="76" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -4764,7 +4765,7 @@
       <c r="AW76" s="2"/>
       <c r="AX76" s="2"/>
     </row>
-    <row r="77" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -4816,7 +4817,7 @@
       <c r="AW77" s="2"/>
       <c r="AX77" s="2"/>
     </row>
-    <row r="78" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -4868,7 +4869,7 @@
       <c r="AW78" s="2"/>
       <c r="AX78" s="2"/>
     </row>
-    <row r="79" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -4920,7 +4921,7 @@
       <c r="AW79" s="2"/>
       <c r="AX79" s="2"/>
     </row>
-    <row r="80" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -4972,7 +4973,7 @@
       <c r="AW80" s="2"/>
       <c r="AX80" s="2"/>
     </row>
-    <row r="81" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -5024,7 +5025,7 @@
       <c r="AW81" s="2"/>
       <c r="AX81" s="2"/>
     </row>
-    <row r="82" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -5076,7 +5077,7 @@
       <c r="AW82" s="2"/>
       <c r="AX82" s="2"/>
     </row>
-    <row r="83" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -5128,7 +5129,7 @@
       <c r="AW83" s="2"/>
       <c r="AX83" s="2"/>
     </row>
-    <row r="84" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -5180,7 +5181,7 @@
       <c r="AW84" s="2"/>
       <c r="AX84" s="2"/>
     </row>
-    <row r="85" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -5232,7 +5233,7 @@
       <c r="AW85" s="2"/>
       <c r="AX85" s="2"/>
     </row>
-    <row r="86" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -5284,7 +5285,7 @@
       <c r="AW86" s="2"/>
       <c r="AX86" s="2"/>
     </row>
-    <row r="87" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
@@ -5336,7 +5337,7 @@
       <c r="AW87" s="2"/>
       <c r="AX87" s="2"/>
     </row>
-    <row r="88" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
@@ -5388,7 +5389,7 @@
       <c r="AW88" s="2"/>
       <c r="AX88" s="2"/>
     </row>
-    <row r="89" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
@@ -5440,7 +5441,7 @@
       <c r="AW89" s="2"/>
       <c r="AX89" s="2"/>
     </row>
-    <row r="90" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
@@ -5492,7 +5493,7 @@
       <c r="AW90" s="2"/>
       <c r="AX90" s="2"/>
     </row>
-    <row r="91" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -5544,7 +5545,7 @@
       <c r="AW91" s="2"/>
       <c r="AX91" s="2"/>
     </row>
-    <row r="92" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
@@ -5596,7 +5597,7 @@
       <c r="AW92" s="2"/>
       <c r="AX92" s="2"/>
     </row>
-    <row r="93" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
@@ -5648,7 +5649,7 @@
       <c r="AW93" s="2"/>
       <c r="AX93" s="2"/>
     </row>
-    <row r="94" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -5700,7 +5701,7 @@
       <c r="AW94" s="2"/>
       <c r="AX94" s="2"/>
     </row>
-    <row r="95" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
@@ -5752,7 +5753,7 @@
       <c r="AW95" s="2"/>
       <c r="AX95" s="2"/>
     </row>
-    <row r="96" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -5804,7 +5805,7 @@
       <c r="AW96" s="2"/>
       <c r="AX96" s="2"/>
     </row>
-    <row r="97" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -5856,7 +5857,7 @@
       <c r="AW97" s="2"/>
       <c r="AX97" s="2"/>
     </row>
-    <row r="98" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -5908,7 +5909,7 @@
       <c r="AW98" s="2"/>
       <c r="AX98" s="2"/>
     </row>
-    <row r="99" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
@@ -5960,7 +5961,7 @@
       <c r="AW99" s="2"/>
       <c r="AX99" s="2"/>
     </row>
-    <row r="100" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -6012,7 +6013,7 @@
       <c r="AW100" s="2"/>
       <c r="AX100" s="2"/>
     </row>
-    <row r="101" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
@@ -6064,7 +6065,7 @@
       <c r="AW101" s="2"/>
       <c r="AX101" s="2"/>
     </row>
-    <row r="102" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -6116,7 +6117,7 @@
       <c r="AW102" s="2"/>
       <c r="AX102" s="2"/>
     </row>
-    <row r="103" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
@@ -6168,7 +6169,7 @@
       <c r="AW103" s="2"/>
       <c r="AX103" s="2"/>
     </row>
-    <row r="104" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -6220,7 +6221,7 @@
       <c r="AW104" s="2"/>
       <c r="AX104" s="2"/>
     </row>
-    <row r="105" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -6272,7 +6273,7 @@
       <c r="AW105" s="2"/>
       <c r="AX105" s="2"/>
     </row>
-    <row r="106" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -6324,7 +6325,7 @@
       <c r="AW106" s="2"/>
       <c r="AX106" s="2"/>
     </row>
-    <row r="107" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -6376,7 +6377,7 @@
       <c r="AW107" s="2"/>
       <c r="AX107" s="2"/>
     </row>
-    <row r="108" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -6428,7 +6429,7 @@
       <c r="AW108" s="2"/>
       <c r="AX108" s="2"/>
     </row>
-    <row r="109" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
@@ -6480,7 +6481,7 @@
       <c r="AW109" s="2"/>
       <c r="AX109" s="2"/>
     </row>
-    <row r="110" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -6532,7 +6533,7 @@
       <c r="AW110" s="2"/>
       <c r="AX110" s="2"/>
     </row>
-    <row r="111" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
@@ -6584,7 +6585,7 @@
       <c r="AW111" s="2"/>
       <c r="AX111" s="2"/>
     </row>
-    <row r="112" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
@@ -6636,7 +6637,7 @@
       <c r="AW112" s="2"/>
       <c r="AX112" s="2"/>
     </row>
-    <row r="113" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -6688,7 +6689,7 @@
       <c r="AW113" s="2"/>
       <c r="AX113" s="2"/>
     </row>
-    <row r="114" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
@@ -6740,7 +6741,7 @@
       <c r="AW114" s="2"/>
       <c r="AX114" s="2"/>
     </row>
-    <row r="115" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
@@ -6792,7 +6793,7 @@
       <c r="AW115" s="2"/>
       <c r="AX115" s="2"/>
     </row>
-    <row r="116" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
@@ -6844,7 +6845,7 @@
       <c r="AW116" s="2"/>
       <c r="AX116" s="2"/>
     </row>
-    <row r="117" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
@@ -6896,7 +6897,7 @@
       <c r="AW117" s="2"/>
       <c r="AX117" s="2"/>
     </row>
-    <row r="118" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
@@ -6948,7 +6949,7 @@
       <c r="AW118" s="2"/>
       <c r="AX118" s="2"/>
     </row>
-    <row r="119" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
@@ -7000,7 +7001,7 @@
       <c r="AW119" s="2"/>
       <c r="AX119" s="2"/>
     </row>
-    <row r="120" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
@@ -7052,7 +7053,7 @@
       <c r="AW120" s="2"/>
       <c r="AX120" s="2"/>
     </row>
-    <row r="121" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
@@ -7104,7 +7105,7 @@
       <c r="AW121" s="2"/>
       <c r="AX121" s="2"/>
     </row>
-    <row r="122" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
@@ -7156,7 +7157,7 @@
       <c r="AW122" s="2"/>
       <c r="AX122" s="2"/>
     </row>
-    <row r="123" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
@@ -7208,7 +7209,7 @@
       <c r="AW123" s="2"/>
       <c r="AX123" s="2"/>
     </row>
-    <row r="124" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
@@ -7260,7 +7261,7 @@
       <c r="AW124" s="2"/>
       <c r="AX124" s="2"/>
     </row>
-    <row r="125" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
@@ -7312,7 +7313,7 @@
       <c r="AW125" s="2"/>
       <c r="AX125" s="2"/>
     </row>
-    <row r="126" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
@@ -7364,7 +7365,7 @@
       <c r="AW126" s="2"/>
       <c r="AX126" s="2"/>
     </row>
-    <row r="127" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
@@ -7416,7 +7417,7 @@
       <c r="AW127" s="2"/>
       <c r="AX127" s="2"/>
     </row>
-    <row r="128" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
@@ -7468,7 +7469,7 @@
       <c r="AW128" s="2"/>
       <c r="AX128" s="2"/>
     </row>
-    <row r="129" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
@@ -7520,7 +7521,7 @@
       <c r="AW129" s="2"/>
       <c r="AX129" s="2"/>
     </row>
-    <row r="130" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
@@ -7572,7 +7573,7 @@
       <c r="AW130" s="2"/>
       <c r="AX130" s="2"/>
     </row>
-    <row r="131" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
@@ -7624,7 +7625,7 @@
       <c r="AW131" s="2"/>
       <c r="AX131" s="2"/>
     </row>
-    <row r="132" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
@@ -7676,7 +7677,7 @@
       <c r="AW132" s="2"/>
       <c r="AX132" s="2"/>
     </row>
-    <row r="133" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
@@ -7728,7 +7729,7 @@
       <c r="AW133" s="2"/>
       <c r="AX133" s="2"/>
     </row>
-    <row r="134" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="2"/>
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
@@ -7780,7 +7781,7 @@
       <c r="AW134" s="2"/>
       <c r="AX134" s="2"/>
     </row>
-    <row r="135" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="2"/>
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
@@ -7832,7 +7833,7 @@
       <c r="AW135" s="2"/>
       <c r="AX135" s="2"/>
     </row>
-    <row r="136" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="2"/>
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
@@ -7884,7 +7885,7 @@
       <c r="AW136" s="2"/>
       <c r="AX136" s="2"/>
     </row>
-    <row r="137" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="2"/>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
@@ -7936,7 +7937,7 @@
       <c r="AW137" s="2"/>
       <c r="AX137" s="2"/>
     </row>
-    <row r="138" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="2"/>
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
@@ -7988,7 +7989,7 @@
       <c r="AW138" s="2"/>
       <c r="AX138" s="2"/>
     </row>
-    <row r="139" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="2"/>
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
@@ -8040,7 +8041,7 @@
       <c r="AW139" s="2"/>
       <c r="AX139" s="2"/>
     </row>
-    <row r="140" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="2"/>
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
@@ -8092,7 +8093,7 @@
       <c r="AW140" s="2"/>
       <c r="AX140" s="2"/>
     </row>
-    <row r="141" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="2"/>
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
@@ -8144,7 +8145,7 @@
       <c r="AW141" s="2"/>
       <c r="AX141" s="2"/>
     </row>
-    <row r="142" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="2"/>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
@@ -8196,7 +8197,7 @@
       <c r="AW142" s="2"/>
       <c r="AX142" s="2"/>
     </row>
-    <row r="143" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="2"/>
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
@@ -8248,7 +8249,7 @@
       <c r="AW143" s="2"/>
       <c r="AX143" s="2"/>
     </row>
-    <row r="144" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="2"/>
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
@@ -8300,7 +8301,7 @@
       <c r="AW144" s="2"/>
       <c r="AX144" s="2"/>
     </row>
-    <row r="145" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="2"/>
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
@@ -8352,7 +8353,7 @@
       <c r="AW145" s="2"/>
       <c r="AX145" s="2"/>
     </row>
-    <row r="146" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="2"/>
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
@@ -8404,7 +8405,7 @@
       <c r="AW146" s="2"/>
       <c r="AX146" s="2"/>
     </row>
-    <row r="147" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="2"/>
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
@@ -8456,7 +8457,7 @@
       <c r="AW147" s="2"/>
       <c r="AX147" s="2"/>
     </row>
-    <row r="148" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="2"/>
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
@@ -8508,7 +8509,7 @@
       <c r="AW148" s="2"/>
       <c r="AX148" s="2"/>
     </row>
-    <row r="149" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="2"/>
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
@@ -8560,7 +8561,7 @@
       <c r="AW149" s="2"/>
       <c r="AX149" s="2"/>
     </row>
-    <row r="150" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="2"/>
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
@@ -8612,7 +8613,7 @@
       <c r="AW150" s="2"/>
       <c r="AX150" s="2"/>
     </row>
-    <row r="151" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="2"/>
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
@@ -8664,7 +8665,7 @@
       <c r="AW151" s="2"/>
       <c r="AX151" s="2"/>
     </row>
-    <row r="152" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="2"/>
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
@@ -8716,7 +8717,7 @@
       <c r="AW152" s="2"/>
       <c r="AX152" s="2"/>
     </row>
-    <row r="153" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="2"/>
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
@@ -8768,7 +8769,7 @@
       <c r="AW153" s="2"/>
       <c r="AX153" s="2"/>
     </row>
-    <row r="154" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="2"/>
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
@@ -8820,7 +8821,7 @@
       <c r="AW154" s="2"/>
       <c r="AX154" s="2"/>
     </row>
-    <row r="155" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="2"/>
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
@@ -8872,7 +8873,7 @@
       <c r="AW155" s="2"/>
       <c r="AX155" s="2"/>
     </row>
-    <row r="156" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="2"/>
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
@@ -8924,7 +8925,7 @@
       <c r="AW156" s="2"/>
       <c r="AX156" s="2"/>
     </row>
-    <row r="157" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="2"/>
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
@@ -8976,7 +8977,7 @@
       <c r="AW157" s="2"/>
       <c r="AX157" s="2"/>
     </row>
-    <row r="158" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="2"/>
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
@@ -9028,7 +9029,7 @@
       <c r="AW158" s="2"/>
       <c r="AX158" s="2"/>
     </row>
-    <row r="159" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="2"/>
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
@@ -9080,7 +9081,7 @@
       <c r="AW159" s="2"/>
       <c r="AX159" s="2"/>
     </row>
-    <row r="160" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="2"/>
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
@@ -9132,7 +9133,7 @@
       <c r="AW160" s="2"/>
       <c r="AX160" s="2"/>
     </row>
-    <row r="161" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="2"/>
       <c r="B161" s="2"/>
       <c r="C161" s="2"/>
@@ -9184,7 +9185,7 @@
       <c r="AW161" s="2"/>
       <c r="AX161" s="2"/>
     </row>
-    <row r="162" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="2"/>
       <c r="B162" s="2"/>
       <c r="C162" s="2"/>
@@ -9236,7 +9237,7 @@
       <c r="AW162" s="2"/>
       <c r="AX162" s="2"/>
     </row>
-    <row r="163" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="2"/>
       <c r="B163" s="2"/>
       <c r="C163" s="2"/>
@@ -9288,7 +9289,7 @@
       <c r="AW163" s="2"/>
       <c r="AX163" s="2"/>
     </row>
-    <row r="164" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="2"/>
       <c r="B164" s="2"/>
       <c r="C164" s="2"/>
@@ -9340,7 +9341,7 @@
       <c r="AW164" s="2"/>
       <c r="AX164" s="2"/>
     </row>
-    <row r="165" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="2"/>
       <c r="B165" s="2"/>
       <c r="C165" s="2"/>
@@ -9392,7 +9393,7 @@
       <c r="AW165" s="2"/>
       <c r="AX165" s="2"/>
     </row>
-    <row r="166" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="2"/>
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
@@ -9444,7 +9445,7 @@
       <c r="AW166" s="2"/>
       <c r="AX166" s="2"/>
     </row>
-    <row r="167" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="2"/>
       <c r="B167" s="2"/>
       <c r="C167" s="2"/>
@@ -9496,7 +9497,7 @@
       <c r="AW167" s="2"/>
       <c r="AX167" s="2"/>
     </row>
-    <row r="168" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="2"/>
       <c r="B168" s="2"/>
       <c r="C168" s="2"/>
@@ -9548,7 +9549,7 @@
       <c r="AW168" s="2"/>
       <c r="AX168" s="2"/>
     </row>
-    <row r="169" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="2"/>
       <c r="B169" s="2"/>
       <c r="C169" s="2"/>
@@ -9600,7 +9601,7 @@
       <c r="AW169" s="2"/>
       <c r="AX169" s="2"/>
     </row>
-    <row r="170" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="2"/>
       <c r="B170" s="2"/>
       <c r="C170" s="2"/>
@@ -9652,7 +9653,7 @@
       <c r="AW170" s="2"/>
       <c r="AX170" s="2"/>
     </row>
-    <row r="171" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="2"/>
       <c r="B171" s="2"/>
       <c r="C171" s="2"/>
@@ -9704,7 +9705,7 @@
       <c r="AW171" s="2"/>
       <c r="AX171" s="2"/>
     </row>
-    <row r="172" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="2"/>
       <c r="B172" s="2"/>
       <c r="C172" s="2"/>
@@ -9756,7 +9757,7 @@
       <c r="AW172" s="2"/>
       <c r="AX172" s="2"/>
     </row>
-    <row r="173" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="2"/>
       <c r="B173" s="2"/>
       <c r="C173" s="2"/>
@@ -9808,7 +9809,7 @@
       <c r="AW173" s="2"/>
       <c r="AX173" s="2"/>
     </row>
-    <row r="174" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="2"/>
       <c r="B174" s="2"/>
       <c r="C174" s="2"/>
@@ -9860,7 +9861,7 @@
       <c r="AW174" s="2"/>
       <c r="AX174" s="2"/>
     </row>
-    <row r="175" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="2"/>
       <c r="B175" s="2"/>
       <c r="C175" s="2"/>
@@ -9912,7 +9913,7 @@
       <c r="AW175" s="2"/>
       <c r="AX175" s="2"/>
     </row>
-    <row r="176" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="2"/>
       <c r="B176" s="2"/>
       <c r="C176" s="2"/>
@@ -9964,7 +9965,7 @@
       <c r="AW176" s="2"/>
       <c r="AX176" s="2"/>
     </row>
-    <row r="177" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="2"/>
       <c r="B177" s="2"/>
       <c r="C177" s="2"/>
@@ -10016,7 +10017,7 @@
       <c r="AW177" s="2"/>
       <c r="AX177" s="2"/>
     </row>
-    <row r="178" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="2"/>
       <c r="B178" s="2"/>
       <c r="C178" s="2"/>
@@ -10068,7 +10069,7 @@
       <c r="AW178" s="2"/>
       <c r="AX178" s="2"/>
     </row>
-    <row r="179" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="2"/>
       <c r="B179" s="2"/>
       <c r="C179" s="2"/>
@@ -10120,7 +10121,7 @@
       <c r="AW179" s="2"/>
       <c r="AX179" s="2"/>
     </row>
-    <row r="180" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="2"/>
       <c r="B180" s="2"/>
       <c r="C180" s="2"/>
@@ -10172,7 +10173,7 @@
       <c r="AW180" s="2"/>
       <c r="AX180" s="2"/>
     </row>
-    <row r="181" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="2"/>
       <c r="B181" s="2"/>
       <c r="C181" s="2"/>
@@ -10224,7 +10225,7 @@
       <c r="AW181" s="2"/>
       <c r="AX181" s="2"/>
     </row>
-    <row r="182" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="2"/>
       <c r="B182" s="2"/>
       <c r="C182" s="2"/>
@@ -10276,7 +10277,7 @@
       <c r="AW182" s="2"/>
       <c r="AX182" s="2"/>
     </row>
-    <row r="183" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="2"/>
       <c r="B183" s="2"/>
       <c r="C183" s="2"/>
@@ -10328,7 +10329,7 @@
       <c r="AW183" s="2"/>
       <c r="AX183" s="2"/>
     </row>
-    <row r="184" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="2"/>
       <c r="B184" s="2"/>
       <c r="C184" s="2"/>
@@ -10380,7 +10381,7 @@
       <c r="AW184" s="2"/>
       <c r="AX184" s="2"/>
     </row>
-    <row r="185" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="2"/>
       <c r="B185" s="2"/>
       <c r="C185" s="2"/>
@@ -10432,7 +10433,7 @@
       <c r="AW185" s="2"/>
       <c r="AX185" s="2"/>
     </row>
-    <row r="186" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="2"/>
       <c r="B186" s="2"/>
       <c r="C186" s="2"/>
@@ -10484,7 +10485,7 @@
       <c r="AW186" s="2"/>
       <c r="AX186" s="2"/>
     </row>
-    <row r="187" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="2"/>
       <c r="B187" s="2"/>
       <c r="C187" s="2"/>
@@ -10536,7 +10537,7 @@
       <c r="AW187" s="2"/>
       <c r="AX187" s="2"/>
     </row>
-    <row r="188" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="2"/>
       <c r="B188" s="2"/>
       <c r="C188" s="2"/>
@@ -10588,7 +10589,7 @@
       <c r="AW188" s="2"/>
       <c r="AX188" s="2"/>
     </row>
-    <row r="189" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="2"/>
       <c r="B189" s="2"/>
       <c r="C189" s="2"/>
@@ -10640,7 +10641,7 @@
       <c r="AW189" s="2"/>
       <c r="AX189" s="2"/>
     </row>
-    <row r="190" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="2"/>
       <c r="B190" s="2"/>
       <c r="C190" s="2"/>
@@ -10692,7 +10693,7 @@
       <c r="AW190" s="2"/>
       <c r="AX190" s="2"/>
     </row>
-    <row r="191" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="2"/>
       <c r="B191" s="2"/>
       <c r="C191" s="2"/>
@@ -10744,7 +10745,7 @@
       <c r="AW191" s="2"/>
       <c r="AX191" s="2"/>
     </row>
-    <row r="192" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="2"/>
       <c r="B192" s="2"/>
       <c r="C192" s="2"/>
@@ -10796,7 +10797,7 @@
       <c r="AW192" s="2"/>
       <c r="AX192" s="2"/>
     </row>
-    <row r="193" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="2"/>
       <c r="B193" s="2"/>
       <c r="C193" s="2"/>
@@ -10848,7 +10849,7 @@
       <c r="AW193" s="2"/>
       <c r="AX193" s="2"/>
     </row>
-    <row r="194" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="2"/>
       <c r="B194" s="2"/>
       <c r="C194" s="2"/>
@@ -10900,7 +10901,7 @@
       <c r="AW194" s="2"/>
       <c r="AX194" s="2"/>
     </row>
-    <row r="195" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="2"/>
       <c r="B195" s="2"/>
       <c r="C195" s="2"/>
@@ -10952,7 +10953,7 @@
       <c r="AW195" s="2"/>
       <c r="AX195" s="2"/>
     </row>
-    <row r="196" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="2"/>
       <c r="B196" s="2"/>
       <c r="C196" s="2"/>
@@ -11004,7 +11005,7 @@
       <c r="AW196" s="2"/>
       <c r="AX196" s="2"/>
     </row>
-    <row r="197" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="2"/>
       <c r="B197" s="2"/>
       <c r="C197" s="2"/>
@@ -11056,7 +11057,7 @@
       <c r="AW197" s="2"/>
       <c r="AX197" s="2"/>
     </row>
-    <row r="198" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="2"/>
       <c r="B198" s="2"/>
       <c r="C198" s="2"/>
@@ -11108,7 +11109,7 @@
       <c r="AW198" s="2"/>
       <c r="AX198" s="2"/>
     </row>
-    <row r="199" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="2"/>
       <c r="B199" s="2"/>
       <c r="C199" s="2"/>
@@ -11160,7 +11161,7 @@
       <c r="AW199" s="2"/>
       <c r="AX199" s="2"/>
     </row>
-    <row r="200" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="2"/>
       <c r="B200" s="2"/>
       <c r="C200" s="2"/>
@@ -11212,7 +11213,7 @@
       <c r="AW200" s="2"/>
       <c r="AX200" s="2"/>
     </row>
-    <row r="201" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="2"/>
       <c r="B201" s="2"/>
       <c r="C201" s="2"/>
@@ -11264,7 +11265,7 @@
       <c r="AW201" s="2"/>
       <c r="AX201" s="2"/>
     </row>
-    <row r="202" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="2"/>
       <c r="B202" s="2"/>
       <c r="C202" s="2"/>
@@ -11316,7 +11317,7 @@
       <c r="AW202" s="2"/>
       <c r="AX202" s="2"/>
     </row>
-    <row r="203" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="2"/>
       <c r="B203" s="2"/>
       <c r="C203" s="2"/>
@@ -11368,7 +11369,7 @@
       <c r="AW203" s="2"/>
       <c r="AX203" s="2"/>
     </row>
-    <row r="204" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="2"/>
       <c r="B204" s="2"/>
       <c r="C204" s="2"/>
@@ -11420,7 +11421,7 @@
       <c r="AW204" s="2"/>
       <c r="AX204" s="2"/>
     </row>
-    <row r="205" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="2"/>
       <c r="B205" s="2"/>
       <c r="C205" s="2"/>
@@ -11472,7 +11473,7 @@
       <c r="AW205" s="2"/>
       <c r="AX205" s="2"/>
     </row>
-    <row r="206" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="2"/>
       <c r="B206" s="2"/>
       <c r="C206" s="2"/>
@@ -11524,7 +11525,7 @@
       <c r="AW206" s="2"/>
       <c r="AX206" s="2"/>
     </row>
-    <row r="207" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="2"/>
       <c r="B207" s="2"/>
       <c r="C207" s="2"/>
@@ -11576,7 +11577,7 @@
       <c r="AW207" s="2"/>
       <c r="AX207" s="2"/>
     </row>
-    <row r="208" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="2"/>
       <c r="B208" s="2"/>
       <c r="C208" s="2"/>
@@ -11628,7 +11629,7 @@
       <c r="AW208" s="2"/>
       <c r="AX208" s="2"/>
     </row>
-    <row r="209" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="2"/>
       <c r="B209" s="2"/>
       <c r="C209" s="2"/>
@@ -11680,7 +11681,7 @@
       <c r="AW209" s="2"/>
       <c r="AX209" s="2"/>
     </row>
-    <row r="210" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="2"/>
       <c r="B210" s="2"/>
       <c r="C210" s="2"/>
@@ -11732,7 +11733,7 @@
       <c r="AW210" s="2"/>
       <c r="AX210" s="2"/>
     </row>
-    <row r="211" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="2"/>
       <c r="B211" s="2"/>
       <c r="C211" s="2"/>
@@ -11784,7 +11785,7 @@
       <c r="AW211" s="2"/>
       <c r="AX211" s="2"/>
     </row>
-    <row r="212" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="2"/>
       <c r="B212" s="2"/>
       <c r="C212" s="2"/>
@@ -11836,7 +11837,7 @@
       <c r="AW212" s="2"/>
       <c r="AX212" s="2"/>
     </row>
-    <row r="213" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="2"/>
       <c r="B213" s="2"/>
       <c r="C213" s="2"/>
@@ -11888,7 +11889,7 @@
       <c r="AW213" s="2"/>
       <c r="AX213" s="2"/>
     </row>
-    <row r="214" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="2"/>
       <c r="B214" s="2"/>
       <c r="C214" s="2"/>
@@ -11940,7 +11941,7 @@
       <c r="AW214" s="2"/>
       <c r="AX214" s="2"/>
     </row>
-    <row r="215" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="2"/>
       <c r="B215" s="2"/>
       <c r="C215" s="2"/>
@@ -11992,7 +11993,7 @@
       <c r="AW215" s="2"/>
       <c r="AX215" s="2"/>
     </row>
-    <row r="216" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="2"/>
       <c r="B216" s="2"/>
       <c r="C216" s="2"/>
@@ -12044,7 +12045,7 @@
       <c r="AW216" s="2"/>
       <c r="AX216" s="2"/>
     </row>
-    <row r="217" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="2"/>
       <c r="B217" s="2"/>
       <c r="C217" s="2"/>
@@ -12096,7 +12097,7 @@
       <c r="AW217" s="2"/>
       <c r="AX217" s="2"/>
     </row>
-    <row r="218" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="2"/>
       <c r="B218" s="2"/>
       <c r="C218" s="2"/>
@@ -12148,7 +12149,7 @@
       <c r="AW218" s="2"/>
       <c r="AX218" s="2"/>
     </row>
-    <row r="219" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="2"/>
       <c r="B219" s="2"/>
       <c r="C219" s="2"/>
@@ -12200,7 +12201,7 @@
       <c r="AW219" s="2"/>
       <c r="AX219" s="2"/>
     </row>
-    <row r="220" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="2"/>
       <c r="B220" s="2"/>
       <c r="C220" s="2"/>
@@ -12252,7 +12253,7 @@
       <c r="AW220" s="2"/>
       <c r="AX220" s="2"/>
     </row>
-    <row r="221" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="2"/>
       <c r="B221" s="2"/>
       <c r="C221" s="2"/>
@@ -12304,7 +12305,7 @@
       <c r="AW221" s="2"/>
       <c r="AX221" s="2"/>
     </row>
-    <row r="222" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="2"/>
       <c r="B222" s="2"/>
       <c r="C222" s="2"/>
@@ -12356,7 +12357,7 @@
       <c r="AW222" s="2"/>
       <c r="AX222" s="2"/>
     </row>
-    <row r="223" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="2"/>
       <c r="B223" s="2"/>
       <c r="C223" s="2"/>
@@ -12408,7 +12409,7 @@
       <c r="AW223" s="2"/>
       <c r="AX223" s="2"/>
     </row>
-    <row r="224" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="2"/>
       <c r="B224" s="2"/>
       <c r="C224" s="2"/>
@@ -12460,7 +12461,7 @@
       <c r="AW224" s="2"/>
       <c r="AX224" s="2"/>
     </row>
-    <row r="225" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="2"/>
       <c r="B225" s="2"/>
       <c r="C225" s="2"/>
@@ -12512,7 +12513,7 @@
       <c r="AW225" s="2"/>
       <c r="AX225" s="2"/>
     </row>
-    <row r="226" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="2"/>
       <c r="B226" s="2"/>
       <c r="C226" s="2"/>
@@ -12564,7 +12565,7 @@
       <c r="AW226" s="2"/>
       <c r="AX226" s="2"/>
     </row>
-    <row r="227" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="2"/>
       <c r="B227" s="2"/>
       <c r="C227" s="2"/>
@@ -12616,7 +12617,7 @@
       <c r="AW227" s="2"/>
       <c r="AX227" s="2"/>
     </row>
-    <row r="228" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="2"/>
       <c r="B228" s="2"/>
       <c r="C228" s="2"/>
@@ -12668,7 +12669,7 @@
       <c r="AW228" s="2"/>
       <c r="AX228" s="2"/>
     </row>
-    <row r="229" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="2"/>
       <c r="B229" s="2"/>
       <c r="C229" s="2"/>
@@ -12720,7 +12721,7 @@
       <c r="AW229" s="2"/>
       <c r="AX229" s="2"/>
     </row>
-    <row r="230" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="2"/>
       <c r="B230" s="2"/>
       <c r="C230" s="2"/>
@@ -12772,7 +12773,7 @@
       <c r="AW230" s="2"/>
       <c r="AX230" s="2"/>
     </row>
-    <row r="231" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="2"/>
       <c r="B231" s="2"/>
       <c r="C231" s="2"/>
@@ -12824,7 +12825,7 @@
       <c r="AW231" s="2"/>
       <c r="AX231" s="2"/>
     </row>
-    <row r="232" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="2"/>
       <c r="B232" s="2"/>
       <c r="C232" s="2"/>
@@ -12876,7 +12877,7 @@
       <c r="AW232" s="2"/>
       <c r="AX232" s="2"/>
     </row>
-    <row r="233" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="2"/>
       <c r="B233" s="2"/>
       <c r="C233" s="2"/>
@@ -12928,7 +12929,7 @@
       <c r="AW233" s="2"/>
       <c r="AX233" s="2"/>
     </row>
-    <row r="234" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="2"/>
       <c r="B234" s="2"/>
       <c r="C234" s="2"/>
@@ -12980,7 +12981,7 @@
       <c r="AW234" s="2"/>
       <c r="AX234" s="2"/>
     </row>
-    <row r="235" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="2"/>
       <c r="B235" s="2"/>
       <c r="C235" s="2"/>
@@ -13032,7 +13033,7 @@
       <c r="AW235" s="2"/>
       <c r="AX235" s="2"/>
     </row>
-    <row r="236" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="2"/>
       <c r="B236" s="2"/>
       <c r="C236" s="2"/>
@@ -13084,7 +13085,7 @@
       <c r="AW236" s="2"/>
       <c r="AX236" s="2"/>
     </row>
-    <row r="237" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="2"/>
       <c r="B237" s="2"/>
       <c r="C237" s="2"/>
@@ -13136,7 +13137,7 @@
       <c r="AW237" s="2"/>
       <c r="AX237" s="2"/>
     </row>
-    <row r="238" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="2"/>
       <c r="B238" s="2"/>
       <c r="C238" s="2"/>
@@ -13188,7 +13189,7 @@
       <c r="AW238" s="2"/>
       <c r="AX238" s="2"/>
     </row>
-    <row r="239" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="2"/>
       <c r="B239" s="2"/>
       <c r="C239" s="2"/>
@@ -13240,7 +13241,7 @@
       <c r="AW239" s="2"/>
       <c r="AX239" s="2"/>
     </row>
-    <row r="240" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="2"/>
       <c r="B240" s="2"/>
       <c r="C240" s="2"/>
@@ -13292,7 +13293,7 @@
       <c r="AW240" s="2"/>
       <c r="AX240" s="2"/>
     </row>
-    <row r="241" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="2"/>
       <c r="B241" s="2"/>
       <c r="C241" s="2"/>
@@ -13344,7 +13345,7 @@
       <c r="AW241" s="2"/>
       <c r="AX241" s="2"/>
     </row>
-    <row r="242" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="2"/>
       <c r="B242" s="2"/>
       <c r="C242" s="2"/>
@@ -13396,7 +13397,7 @@
       <c r="AW242" s="2"/>
       <c r="AX242" s="2"/>
     </row>
-    <row r="243" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="2"/>
       <c r="B243" s="2"/>
       <c r="C243" s="2"/>
@@ -13448,7 +13449,7 @@
       <c r="AW243" s="2"/>
       <c r="AX243" s="2"/>
     </row>
-    <row r="244" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="2"/>
       <c r="B244" s="2"/>
       <c r="C244" s="2"/>
@@ -13500,7 +13501,7 @@
       <c r="AW244" s="2"/>
       <c r="AX244" s="2"/>
     </row>
-    <row r="245" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="2"/>
       <c r="B245" s="2"/>
       <c r="C245" s="2"/>
@@ -13552,7 +13553,7 @@
       <c r="AW245" s="2"/>
       <c r="AX245" s="2"/>
     </row>
-    <row r="246" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="2"/>
       <c r="B246" s="2"/>
       <c r="C246" s="2"/>
@@ -13604,7 +13605,7 @@
       <c r="AW246" s="2"/>
       <c r="AX246" s="2"/>
     </row>
-    <row r="247" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="2"/>
       <c r="B247" s="2"/>
       <c r="C247" s="2"/>
@@ -13656,7 +13657,7 @@
       <c r="AW247" s="2"/>
       <c r="AX247" s="2"/>
     </row>
-    <row r="248" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="2"/>
       <c r="B248" s="2"/>
       <c r="C248" s="2"/>
@@ -13708,7 +13709,7 @@
       <c r="AW248" s="2"/>
       <c r="AX248" s="2"/>
     </row>
-    <row r="249" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="2"/>
       <c r="B249" s="2"/>
       <c r="C249" s="2"/>
@@ -13760,7 +13761,7 @@
       <c r="AW249" s="2"/>
       <c r="AX249" s="2"/>
     </row>
-    <row r="250" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="2"/>
       <c r="B250" s="2"/>
       <c r="C250" s="2"/>
@@ -13812,7 +13813,7 @@
       <c r="AW250" s="2"/>
       <c r="AX250" s="2"/>
     </row>
-    <row r="251" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="2"/>
       <c r="B251" s="2"/>
       <c r="C251" s="2"/>
@@ -13864,7 +13865,7 @@
       <c r="AW251" s="2"/>
       <c r="AX251" s="2"/>
     </row>
-    <row r="252" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="2"/>
       <c r="B252" s="2"/>
       <c r="C252" s="2"/>
@@ -13916,7 +13917,7 @@
       <c r="AW252" s="2"/>
       <c r="AX252" s="2"/>
     </row>
-    <row r="253" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="2"/>
       <c r="B253" s="2"/>
       <c r="C253" s="2"/>
@@ -13968,7 +13969,7 @@
       <c r="AW253" s="2"/>
       <c r="AX253" s="2"/>
     </row>
-    <row r="254" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="2"/>
       <c r="B254" s="2"/>
       <c r="C254" s="2"/>
@@ -14020,7 +14021,7 @@
       <c r="AW254" s="2"/>
       <c r="AX254" s="2"/>
     </row>
-    <row r="255" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="2"/>
       <c r="B255" s="2"/>
       <c r="C255" s="2"/>
@@ -14072,7 +14073,7 @@
       <c r="AW255" s="2"/>
       <c r="AX255" s="2"/>
     </row>
-    <row r="256" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" s="2"/>
       <c r="B256" s="2"/>
       <c r="C256" s="2"/>
@@ -14124,7 +14125,7 @@
       <c r="AW256" s="2"/>
       <c r="AX256" s="2"/>
     </row>
-    <row r="257" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" s="2"/>
       <c r="B257" s="2"/>
       <c r="C257" s="2"/>
@@ -14176,7 +14177,7 @@
       <c r="AW257" s="2"/>
       <c r="AX257" s="2"/>
     </row>
-    <row r="258" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="2"/>
       <c r="B258" s="2"/>
       <c r="C258" s="2"/>
@@ -14228,7 +14229,7 @@
       <c r="AW258" s="2"/>
       <c r="AX258" s="2"/>
     </row>
-    <row r="259" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="2"/>
       <c r="B259" s="2"/>
       <c r="C259" s="2"/>
@@ -14280,7 +14281,7 @@
       <c r="AW259" s="2"/>
       <c r="AX259" s="2"/>
     </row>
-    <row r="260" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="2"/>
       <c r="B260" s="2"/>
       <c r="C260" s="2"/>
@@ -14332,7 +14333,7 @@
       <c r="AW260" s="2"/>
       <c r="AX260" s="2"/>
     </row>
-    <row r="261" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" s="2"/>
       <c r="B261" s="2"/>
       <c r="C261" s="2"/>
@@ -14384,7 +14385,7 @@
       <c r="AW261" s="2"/>
       <c r="AX261" s="2"/>
     </row>
-    <row r="262" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" s="2"/>
       <c r="B262" s="2"/>
       <c r="C262" s="2"/>
@@ -14436,7 +14437,7 @@
       <c r="AW262" s="2"/>
       <c r="AX262" s="2"/>
     </row>
-    <row r="263" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263" s="2"/>
       <c r="B263" s="2"/>
       <c r="C263" s="2"/>
@@ -14488,7 +14489,7 @@
       <c r="AW263" s="2"/>
       <c r="AX263" s="2"/>
     </row>
-    <row r="264" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A264" s="2"/>
       <c r="B264" s="2"/>
       <c r="C264" s="2"/>
@@ -14540,7 +14541,7 @@
       <c r="AW264" s="2"/>
       <c r="AX264" s="2"/>
     </row>
-    <row r="265" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A265" s="2"/>
       <c r="B265" s="2"/>
       <c r="C265" s="2"/>
@@ -14592,7 +14593,7 @@
       <c r="AW265" s="2"/>
       <c r="AX265" s="2"/>
     </row>
-    <row r="266" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A266" s="2"/>
       <c r="B266" s="2"/>
       <c r="C266" s="2"/>
@@ -14644,7 +14645,7 @@
       <c r="AW266" s="2"/>
       <c r="AX266" s="2"/>
     </row>
-    <row r="267" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A267" s="2"/>
       <c r="B267" s="2"/>
       <c r="C267" s="2"/>
@@ -14696,7 +14697,7 @@
       <c r="AW267" s="2"/>
       <c r="AX267" s="2"/>
     </row>
-    <row r="268" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268" s="2"/>
       <c r="B268" s="2"/>
       <c r="C268" s="2"/>
@@ -14748,7 +14749,7 @@
       <c r="AW268" s="2"/>
       <c r="AX268" s="2"/>
     </row>
-    <row r="269" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269" s="2"/>
       <c r="B269" s="2"/>
       <c r="C269" s="2"/>
@@ -14800,7 +14801,7 @@
       <c r="AW269" s="2"/>
       <c r="AX269" s="2"/>
     </row>
-    <row r="270" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A270" s="2"/>
       <c r="B270" s="2"/>
       <c r="C270" s="2"/>
@@ -14852,7 +14853,7 @@
       <c r="AW270" s="2"/>
       <c r="AX270" s="2"/>
     </row>
-    <row r="271" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A271" s="2"/>
       <c r="B271" s="2"/>
       <c r="C271" s="2"/>
@@ -14904,7 +14905,7 @@
       <c r="AW271" s="2"/>
       <c r="AX271" s="2"/>
     </row>
-    <row r="272" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" s="2"/>
       <c r="B272" s="2"/>
       <c r="C272" s="2"/>
@@ -14956,7 +14957,7 @@
       <c r="AW272" s="2"/>
       <c r="AX272" s="2"/>
     </row>
-    <row r="273" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A273" s="2"/>
       <c r="B273" s="2"/>
       <c r="C273" s="2"/>
@@ -15008,7 +15009,7 @@
       <c r="AW273" s="2"/>
       <c r="AX273" s="2"/>
     </row>
-    <row r="274" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A274" s="2"/>
       <c r="B274" s="2"/>
       <c r="C274" s="2"/>
@@ -15060,7 +15061,7 @@
       <c r="AW274" s="2"/>
       <c r="AX274" s="2"/>
     </row>
-    <row r="275" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A275" s="2"/>
       <c r="B275" s="2"/>
       <c r="C275" s="2"/>
@@ -15112,7 +15113,7 @@
       <c r="AW275" s="2"/>
       <c r="AX275" s="2"/>
     </row>
-    <row r="276" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A276" s="2"/>
       <c r="B276" s="2"/>
       <c r="C276" s="2"/>
@@ -15164,7 +15165,7 @@
       <c r="AW276" s="2"/>
       <c r="AX276" s="2"/>
     </row>
-    <row r="277" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A277" s="2"/>
       <c r="B277" s="2"/>
       <c r="C277" s="2"/>
@@ -15216,7 +15217,7 @@
       <c r="AW277" s="2"/>
       <c r="AX277" s="2"/>
     </row>
-    <row r="278" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A278" s="2"/>
       <c r="B278" s="2"/>
       <c r="C278" s="2"/>
@@ -15268,7 +15269,7 @@
       <c r="AW278" s="2"/>
       <c r="AX278" s="2"/>
     </row>
-    <row r="279" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A279" s="2"/>
       <c r="B279" s="2"/>
       <c r="C279" s="2"/>
@@ -15320,7 +15321,7 @@
       <c r="AW279" s="2"/>
       <c r="AX279" s="2"/>
     </row>
-    <row r="280" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A280" s="2"/>
       <c r="B280" s="2"/>
       <c r="C280" s="2"/>
@@ -15372,7 +15373,7 @@
       <c r="AW280" s="2"/>
       <c r="AX280" s="2"/>
     </row>
-    <row r="281" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A281" s="2"/>
       <c r="B281" s="2"/>
       <c r="C281" s="2"/>
@@ -15424,7 +15425,7 @@
       <c r="AW281" s="2"/>
       <c r="AX281" s="2"/>
     </row>
-    <row r="282" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A282" s="2"/>
       <c r="B282" s="2"/>
       <c r="C282" s="2"/>
@@ -15476,7 +15477,7 @@
       <c r="AW282" s="2"/>
       <c r="AX282" s="2"/>
     </row>
-    <row r="283" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A283" s="2"/>
       <c r="B283" s="2"/>
       <c r="C283" s="2"/>
@@ -15528,7 +15529,7 @@
       <c r="AW283" s="2"/>
       <c r="AX283" s="2"/>
     </row>
-    <row r="284" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A284" s="2"/>
       <c r="B284" s="2"/>
       <c r="C284" s="2"/>
@@ -15580,7 +15581,7 @@
       <c r="AW284" s="2"/>
       <c r="AX284" s="2"/>
     </row>
-    <row r="285" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A285" s="2"/>
       <c r="B285" s="2"/>
       <c r="C285" s="2"/>
@@ -15632,7 +15633,7 @@
       <c r="AW285" s="2"/>
       <c r="AX285" s="2"/>
     </row>
-    <row r="286" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A286" s="2"/>
       <c r="B286" s="2"/>
       <c r="C286" s="2"/>
@@ -15684,7 +15685,7 @@
       <c r="AW286" s="2"/>
       <c r="AX286" s="2"/>
     </row>
-    <row r="287" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A287" s="2"/>
       <c r="B287" s="2"/>
       <c r="C287" s="2"/>
@@ -15736,7 +15737,7 @@
       <c r="AW287" s="2"/>
       <c r="AX287" s="2"/>
     </row>
-    <row r="288" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A288" s="2"/>
       <c r="B288" s="2"/>
       <c r="C288" s="2"/>
@@ -15788,7 +15789,7 @@
       <c r="AW288" s="2"/>
       <c r="AX288" s="2"/>
     </row>
-    <row r="289" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A289" s="2"/>
       <c r="B289" s="2"/>
       <c r="C289" s="2"/>
@@ -15840,7 +15841,7 @@
       <c r="AW289" s="2"/>
       <c r="AX289" s="2"/>
     </row>
-    <row r="290" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A290" s="2"/>
       <c r="B290" s="2"/>
       <c r="C290" s="2"/>
@@ -15892,7 +15893,7 @@
       <c r="AW290" s="2"/>
       <c r="AX290" s="2"/>
     </row>
-    <row r="291" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A291" s="2"/>
       <c r="B291" s="2"/>
       <c r="C291" s="2"/>
@@ -15944,7 +15945,7 @@
       <c r="AW291" s="2"/>
       <c r="AX291" s="2"/>
     </row>
-    <row r="292" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A292" s="2"/>
       <c r="B292" s="2"/>
       <c r="C292" s="2"/>
@@ -15996,7 +15997,7 @@
       <c r="AW292" s="2"/>
       <c r="AX292" s="2"/>
     </row>
-    <row r="293" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A293" s="2"/>
       <c r="B293" s="2"/>
       <c r="C293" s="2"/>
@@ -16048,7 +16049,7 @@
       <c r="AW293" s="2"/>
       <c r="AX293" s="2"/>
     </row>
-    <row r="294" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A294" s="2"/>
       <c r="B294" s="2"/>
       <c r="C294" s="2"/>
@@ -16100,7 +16101,7 @@
       <c r="AW294" s="2"/>
       <c r="AX294" s="2"/>
     </row>
-    <row r="295" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A295" s="2"/>
       <c r="B295" s="2"/>
       <c r="C295" s="2"/>
@@ -16152,7 +16153,7 @@
       <c r="AW295" s="2"/>
       <c r="AX295" s="2"/>
     </row>
-    <row r="296" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A296" s="2"/>
       <c r="B296" s="2"/>
       <c r="C296" s="2"/>
@@ -16204,7 +16205,7 @@
       <c r="AW296" s="2"/>
       <c r="AX296" s="2"/>
     </row>
-    <row r="297" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A297" s="2"/>
       <c r="B297" s="2"/>
       <c r="C297" s="2"/>
@@ -16256,7 +16257,7 @@
       <c r="AW297" s="2"/>
       <c r="AX297" s="2"/>
     </row>
-    <row r="298" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A298" s="2"/>
       <c r="B298" s="2"/>
       <c r="C298" s="2"/>
@@ -16308,7 +16309,7 @@
       <c r="AW298" s="2"/>
       <c r="AX298" s="2"/>
     </row>
-    <row r="299" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A299" s="2"/>
       <c r="B299" s="2"/>
       <c r="C299" s="2"/>
@@ -16360,7 +16361,7 @@
       <c r="AW299" s="2"/>
       <c r="AX299" s="2"/>
     </row>
-    <row r="300" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A300" s="2"/>
       <c r="B300" s="2"/>
       <c r="C300" s="2"/>
@@ -16412,7 +16413,7 @@
       <c r="AW300" s="2"/>
       <c r="AX300" s="2"/>
     </row>
-    <row r="301" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A301" s="2"/>
       <c r="B301" s="2"/>
       <c r="C301" s="2"/>
@@ -16464,7 +16465,7 @@
       <c r="AW301" s="2"/>
       <c r="AX301" s="2"/>
     </row>
-    <row r="302" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A302" s="2"/>
       <c r="B302" s="2"/>
       <c r="C302" s="2"/>
@@ -16516,7 +16517,7 @@
       <c r="AW302" s="2"/>
       <c r="AX302" s="2"/>
     </row>
-    <row r="303" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A303" s="2"/>
       <c r="B303" s="2"/>
       <c r="C303" s="2"/>
@@ -16568,7 +16569,7 @@
       <c r="AW303" s="2"/>
       <c r="AX303" s="2"/>
     </row>
-    <row r="304" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A304" s="2"/>
       <c r="B304" s="2"/>
       <c r="C304" s="2"/>
@@ -16620,7 +16621,7 @@
       <c r="AW304" s="2"/>
       <c r="AX304" s="2"/>
     </row>
-    <row r="305" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A305" s="2"/>
       <c r="B305" s="2"/>
       <c r="C305" s="2"/>
@@ -16672,7 +16673,7 @@
       <c r="AW305" s="2"/>
       <c r="AX305" s="2"/>
     </row>
-    <row r="306" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A306" s="2"/>
       <c r="B306" s="2"/>
       <c r="C306" s="2"/>
@@ -16724,7 +16725,7 @@
       <c r="AW306" s="2"/>
       <c r="AX306" s="2"/>
     </row>
-    <row r="307" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A307" s="2"/>
       <c r="B307" s="2"/>
       <c r="C307" s="2"/>
@@ -16776,7 +16777,7 @@
       <c r="AW307" s="2"/>
       <c r="AX307" s="2"/>
     </row>
-    <row r="308" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A308" s="2"/>
       <c r="B308" s="2"/>
       <c r="C308" s="2"/>
@@ -16828,7 +16829,7 @@
       <c r="AW308" s="2"/>
       <c r="AX308" s="2"/>
     </row>
-    <row r="309" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A309" s="2"/>
       <c r="B309" s="2"/>
       <c r="C309" s="2"/>
@@ -16880,7 +16881,7 @@
       <c r="AW309" s="2"/>
       <c r="AX309" s="2"/>
     </row>
-    <row r="310" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A310" s="2"/>
       <c r="B310" s="2"/>
       <c r="C310" s="2"/>
@@ -16932,7 +16933,7 @@
       <c r="AW310" s="2"/>
       <c r="AX310" s="2"/>
     </row>
-    <row r="311" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A311" s="2"/>
       <c r="B311" s="2"/>
       <c r="C311" s="2"/>
@@ -16984,7 +16985,7 @@
       <c r="AW311" s="2"/>
       <c r="AX311" s="2"/>
     </row>
-    <row r="312" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A312" s="2"/>
       <c r="B312" s="2"/>
       <c r="C312" s="2"/>
@@ -17036,7 +17037,7 @@
       <c r="AW312" s="2"/>
       <c r="AX312" s="2"/>
     </row>
-    <row r="313" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A313" s="2"/>
       <c r="B313" s="2"/>
       <c r="C313" s="2"/>
@@ -17088,7 +17089,7 @@
       <c r="AW313" s="2"/>
       <c r="AX313" s="2"/>
     </row>
-    <row r="314" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A314" s="2"/>
       <c r="B314" s="2"/>
       <c r="C314" s="2"/>
@@ -17140,7 +17141,7 @@
       <c r="AW314" s="2"/>
       <c r="AX314" s="2"/>
     </row>
-    <row r="315" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A315" s="2"/>
       <c r="B315" s="2"/>
       <c r="C315" s="2"/>
@@ -17192,7 +17193,7 @@
       <c r="AW315" s="2"/>
       <c r="AX315" s="2"/>
     </row>
-    <row r="316" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A316" s="2"/>
       <c r="B316" s="2"/>
       <c r="C316" s="2"/>
@@ -17244,7 +17245,7 @@
       <c r="AW316" s="2"/>
       <c r="AX316" s="2"/>
     </row>
-    <row r="317" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A317" s="2"/>
       <c r="B317" s="2"/>
       <c r="C317" s="2"/>
@@ -17296,7 +17297,7 @@
       <c r="AW317" s="2"/>
       <c r="AX317" s="2"/>
     </row>
-    <row r="318" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A318" s="2"/>
       <c r="B318" s="2"/>
       <c r="C318" s="2"/>
@@ -17348,7 +17349,7 @@
       <c r="AW318" s="2"/>
       <c r="AX318" s="2"/>
     </row>
-    <row r="319" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A319" s="2"/>
       <c r="B319" s="2"/>
       <c r="C319" s="2"/>
@@ -17400,7 +17401,7 @@
       <c r="AW319" s="2"/>
       <c r="AX319" s="2"/>
     </row>
-    <row r="320" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A320" s="2"/>
       <c r="B320" s="2"/>
       <c r="C320" s="2"/>
@@ -17452,7 +17453,7 @@
       <c r="AW320" s="2"/>
       <c r="AX320" s="2"/>
     </row>
-    <row r="321" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A321" s="2"/>
       <c r="B321" s="2"/>
       <c r="C321" s="2"/>
@@ -17504,7 +17505,7 @@
       <c r="AW321" s="2"/>
       <c r="AX321" s="2"/>
     </row>
-    <row r="322" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A322" s="2"/>
       <c r="B322" s="2"/>
       <c r="C322" s="2"/>
@@ -17556,7 +17557,7 @@
       <c r="AW322" s="2"/>
       <c r="AX322" s="2"/>
     </row>
-    <row r="323" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A323" s="2"/>
       <c r="B323" s="2"/>
       <c r="C323" s="2"/>
@@ -17608,7 +17609,7 @@
       <c r="AW323" s="2"/>
       <c r="AX323" s="2"/>
     </row>
-    <row r="324" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A324" s="2"/>
       <c r="B324" s="2"/>
       <c r="C324" s="2"/>
@@ -17660,7 +17661,7 @@
       <c r="AW324" s="2"/>
       <c r="AX324" s="2"/>
     </row>
-    <row r="325" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A325" s="2"/>
       <c r="B325" s="2"/>
       <c r="C325" s="2"/>
@@ -17712,7 +17713,7 @@
       <c r="AW325" s="2"/>
       <c r="AX325" s="2"/>
     </row>
-    <row r="326" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A326" s="2"/>
       <c r="B326" s="2"/>
       <c r="C326" s="2"/>
@@ -17764,7 +17765,7 @@
       <c r="AW326" s="2"/>
       <c r="AX326" s="2"/>
     </row>
-    <row r="327" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A327" s="2"/>
       <c r="B327" s="2"/>
       <c r="C327" s="2"/>
@@ -17816,7 +17817,7 @@
       <c r="AW327" s="2"/>
       <c r="AX327" s="2"/>
     </row>
-    <row r="328" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A328" s="2"/>
       <c r="B328" s="2"/>
       <c r="C328" s="2"/>
@@ -17868,7 +17869,7 @@
       <c r="AW328" s="2"/>
       <c r="AX328" s="2"/>
     </row>
-    <row r="329" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A329" s="2"/>
       <c r="B329" s="2"/>
       <c r="C329" s="2"/>
@@ -17920,7 +17921,7 @@
       <c r="AW329" s="2"/>
       <c r="AX329" s="2"/>
     </row>
-    <row r="330" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A330" s="2"/>
       <c r="B330" s="2"/>
       <c r="C330" s="2"/>
@@ -17972,7 +17973,7 @@
       <c r="AW330" s="2"/>
       <c r="AX330" s="2"/>
     </row>
-    <row r="331" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A331" s="2"/>
       <c r="B331" s="2"/>
       <c r="C331" s="2"/>
@@ -18024,7 +18025,7 @@
       <c r="AW331" s="2"/>
       <c r="AX331" s="2"/>
     </row>
-    <row r="332" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A332" s="2"/>
       <c r="B332" s="2"/>
       <c r="C332" s="2"/>
@@ -18076,7 +18077,7 @@
       <c r="AW332" s="2"/>
       <c r="AX332" s="2"/>
     </row>
-    <row r="333" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A333" s="2"/>
       <c r="B333" s="2"/>
       <c r="C333" s="2"/>
@@ -18128,7 +18129,7 @@
       <c r="AW333" s="2"/>
       <c r="AX333" s="2"/>
     </row>
-    <row r="334" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A334" s="2"/>
       <c r="B334" s="2"/>
       <c r="C334" s="2"/>
@@ -18180,7 +18181,7 @@
       <c r="AW334" s="2"/>
       <c r="AX334" s="2"/>
     </row>
-    <row r="335" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A335" s="2"/>
       <c r="B335" s="2"/>
       <c r="C335" s="2"/>
@@ -18232,7 +18233,7 @@
       <c r="AW335" s="2"/>
       <c r="AX335" s="2"/>
     </row>
-    <row r="336" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A336" s="2"/>
       <c r="B336" s="2"/>
       <c r="C336" s="2"/>
@@ -18284,7 +18285,7 @@
       <c r="AW336" s="2"/>
       <c r="AX336" s="2"/>
     </row>
-    <row r="337" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A337" s="2"/>
       <c r="B337" s="2"/>
       <c r="C337" s="2"/>
@@ -18336,7 +18337,7 @@
       <c r="AW337" s="2"/>
       <c r="AX337" s="2"/>
     </row>
-    <row r="338" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A338" s="2"/>
       <c r="B338" s="2"/>
       <c r="C338" s="2"/>
@@ -18388,7 +18389,7 @@
       <c r="AW338" s="2"/>
       <c r="AX338" s="2"/>
     </row>
-    <row r="339" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A339" s="2"/>
       <c r="B339" s="2"/>
       <c r="C339" s="2"/>
@@ -18440,7 +18441,7 @@
       <c r="AW339" s="2"/>
       <c r="AX339" s="2"/>
     </row>
-    <row r="340" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A340" s="2"/>
       <c r="B340" s="2"/>
       <c r="C340" s="2"/>
@@ -18492,7 +18493,7 @@
       <c r="AW340" s="2"/>
       <c r="AX340" s="2"/>
     </row>
-    <row r="341" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A341" s="2"/>
       <c r="B341" s="2"/>
       <c r="C341" s="2"/>
@@ -18544,7 +18545,7 @@
       <c r="AW341" s="2"/>
       <c r="AX341" s="2"/>
     </row>
-    <row r="342" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A342" s="2"/>
       <c r="B342" s="2"/>
       <c r="C342" s="2"/>
@@ -18596,7 +18597,7 @@
       <c r="AW342" s="2"/>
       <c r="AX342" s="2"/>
     </row>
-    <row r="343" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A343" s="2"/>
       <c r="B343" s="2"/>
       <c r="C343" s="2"/>
@@ -18648,7 +18649,7 @@
       <c r="AW343" s="2"/>
       <c r="AX343" s="2"/>
     </row>
-    <row r="344" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A344" s="2"/>
       <c r="B344" s="2"/>
       <c r="C344" s="2"/>
@@ -18700,7 +18701,7 @@
       <c r="AW344" s="2"/>
       <c r="AX344" s="2"/>
     </row>
-    <row r="345" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A345" s="2"/>
       <c r="B345" s="2"/>
       <c r="C345" s="2"/>
@@ -18752,7 +18753,7 @@
       <c r="AW345" s="2"/>
       <c r="AX345" s="2"/>
     </row>
-    <row r="346" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A346" s="2"/>
       <c r="B346" s="2"/>
       <c r="C346" s="2"/>
@@ -18804,7 +18805,7 @@
       <c r="AW346" s="2"/>
       <c r="AX346" s="2"/>
     </row>
-    <row r="347" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A347" s="2"/>
       <c r="B347" s="2"/>
       <c r="C347" s="2"/>
@@ -18856,7 +18857,7 @@
       <c r="AW347" s="2"/>
       <c r="AX347" s="2"/>
     </row>
-    <row r="348" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A348" s="2"/>
       <c r="B348" s="2"/>
       <c r="C348" s="2"/>
@@ -18908,7 +18909,7 @@
       <c r="AW348" s="2"/>
       <c r="AX348" s="2"/>
     </row>
-    <row r="349" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A349" s="2"/>
       <c r="B349" s="2"/>
       <c r="C349" s="2"/>
@@ -18960,7 +18961,7 @@
       <c r="AW349" s="2"/>
       <c r="AX349" s="2"/>
     </row>
-    <row r="350" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A350" s="2"/>
       <c r="B350" s="2"/>
       <c r="C350" s="2"/>
@@ -19012,7 +19013,7 @@
       <c r="AW350" s="2"/>
       <c r="AX350" s="2"/>
     </row>
-    <row r="351" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A351" s="2"/>
       <c r="B351" s="2"/>
       <c r="C351" s="2"/>
@@ -19064,7 +19065,7 @@
       <c r="AW351" s="2"/>
       <c r="AX351" s="2"/>
     </row>
-    <row r="352" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A352" s="2"/>
       <c r="B352" s="2"/>
       <c r="C352" s="2"/>
@@ -19116,7 +19117,7 @@
       <c r="AW352" s="2"/>
       <c r="AX352" s="2"/>
     </row>
-    <row r="353" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A353" s="2"/>
       <c r="B353" s="2"/>
       <c r="C353" s="2"/>
@@ -19168,7 +19169,7 @@
       <c r="AW353" s="2"/>
       <c r="AX353" s="2"/>
     </row>
-    <row r="354" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A354" s="2"/>
       <c r="B354" s="2"/>
       <c r="C354" s="2"/>
@@ -19220,7 +19221,7 @@
       <c r="AW354" s="2"/>
       <c r="AX354" s="2"/>
     </row>
-    <row r="355" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A355" s="2"/>
       <c r="B355" s="2"/>
       <c r="C355" s="2"/>
@@ -19272,7 +19273,7 @@
       <c r="AW355" s="2"/>
       <c r="AX355" s="2"/>
     </row>
-    <row r="356" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A356" s="2"/>
       <c r="B356" s="2"/>
       <c r="C356" s="2"/>
@@ -19324,7 +19325,7 @@
       <c r="AW356" s="2"/>
       <c r="AX356" s="2"/>
     </row>
-    <row r="357" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A357" s="2"/>
       <c r="B357" s="2"/>
       <c r="C357" s="2"/>
@@ -19376,7 +19377,7 @@
       <c r="AW357" s="2"/>
       <c r="AX357" s="2"/>
     </row>
-    <row r="358" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A358" s="2"/>
       <c r="B358" s="2"/>
       <c r="C358" s="2"/>
@@ -19428,7 +19429,7 @@
       <c r="AW358" s="2"/>
       <c r="AX358" s="2"/>
     </row>
-    <row r="359" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A359" s="2"/>
       <c r="B359" s="2"/>
       <c r="C359" s="2"/>
@@ -19480,7 +19481,7 @@
       <c r="AW359" s="2"/>
       <c r="AX359" s="2"/>
     </row>
-    <row r="360" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A360" s="2"/>
       <c r="B360" s="2"/>
       <c r="C360" s="2"/>
@@ -19532,7 +19533,7 @@
       <c r="AW360" s="2"/>
       <c r="AX360" s="2"/>
     </row>
-    <row r="361" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A361" s="2"/>
       <c r="B361" s="2"/>
       <c r="C361" s="2"/>
@@ -19584,7 +19585,7 @@
       <c r="AW361" s="2"/>
       <c r="AX361" s="2"/>
     </row>
-    <row r="362" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A362" s="2"/>
       <c r="B362" s="2"/>
       <c r="C362" s="2"/>
@@ -19636,7 +19637,7 @@
       <c r="AW362" s="2"/>
       <c r="AX362" s="2"/>
     </row>
-    <row r="363" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A363" s="2"/>
       <c r="B363" s="2"/>
       <c r="C363" s="2"/>
@@ -19688,7 +19689,7 @@
       <c r="AW363" s="2"/>
       <c r="AX363" s="2"/>
     </row>
-    <row r="364" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A364" s="2"/>
       <c r="B364" s="2"/>
       <c r="C364" s="2"/>
@@ -19740,7 +19741,7 @@
       <c r="AW364" s="2"/>
       <c r="AX364" s="2"/>
     </row>
-    <row r="365" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A365" s="2"/>
       <c r="B365" s="2"/>
       <c r="C365" s="2"/>
@@ -19792,7 +19793,7 @@
       <c r="AW365" s="2"/>
       <c r="AX365" s="2"/>
     </row>
-    <row r="366" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A366" s="2"/>
       <c r="B366" s="2"/>
       <c r="C366" s="2"/>
@@ -19844,7 +19845,7 @@
       <c r="AW366" s="2"/>
       <c r="AX366" s="2"/>
     </row>
-    <row r="367" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A367" s="2"/>
       <c r="B367" s="2"/>
       <c r="C367" s="2"/>
@@ -19896,7 +19897,7 @@
       <c r="AW367" s="2"/>
       <c r="AX367" s="2"/>
     </row>
-    <row r="368" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A368" s="2"/>
       <c r="B368" s="2"/>
       <c r="C368" s="2"/>
@@ -19948,7 +19949,7 @@
       <c r="AW368" s="2"/>
       <c r="AX368" s="2"/>
     </row>
-    <row r="369" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A369" s="2"/>
       <c r="B369" s="2"/>
       <c r="C369" s="2"/>
@@ -20000,7 +20001,7 @@
       <c r="AW369" s="2"/>
       <c r="AX369" s="2"/>
     </row>
-    <row r="370" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A370" s="2"/>
       <c r="B370" s="2"/>
       <c r="C370" s="2"/>
@@ -20052,7 +20053,7 @@
       <c r="AW370" s="2"/>
       <c r="AX370" s="2"/>
     </row>
-    <row r="371" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A371" s="2"/>
       <c r="B371" s="2"/>
       <c r="C371" s="2"/>
@@ -20104,7 +20105,7 @@
       <c r="AW371" s="2"/>
       <c r="AX371" s="2"/>
     </row>
-    <row r="372" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A372" s="2"/>
       <c r="B372" s="2"/>
       <c r="C372" s="2"/>
@@ -20156,7 +20157,7 @@
       <c r="AW372" s="2"/>
       <c r="AX372" s="2"/>
     </row>
-    <row r="373" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A373" s="2"/>
       <c r="B373" s="2"/>
       <c r="C373" s="2"/>
@@ -20208,7 +20209,7 @@
       <c r="AW373" s="2"/>
       <c r="AX373" s="2"/>
     </row>
-    <row r="374" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A374" s="2"/>
       <c r="B374" s="2"/>
       <c r="C374" s="2"/>
@@ -20260,7 +20261,7 @@
       <c r="AW374" s="2"/>
       <c r="AX374" s="2"/>
     </row>
-    <row r="375" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A375" s="2"/>
       <c r="B375" s="2"/>
       <c r="C375" s="2"/>
@@ -20312,7 +20313,7 @@
       <c r="AW375" s="2"/>
       <c r="AX375" s="2"/>
     </row>
-    <row r="376" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A376" s="2"/>
       <c r="B376" s="2"/>
       <c r="C376" s="2"/>
@@ -20364,7 +20365,7 @@
       <c r="AW376" s="2"/>
       <c r="AX376" s="2"/>
     </row>
-    <row r="377" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A377" s="2"/>
       <c r="B377" s="2"/>
       <c r="C377" s="2"/>
@@ -20416,7 +20417,7 @@
       <c r="AW377" s="2"/>
       <c r="AX377" s="2"/>
     </row>
-    <row r="378" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A378" s="2"/>
       <c r="B378" s="2"/>
       <c r="C378" s="2"/>
@@ -20468,7 +20469,7 @@
       <c r="AW378" s="2"/>
       <c r="AX378" s="2"/>
     </row>
-    <row r="379" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A379" s="2"/>
       <c r="B379" s="2"/>
       <c r="C379" s="2"/>
@@ -20520,7 +20521,7 @@
       <c r="AW379" s="2"/>
       <c r="AX379" s="2"/>
     </row>
-    <row r="380" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A380" s="2"/>
       <c r="B380" s="2"/>
       <c r="C380" s="2"/>
@@ -20572,7 +20573,7 @@
       <c r="AW380" s="2"/>
       <c r="AX380" s="2"/>
     </row>
-    <row r="381" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A381" s="2"/>
       <c r="B381" s="2"/>
       <c r="C381" s="2"/>
@@ -20624,7 +20625,7 @@
       <c r="AW381" s="2"/>
       <c r="AX381" s="2"/>
     </row>
-    <row r="382" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A382" s="2"/>
       <c r="B382" s="2"/>
       <c r="C382" s="2"/>
@@ -20676,7 +20677,7 @@
       <c r="AW382" s="2"/>
       <c r="AX382" s="2"/>
     </row>
-    <row r="383" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A383" s="2"/>
       <c r="B383" s="2"/>
       <c r="C383" s="2"/>
@@ -20728,7 +20729,7 @@
       <c r="AW383" s="2"/>
       <c r="AX383" s="2"/>
     </row>
-    <row r="384" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A384" s="2"/>
       <c r="B384" s="2"/>
       <c r="C384" s="2"/>
@@ -20780,7 +20781,7 @@
       <c r="AW384" s="2"/>
       <c r="AX384" s="2"/>
     </row>
-    <row r="385" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A385" s="2"/>
       <c r="B385" s="2"/>
       <c r="C385" s="2"/>
@@ -20832,7 +20833,7 @@
       <c r="AW385" s="2"/>
       <c r="AX385" s="2"/>
     </row>
-    <row r="386" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A386" s="2"/>
       <c r="B386" s="2"/>
       <c r="C386" s="2"/>
@@ -20884,7 +20885,7 @@
       <c r="AW386" s="2"/>
       <c r="AX386" s="2"/>
     </row>
-    <row r="387" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A387" s="2"/>
       <c r="B387" s="2"/>
       <c r="C387" s="2"/>
@@ -20936,7 +20937,7 @@
       <c r="AW387" s="2"/>
       <c r="AX387" s="2"/>
     </row>
-    <row r="388" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A388" s="2"/>
       <c r="B388" s="2"/>
       <c r="C388" s="2"/>
@@ -20988,7 +20989,7 @@
       <c r="AW388" s="2"/>
       <c r="AX388" s="2"/>
     </row>
-    <row r="389" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A389" s="2"/>
       <c r="B389" s="2"/>
       <c r="C389" s="2"/>
@@ -21040,7 +21041,7 @@
       <c r="AW389" s="2"/>
       <c r="AX389" s="2"/>
     </row>
-    <row r="390" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A390" s="2"/>
       <c r="B390" s="2"/>
       <c r="C390" s="2"/>
@@ -21092,7 +21093,7 @@
       <c r="AW390" s="2"/>
       <c r="AX390" s="2"/>
     </row>
-    <row r="391" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A391" s="2"/>
       <c r="B391" s="2"/>
       <c r="C391" s="2"/>
@@ -21144,7 +21145,7 @@
       <c r="AW391" s="2"/>
       <c r="AX391" s="2"/>
     </row>
-    <row r="392" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A392" s="2"/>
       <c r="B392" s="2"/>
       <c r="C392" s="2"/>
@@ -21196,7 +21197,7 @@
       <c r="AW392" s="2"/>
       <c r="AX392" s="2"/>
     </row>
-    <row r="393" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A393" s="2"/>
       <c r="B393" s="2"/>
       <c r="C393" s="2"/>
@@ -21248,7 +21249,7 @@
       <c r="AW393" s="2"/>
       <c r="AX393" s="2"/>
     </row>
-    <row r="394" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A394" s="2"/>
       <c r="B394" s="2"/>
       <c r="C394" s="2"/>
@@ -21300,7 +21301,7 @@
       <c r="AW394" s="2"/>
       <c r="AX394" s="2"/>
     </row>
-    <row r="395" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A395" s="2"/>
       <c r="B395" s="2"/>
       <c r="C395" s="2"/>
@@ -21352,7 +21353,7 @@
       <c r="AW395" s="2"/>
       <c r="AX395" s="2"/>
     </row>
-    <row r="396" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A396" s="2"/>
       <c r="B396" s="2"/>
       <c r="C396" s="2"/>
@@ -21404,7 +21405,7 @@
       <c r="AW396" s="2"/>
       <c r="AX396" s="2"/>
     </row>
-    <row r="397" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A397" s="2"/>
       <c r="B397" s="2"/>
       <c r="C397" s="2"/>
@@ -21456,7 +21457,7 @@
       <c r="AW397" s="2"/>
       <c r="AX397" s="2"/>
     </row>
-    <row r="398" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A398" s="2"/>
       <c r="B398" s="2"/>
       <c r="C398" s="2"/>
@@ -21508,7 +21509,7 @@
       <c r="AW398" s="2"/>
       <c r="AX398" s="2"/>
     </row>
-    <row r="399" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A399" s="2"/>
       <c r="B399" s="2"/>
       <c r="C399" s="2"/>
@@ -21560,7 +21561,7 @@
       <c r="AW399" s="2"/>
       <c r="AX399" s="2"/>
     </row>
-    <row r="400" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A400" s="2"/>
       <c r="B400" s="2"/>
       <c r="C400" s="2"/>
@@ -21612,7 +21613,7 @@
       <c r="AW400" s="2"/>
       <c r="AX400" s="2"/>
     </row>
-    <row r="401" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A401" s="2"/>
       <c r="B401" s="2"/>
       <c r="C401" s="2"/>
@@ -21664,7 +21665,7 @@
       <c r="AW401" s="2"/>
       <c r="AX401" s="2"/>
     </row>
-    <row r="402" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A402" s="2"/>
       <c r="B402" s="2"/>
       <c r="C402" s="2"/>
@@ -21716,7 +21717,7 @@
       <c r="AW402" s="2"/>
       <c r="AX402" s="2"/>
     </row>
-    <row r="403" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A403" s="2"/>
       <c r="B403" s="2"/>
       <c r="C403" s="2"/>
@@ -21768,7 +21769,7 @@
       <c r="AW403" s="2"/>
       <c r="AX403" s="2"/>
     </row>
-    <row r="404" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A404" s="2"/>
       <c r="B404" s="2"/>
       <c r="C404" s="2"/>
@@ -21820,7 +21821,7 @@
       <c r="AW404" s="2"/>
       <c r="AX404" s="2"/>
     </row>
-    <row r="405" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A405" s="2"/>
       <c r="B405" s="2"/>
       <c r="C405" s="2"/>
@@ -21872,7 +21873,7 @@
       <c r="AW405" s="2"/>
       <c r="AX405" s="2"/>
     </row>
-    <row r="406" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A406" s="2"/>
       <c r="B406" s="2"/>
       <c r="C406" s="2"/>
@@ -21924,7 +21925,7 @@
       <c r="AW406" s="2"/>
       <c r="AX406" s="2"/>
     </row>
-    <row r="407" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A407" s="2"/>
       <c r="B407" s="2"/>
       <c r="C407" s="2"/>
@@ -21976,7 +21977,7 @@
       <c r="AW407" s="2"/>
       <c r="AX407" s="2"/>
     </row>
-    <row r="408" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A408" s="2"/>
       <c r="B408" s="2"/>
       <c r="C408" s="2"/>
@@ -22028,7 +22029,7 @@
       <c r="AW408" s="2"/>
       <c r="AX408" s="2"/>
     </row>
-    <row r="409" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A409" s="2"/>
       <c r="B409" s="2"/>
       <c r="C409" s="2"/>
@@ -22080,7 +22081,7 @@
       <c r="AW409" s="2"/>
       <c r="AX409" s="2"/>
     </row>
-    <row r="410" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A410" s="2"/>
       <c r="B410" s="2"/>
       <c r="C410" s="2"/>
@@ -22132,7 +22133,7 @@
       <c r="AW410" s="2"/>
       <c r="AX410" s="2"/>
     </row>
-    <row r="411" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A411" s="2"/>
       <c r="B411" s="2"/>
       <c r="C411" s="2"/>
@@ -22184,7 +22185,7 @@
       <c r="AW411" s="2"/>
       <c r="AX411" s="2"/>
     </row>
-    <row r="412" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A412" s="2"/>
       <c r="B412" s="2"/>
       <c r="C412" s="2"/>
@@ -22236,7 +22237,7 @@
       <c r="AW412" s="2"/>
       <c r="AX412" s="2"/>
     </row>
-    <row r="413" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A413" s="2"/>
       <c r="B413" s="2"/>
       <c r="C413" s="2"/>
@@ -22288,7 +22289,7 @@
       <c r="AW413" s="2"/>
       <c r="AX413" s="2"/>
     </row>
-    <row r="414" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A414" s="2"/>
       <c r="B414" s="2"/>
       <c r="C414" s="2"/>
@@ -22340,7 +22341,7 @@
       <c r="AW414" s="2"/>
       <c r="AX414" s="2"/>
     </row>
-    <row r="415" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A415" s="2"/>
       <c r="B415" s="2"/>
       <c r="C415" s="2"/>
@@ -22392,7 +22393,7 @@
       <c r="AW415" s="2"/>
       <c r="AX415" s="2"/>
     </row>
-    <row r="416" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A416" s="2"/>
       <c r="B416" s="2"/>
       <c r="C416" s="2"/>
@@ -22444,7 +22445,7 @@
       <c r="AW416" s="2"/>
       <c r="AX416" s="2"/>
     </row>
-    <row r="417" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A417" s="2"/>
       <c r="B417" s="2"/>
       <c r="C417" s="2"/>
@@ -22496,7 +22497,7 @@
       <c r="AW417" s="2"/>
       <c r="AX417" s="2"/>
     </row>
-    <row r="418" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A418" s="2"/>
       <c r="B418" s="2"/>
       <c r="C418" s="2"/>
@@ -22548,7 +22549,7 @@
       <c r="AW418" s="2"/>
       <c r="AX418" s="2"/>
     </row>
-    <row r="419" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A419" s="2"/>
       <c r="B419" s="2"/>
       <c r="C419" s="2"/>
@@ -22600,7 +22601,7 @@
       <c r="AW419" s="2"/>
       <c r="AX419" s="2"/>
     </row>
-    <row r="420" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A420" s="2"/>
       <c r="B420" s="2"/>
       <c r="C420" s="2"/>
@@ -22652,7 +22653,7 @@
       <c r="AW420" s="2"/>
       <c r="AX420" s="2"/>
     </row>
-    <row r="421" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A421" s="2"/>
       <c r="B421" s="2"/>
       <c r="C421" s="2"/>
@@ -22704,7 +22705,7 @@
       <c r="AW421" s="2"/>
       <c r="AX421" s="2"/>
     </row>
-    <row r="422" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A422" s="2"/>
       <c r="B422" s="2"/>
       <c r="C422" s="2"/>
@@ -22756,7 +22757,7 @@
       <c r="AW422" s="2"/>
       <c r="AX422" s="2"/>
     </row>
-    <row r="423" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A423" s="2"/>
       <c r="B423" s="2"/>
       <c r="C423" s="2"/>
@@ -22808,7 +22809,7 @@
       <c r="AW423" s="2"/>
       <c r="AX423" s="2"/>
     </row>
-    <row r="424" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A424" s="2"/>
       <c r="B424" s="2"/>
       <c r="C424" s="2"/>
@@ -22860,7 +22861,7 @@
       <c r="AW424" s="2"/>
       <c r="AX424" s="2"/>
     </row>
-    <row r="425" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A425" s="2"/>
       <c r="B425" s="2"/>
       <c r="C425" s="2"/>
@@ -22912,7 +22913,7 @@
       <c r="AW425" s="2"/>
       <c r="AX425" s="2"/>
     </row>
-    <row r="426" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A426" s="2"/>
       <c r="B426" s="2"/>
       <c r="C426" s="2"/>
@@ -22964,7 +22965,7 @@
       <c r="AW426" s="2"/>
       <c r="AX426" s="2"/>
     </row>
-    <row r="427" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A427" s="2"/>
       <c r="B427" s="2"/>
       <c r="C427" s="2"/>
@@ -23016,7 +23017,7 @@
       <c r="AW427" s="2"/>
       <c r="AX427" s="2"/>
     </row>
-    <row r="428" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A428" s="2"/>
       <c r="B428" s="2"/>
       <c r="C428" s="2"/>
@@ -23068,7 +23069,7 @@
       <c r="AW428" s="2"/>
       <c r="AX428" s="2"/>
     </row>
-    <row r="429" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A429" s="2"/>
       <c r="B429" s="2"/>
       <c r="C429" s="2"/>
@@ -23120,7 +23121,7 @@
       <c r="AW429" s="2"/>
       <c r="AX429" s="2"/>
     </row>
-    <row r="430" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A430" s="2"/>
       <c r="B430" s="2"/>
       <c r="C430" s="2"/>
@@ -23172,7 +23173,7 @@
       <c r="AW430" s="2"/>
       <c r="AX430" s="2"/>
     </row>
-    <row r="431" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A431" s="2"/>
       <c r="B431" s="2"/>
       <c r="C431" s="2"/>
@@ -23224,7 +23225,7 @@
       <c r="AW431" s="2"/>
       <c r="AX431" s="2"/>
     </row>
-    <row r="432" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A432" s="2"/>
       <c r="B432" s="2"/>
       <c r="C432" s="2"/>
@@ -23276,7 +23277,7 @@
       <c r="AW432" s="2"/>
       <c r="AX432" s="2"/>
     </row>
-    <row r="433" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A433" s="2"/>
       <c r="B433" s="2"/>
       <c r="C433" s="2"/>
@@ -23328,7 +23329,7 @@
       <c r="AW433" s="2"/>
       <c r="AX433" s="2"/>
     </row>
-    <row r="434" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A434" s="2"/>
       <c r="B434" s="2"/>
       <c r="C434" s="2"/>
@@ -23380,7 +23381,7 @@
       <c r="AW434" s="2"/>
       <c r="AX434" s="2"/>
     </row>
-    <row r="435" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A435" s="2"/>
       <c r="B435" s="2"/>
       <c r="C435" s="2"/>
@@ -23432,7 +23433,7 @@
       <c r="AW435" s="2"/>
       <c r="AX435" s="2"/>
     </row>
-    <row r="436" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A436" s="2"/>
       <c r="B436" s="2"/>
       <c r="C436" s="2"/>
@@ -23484,7 +23485,7 @@
       <c r="AW436" s="2"/>
       <c r="AX436" s="2"/>
     </row>
-    <row r="437" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A437" s="2"/>
       <c r="B437" s="2"/>
       <c r="C437" s="2"/>
@@ -23536,7 +23537,7 @@
       <c r="AW437" s="2"/>
       <c r="AX437" s="2"/>
     </row>
-    <row r="438" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A438" s="2"/>
       <c r="B438" s="2"/>
       <c r="C438" s="2"/>
@@ -23588,7 +23589,7 @@
       <c r="AW438" s="2"/>
       <c r="AX438" s="2"/>
     </row>
-    <row r="439" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A439" s="2"/>
       <c r="B439" s="2"/>
       <c r="C439" s="2"/>
@@ -23640,7 +23641,7 @@
       <c r="AW439" s="2"/>
       <c r="AX439" s="2"/>
     </row>
-    <row r="440" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A440" s="2"/>
       <c r="B440" s="2"/>
       <c r="C440" s="2"/>
@@ -23692,7 +23693,7 @@
       <c r="AW440" s="2"/>
       <c r="AX440" s="2"/>
     </row>
-    <row r="441" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A441" s="2"/>
       <c r="B441" s="2"/>
       <c r="C441" s="2"/>
@@ -23744,7 +23745,7 @@
       <c r="AW441" s="2"/>
       <c r="AX441" s="2"/>
     </row>
-    <row r="442" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A442" s="2"/>
       <c r="B442" s="2"/>
       <c r="C442" s="2"/>
@@ -23796,7 +23797,7 @@
       <c r="AW442" s="2"/>
       <c r="AX442" s="2"/>
     </row>
-    <row r="443" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A443" s="2"/>
       <c r="B443" s="2"/>
       <c r="C443" s="2"/>
@@ -23848,7 +23849,7 @@
       <c r="AW443" s="2"/>
       <c r="AX443" s="2"/>
     </row>
-    <row r="444" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A444" s="2"/>
       <c r="B444" s="2"/>
       <c r="C444" s="2"/>
@@ -23900,7 +23901,7 @@
       <c r="AW444" s="2"/>
       <c r="AX444" s="2"/>
     </row>
-    <row r="445" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A445" s="2"/>
       <c r="B445" s="2"/>
       <c r="C445" s="2"/>
@@ -23952,7 +23953,7 @@
       <c r="AW445" s="2"/>
       <c r="AX445" s="2"/>
     </row>
-    <row r="446" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A446" s="2"/>
       <c r="B446" s="2"/>
       <c r="C446" s="2"/>
@@ -24004,7 +24005,7 @@
       <c r="AW446" s="2"/>
       <c r="AX446" s="2"/>
     </row>
-    <row r="447" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A447" s="2"/>
       <c r="B447" s="2"/>
       <c r="C447" s="2"/>
@@ -24056,7 +24057,7 @@
       <c r="AW447" s="2"/>
       <c r="AX447" s="2"/>
     </row>
-    <row r="448" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A448" s="2"/>
       <c r="B448" s="2"/>
       <c r="C448" s="2"/>
@@ -24108,7 +24109,7 @@
       <c r="AW448" s="2"/>
       <c r="AX448" s="2"/>
     </row>
-    <row r="449" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A449" s="2"/>
       <c r="B449" s="2"/>
       <c r="C449" s="2"/>
@@ -24160,7 +24161,7 @@
       <c r="AW449" s="2"/>
       <c r="AX449" s="2"/>
     </row>
-    <row r="450" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A450" s="2"/>
       <c r="B450" s="2"/>
       <c r="C450" s="2"/>
@@ -24212,7 +24213,7 @@
       <c r="AW450" s="2"/>
       <c r="AX450" s="2"/>
     </row>
-    <row r="451" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A451" s="2"/>
       <c r="B451" s="2"/>
       <c r="C451" s="2"/>
@@ -24264,7 +24265,7 @@
       <c r="AW451" s="2"/>
       <c r="AX451" s="2"/>
     </row>
-    <row r="452" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A452" s="2"/>
       <c r="B452" s="2"/>
       <c r="C452" s="2"/>
@@ -24316,7 +24317,7 @@
       <c r="AW452" s="2"/>
       <c r="AX452" s="2"/>
     </row>
-    <row r="453" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A453" s="2"/>
       <c r="B453" s="2"/>
       <c r="C453" s="2"/>
@@ -24368,7 +24369,7 @@
       <c r="AW453" s="2"/>
       <c r="AX453" s="2"/>
     </row>
-    <row r="454" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A454" s="2"/>
       <c r="B454" s="2"/>
       <c r="C454" s="2"/>
@@ -24420,7 +24421,7 @@
       <c r="AW454" s="2"/>
       <c r="AX454" s="2"/>
     </row>
-    <row r="455" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A455" s="2"/>
       <c r="B455" s="2"/>
       <c r="C455" s="2"/>
@@ -24472,7 +24473,7 @@
       <c r="AW455" s="2"/>
       <c r="AX455" s="2"/>
     </row>
-    <row r="456" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A456" s="2"/>
       <c r="B456" s="2"/>
       <c r="C456" s="2"/>
@@ -24524,7 +24525,7 @@
       <c r="AW456" s="2"/>
       <c r="AX456" s="2"/>
     </row>
-    <row r="457" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A457" s="2"/>
       <c r="B457" s="2"/>
       <c r="C457" s="2"/>
@@ -24576,7 +24577,7 @@
       <c r="AW457" s="2"/>
       <c r="AX457" s="2"/>
     </row>
-    <row r="458" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A458" s="2"/>
       <c r="B458" s="2"/>
       <c r="C458" s="2"/>
@@ -24628,7 +24629,7 @@
       <c r="AW458" s="2"/>
       <c r="AX458" s="2"/>
     </row>
-    <row r="459" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A459" s="2"/>
       <c r="B459" s="2"/>
       <c r="C459" s="2"/>
@@ -24680,7 +24681,7 @@
       <c r="AW459" s="2"/>
       <c r="AX459" s="2"/>
     </row>
-    <row r="460" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A460" s="2"/>
       <c r="B460" s="2"/>
       <c r="C460" s="2"/>
@@ -24732,7 +24733,7 @@
       <c r="AW460" s="2"/>
       <c r="AX460" s="2"/>
     </row>
-    <row r="461" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A461" s="2"/>
       <c r="B461" s="2"/>
       <c r="C461" s="2"/>
@@ -24784,7 +24785,7 @@
       <c r="AW461" s="2"/>
       <c r="AX461" s="2"/>
     </row>
-    <row r="462" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A462" s="2"/>
       <c r="B462" s="2"/>
       <c r="C462" s="2"/>
@@ -24836,7 +24837,7 @@
       <c r="AW462" s="2"/>
       <c r="AX462" s="2"/>
     </row>
-    <row r="463" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A463" s="2"/>
       <c r="B463" s="2"/>
       <c r="C463" s="2"/>
@@ -24888,7 +24889,7 @@
       <c r="AW463" s="2"/>
       <c r="AX463" s="2"/>
     </row>
-    <row r="464" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A464" s="2"/>
       <c r="B464" s="2"/>
       <c r="C464" s="2"/>
@@ -24940,7 +24941,7 @@
       <c r="AW464" s="2"/>
       <c r="AX464" s="2"/>
     </row>
-    <row r="465" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A465" s="2"/>
       <c r="B465" s="2"/>
       <c r="C465" s="2"/>
@@ -24992,7 +24993,7 @@
       <c r="AW465" s="2"/>
       <c r="AX465" s="2"/>
     </row>
-    <row r="466" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A466" s="2"/>
       <c r="B466" s="2"/>
       <c r="C466" s="2"/>
@@ -25044,7 +25045,7 @@
       <c r="AW466" s="2"/>
       <c r="AX466" s="2"/>
     </row>
-    <row r="467" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A467" s="2"/>
       <c r="B467" s="2"/>
       <c r="C467" s="2"/>
@@ -25096,7 +25097,7 @@
       <c r="AW467" s="2"/>
       <c r="AX467" s="2"/>
     </row>
-    <row r="468" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A468" s="2"/>
       <c r="B468" s="2"/>
       <c r="C468" s="2"/>
@@ -25148,7 +25149,7 @@
       <c r="AW468" s="2"/>
       <c r="AX468" s="2"/>
     </row>
-    <row r="469" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A469" s="2"/>
       <c r="B469" s="2"/>
       <c r="C469" s="2"/>
@@ -25200,7 +25201,7 @@
       <c r="AW469" s="2"/>
       <c r="AX469" s="2"/>
     </row>
-    <row r="470" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A470" s="2"/>
       <c r="B470" s="2"/>
       <c r="C470" s="2"/>
@@ -25252,7 +25253,7 @@
       <c r="AW470" s="2"/>
       <c r="AX470" s="2"/>
     </row>
-    <row r="471" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A471" s="2"/>
       <c r="B471" s="2"/>
       <c r="C471" s="2"/>
@@ -25304,7 +25305,7 @@
       <c r="AW471" s="2"/>
       <c r="AX471" s="2"/>
     </row>
-    <row r="472" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A472" s="2"/>
       <c r="B472" s="2"/>
       <c r="C472" s="2"/>
@@ -25356,7 +25357,7 @@
       <c r="AW472" s="2"/>
       <c r="AX472" s="2"/>
     </row>
-    <row r="473" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A473" s="2"/>
       <c r="B473" s="2"/>
       <c r="C473" s="2"/>
@@ -25408,7 +25409,7 @@
       <c r="AW473" s="2"/>
       <c r="AX473" s="2"/>
     </row>
-    <row r="474" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A474" s="2"/>
       <c r="B474" s="2"/>
       <c r="C474" s="2"/>
@@ -25460,7 +25461,7 @@
       <c r="AW474" s="2"/>
       <c r="AX474" s="2"/>
     </row>
-    <row r="475" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A475" s="2"/>
       <c r="B475" s="2"/>
       <c r="C475" s="2"/>
@@ -25512,7 +25513,7 @@
       <c r="AW475" s="2"/>
       <c r="AX475" s="2"/>
     </row>
-    <row r="476" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A476" s="2"/>
       <c r="B476" s="2"/>
       <c r="C476" s="2"/>
@@ -25564,7 +25565,7 @@
       <c r="AW476" s="2"/>
       <c r="AX476" s="2"/>
     </row>
-    <row r="477" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A477" s="2"/>
       <c r="B477" s="2"/>
       <c r="C477" s="2"/>
@@ -25616,7 +25617,7 @@
       <c r="AW477" s="2"/>
       <c r="AX477" s="2"/>
     </row>
-    <row r="478" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A478" s="2"/>
       <c r="B478" s="2"/>
       <c r="C478" s="2"/>
@@ -25668,7 +25669,7 @@
       <c r="AW478" s="2"/>
       <c r="AX478" s="2"/>
     </row>
-    <row r="479" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A479" s="2"/>
       <c r="B479" s="2"/>
       <c r="C479" s="2"/>
@@ -25720,7 +25721,7 @@
       <c r="AW479" s="2"/>
       <c r="AX479" s="2"/>
     </row>
-    <row r="480" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A480" s="2"/>
       <c r="B480" s="2"/>
       <c r="C480" s="2"/>
@@ -25772,7 +25773,7 @@
       <c r="AW480" s="2"/>
       <c r="AX480" s="2"/>
     </row>
-    <row r="481" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A481" s="2"/>
       <c r="B481" s="2"/>
       <c r="C481" s="2"/>
@@ -25824,7 +25825,7 @@
       <c r="AW481" s="2"/>
       <c r="AX481" s="2"/>
     </row>
-    <row r="482" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A482" s="2"/>
       <c r="B482" s="2"/>
       <c r="C482" s="2"/>
@@ -25876,7 +25877,7 @@
       <c r="AW482" s="2"/>
       <c r="AX482" s="2"/>
     </row>
-    <row r="483" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A483" s="2"/>
       <c r="B483" s="2"/>
       <c r="C483" s="2"/>
@@ -25928,7 +25929,7 @@
       <c r="AW483" s="2"/>
       <c r="AX483" s="2"/>
     </row>
-    <row r="484" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A484" s="2"/>
       <c r="B484" s="2"/>
       <c r="C484" s="2"/>
@@ -25980,7 +25981,7 @@
       <c r="AW484" s="2"/>
       <c r="AX484" s="2"/>
     </row>
-    <row r="485" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A485" s="2"/>
       <c r="B485" s="2"/>
       <c r="C485" s="2"/>
@@ -26032,7 +26033,7 @@
       <c r="AW485" s="2"/>
       <c r="AX485" s="2"/>
     </row>
-    <row r="486" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A486" s="2"/>
       <c r="B486" s="2"/>
       <c r="C486" s="2"/>
@@ -26084,7 +26085,7 @@
       <c r="AW486" s="2"/>
       <c r="AX486" s="2"/>
     </row>
-    <row r="487" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A487" s="2"/>
       <c r="B487" s="2"/>
       <c r="C487" s="2"/>
@@ -26136,7 +26137,7 @@
       <c r="AW487" s="2"/>
       <c r="AX487" s="2"/>
     </row>
-    <row r="488" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A488" s="2"/>
       <c r="B488" s="2"/>
       <c r="C488" s="2"/>
@@ -26188,7 +26189,7 @@
       <c r="AW488" s="2"/>
       <c r="AX488" s="2"/>
     </row>
-    <row r="489" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A489" s="2"/>
       <c r="B489" s="2"/>
       <c r="C489" s="2"/>
@@ -26240,7 +26241,7 @@
       <c r="AW489" s="2"/>
       <c r="AX489" s="2"/>
     </row>
-    <row r="490" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A490" s="2"/>
       <c r="B490" s="2"/>
       <c r="C490" s="2"/>
@@ -26292,7 +26293,7 @@
       <c r="AW490" s="2"/>
       <c r="AX490" s="2"/>
     </row>
-    <row r="491" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A491" s="2"/>
       <c r="B491" s="2"/>
       <c r="C491" s="2"/>
@@ -26344,7 +26345,7 @@
       <c r="AW491" s="2"/>
       <c r="AX491" s="2"/>
     </row>
-    <row r="492" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A492" s="2"/>
       <c r="B492" s="2"/>
       <c r="C492" s="2"/>
@@ -26396,7 +26397,7 @@
       <c r="AW492" s="2"/>
       <c r="AX492" s="2"/>
     </row>
-    <row r="493" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A493" s="2"/>
       <c r="B493" s="2"/>
       <c r="C493" s="2"/>
@@ -26448,7 +26449,7 @@
       <c r="AW493" s="2"/>
       <c r="AX493" s="2"/>
     </row>
-    <row r="494" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A494" s="2"/>
       <c r="B494" s="2"/>
       <c r="C494" s="2"/>
@@ -26500,7 +26501,7 @@
       <c r="AW494" s="2"/>
       <c r="AX494" s="2"/>
     </row>
-    <row r="495" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A495" s="2"/>
       <c r="B495" s="2"/>
       <c r="C495" s="2"/>
@@ -26552,7 +26553,7 @@
       <c r="AW495" s="2"/>
       <c r="AX495" s="2"/>
     </row>
-    <row r="496" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A496" s="2"/>
       <c r="B496" s="2"/>
       <c r="C496" s="2"/>
@@ -26604,7 +26605,7 @@
       <c r="AW496" s="2"/>
       <c r="AX496" s="2"/>
     </row>
-    <row r="497" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A497" s="2"/>
       <c r="B497" s="2"/>
       <c r="C497" s="2"/>
@@ -26656,7 +26657,7 @@
       <c r="AW497" s="2"/>
       <c r="AX497" s="2"/>
     </row>
-    <row r="498" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A498" s="2"/>
       <c r="B498" s="2"/>
       <c r="C498" s="2"/>
@@ -26708,7 +26709,7 @@
       <c r="AW498" s="2"/>
       <c r="AX498" s="2"/>
     </row>
-    <row r="499" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A499" s="2"/>
       <c r="B499" s="2"/>
       <c r="C499" s="2"/>
@@ -26760,7 +26761,7 @@
       <c r="AW499" s="2"/>
       <c r="AX499" s="2"/>
     </row>
-    <row r="500" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A500" s="2"/>
       <c r="B500" s="2"/>
       <c r="C500" s="2"/>
@@ -26812,7 +26813,7 @@
       <c r="AW500" s="2"/>
       <c r="AX500" s="2"/>
     </row>
-    <row r="501" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A501" s="2"/>
       <c r="B501" s="2"/>
       <c r="C501" s="2"/>
@@ -26864,7 +26865,7 @@
       <c r="AW501" s="2"/>
       <c r="AX501" s="2"/>
     </row>
-    <row r="502" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A502" s="2"/>
       <c r="B502" s="2"/>
       <c r="C502" s="2"/>
@@ -26916,7 +26917,7 @@
       <c r="AW502" s="2"/>
       <c r="AX502" s="2"/>
     </row>
-    <row r="503" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A503" s="2"/>
       <c r="B503" s="2"/>
       <c r="C503" s="2"/>
@@ -26968,7 +26969,7 @@
       <c r="AW503" s="2"/>
       <c r="AX503" s="2"/>
     </row>
-    <row r="504" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A504" s="2"/>
       <c r="B504" s="2"/>
       <c r="C504" s="2"/>
@@ -27020,7 +27021,7 @@
       <c r="AW504" s="2"/>
       <c r="AX504" s="2"/>
     </row>
-    <row r="505" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A505" s="2"/>
       <c r="B505" s="2"/>
       <c r="C505" s="2"/>
@@ -27072,7 +27073,7 @@
       <c r="AW505" s="2"/>
       <c r="AX505" s="2"/>
     </row>
-    <row r="506" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A506" s="2"/>
       <c r="B506" s="2"/>
       <c r="C506" s="2"/>
@@ -27124,7 +27125,7 @@
       <c r="AW506" s="2"/>
       <c r="AX506" s="2"/>
     </row>
-    <row r="507" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A507" s="2"/>
       <c r="B507" s="2"/>
       <c r="C507" s="2"/>
@@ -27176,7 +27177,7 @@
       <c r="AW507" s="2"/>
       <c r="AX507" s="2"/>
     </row>
-    <row r="508" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A508" s="2"/>
       <c r="B508" s="2"/>
       <c r="C508" s="2"/>
@@ -27228,7 +27229,7 @@
       <c r="AW508" s="2"/>
       <c r="AX508" s="2"/>
     </row>
-    <row r="509" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A509" s="2"/>
       <c r="B509" s="2"/>
       <c r="C509" s="2"/>
@@ -27280,7 +27281,7 @@
       <c r="AW509" s="2"/>
       <c r="AX509" s="2"/>
     </row>
-    <row r="510" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A510" s="2"/>
       <c r="B510" s="2"/>
       <c r="C510" s="2"/>
@@ -27332,7 +27333,7 @@
       <c r="AW510" s="2"/>
       <c r="AX510" s="2"/>
     </row>
-    <row r="511" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A511" s="2"/>
       <c r="B511" s="2"/>
       <c r="C511" s="2"/>
@@ -27384,7 +27385,7 @@
       <c r="AW511" s="2"/>
       <c r="AX511" s="2"/>
     </row>
-    <row r="512" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A512" s="2"/>
       <c r="B512" s="2"/>
       <c r="C512" s="2"/>
@@ -27436,7 +27437,7 @@
       <c r="AW512" s="2"/>
       <c r="AX512" s="2"/>
     </row>
-    <row r="513" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A513" s="2"/>
       <c r="B513" s="2"/>
       <c r="C513" s="2"/>
@@ -27488,7 +27489,7 @@
       <c r="AW513" s="2"/>
       <c r="AX513" s="2"/>
     </row>
-    <row r="514" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A514" s="2"/>
       <c r="B514" s="2"/>
       <c r="C514" s="2"/>
@@ -27540,7 +27541,7 @@
       <c r="AW514" s="2"/>
       <c r="AX514" s="2"/>
     </row>
-    <row r="515" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A515" s="2"/>
       <c r="B515" s="2"/>
       <c r="C515" s="2"/>
@@ -27592,7 +27593,7 @@
       <c r="AW515" s="2"/>
       <c r="AX515" s="2"/>
     </row>
-    <row r="516" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A516" s="2"/>
       <c r="B516" s="2"/>
       <c r="C516" s="2"/>
@@ -27644,7 +27645,7 @@
       <c r="AW516" s="2"/>
       <c r="AX516" s="2"/>
     </row>
-    <row r="517" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A517" s="2"/>
       <c r="B517" s="2"/>
       <c r="C517" s="2"/>
@@ -27696,7 +27697,7 @@
       <c r="AW517" s="2"/>
       <c r="AX517" s="2"/>
     </row>
-    <row r="518" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A518" s="2"/>
       <c r="B518" s="2"/>
       <c r="C518" s="2"/>
@@ -27748,7 +27749,7 @@
       <c r="AW518" s="2"/>
       <c r="AX518" s="2"/>
     </row>
-    <row r="519" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A519" s="2"/>
       <c r="B519" s="2"/>
       <c r="C519" s="2"/>
@@ -27800,7 +27801,7 @@
       <c r="AW519" s="2"/>
       <c r="AX519" s="2"/>
     </row>
-    <row r="520" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A520" s="2"/>
       <c r="B520" s="2"/>
       <c r="C520" s="2"/>
@@ -27852,7 +27853,7 @@
       <c r="AW520" s="2"/>
       <c r="AX520" s="2"/>
     </row>
-    <row r="521" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A521" s="2"/>
       <c r="B521" s="2"/>
       <c r="C521" s="2"/>
@@ -27904,7 +27905,7 @@
       <c r="AW521" s="2"/>
       <c r="AX521" s="2"/>
     </row>
-    <row r="522" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A522" s="2"/>
       <c r="B522" s="2"/>
       <c r="C522" s="2"/>
@@ -27956,7 +27957,7 @@
       <c r="AW522" s="2"/>
       <c r="AX522" s="2"/>
     </row>
-    <row r="523" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A523" s="2"/>
       <c r="B523" s="2"/>
       <c r="C523" s="2"/>
@@ -28008,7 +28009,7 @@
       <c r="AW523" s="2"/>
       <c r="AX523" s="2"/>
     </row>
-    <row r="524" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A524" s="2"/>
       <c r="B524" s="2"/>
       <c r="C524" s="2"/>
@@ -28060,7 +28061,7 @@
       <c r="AW524" s="2"/>
       <c r="AX524" s="2"/>
     </row>
-    <row r="525" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A525" s="2"/>
       <c r="B525" s="2"/>
       <c r="C525" s="2"/>
@@ -28112,7 +28113,7 @@
       <c r="AW525" s="2"/>
       <c r="AX525" s="2"/>
     </row>
-    <row r="526" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A526" s="2"/>
       <c r="B526" s="2"/>
       <c r="C526" s="2"/>
@@ -28164,7 +28165,7 @@
       <c r="AW526" s="2"/>
       <c r="AX526" s="2"/>
     </row>
-    <row r="527" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A527" s="2"/>
       <c r="B527" s="2"/>
       <c r="C527" s="2"/>
@@ -28216,7 +28217,7 @@
       <c r="AW527" s="2"/>
       <c r="AX527" s="2"/>
     </row>
-    <row r="528" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A528" s="2"/>
       <c r="B528" s="2"/>
       <c r="C528" s="2"/>
@@ -28268,7 +28269,7 @@
       <c r="AW528" s="2"/>
       <c r="AX528" s="2"/>
     </row>
-    <row r="529" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A529" s="2"/>
       <c r="B529" s="2"/>
       <c r="C529" s="2"/>
@@ -28320,7 +28321,7 @@
       <c r="AW529" s="2"/>
       <c r="AX529" s="2"/>
     </row>
-    <row r="530" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A530" s="2"/>
       <c r="B530" s="2"/>
       <c r="C530" s="2"/>
@@ -28372,7 +28373,7 @@
       <c r="AW530" s="2"/>
       <c r="AX530" s="2"/>
     </row>
-    <row r="531" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A531" s="2"/>
       <c r="B531" s="2"/>
       <c r="C531" s="2"/>
@@ -28424,7 +28425,7 @@
       <c r="AW531" s="2"/>
       <c r="AX531" s="2"/>
     </row>
-    <row r="532" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A532" s="2"/>
       <c r="B532" s="2"/>
       <c r="C532" s="2"/>
@@ -28476,7 +28477,7 @@
       <c r="AW532" s="2"/>
       <c r="AX532" s="2"/>
     </row>
-    <row r="533" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A533" s="2"/>
       <c r="B533" s="2"/>
       <c r="C533" s="2"/>
@@ -28528,7 +28529,7 @@
       <c r="AW533" s="2"/>
       <c r="AX533" s="2"/>
     </row>
-    <row r="534" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A534" s="2"/>
       <c r="B534" s="2"/>
       <c r="C534" s="2"/>
@@ -28580,7 +28581,7 @@
       <c r="AW534" s="2"/>
       <c r="AX534" s="2"/>
     </row>
-    <row r="535" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A535" s="2"/>
       <c r="B535" s="2"/>
       <c r="C535" s="2"/>
@@ -28632,7 +28633,7 @@
       <c r="AW535" s="2"/>
       <c r="AX535" s="2"/>
     </row>
-    <row r="536" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A536" s="2"/>
       <c r="B536" s="2"/>
       <c r="C536" s="2"/>
@@ -28684,7 +28685,7 @@
       <c r="AW536" s="2"/>
       <c r="AX536" s="2"/>
     </row>
-    <row r="537" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A537" s="2"/>
       <c r="B537" s="2"/>
       <c r="C537" s="2"/>
@@ -28736,7 +28737,7 @@
       <c r="AW537" s="2"/>
       <c r="AX537" s="2"/>
     </row>
-    <row r="538" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A538" s="2"/>
       <c r="B538" s="2"/>
       <c r="C538" s="2"/>
@@ -28788,7 +28789,7 @@
       <c r="AW538" s="2"/>
       <c r="AX538" s="2"/>
     </row>
-    <row r="539" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A539" s="2"/>
       <c r="B539" s="2"/>
       <c r="C539" s="2"/>
@@ -28840,7 +28841,7 @@
       <c r="AW539" s="2"/>
       <c r="AX539" s="2"/>
     </row>
-    <row r="540" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A540" s="2"/>
       <c r="B540" s="2"/>
       <c r="C540" s="2"/>
@@ -28892,7 +28893,7 @@
       <c r="AW540" s="2"/>
       <c r="AX540" s="2"/>
     </row>
-    <row r="541" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A541" s="2"/>
       <c r="B541" s="2"/>
       <c r="C541" s="2"/>
@@ -28944,7 +28945,7 @@
       <c r="AW541" s="2"/>
       <c r="AX541" s="2"/>
     </row>
-    <row r="542" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A542" s="2"/>
       <c r="B542" s="2"/>
       <c r="C542" s="2"/>
@@ -28996,7 +28997,7 @@
       <c r="AW542" s="2"/>
       <c r="AX542" s="2"/>
     </row>
-    <row r="543" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A543" s="2"/>
       <c r="B543" s="2"/>
       <c r="C543" s="2"/>
@@ -29048,7 +29049,7 @@
       <c r="AW543" s="2"/>
       <c r="AX543" s="2"/>
     </row>
-    <row r="544" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A544" s="2"/>
       <c r="B544" s="2"/>
       <c r="C544" s="2"/>
@@ -29100,7 +29101,7 @@
       <c r="AW544" s="2"/>
       <c r="AX544" s="2"/>
     </row>
-    <row r="545" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A545" s="2"/>
       <c r="B545" s="2"/>
       <c r="C545" s="2"/>
@@ -29152,7 +29153,7 @@
       <c r="AW545" s="2"/>
       <c r="AX545" s="2"/>
     </row>
-    <row r="546" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A546" s="2"/>
       <c r="B546" s="2"/>
       <c r="C546" s="2"/>
@@ -29204,7 +29205,7 @@
       <c r="AW546" s="2"/>
       <c r="AX546" s="2"/>
     </row>
-    <row r="547" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A547" s="2"/>
       <c r="B547" s="2"/>
       <c r="C547" s="2"/>
@@ -29256,7 +29257,7 @@
       <c r="AW547" s="2"/>
       <c r="AX547" s="2"/>
     </row>
-    <row r="548" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A548" s="2"/>
       <c r="B548" s="2"/>
       <c r="C548" s="2"/>
@@ -29308,7 +29309,7 @@
       <c r="AW548" s="2"/>
       <c r="AX548" s="2"/>
     </row>
-    <row r="549" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A549" s="2"/>
       <c r="B549" s="2"/>
       <c r="C549" s="2"/>
@@ -29360,7 +29361,7 @@
       <c r="AW549" s="2"/>
       <c r="AX549" s="2"/>
     </row>
-    <row r="550" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A550" s="2"/>
       <c r="B550" s="2"/>
       <c r="C550" s="2"/>
@@ -29412,7 +29413,7 @@
       <c r="AW550" s="2"/>
       <c r="AX550" s="2"/>
     </row>
-    <row r="551" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A551" s="2"/>
       <c r="B551" s="2"/>
       <c r="C551" s="2"/>
@@ -29464,7 +29465,7 @@
       <c r="AW551" s="2"/>
       <c r="AX551" s="2"/>
     </row>
-    <row r="552" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A552" s="2"/>
       <c r="B552" s="2"/>
       <c r="C552" s="2"/>
@@ -29516,7 +29517,7 @@
       <c r="AW552" s="2"/>
       <c r="AX552" s="2"/>
     </row>
-    <row r="553" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A553" s="2"/>
       <c r="B553" s="2"/>
       <c r="C553" s="2"/>
@@ -29568,7 +29569,7 @@
       <c r="AW553" s="2"/>
       <c r="AX553" s="2"/>
     </row>
-    <row r="554" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A554" s="2"/>
       <c r="B554" s="2"/>
       <c r="C554" s="2"/>
@@ -29620,7 +29621,7 @@
       <c r="AW554" s="2"/>
       <c r="AX554" s="2"/>
     </row>
-    <row r="555" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A555" s="2"/>
       <c r="B555" s="2"/>
       <c r="C555" s="2"/>
@@ -29672,7 +29673,7 @@
       <c r="AW555" s="2"/>
       <c r="AX555" s="2"/>
     </row>
-    <row r="556" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A556" s="2"/>
       <c r="B556" s="2"/>
       <c r="C556" s="2"/>
@@ -29724,7 +29725,7 @@
       <c r="AW556" s="2"/>
       <c r="AX556" s="2"/>
     </row>
-    <row r="557" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A557" s="2"/>
       <c r="B557" s="2"/>
       <c r="C557" s="2"/>
@@ -29776,7 +29777,7 @@
       <c r="AW557" s="2"/>
       <c r="AX557" s="2"/>
     </row>
-    <row r="558" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A558" s="2"/>
       <c r="B558" s="2"/>
       <c r="C558" s="2"/>
@@ -29828,7 +29829,7 @@
       <c r="AW558" s="2"/>
       <c r="AX558" s="2"/>
     </row>
-    <row r="559" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A559" s="2"/>
       <c r="B559" s="2"/>
       <c r="C559" s="2"/>
@@ -29880,7 +29881,7 @@
       <c r="AW559" s="2"/>
       <c r="AX559" s="2"/>
     </row>
-    <row r="560" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A560" s="2"/>
       <c r="B560" s="2"/>
       <c r="C560" s="2"/>
@@ -29932,7 +29933,7 @@
       <c r="AW560" s="2"/>
       <c r="AX560" s="2"/>
     </row>
-    <row r="561" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A561" s="2"/>
       <c r="B561" s="2"/>
       <c r="C561" s="2"/>
@@ -29984,7 +29985,7 @@
       <c r="AW561" s="2"/>
       <c r="AX561" s="2"/>
     </row>
-    <row r="562" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A562" s="2"/>
       <c r="B562" s="2"/>
       <c r="C562" s="2"/>
@@ -30036,7 +30037,7 @@
       <c r="AW562" s="2"/>
       <c r="AX562" s="2"/>
     </row>
-    <row r="563" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A563" s="2"/>
       <c r="B563" s="2"/>
       <c r="C563" s="2"/>
@@ -30088,7 +30089,7 @@
       <c r="AW563" s="2"/>
       <c r="AX563" s="2"/>
     </row>
-    <row r="564" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A564" s="2"/>
       <c r="B564" s="2"/>
       <c r="C564" s="2"/>
@@ -30140,7 +30141,7 @@
       <c r="AW564" s="2"/>
       <c r="AX564" s="2"/>
     </row>
-    <row r="565" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A565" s="2"/>
       <c r="B565" s="2"/>
       <c r="C565" s="2"/>
@@ -30192,7 +30193,7 @@
       <c r="AW565" s="2"/>
       <c r="AX565" s="2"/>
     </row>
-    <row r="566" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A566" s="2"/>
       <c r="B566" s="2"/>
       <c r="C566" s="2"/>
@@ -30244,7 +30245,7 @@
       <c r="AW566" s="2"/>
       <c r="AX566" s="2"/>
     </row>
-    <row r="567" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A567" s="2"/>
       <c r="B567" s="2"/>
       <c r="C567" s="2"/>
@@ -30296,7 +30297,7 @@
       <c r="AW567" s="2"/>
       <c r="AX567" s="2"/>
     </row>
-    <row r="568" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A568" s="2"/>
       <c r="B568" s="2"/>
       <c r="C568" s="2"/>
@@ -30348,7 +30349,7 @@
       <c r="AW568" s="2"/>
       <c r="AX568" s="2"/>
     </row>
-    <row r="569" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A569" s="2"/>
       <c r="B569" s="2"/>
       <c r="C569" s="2"/>
@@ -30400,7 +30401,7 @@
       <c r="AW569" s="2"/>
       <c r="AX569" s="2"/>
     </row>
-    <row r="570" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A570" s="2"/>
       <c r="B570" s="2"/>
       <c r="C570" s="2"/>
@@ -30452,7 +30453,7 @@
       <c r="AW570" s="2"/>
       <c r="AX570" s="2"/>
     </row>
-    <row r="571" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A571" s="2"/>
       <c r="B571" s="2"/>
       <c r="C571" s="2"/>
@@ -30504,7 +30505,7 @@
       <c r="AW571" s="2"/>
       <c r="AX571" s="2"/>
     </row>
-    <row r="572" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A572" s="2"/>
       <c r="B572" s="2"/>
       <c r="C572" s="2"/>
@@ -30556,7 +30557,7 @@
       <c r="AW572" s="2"/>
       <c r="AX572" s="2"/>
     </row>
-    <row r="573" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A573" s="2"/>
       <c r="B573" s="2"/>
       <c r="C573" s="2"/>
@@ -30608,7 +30609,7 @@
       <c r="AW573" s="2"/>
       <c r="AX573" s="2"/>
     </row>
-    <row r="574" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A574" s="2"/>
       <c r="B574" s="2"/>
       <c r="C574" s="2"/>
@@ -30660,7 +30661,7 @@
       <c r="AW574" s="2"/>
       <c r="AX574" s="2"/>
     </row>
-    <row r="575" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A575" s="2"/>
       <c r="B575" s="2"/>
       <c r="C575" s="2"/>
@@ -30712,7 +30713,7 @@
       <c r="AW575" s="2"/>
       <c r="AX575" s="2"/>
     </row>
-    <row r="576" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A576" s="2"/>
       <c r="B576" s="2"/>
       <c r="C576" s="2"/>
@@ -30764,7 +30765,7 @@
       <c r="AW576" s="2"/>
       <c r="AX576" s="2"/>
     </row>
-    <row r="577" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A577" s="2"/>
       <c r="B577" s="2"/>
       <c r="C577" s="2"/>
@@ -30816,7 +30817,7 @@
       <c r="AW577" s="2"/>
       <c r="AX577" s="2"/>
     </row>
-    <row r="578" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A578" s="2"/>
       <c r="B578" s="2"/>
       <c r="C578" s="2"/>
@@ -30868,7 +30869,7 @@
       <c r="AW578" s="2"/>
       <c r="AX578" s="2"/>
     </row>
-    <row r="579" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A579" s="2"/>
       <c r="B579" s="2"/>
       <c r="C579" s="2"/>
@@ -30920,7 +30921,7 @@
       <c r="AW579" s="2"/>
       <c r="AX579" s="2"/>
     </row>
-    <row r="580" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A580" s="2"/>
       <c r="B580" s="2"/>
       <c r="C580" s="2"/>
@@ -30972,7 +30973,7 @@
       <c r="AW580" s="2"/>
       <c r="AX580" s="2"/>
     </row>
-    <row r="581" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A581" s="2"/>
       <c r="B581" s="2"/>
       <c r="C581" s="2"/>
@@ -31024,7 +31025,7 @@
       <c r="AW581" s="2"/>
       <c r="AX581" s="2"/>
     </row>
-    <row r="582" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A582" s="2"/>
       <c r="B582" s="2"/>
       <c r="C582" s="2"/>
@@ -31076,7 +31077,7 @@
       <c r="AW582" s="2"/>
       <c r="AX582" s="2"/>
     </row>
-    <row r="583" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A583" s="2"/>
       <c r="B583" s="2"/>
       <c r="C583" s="2"/>
@@ -31128,7 +31129,7 @@
       <c r="AW583" s="2"/>
       <c r="AX583" s="2"/>
     </row>
-    <row r="584" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A584" s="2"/>
       <c r="B584" s="2"/>
       <c r="C584" s="2"/>
@@ -31180,7 +31181,7 @@
       <c r="AW584" s="2"/>
       <c r="AX584" s="2"/>
     </row>
-    <row r="585" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A585" s="2"/>
       <c r="B585" s="2"/>
       <c r="C585" s="2"/>
@@ -31232,7 +31233,7 @@
       <c r="AW585" s="2"/>
       <c r="AX585" s="2"/>
     </row>
-    <row r="586" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A586" s="2"/>
       <c r="B586" s="2"/>
       <c r="C586" s="2"/>
@@ -31284,7 +31285,7 @@
       <c r="AW586" s="2"/>
       <c r="AX586" s="2"/>
     </row>
-    <row r="587" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A587" s="2"/>
       <c r="B587" s="2"/>
       <c r="C587" s="2"/>
@@ -31336,7 +31337,7 @@
       <c r="AW587" s="2"/>
       <c r="AX587" s="2"/>
     </row>
-    <row r="588" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A588" s="2"/>
       <c r="B588" s="2"/>
       <c r="C588" s="2"/>
@@ -31388,7 +31389,7 @@
       <c r="AW588" s="2"/>
       <c r="AX588" s="2"/>
     </row>
-    <row r="589" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A589" s="2"/>
       <c r="B589" s="2"/>
       <c r="C589" s="2"/>
@@ -31440,7 +31441,7 @@
       <c r="AW589" s="2"/>
       <c r="AX589" s="2"/>
     </row>
-    <row r="590" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A590" s="2"/>
       <c r="B590" s="2"/>
       <c r="C590" s="2"/>
@@ -31492,7 +31493,7 @@
       <c r="AW590" s="2"/>
       <c r="AX590" s="2"/>
     </row>
-    <row r="591" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A591" s="2"/>
       <c r="B591" s="2"/>
       <c r="C591" s="2"/>
@@ -31544,7 +31545,7 @@
       <c r="AW591" s="2"/>
       <c r="AX591" s="2"/>
     </row>
-    <row r="592" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A592" s="2"/>
       <c r="B592" s="2"/>
       <c r="C592" s="2"/>
@@ -31596,7 +31597,7 @@
       <c r="AW592" s="2"/>
       <c r="AX592" s="2"/>
     </row>
-    <row r="593" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A593" s="2"/>
       <c r="B593" s="2"/>
       <c r="C593" s="2"/>
@@ -31648,7 +31649,7 @@
       <c r="AW593" s="2"/>
       <c r="AX593" s="2"/>
     </row>
-    <row r="594" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A594" s="2"/>
       <c r="B594" s="2"/>
       <c r="C594" s="2"/>
@@ -31700,7 +31701,7 @@
       <c r="AW594" s="2"/>
       <c r="AX594" s="2"/>
     </row>
-    <row r="595" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A595" s="2"/>
       <c r="B595" s="2"/>
       <c r="C595" s="2"/>
@@ -31752,7 +31753,7 @@
       <c r="AW595" s="2"/>
       <c r="AX595" s="2"/>
     </row>
-    <row r="596" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A596" s="2"/>
       <c r="B596" s="2"/>
       <c r="C596" s="2"/>
@@ -31804,7 +31805,7 @@
       <c r="AW596" s="2"/>
       <c r="AX596" s="2"/>
     </row>
-    <row r="597" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A597" s="2"/>
       <c r="B597" s="2"/>
       <c r="C597" s="2"/>
@@ -31856,7 +31857,7 @@
       <c r="AW597" s="2"/>
       <c r="AX597" s="2"/>
     </row>
-    <row r="598" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A598" s="2"/>
       <c r="B598" s="2"/>
       <c r="C598" s="2"/>
@@ -31908,7 +31909,7 @@
       <c r="AW598" s="2"/>
       <c r="AX598" s="2"/>
     </row>
-    <row r="599" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A599" s="2"/>
       <c r="B599" s="2"/>
       <c r="C599" s="2"/>
@@ -31960,7 +31961,7 @@
       <c r="AW599" s="2"/>
       <c r="AX599" s="2"/>
     </row>
-    <row r="600" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A600" s="2"/>
       <c r="B600" s="2"/>
       <c r="C600" s="2"/>
@@ -32012,7 +32013,7 @@
       <c r="AW600" s="2"/>
       <c r="AX600" s="2"/>
     </row>
-    <row r="601" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A601" s="2"/>
       <c r="B601" s="2"/>
       <c r="C601" s="2"/>
@@ -32064,7 +32065,7 @@
       <c r="AW601" s="2"/>
       <c r="AX601" s="2"/>
     </row>
-    <row r="602" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A602" s="2"/>
       <c r="B602" s="2"/>
       <c r="C602" s="2"/>
@@ -32116,7 +32117,7 @@
       <c r="AW602" s="2"/>
       <c r="AX602" s="2"/>
     </row>
-    <row r="603" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A603" s="2"/>
       <c r="B603" s="2"/>
       <c r="C603" s="2"/>
@@ -32168,7 +32169,7 @@
       <c r="AW603" s="2"/>
       <c r="AX603" s="2"/>
     </row>
-    <row r="604" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A604" s="2"/>
       <c r="B604" s="2"/>
       <c r="C604" s="2"/>
@@ -32220,7 +32221,7 @@
       <c r="AW604" s="2"/>
       <c r="AX604" s="2"/>
     </row>
-    <row r="605" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A605" s="2"/>
       <c r="B605" s="2"/>
       <c r="C605" s="2"/>
@@ -32272,7 +32273,7 @@
       <c r="AW605" s="2"/>
       <c r="AX605" s="2"/>
     </row>
-    <row r="606" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A606" s="2"/>
       <c r="B606" s="2"/>
       <c r="C606" s="2"/>
@@ -32324,7 +32325,7 @@
       <c r="AW606" s="2"/>
       <c r="AX606" s="2"/>
     </row>
-    <row r="607" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A607" s="2"/>
       <c r="B607" s="2"/>
       <c r="C607" s="2"/>
@@ -32376,7 +32377,7 @@
       <c r="AW607" s="2"/>
       <c r="AX607" s="2"/>
     </row>
-    <row r="608" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A608" s="2"/>
       <c r="B608" s="2"/>
       <c r="C608" s="2"/>
@@ -32428,7 +32429,7 @@
       <c r="AW608" s="2"/>
       <c r="AX608" s="2"/>
     </row>
-    <row r="609" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A609" s="2"/>
       <c r="B609" s="2"/>
       <c r="C609" s="2"/>
@@ -32480,7 +32481,7 @@
       <c r="AW609" s="2"/>
       <c r="AX609" s="2"/>
     </row>
-    <row r="610" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A610" s="2"/>
       <c r="B610" s="2"/>
       <c r="C610" s="2"/>
@@ -32532,7 +32533,7 @@
       <c r="AW610" s="2"/>
       <c r="AX610" s="2"/>
     </row>
-    <row r="611" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A611" s="2"/>
       <c r="B611" s="2"/>
       <c r="C611" s="2"/>
@@ -32584,7 +32585,7 @@
       <c r="AW611" s="2"/>
       <c r="AX611" s="2"/>
     </row>
-    <row r="612" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A612" s="2"/>
       <c r="B612" s="2"/>
       <c r="C612" s="2"/>
@@ -32636,7 +32637,7 @@
       <c r="AW612" s="2"/>
       <c r="AX612" s="2"/>
     </row>
-    <row r="613" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A613" s="2"/>
       <c r="B613" s="2"/>
       <c r="C613" s="2"/>
@@ -32688,7 +32689,7 @@
       <c r="AW613" s="2"/>
       <c r="AX613" s="2"/>
     </row>
-    <row r="614" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A614" s="2"/>
       <c r="B614" s="2"/>
       <c r="C614" s="2"/>
@@ -32740,7 +32741,7 @@
       <c r="AW614" s="2"/>
       <c r="AX614" s="2"/>
     </row>
-    <row r="615" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A615" s="2"/>
       <c r="B615" s="2"/>
       <c r="C615" s="2"/>
@@ -32792,7 +32793,7 @@
       <c r="AW615" s="2"/>
       <c r="AX615" s="2"/>
     </row>
-    <row r="616" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A616" s="2"/>
       <c r="B616" s="2"/>
       <c r="C616" s="2"/>
@@ -32844,7 +32845,7 @@
       <c r="AW616" s="2"/>
       <c r="AX616" s="2"/>
     </row>
-    <row r="617" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A617" s="2"/>
       <c r="B617" s="2"/>
       <c r="C617" s="2"/>
@@ -32896,7 +32897,7 @@
       <c r="AW617" s="2"/>
       <c r="AX617" s="2"/>
     </row>
-    <row r="618" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A618" s="2"/>
       <c r="B618" s="2"/>
       <c r="C618" s="2"/>
@@ -32948,7 +32949,7 @@
       <c r="AW618" s="2"/>
       <c r="AX618" s="2"/>
     </row>
-    <row r="619" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A619" s="2"/>
       <c r="B619" s="2"/>
       <c r="C619" s="2"/>
@@ -33000,7 +33001,7 @@
       <c r="AW619" s="2"/>
       <c r="AX619" s="2"/>
     </row>
-    <row r="620" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A620" s="2"/>
       <c r="B620" s="2"/>
       <c r="C620" s="2"/>
@@ -33052,7 +33053,7 @@
       <c r="AW620" s="2"/>
       <c r="AX620" s="2"/>
     </row>
-    <row r="621" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A621" s="2"/>
       <c r="B621" s="2"/>
       <c r="C621" s="2"/>
@@ -33104,7 +33105,7 @@
       <c r="AW621" s="2"/>
       <c r="AX621" s="2"/>
     </row>
-    <row r="622" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A622" s="2"/>
       <c r="B622" s="2"/>
       <c r="C622" s="2"/>
@@ -33156,7 +33157,7 @@
       <c r="AW622" s="2"/>
       <c r="AX622" s="2"/>
     </row>
-    <row r="623" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A623" s="2"/>
       <c r="B623" s="2"/>
       <c r="C623" s="2"/>
@@ -33208,7 +33209,7 @@
       <c r="AW623" s="2"/>
       <c r="AX623" s="2"/>
     </row>
-    <row r="624" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A624" s="2"/>
       <c r="B624" s="2"/>
       <c r="C624" s="2"/>
@@ -33260,7 +33261,7 @@
       <c r="AW624" s="2"/>
       <c r="AX624" s="2"/>
     </row>
-    <row r="625" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A625" s="2"/>
       <c r="B625" s="2"/>
       <c r="C625" s="2"/>
@@ -33312,7 +33313,7 @@
       <c r="AW625" s="2"/>
       <c r="AX625" s="2"/>
     </row>
-    <row r="626" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A626" s="2"/>
       <c r="B626" s="2"/>
       <c r="C626" s="2"/>
@@ -33364,7 +33365,7 @@
       <c r="AW626" s="2"/>
       <c r="AX626" s="2"/>
     </row>
-    <row r="627" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A627" s="2"/>
       <c r="B627" s="2"/>
       <c r="C627" s="2"/>
@@ -33416,7 +33417,7 @@
       <c r="AW627" s="2"/>
       <c r="AX627" s="2"/>
     </row>
-    <row r="628" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A628" s="2"/>
       <c r="B628" s="2"/>
       <c r="C628" s="2"/>
@@ -33468,7 +33469,7 @@
       <c r="AW628" s="2"/>
       <c r="AX628" s="2"/>
     </row>
-    <row r="629" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A629" s="2"/>
       <c r="B629" s="2"/>
       <c r="C629" s="2"/>
@@ -33520,7 +33521,7 @@
       <c r="AW629" s="2"/>
       <c r="AX629" s="2"/>
     </row>
-    <row r="630" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A630" s="2"/>
       <c r="B630" s="2"/>
       <c r="C630" s="2"/>
@@ -33572,7 +33573,7 @@
       <c r="AW630" s="2"/>
       <c r="AX630" s="2"/>
     </row>
-    <row r="631" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A631" s="2"/>
       <c r="B631" s="2"/>
       <c r="C631" s="2"/>
@@ -33624,7 +33625,7 @@
       <c r="AW631" s="2"/>
       <c r="AX631" s="2"/>
     </row>
-    <row r="632" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A632" s="2"/>
       <c r="B632" s="2"/>
       <c r="C632" s="2"/>
@@ -33676,7 +33677,7 @@
       <c r="AW632" s="2"/>
       <c r="AX632" s="2"/>
     </row>
-    <row r="633" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A633" s="2"/>
       <c r="B633" s="2"/>
       <c r="C633" s="2"/>
@@ -33728,7 +33729,7 @@
       <c r="AW633" s="2"/>
       <c r="AX633" s="2"/>
     </row>
-    <row r="634" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A634" s="2"/>
       <c r="B634" s="2"/>
       <c r="C634" s="2"/>
@@ -33780,7 +33781,7 @@
       <c r="AW634" s="2"/>
       <c r="AX634" s="2"/>
     </row>
-    <row r="635" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A635" s="2"/>
       <c r="B635" s="2"/>
       <c r="C635" s="2"/>
@@ -33832,7 +33833,7 @@
       <c r="AW635" s="2"/>
       <c r="AX635" s="2"/>
     </row>
-    <row r="636" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A636" s="2"/>
       <c r="B636" s="2"/>
       <c r="C636" s="2"/>
@@ -33884,7 +33885,7 @@
       <c r="AW636" s="2"/>
       <c r="AX636" s="2"/>
     </row>
-    <row r="637" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A637" s="2"/>
       <c r="B637" s="2"/>
       <c r="C637" s="2"/>
@@ -33936,7 +33937,7 @@
       <c r="AW637" s="2"/>
       <c r="AX637" s="2"/>
     </row>
-    <row r="638" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A638" s="2"/>
       <c r="B638" s="2"/>
       <c r="C638" s="2"/>
@@ -33988,7 +33989,7 @@
       <c r="AW638" s="2"/>
       <c r="AX638" s="2"/>
     </row>
-    <row r="639" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A639" s="2"/>
       <c r="B639" s="2"/>
       <c r="C639" s="2"/>
@@ -34040,7 +34041,7 @@
       <c r="AW639" s="2"/>
       <c r="AX639" s="2"/>
     </row>
-    <row r="640" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A640" s="2"/>
       <c r="B640" s="2"/>
       <c r="C640" s="2"/>
@@ -34092,7 +34093,7 @@
       <c r="AW640" s="2"/>
       <c r="AX640" s="2"/>
     </row>
-    <row r="641" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A641" s="2"/>
       <c r="B641" s="2"/>
       <c r="C641" s="2"/>
@@ -34144,7 +34145,7 @@
       <c r="AW641" s="2"/>
       <c r="AX641" s="2"/>
     </row>
-    <row r="642" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A642" s="2"/>
       <c r="B642" s="2"/>
       <c r="C642" s="2"/>
@@ -34196,7 +34197,7 @@
       <c r="AW642" s="2"/>
       <c r="AX642" s="2"/>
     </row>
-    <row r="643" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A643" s="2"/>
       <c r="B643" s="2"/>
       <c r="C643" s="2"/>
@@ -34248,7 +34249,7 @@
       <c r="AW643" s="2"/>
       <c r="AX643" s="2"/>
     </row>
-    <row r="644" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A644" s="2"/>
       <c r="B644" s="2"/>
       <c r="C644" s="2"/>
@@ -34300,7 +34301,7 @@
       <c r="AW644" s="2"/>
       <c r="AX644" s="2"/>
     </row>
-    <row r="645" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A645" s="2"/>
       <c r="B645" s="2"/>
       <c r="C645" s="2"/>
@@ -34352,7 +34353,7 @@
       <c r="AW645" s="2"/>
       <c r="AX645" s="2"/>
     </row>
-    <row r="646" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A646" s="2"/>
       <c r="B646" s="2"/>
       <c r="C646" s="2"/>
@@ -34404,7 +34405,7 @@
       <c r="AW646" s="2"/>
       <c r="AX646" s="2"/>
     </row>
-    <row r="647" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A647" s="2"/>
       <c r="B647" s="2"/>
       <c r="C647" s="2"/>
@@ -34456,7 +34457,7 @@
       <c r="AW647" s="2"/>
       <c r="AX647" s="2"/>
     </row>
-    <row r="648" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A648" s="2"/>
       <c r="B648" s="2"/>
       <c r="C648" s="2"/>
@@ -34508,7 +34509,7 @@
       <c r="AW648" s="2"/>
       <c r="AX648" s="2"/>
     </row>
-    <row r="649" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A649" s="2"/>
       <c r="B649" s="2"/>
       <c r="C649" s="2"/>
@@ -34560,7 +34561,7 @@
       <c r="AW649" s="2"/>
       <c r="AX649" s="2"/>
     </row>
-    <row r="650" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A650" s="2"/>
       <c r="B650" s="2"/>
       <c r="C650" s="2"/>
@@ -34612,7 +34613,7 @@
       <c r="AW650" s="2"/>
       <c r="AX650" s="2"/>
     </row>
-    <row r="651" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A651" s="2"/>
       <c r="B651" s="2"/>
       <c r="C651" s="2"/>
@@ -34664,7 +34665,7 @@
       <c r="AW651" s="2"/>
       <c r="AX651" s="2"/>
     </row>
-    <row r="652" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A652" s="2"/>
       <c r="B652" s="2"/>
       <c r="C652" s="2"/>
@@ -34716,7 +34717,7 @@
       <c r="AW652" s="2"/>
       <c r="AX652" s="2"/>
     </row>
-    <row r="653" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A653" s="2"/>
       <c r="B653" s="2"/>
       <c r="C653" s="2"/>
@@ -34768,7 +34769,7 @@
       <c r="AW653" s="2"/>
       <c r="AX653" s="2"/>
     </row>
-    <row r="654" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A654" s="2"/>
       <c r="B654" s="2"/>
       <c r="C654" s="2"/>
@@ -34820,7 +34821,7 @@
       <c r="AW654" s="2"/>
       <c r="AX654" s="2"/>
     </row>
-    <row r="655" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A655" s="2"/>
       <c r="B655" s="2"/>
       <c r="C655" s="2"/>
@@ -34872,7 +34873,7 @@
       <c r="AW655" s="2"/>
       <c r="AX655" s="2"/>
     </row>
-    <row r="656" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A656" s="2"/>
       <c r="B656" s="2"/>
       <c r="C656" s="2"/>
@@ -34924,7 +34925,7 @@
       <c r="AW656" s="2"/>
       <c r="AX656" s="2"/>
     </row>
-    <row r="657" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A657" s="2"/>
       <c r="B657" s="2"/>
       <c r="C657" s="2"/>
@@ -34976,7 +34977,7 @@
       <c r="AW657" s="2"/>
       <c r="AX657" s="2"/>
     </row>
-    <row r="658" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A658" s="2"/>
       <c r="B658" s="2"/>
       <c r="C658" s="2"/>
@@ -35028,7 +35029,7 @@
       <c r="AW658" s="2"/>
       <c r="AX658" s="2"/>
     </row>
-    <row r="659" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A659" s="2"/>
       <c r="B659" s="2"/>
       <c r="C659" s="2"/>
@@ -35080,7 +35081,7 @@
       <c r="AW659" s="2"/>
       <c r="AX659" s="2"/>
     </row>
-    <row r="660" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A660" s="2"/>
       <c r="B660" s="2"/>
       <c r="C660" s="2"/>
@@ -35132,7 +35133,7 @@
       <c r="AW660" s="2"/>
       <c r="AX660" s="2"/>
     </row>
-    <row r="661" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A661" s="2"/>
       <c r="B661" s="2"/>
       <c r="C661" s="2"/>
@@ -35184,7 +35185,7 @@
       <c r="AW661" s="2"/>
       <c r="AX661" s="2"/>
     </row>
-    <row r="662" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A662" s="2"/>
       <c r="B662" s="2"/>
       <c r="C662" s="2"/>
@@ -35236,7 +35237,7 @@
       <c r="AW662" s="2"/>
       <c r="AX662" s="2"/>
     </row>
-    <row r="663" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A663" s="2"/>
       <c r="B663" s="2"/>
       <c r="C663" s="2"/>
@@ -35288,7 +35289,7 @@
       <c r="AW663" s="2"/>
       <c r="AX663" s="2"/>
     </row>
-    <row r="664" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A664" s="2"/>
       <c r="B664" s="2"/>
       <c r="C664" s="2"/>
@@ -35340,7 +35341,7 @@
       <c r="AW664" s="2"/>
       <c r="AX664" s="2"/>
     </row>
-    <row r="665" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A665" s="2"/>
       <c r="B665" s="2"/>
       <c r="C665" s="2"/>
@@ -35392,7 +35393,7 @@
       <c r="AW665" s="2"/>
       <c r="AX665" s="2"/>
     </row>
-    <row r="666" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A666" s="2"/>
       <c r="B666" s="2"/>
       <c r="C666" s="2"/>
@@ -35444,7 +35445,7 @@
       <c r="AW666" s="2"/>
       <c r="AX666" s="2"/>
     </row>
-    <row r="667" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A667" s="2"/>
       <c r="B667" s="2"/>
       <c r="C667" s="2"/>
@@ -35496,7 +35497,7 @@
       <c r="AW667" s="2"/>
       <c r="AX667" s="2"/>
     </row>
-    <row r="668" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A668" s="2"/>
       <c r="B668" s="2"/>
       <c r="C668" s="2"/>
@@ -35548,7 +35549,7 @@
       <c r="AW668" s="2"/>
       <c r="AX668" s="2"/>
     </row>
-    <row r="669" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A669" s="2"/>
       <c r="B669" s="2"/>
       <c r="C669" s="2"/>
@@ -35600,7 +35601,7 @@
       <c r="AW669" s="2"/>
       <c r="AX669" s="2"/>
     </row>
-    <row r="670" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A670" s="2"/>
       <c r="B670" s="2"/>
       <c r="C670" s="2"/>
@@ -35652,7 +35653,7 @@
       <c r="AW670" s="2"/>
       <c r="AX670" s="2"/>
     </row>
-    <row r="671" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A671" s="2"/>
       <c r="B671" s="2"/>
       <c r="C671" s="2"/>
@@ -35704,7 +35705,7 @@
       <c r="AW671" s="2"/>
       <c r="AX671" s="2"/>
     </row>
-    <row r="672" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A672" s="2"/>
       <c r="B672" s="2"/>
       <c r="C672" s="2"/>
@@ -35756,7 +35757,7 @@
       <c r="AW672" s="2"/>
       <c r="AX672" s="2"/>
     </row>
-    <row r="673" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A673" s="2"/>
       <c r="B673" s="2"/>
       <c r="C673" s="2"/>
@@ -35808,7 +35809,7 @@
       <c r="AW673" s="2"/>
       <c r="AX673" s="2"/>
     </row>
-    <row r="674" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A674" s="2"/>
       <c r="B674" s="2"/>
       <c r="C674" s="2"/>
@@ -35860,7 +35861,7 @@
       <c r="AW674" s="2"/>
       <c r="AX674" s="2"/>
     </row>
-    <row r="675" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A675" s="2"/>
       <c r="B675" s="2"/>
       <c r="C675" s="2"/>
@@ -35912,7 +35913,7 @@
       <c r="AW675" s="2"/>
       <c r="AX675" s="2"/>
     </row>
-    <row r="676" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A676" s="2"/>
       <c r="B676" s="2"/>
       <c r="C676" s="2"/>
@@ -35964,7 +35965,7 @@
       <c r="AW676" s="2"/>
       <c r="AX676" s="2"/>
     </row>
-    <row r="677" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A677" s="2"/>
       <c r="B677" s="2"/>
       <c r="C677" s="2"/>
@@ -36016,7 +36017,7 @@
       <c r="AW677" s="2"/>
       <c r="AX677" s="2"/>
     </row>
-    <row r="678" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A678" s="2"/>
       <c r="B678" s="2"/>
       <c r="C678" s="2"/>
@@ -36068,7 +36069,7 @@
       <c r="AW678" s="2"/>
       <c r="AX678" s="2"/>
     </row>
-    <row r="679" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A679" s="2"/>
       <c r="B679" s="2"/>
       <c r="C679" s="2"/>
@@ -36120,7 +36121,7 @@
       <c r="AW679" s="2"/>
       <c r="AX679" s="2"/>
     </row>
-    <row r="680" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A680" s="2"/>
       <c r="B680" s="2"/>
       <c r="C680" s="2"/>
@@ -36172,7 +36173,7 @@
       <c r="AW680" s="2"/>
       <c r="AX680" s="2"/>
     </row>
-    <row r="681" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A681" s="2"/>
       <c r="B681" s="2"/>
       <c r="C681" s="2"/>
@@ -36224,7 +36225,7 @@
       <c r="AW681" s="2"/>
       <c r="AX681" s="2"/>
     </row>
-    <row r="682" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A682" s="2"/>
       <c r="B682" s="2"/>
       <c r="C682" s="2"/>
@@ -36276,7 +36277,7 @@
       <c r="AW682" s="2"/>
       <c r="AX682" s="2"/>
     </row>
-    <row r="683" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A683" s="2"/>
       <c r="B683" s="2"/>
       <c r="C683" s="2"/>
@@ -36328,7 +36329,7 @@
       <c r="AW683" s="2"/>
       <c r="AX683" s="2"/>
     </row>
-    <row r="684" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A684" s="2"/>
       <c r="B684" s="2"/>
       <c r="C684" s="2"/>
@@ -36380,7 +36381,7 @@
       <c r="AW684" s="2"/>
       <c r="AX684" s="2"/>
     </row>
-    <row r="685" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A685" s="2"/>
       <c r="B685" s="2"/>
       <c r="C685" s="2"/>
@@ -36432,7 +36433,7 @@
       <c r="AW685" s="2"/>
       <c r="AX685" s="2"/>
     </row>
-    <row r="686" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A686" s="2"/>
       <c r="B686" s="2"/>
       <c r="C686" s="2"/>
@@ -36484,7 +36485,7 @@
       <c r="AW686" s="2"/>
       <c r="AX686" s="2"/>
     </row>
-    <row r="687" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A687" s="2"/>
       <c r="B687" s="2"/>
       <c r="C687" s="2"/>
@@ -36536,7 +36537,7 @@
       <c r="AW687" s="2"/>
       <c r="AX687" s="2"/>
     </row>
-    <row r="688" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A688" s="2"/>
       <c r="B688" s="2"/>
       <c r="C688" s="2"/>
@@ -36588,7 +36589,7 @@
       <c r="AW688" s="2"/>
       <c r="AX688" s="2"/>
     </row>
-    <row r="689" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A689" s="2"/>
       <c r="B689" s="2"/>
       <c r="C689" s="2"/>
@@ -36640,7 +36641,7 @@
       <c r="AW689" s="2"/>
       <c r="AX689" s="2"/>
     </row>
-    <row r="690" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A690" s="2"/>
       <c r="B690" s="2"/>
       <c r="C690" s="2"/>
@@ -36692,7 +36693,7 @@
       <c r="AW690" s="2"/>
       <c r="AX690" s="2"/>
     </row>
-    <row r="691" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A691" s="2"/>
       <c r="B691" s="2"/>
       <c r="C691" s="2"/>
@@ -36744,7 +36745,7 @@
       <c r="AW691" s="2"/>
       <c r="AX691" s="2"/>
     </row>
-    <row r="692" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A692" s="2"/>
       <c r="B692" s="2"/>
       <c r="C692" s="2"/>
@@ -36796,7 +36797,7 @@
       <c r="AW692" s="2"/>
       <c r="AX692" s="2"/>
     </row>
-    <row r="693" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A693" s="2"/>
       <c r="B693" s="2"/>
       <c r="C693" s="2"/>
@@ -36848,7 +36849,7 @@
       <c r="AW693" s="2"/>
       <c r="AX693" s="2"/>
     </row>
-    <row r="694" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A694" s="2"/>
       <c r="B694" s="2"/>
       <c r="C694" s="2"/>
@@ -36900,7 +36901,7 @@
       <c r="AW694" s="2"/>
       <c r="AX694" s="2"/>
     </row>
-    <row r="695" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A695" s="2"/>
       <c r="B695" s="2"/>
       <c r="C695" s="2"/>
@@ -36952,7 +36953,7 @@
       <c r="AW695" s="2"/>
       <c r="AX695" s="2"/>
     </row>
-    <row r="696" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A696" s="2"/>
       <c r="B696" s="2"/>
       <c r="C696" s="2"/>
@@ -37004,7 +37005,7 @@
       <c r="AW696" s="2"/>
       <c r="AX696" s="2"/>
     </row>
-    <row r="697" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A697" s="2"/>
       <c r="B697" s="2"/>
       <c r="C697" s="2"/>
@@ -37056,7 +37057,7 @@
       <c r="AW697" s="2"/>
       <c r="AX697" s="2"/>
     </row>
-    <row r="698" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A698" s="2"/>
       <c r="B698" s="2"/>
       <c r="C698" s="2"/>
@@ -37108,7 +37109,7 @@
       <c r="AW698" s="2"/>
       <c r="AX698" s="2"/>
     </row>
-    <row r="699" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A699" s="2"/>
       <c r="B699" s="2"/>
       <c r="C699" s="2"/>
@@ -37160,7 +37161,7 @@
       <c r="AW699" s="2"/>
       <c r="AX699" s="2"/>
     </row>
-    <row r="700" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A700" s="2"/>
       <c r="B700" s="2"/>
       <c r="C700" s="2"/>
@@ -37212,7 +37213,7 @@
       <c r="AW700" s="2"/>
       <c r="AX700" s="2"/>
     </row>
-    <row r="701" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="701" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A701" s="2"/>
       <c r="B701" s="2"/>
       <c r="C701" s="2"/>
@@ -37264,7 +37265,7 @@
       <c r="AW701" s="2"/>
       <c r="AX701" s="2"/>
     </row>
-    <row r="702" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="702" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A702" s="2"/>
       <c r="B702" s="2"/>
       <c r="C702" s="2"/>
@@ -37316,7 +37317,7 @@
       <c r="AW702" s="2"/>
       <c r="AX702" s="2"/>
     </row>
-    <row r="703" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="703" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A703" s="2"/>
       <c r="B703" s="2"/>
       <c r="C703" s="2"/>
@@ -37368,7 +37369,7 @@
       <c r="AW703" s="2"/>
       <c r="AX703" s="2"/>
     </row>
-    <row r="704" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="704" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A704" s="2"/>
       <c r="B704" s="2"/>
       <c r="C704" s="2"/>
@@ -37420,7 +37421,7 @@
       <c r="AW704" s="2"/>
       <c r="AX704" s="2"/>
     </row>
-    <row r="705" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="705" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A705" s="2"/>
       <c r="B705" s="2"/>
       <c r="C705" s="2"/>
@@ -37472,7 +37473,7 @@
       <c r="AW705" s="2"/>
       <c r="AX705" s="2"/>
     </row>
-    <row r="706" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="706" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A706" s="2"/>
       <c r="B706" s="2"/>
       <c r="C706" s="2"/>
@@ -37524,7 +37525,7 @@
       <c r="AW706" s="2"/>
       <c r="AX706" s="2"/>
     </row>
-    <row r="707" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="707" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A707" s="2"/>
       <c r="B707" s="2"/>
       <c r="C707" s="2"/>
@@ -37576,7 +37577,7 @@
       <c r="AW707" s="2"/>
       <c r="AX707" s="2"/>
     </row>
-    <row r="708" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="708" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A708" s="2"/>
       <c r="B708" s="2"/>
       <c r="C708" s="2"/>
@@ -37628,7 +37629,7 @@
       <c r="AW708" s="2"/>
       <c r="AX708" s="2"/>
     </row>
-    <row r="709" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="709" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A709" s="2"/>
       <c r="B709" s="2"/>
       <c r="C709" s="2"/>
@@ -37680,7 +37681,7 @@
       <c r="AW709" s="2"/>
       <c r="AX709" s="2"/>
     </row>
-    <row r="710" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="710" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A710" s="2"/>
       <c r="B710" s="2"/>
       <c r="C710" s="2"/>
@@ -37732,7 +37733,7 @@
       <c r="AW710" s="2"/>
       <c r="AX710" s="2"/>
     </row>
-    <row r="711" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="711" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A711" s="2"/>
       <c r="B711" s="2"/>
       <c r="C711" s="2"/>
@@ -37784,7 +37785,7 @@
       <c r="AW711" s="2"/>
       <c r="AX711" s="2"/>
     </row>
-    <row r="712" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="712" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A712" s="2"/>
       <c r="B712" s="2"/>
       <c r="C712" s="2"/>
@@ -37836,7 +37837,7 @@
       <c r="AW712" s="2"/>
       <c r="AX712" s="2"/>
     </row>
-    <row r="713" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="713" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A713" s="2"/>
       <c r="B713" s="2"/>
       <c r="C713" s="2"/>
@@ -37888,7 +37889,7 @@
       <c r="AW713" s="2"/>
       <c r="AX713" s="2"/>
     </row>
-    <row r="714" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="714" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A714" s="2"/>
       <c r="B714" s="2"/>
       <c r="C714" s="2"/>
@@ -37940,7 +37941,7 @@
       <c r="AW714" s="2"/>
       <c r="AX714" s="2"/>
     </row>
-    <row r="715" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="715" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A715" s="2"/>
       <c r="B715" s="2"/>
       <c r="C715" s="2"/>
@@ -37992,7 +37993,7 @@
       <c r="AW715" s="2"/>
       <c r="AX715" s="2"/>
     </row>
-    <row r="716" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="716" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A716" s="2"/>
       <c r="B716" s="2"/>
       <c r="C716" s="2"/>
@@ -38044,7 +38045,7 @@
       <c r="AW716" s="2"/>
       <c r="AX716" s="2"/>
     </row>
-    <row r="717" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="717" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A717" s="2"/>
       <c r="B717" s="2"/>
       <c r="C717" s="2"/>
@@ -38096,7 +38097,7 @@
       <c r="AW717" s="2"/>
       <c r="AX717" s="2"/>
     </row>
-    <row r="718" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="718" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A718" s="2"/>
       <c r="B718" s="2"/>
       <c r="C718" s="2"/>
@@ -38148,7 +38149,7 @@
       <c r="AW718" s="2"/>
       <c r="AX718" s="2"/>
     </row>
-    <row r="719" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="719" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A719" s="2"/>
       <c r="B719" s="2"/>
       <c r="C719" s="2"/>
@@ -38200,7 +38201,7 @@
       <c r="AW719" s="2"/>
       <c r="AX719" s="2"/>
     </row>
-    <row r="720" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="720" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A720" s="2"/>
       <c r="B720" s="2"/>
       <c r="C720" s="2"/>
@@ -38252,7 +38253,7 @@
       <c r="AW720" s="2"/>
       <c r="AX720" s="2"/>
     </row>
-    <row r="721" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="721" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A721" s="2"/>
       <c r="B721" s="2"/>
       <c r="C721" s="2"/>
@@ -38304,7 +38305,7 @@
       <c r="AW721" s="2"/>
       <c r="AX721" s="2"/>
     </row>
-    <row r="722" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="722" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A722" s="2"/>
       <c r="B722" s="2"/>
       <c r="C722" s="2"/>
@@ -38356,7 +38357,7 @@
       <c r="AW722" s="2"/>
       <c r="AX722" s="2"/>
     </row>
-    <row r="723" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="723" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A723" s="2"/>
       <c r="B723" s="2"/>
       <c r="C723" s="2"/>
@@ -38408,7 +38409,7 @@
       <c r="AW723" s="2"/>
       <c r="AX723" s="2"/>
     </row>
-    <row r="724" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="724" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A724" s="2"/>
       <c r="B724" s="2"/>
       <c r="C724" s="2"/>
@@ -38460,7 +38461,7 @@
       <c r="AW724" s="2"/>
       <c r="AX724" s="2"/>
     </row>
-    <row r="725" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="725" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A725" s="2"/>
       <c r="B725" s="2"/>
       <c r="C725" s="2"/>
@@ -38512,7 +38513,7 @@
       <c r="AW725" s="2"/>
       <c r="AX725" s="2"/>
     </row>
-    <row r="726" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="726" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A726" s="2"/>
       <c r="B726" s="2"/>
       <c r="C726" s="2"/>
@@ -38564,7 +38565,7 @@
       <c r="AW726" s="2"/>
       <c r="AX726" s="2"/>
     </row>
-    <row r="727" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="727" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A727" s="2"/>
       <c r="B727" s="2"/>
       <c r="C727" s="2"/>
@@ -38616,7 +38617,7 @@
       <c r="AW727" s="2"/>
       <c r="AX727" s="2"/>
     </row>
-    <row r="728" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="728" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A728" s="2"/>
       <c r="B728" s="2"/>
       <c r="C728" s="2"/>
@@ -38668,7 +38669,7 @@
       <c r="AW728" s="2"/>
       <c r="AX728" s="2"/>
     </row>
-    <row r="729" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="729" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A729" s="2"/>
       <c r="B729" s="2"/>
       <c r="C729" s="2"/>
@@ -38720,7 +38721,7 @@
       <c r="AW729" s="2"/>
       <c r="AX729" s="2"/>
     </row>
-    <row r="730" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="730" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A730" s="2"/>
       <c r="B730" s="2"/>
       <c r="C730" s="2"/>
@@ -38772,7 +38773,7 @@
       <c r="AW730" s="2"/>
       <c r="AX730" s="2"/>
     </row>
-    <row r="731" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="731" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A731" s="2"/>
       <c r="B731" s="2"/>
       <c r="C731" s="2"/>
@@ -38824,7 +38825,7 @@
       <c r="AW731" s="2"/>
       <c r="AX731" s="2"/>
     </row>
-    <row r="732" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="732" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A732" s="2"/>
       <c r="B732" s="2"/>
       <c r="C732" s="2"/>
@@ -38876,7 +38877,7 @@
       <c r="AW732" s="2"/>
       <c r="AX732" s="2"/>
     </row>
-    <row r="733" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="733" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A733" s="2"/>
       <c r="B733" s="2"/>
       <c r="C733" s="2"/>
@@ -38928,7 +38929,7 @@
       <c r="AW733" s="2"/>
       <c r="AX733" s="2"/>
     </row>
-    <row r="734" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="734" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A734" s="2"/>
       <c r="B734" s="2"/>
       <c r="C734" s="2"/>
@@ -38980,7 +38981,7 @@
       <c r="AW734" s="2"/>
       <c r="AX734" s="2"/>
     </row>
-    <row r="735" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="735" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A735" s="2"/>
       <c r="B735" s="2"/>
       <c r="C735" s="2"/>
@@ -39032,7 +39033,7 @@
       <c r="AW735" s="2"/>
       <c r="AX735" s="2"/>
     </row>
-    <row r="736" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="736" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A736" s="2"/>
       <c r="B736" s="2"/>
       <c r="C736" s="2"/>
@@ -39084,7 +39085,7 @@
       <c r="AW736" s="2"/>
       <c r="AX736" s="2"/>
     </row>
-    <row r="737" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="737" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A737" s="2"/>
       <c r="B737" s="2"/>
       <c r="C737" s="2"/>
@@ -39136,7 +39137,7 @@
       <c r="AW737" s="2"/>
       <c r="AX737" s="2"/>
     </row>
-    <row r="738" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="738" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A738" s="2"/>
       <c r="B738" s="2"/>
       <c r="C738" s="2"/>
@@ -39188,7 +39189,7 @@
       <c r="AW738" s="2"/>
       <c r="AX738" s="2"/>
     </row>
-    <row r="739" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="739" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A739" s="2"/>
       <c r="B739" s="2"/>
       <c r="C739" s="2"/>
@@ -39240,7 +39241,7 @@
       <c r="AW739" s="2"/>
       <c r="AX739" s="2"/>
     </row>
-    <row r="740" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="740" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A740" s="2"/>
       <c r="B740" s="2"/>
       <c r="C740" s="2"/>
@@ -39292,7 +39293,7 @@
       <c r="AW740" s="2"/>
       <c r="AX740" s="2"/>
     </row>
-    <row r="741" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="741" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A741" s="2"/>
       <c r="B741" s="2"/>
       <c r="C741" s="2"/>
@@ -39344,7 +39345,7 @@
       <c r="AW741" s="2"/>
       <c r="AX741" s="2"/>
     </row>
-    <row r="742" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="742" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A742" s="2"/>
       <c r="B742" s="2"/>
       <c r="C742" s="2"/>
@@ -39396,7 +39397,7 @@
       <c r="AW742" s="2"/>
       <c r="AX742" s="2"/>
     </row>
-    <row r="743" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="743" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A743" s="2"/>
       <c r="B743" s="2"/>
       <c r="C743" s="2"/>
@@ -39448,7 +39449,7 @@
       <c r="AW743" s="2"/>
       <c r="AX743" s="2"/>
     </row>
-    <row r="744" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="744" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A744" s="2"/>
       <c r="B744" s="2"/>
       <c r="C744" s="2"/>
@@ -39500,7 +39501,7 @@
       <c r="AW744" s="2"/>
       <c r="AX744" s="2"/>
     </row>
-    <row r="745" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="745" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A745" s="2"/>
       <c r="B745" s="2"/>
       <c r="C745" s="2"/>
@@ -39552,7 +39553,7 @@
       <c r="AW745" s="2"/>
       <c r="AX745" s="2"/>
     </row>
-    <row r="746" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="746" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A746" s="2"/>
       <c r="B746" s="2"/>
       <c r="C746" s="2"/>
@@ -39604,7 +39605,7 @@
       <c r="AW746" s="2"/>
       <c r="AX746" s="2"/>
     </row>
-    <row r="747" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="747" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A747" s="2"/>
       <c r="B747" s="2"/>
       <c r="C747" s="2"/>
@@ -39656,7 +39657,7 @@
       <c r="AW747" s="2"/>
       <c r="AX747" s="2"/>
     </row>
-    <row r="748" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="748" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A748" s="2"/>
       <c r="B748" s="2"/>
       <c r="C748" s="2"/>
@@ -39708,7 +39709,7 @@
       <c r="AW748" s="2"/>
       <c r="AX748" s="2"/>
     </row>
-    <row r="749" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="749" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A749" s="2"/>
       <c r="B749" s="2"/>
       <c r="C749" s="2"/>
@@ -39760,7 +39761,7 @@
       <c r="AW749" s="2"/>
       <c r="AX749" s="2"/>
     </row>
-    <row r="750" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="750" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A750" s="2"/>
       <c r="B750" s="2"/>
       <c r="C750" s="2"/>
@@ -39812,7 +39813,7 @@
       <c r="AW750" s="2"/>
       <c r="AX750" s="2"/>
     </row>
-    <row r="751" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="751" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A751" s="2"/>
       <c r="B751" s="2"/>
       <c r="C751" s="2"/>
@@ -39864,7 +39865,7 @@
       <c r="AW751" s="2"/>
       <c r="AX751" s="2"/>
     </row>
-    <row r="752" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="752" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A752" s="2"/>
       <c r="B752" s="2"/>
       <c r="C752" s="2"/>
@@ -39916,7 +39917,7 @@
       <c r="AW752" s="2"/>
       <c r="AX752" s="2"/>
     </row>
-    <row r="753" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="753" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A753" s="2"/>
       <c r="B753" s="2"/>
       <c r="C753" s="2"/>
@@ -39968,7 +39969,7 @@
       <c r="AW753" s="2"/>
       <c r="AX753" s="2"/>
     </row>
-    <row r="754" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="754" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A754" s="2"/>
       <c r="B754" s="2"/>
       <c r="C754" s="2"/>
@@ -40020,7 +40021,7 @@
       <c r="AW754" s="2"/>
       <c r="AX754" s="2"/>
     </row>
-    <row r="755" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="755" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A755" s="2"/>
       <c r="B755" s="2"/>
       <c r="C755" s="2"/>
@@ -40072,7 +40073,7 @@
       <c r="AW755" s="2"/>
       <c r="AX755" s="2"/>
     </row>
-    <row r="756" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="756" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A756" s="2"/>
       <c r="B756" s="2"/>
       <c r="C756" s="2"/>
@@ -40124,7 +40125,7 @@
       <c r="AW756" s="2"/>
       <c r="AX756" s="2"/>
     </row>
-    <row r="757" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="757" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A757" s="2"/>
       <c r="B757" s="2"/>
       <c r="C757" s="2"/>
@@ -40176,7 +40177,7 @@
       <c r="AW757" s="2"/>
       <c r="AX757" s="2"/>
     </row>
-    <row r="758" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="758" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A758" s="2"/>
       <c r="B758" s="2"/>
       <c r="C758" s="2"/>
@@ -40228,7 +40229,7 @@
       <c r="AW758" s="2"/>
       <c r="AX758" s="2"/>
     </row>
-    <row r="759" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="759" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A759" s="2"/>
       <c r="B759" s="2"/>
       <c r="C759" s="2"/>
@@ -40280,7 +40281,7 @@
       <c r="AW759" s="2"/>
       <c r="AX759" s="2"/>
     </row>
-    <row r="760" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="760" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A760" s="2"/>
       <c r="B760" s="2"/>
       <c r="C760" s="2"/>
@@ -40332,7 +40333,7 @@
       <c r="AW760" s="2"/>
       <c r="AX760" s="2"/>
     </row>
-    <row r="761" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="761" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A761" s="2"/>
       <c r="B761" s="2"/>
       <c r="C761" s="2"/>
@@ -40384,7 +40385,7 @@
       <c r="AW761" s="2"/>
       <c r="AX761" s="2"/>
     </row>
-    <row r="762" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="762" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A762" s="2"/>
       <c r="B762" s="2"/>
       <c r="C762" s="2"/>
@@ -40436,7 +40437,7 @@
       <c r="AW762" s="2"/>
       <c r="AX762" s="2"/>
     </row>
-    <row r="763" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="763" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A763" s="2"/>
       <c r="B763" s="2"/>
       <c r="C763" s="2"/>
@@ -40488,7 +40489,7 @@
       <c r="AW763" s="2"/>
       <c r="AX763" s="2"/>
     </row>
-    <row r="764" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="764" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A764" s="2"/>
       <c r="B764" s="2"/>
       <c r="C764" s="2"/>
@@ -40540,7 +40541,7 @@
       <c r="AW764" s="2"/>
       <c r="AX764" s="2"/>
     </row>
-    <row r="765" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="765" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A765" s="2"/>
       <c r="B765" s="2"/>
       <c r="C765" s="2"/>
@@ -40592,7 +40593,7 @@
       <c r="AW765" s="2"/>
       <c r="AX765" s="2"/>
     </row>
-    <row r="766" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="766" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A766" s="2"/>
       <c r="B766" s="2"/>
       <c r="C766" s="2"/>
@@ -40644,7 +40645,7 @@
       <c r="AW766" s="2"/>
       <c r="AX766" s="2"/>
     </row>
-    <row r="767" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="767" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A767" s="2"/>
       <c r="B767" s="2"/>
       <c r="C767" s="2"/>
@@ -40696,7 +40697,7 @@
       <c r="AW767" s="2"/>
       <c r="AX767" s="2"/>
     </row>
-    <row r="768" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="768" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A768" s="2"/>
       <c r="B768" s="2"/>
       <c r="C768" s="2"/>
@@ -40748,7 +40749,7 @@
       <c r="AW768" s="2"/>
       <c r="AX768" s="2"/>
     </row>
-    <row r="769" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="769" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A769" s="2"/>
       <c r="B769" s="2"/>
       <c r="C769" s="2"/>
@@ -40800,7 +40801,7 @@
       <c r="AW769" s="2"/>
       <c r="AX769" s="2"/>
     </row>
-    <row r="770" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="770" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A770" s="2"/>
       <c r="B770" s="2"/>
       <c r="C770" s="2"/>
@@ -40852,7 +40853,7 @@
       <c r="AW770" s="2"/>
       <c r="AX770" s="2"/>
     </row>
-    <row r="771" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="771" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A771" s="2"/>
       <c r="B771" s="2"/>
       <c r="C771" s="2"/>
@@ -40904,7 +40905,7 @@
       <c r="AW771" s="2"/>
       <c r="AX771" s="2"/>
     </row>
-    <row r="772" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="772" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A772" s="2"/>
       <c r="B772" s="2"/>
       <c r="C772" s="2"/>
@@ -40956,7 +40957,7 @@
       <c r="AW772" s="2"/>
       <c r="AX772" s="2"/>
     </row>
-    <row r="773" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="773" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A773" s="2"/>
       <c r="B773" s="2"/>
       <c r="C773" s="2"/>
@@ -41008,7 +41009,7 @@
       <c r="AW773" s="2"/>
       <c r="AX773" s="2"/>
     </row>
-    <row r="774" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="774" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A774" s="2"/>
       <c r="B774" s="2"/>
       <c r="C774" s="2"/>
@@ -41060,7 +41061,7 @@
       <c r="AW774" s="2"/>
       <c r="AX774" s="2"/>
     </row>
-    <row r="775" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="775" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A775" s="2"/>
       <c r="B775" s="2"/>
       <c r="C775" s="2"/>
@@ -41112,7 +41113,7 @@
       <c r="AW775" s="2"/>
       <c r="AX775" s="2"/>
     </row>
-    <row r="776" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="776" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A776" s="2"/>
       <c r="B776" s="2"/>
       <c r="C776" s="2"/>
@@ -41164,7 +41165,7 @@
       <c r="AW776" s="2"/>
       <c r="AX776" s="2"/>
     </row>
-    <row r="777" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="777" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A777" s="2"/>
       <c r="B777" s="2"/>
       <c r="C777" s="2"/>
@@ -41216,7 +41217,7 @@
       <c r="AW777" s="2"/>
       <c r="AX777" s="2"/>
     </row>
-    <row r="778" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="778" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A778" s="2"/>
       <c r="B778" s="2"/>
       <c r="C778" s="2"/>
@@ -41268,7 +41269,7 @@
       <c r="AW778" s="2"/>
       <c r="AX778" s="2"/>
     </row>
-    <row r="779" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="779" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A779" s="2"/>
       <c r="B779" s="2"/>
       <c r="C779" s="2"/>
@@ -41320,7 +41321,7 @@
       <c r="AW779" s="2"/>
       <c r="AX779" s="2"/>
     </row>
-    <row r="780" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="780" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A780" s="2"/>
       <c r="B780" s="2"/>
       <c r="C780" s="2"/>
@@ -41372,7 +41373,7 @@
       <c r="AW780" s="2"/>
       <c r="AX780" s="2"/>
     </row>
-    <row r="781" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="781" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A781" s="2"/>
       <c r="B781" s="2"/>
       <c r="C781" s="2"/>
@@ -41424,7 +41425,7 @@
       <c r="AW781" s="2"/>
       <c r="AX781" s="2"/>
     </row>
-    <row r="782" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="782" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A782" s="2"/>
       <c r="B782" s="2"/>
       <c r="C782" s="2"/>
@@ -41476,7 +41477,7 @@
       <c r="AW782" s="2"/>
       <c r="AX782" s="2"/>
     </row>
-    <row r="783" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="783" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A783" s="2"/>
       <c r="B783" s="2"/>
       <c r="C783" s="2"/>
@@ -41528,7 +41529,7 @@
       <c r="AW783" s="2"/>
       <c r="AX783" s="2"/>
     </row>
-    <row r="784" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="784" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A784" s="2"/>
       <c r="B784" s="2"/>
       <c r="C784" s="2"/>
@@ -41580,7 +41581,7 @@
       <c r="AW784" s="2"/>
       <c r="AX784" s="2"/>
     </row>
-    <row r="785" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="785" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A785" s="2"/>
       <c r="B785" s="2"/>
       <c r="C785" s="2"/>
@@ -41632,7 +41633,7 @@
       <c r="AW785" s="2"/>
       <c r="AX785" s="2"/>
     </row>
-    <row r="786" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="786" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A786" s="2"/>
       <c r="B786" s="2"/>
       <c r="C786" s="2"/>
@@ -41684,7 +41685,7 @@
       <c r="AW786" s="2"/>
       <c r="AX786" s="2"/>
     </row>
-    <row r="787" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="787" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A787" s="2"/>
       <c r="B787" s="2"/>
       <c r="C787" s="2"/>
@@ -41736,7 +41737,7 @@
       <c r="AW787" s="2"/>
       <c r="AX787" s="2"/>
     </row>
-    <row r="788" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="788" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A788" s="2"/>
       <c r="B788" s="2"/>
       <c r="C788" s="2"/>
@@ -41788,7 +41789,7 @@
       <c r="AW788" s="2"/>
       <c r="AX788" s="2"/>
     </row>
-    <row r="789" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="789" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A789" s="2"/>
       <c r="B789" s="2"/>
       <c r="C789" s="2"/>
@@ -41840,7 +41841,7 @@
       <c r="AW789" s="2"/>
       <c r="AX789" s="2"/>
     </row>
-    <row r="790" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="790" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A790" s="2"/>
       <c r="B790" s="2"/>
       <c r="C790" s="2"/>
@@ -41892,7 +41893,7 @@
       <c r="AW790" s="2"/>
       <c r="AX790" s="2"/>
     </row>
-    <row r="791" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="791" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A791" s="2"/>
       <c r="B791" s="2"/>
       <c r="C791" s="2"/>
@@ -41944,7 +41945,7 @@
       <c r="AW791" s="2"/>
       <c r="AX791" s="2"/>
     </row>
-    <row r="792" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="792" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A792" s="2"/>
       <c r="B792" s="2"/>
       <c r="C792" s="2"/>
@@ -41996,7 +41997,7 @@
       <c r="AW792" s="2"/>
       <c r="AX792" s="2"/>
     </row>
-    <row r="793" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="793" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A793" s="2"/>
       <c r="B793" s="2"/>
       <c r="C793" s="2"/>
@@ -42048,7 +42049,7 @@
       <c r="AW793" s="2"/>
       <c r="AX793" s="2"/>
     </row>
-    <row r="794" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="794" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A794" s="2"/>
       <c r="B794" s="2"/>
       <c r="C794" s="2"/>
@@ -42100,7 +42101,7 @@
       <c r="AW794" s="2"/>
       <c r="AX794" s="2"/>
     </row>
-    <row r="795" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="795" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A795" s="2"/>
       <c r="B795" s="2"/>
       <c r="C795" s="2"/>
@@ -42152,7 +42153,7 @@
       <c r="AW795" s="2"/>
       <c r="AX795" s="2"/>
     </row>
-    <row r="796" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="796" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A796" s="2"/>
       <c r="B796" s="2"/>
       <c r="C796" s="2"/>
@@ -42204,7 +42205,7 @@
       <c r="AW796" s="2"/>
       <c r="AX796" s="2"/>
     </row>
-    <row r="797" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="797" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A797" s="2"/>
       <c r="B797" s="2"/>
       <c r="C797" s="2"/>
@@ -42256,7 +42257,7 @@
       <c r="AW797" s="2"/>
       <c r="AX797" s="2"/>
     </row>
-    <row r="798" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="798" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A798" s="2"/>
       <c r="B798" s="2"/>
       <c r="C798" s="2"/>
@@ -42308,7 +42309,7 @@
       <c r="AW798" s="2"/>
       <c r="AX798" s="2"/>
     </row>
-    <row r="799" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="799" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A799" s="2"/>
       <c r="B799" s="2"/>
       <c r="C799" s="2"/>
@@ -42360,7 +42361,7 @@
       <c r="AW799" s="2"/>
       <c r="AX799" s="2"/>
     </row>
-    <row r="800" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="800" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A800" s="2"/>
       <c r="B800" s="2"/>
       <c r="C800" s="2"/>
@@ -42412,7 +42413,7 @@
       <c r="AW800" s="2"/>
       <c r="AX800" s="2"/>
     </row>
-    <row r="801" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="801" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A801" s="2"/>
       <c r="B801" s="2"/>
       <c r="C801" s="2"/>
@@ -42464,7 +42465,7 @@
       <c r="AW801" s="2"/>
       <c r="AX801" s="2"/>
     </row>
-    <row r="802" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="802" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A802" s="2"/>
       <c r="B802" s="2"/>
       <c r="C802" s="2"/>
@@ -42516,7 +42517,7 @@
       <c r="AW802" s="2"/>
       <c r="AX802" s="2"/>
     </row>
-    <row r="803" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="803" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A803" s="2"/>
       <c r="B803" s="2"/>
       <c r="C803" s="2"/>
@@ -42568,7 +42569,7 @@
       <c r="AW803" s="2"/>
       <c r="AX803" s="2"/>
     </row>
-    <row r="804" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="804" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A804" s="2"/>
       <c r="B804" s="2"/>
       <c r="C804" s="2"/>
@@ -42620,7 +42621,7 @@
       <c r="AW804" s="2"/>
       <c r="AX804" s="2"/>
     </row>
-    <row r="805" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="805" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A805" s="2"/>
       <c r="B805" s="2"/>
       <c r="C805" s="2"/>
@@ -42672,7 +42673,7 @@
       <c r="AW805" s="2"/>
       <c r="AX805" s="2"/>
     </row>
-    <row r="806" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="806" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A806" s="2"/>
       <c r="B806" s="2"/>
       <c r="C806" s="2"/>
@@ -42724,7 +42725,7 @@
       <c r="AW806" s="2"/>
       <c r="AX806" s="2"/>
     </row>
-    <row r="807" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="807" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A807" s="2"/>
       <c r="B807" s="2"/>
       <c r="C807" s="2"/>
@@ -42776,7 +42777,7 @@
       <c r="AW807" s="2"/>
       <c r="AX807" s="2"/>
     </row>
-    <row r="808" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="808" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A808" s="2"/>
       <c r="B808" s="2"/>
       <c r="C808" s="2"/>
@@ -42828,7 +42829,7 @@
       <c r="AW808" s="2"/>
       <c r="AX808" s="2"/>
     </row>
-    <row r="809" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="809" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A809" s="2"/>
       <c r="B809" s="2"/>
       <c r="C809" s="2"/>
@@ -42880,7 +42881,7 @@
       <c r="AW809" s="2"/>
       <c r="AX809" s="2"/>
     </row>
-    <row r="810" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="810" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A810" s="2"/>
       <c r="B810" s="2"/>
       <c r="C810" s="2"/>
@@ -42932,7 +42933,7 @@
       <c r="AW810" s="2"/>
       <c r="AX810" s="2"/>
     </row>
-    <row r="811" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="811" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A811" s="2"/>
       <c r="B811" s="2"/>
       <c r="C811" s="2"/>
@@ -42984,7 +42985,7 @@
       <c r="AW811" s="2"/>
       <c r="AX811" s="2"/>
     </row>
-    <row r="812" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="812" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A812" s="2"/>
       <c r="B812" s="2"/>
       <c r="C812" s="2"/>
@@ -43036,7 +43037,7 @@
       <c r="AW812" s="2"/>
       <c r="AX812" s="2"/>
     </row>
-    <row r="813" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="813" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A813" s="2"/>
       <c r="B813" s="2"/>
       <c r="C813" s="2"/>
@@ -43088,7 +43089,7 @@
       <c r="AW813" s="2"/>
       <c r="AX813" s="2"/>
     </row>
-    <row r="814" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="814" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A814" s="2"/>
       <c r="B814" s="2"/>
       <c r="C814" s="2"/>
@@ -43140,7 +43141,7 @@
       <c r="AW814" s="2"/>
       <c r="AX814" s="2"/>
     </row>
-    <row r="815" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="815" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A815" s="2"/>
       <c r="B815" s="2"/>
       <c r="C815" s="2"/>
@@ -43192,7 +43193,7 @@
       <c r="AW815" s="2"/>
       <c r="AX815" s="2"/>
     </row>
-    <row r="816" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="816" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A816" s="2"/>
       <c r="B816" s="2"/>
       <c r="C816" s="2"/>
@@ -43244,7 +43245,7 @@
       <c r="AW816" s="2"/>
       <c r="AX816" s="2"/>
     </row>
-    <row r="817" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="817" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A817" s="2"/>
       <c r="B817" s="2"/>
       <c r="C817" s="2"/>
@@ -43296,7 +43297,7 @@
       <c r="AW817" s="2"/>
       <c r="AX817" s="2"/>
     </row>
-    <row r="818" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="818" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A818" s="2"/>
       <c r="B818" s="2"/>
       <c r="C818" s="2"/>
@@ -43348,7 +43349,7 @@
       <c r="AW818" s="2"/>
       <c r="AX818" s="2"/>
     </row>
-    <row r="819" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="819" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A819" s="2"/>
       <c r="B819" s="2"/>
       <c r="C819" s="2"/>
@@ -43400,7 +43401,7 @@
       <c r="AW819" s="2"/>
       <c r="AX819" s="2"/>
     </row>
-    <row r="820" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="820" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A820" s="2"/>
       <c r="B820" s="2"/>
       <c r="C820" s="2"/>
@@ -43452,7 +43453,7 @@
       <c r="AW820" s="2"/>
       <c r="AX820" s="2"/>
     </row>
-    <row r="821" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="821" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A821" s="2"/>
       <c r="B821" s="2"/>
       <c r="C821" s="2"/>
@@ -43504,7 +43505,7 @@
       <c r="AW821" s="2"/>
       <c r="AX821" s="2"/>
     </row>
-    <row r="822" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="822" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A822" s="2"/>
       <c r="B822" s="2"/>
       <c r="C822" s="2"/>
@@ -43556,7 +43557,7 @@
       <c r="AW822" s="2"/>
       <c r="AX822" s="2"/>
     </row>
-    <row r="823" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="823" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A823" s="2"/>
       <c r="B823" s="2"/>
       <c r="C823" s="2"/>
@@ -43608,7 +43609,7 @@
       <c r="AW823" s="2"/>
       <c r="AX823" s="2"/>
     </row>
-    <row r="824" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="824" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A824" s="2"/>
       <c r="B824" s="2"/>
       <c r="C824" s="2"/>
@@ -43660,7 +43661,7 @@
       <c r="AW824" s="2"/>
       <c r="AX824" s="2"/>
     </row>
-    <row r="825" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="825" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A825" s="2"/>
       <c r="B825" s="2"/>
       <c r="C825" s="2"/>
@@ -43712,7 +43713,7 @@
       <c r="AW825" s="2"/>
       <c r="AX825" s="2"/>
     </row>
-    <row r="826" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="826" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A826" s="2"/>
       <c r="B826" s="2"/>
       <c r="C826" s="2"/>
@@ -43764,7 +43765,7 @@
       <c r="AW826" s="2"/>
       <c r="AX826" s="2"/>
     </row>
-    <row r="827" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="827" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A827" s="2"/>
       <c r="B827" s="2"/>
       <c r="C827" s="2"/>
@@ -43816,7 +43817,7 @@
       <c r="AW827" s="2"/>
       <c r="AX827" s="2"/>
     </row>
-    <row r="828" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="828" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A828" s="2"/>
       <c r="B828" s="2"/>
       <c r="C828" s="2"/>
@@ -43868,7 +43869,7 @@
       <c r="AW828" s="2"/>
       <c r="AX828" s="2"/>
     </row>
-    <row r="829" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="829" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A829" s="2"/>
       <c r="B829" s="2"/>
       <c r="C829" s="2"/>
@@ -43920,7 +43921,7 @@
       <c r="AW829" s="2"/>
       <c r="AX829" s="2"/>
     </row>
-    <row r="830" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="830" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A830" s="2"/>
       <c r="B830" s="2"/>
       <c r="C830" s="2"/>
@@ -43972,7 +43973,7 @@
       <c r="AW830" s="2"/>
       <c r="AX830" s="2"/>
     </row>
-    <row r="831" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="831" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A831" s="2"/>
       <c r="B831" s="2"/>
       <c r="C831" s="2"/>
@@ -44024,7 +44025,7 @@
       <c r="AW831" s="2"/>
       <c r="AX831" s="2"/>
     </row>
-    <row r="832" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="832" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A832" s="2"/>
       <c r="B832" s="2"/>
       <c r="C832" s="2"/>
@@ -44076,7 +44077,7 @@
       <c r="AW832" s="2"/>
       <c r="AX832" s="2"/>
     </row>
-    <row r="833" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="833" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A833" s="2"/>
       <c r="B833" s="2"/>
       <c r="C833" s="2"/>
@@ -44128,7 +44129,7 @@
       <c r="AW833" s="2"/>
       <c r="AX833" s="2"/>
     </row>
-    <row r="834" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="834" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A834" s="2"/>
       <c r="B834" s="2"/>
       <c r="C834" s="2"/>
@@ -44180,7 +44181,7 @@
       <c r="AW834" s="2"/>
       <c r="AX834" s="2"/>
     </row>
-    <row r="835" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="835" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A835" s="2"/>
       <c r="B835" s="2"/>
       <c r="C835" s="2"/>
@@ -44232,7 +44233,7 @@
       <c r="AW835" s="2"/>
       <c r="AX835" s="2"/>
     </row>
-    <row r="836" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="836" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A836" s="2"/>
       <c r="B836" s="2"/>
       <c r="C836" s="2"/>
@@ -44284,7 +44285,7 @@
       <c r="AW836" s="2"/>
       <c r="AX836" s="2"/>
     </row>
-    <row r="837" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="837" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A837" s="2"/>
       <c r="B837" s="2"/>
       <c r="C837" s="2"/>
@@ -44336,7 +44337,7 @@
       <c r="AW837" s="2"/>
       <c r="AX837" s="2"/>
     </row>
-    <row r="838" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="838" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A838" s="2"/>
       <c r="B838" s="2"/>
       <c r="C838" s="2"/>
@@ -44388,7 +44389,7 @@
       <c r="AW838" s="2"/>
       <c r="AX838" s="2"/>
     </row>
-    <row r="839" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="839" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A839" s="2"/>
       <c r="B839" s="2"/>
       <c r="C839" s="2"/>
@@ -44440,7 +44441,7 @@
       <c r="AW839" s="2"/>
       <c r="AX839" s="2"/>
     </row>
-    <row r="840" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="840" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A840" s="2"/>
       <c r="B840" s="2"/>
       <c r="C840" s="2"/>
@@ -44492,7 +44493,7 @@
       <c r="AW840" s="2"/>
       <c r="AX840" s="2"/>
     </row>
-    <row r="841" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="841" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A841" s="2"/>
       <c r="B841" s="2"/>
       <c r="C841" s="2"/>
@@ -44544,7 +44545,7 @@
       <c r="AW841" s="2"/>
       <c r="AX841" s="2"/>
     </row>
-    <row r="842" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="842" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A842" s="2"/>
       <c r="B842" s="2"/>
       <c r="C842" s="2"/>
@@ -44596,7 +44597,7 @@
       <c r="AW842" s="2"/>
       <c r="AX842" s="2"/>
     </row>
-    <row r="843" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="843" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A843" s="2"/>
       <c r="B843" s="2"/>
       <c r="C843" s="2"/>
@@ -44648,7 +44649,7 @@
       <c r="AW843" s="2"/>
       <c r="AX843" s="2"/>
     </row>
-    <row r="844" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="844" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A844" s="2"/>
       <c r="B844" s="2"/>
       <c r="C844" s="2"/>
@@ -44700,7 +44701,7 @@
       <c r="AW844" s="2"/>
       <c r="AX844" s="2"/>
     </row>
-    <row r="845" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="845" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A845" s="2"/>
       <c r="B845" s="2"/>
       <c r="C845" s="2"/>
@@ -44752,7 +44753,7 @@
       <c r="AW845" s="2"/>
       <c r="AX845" s="2"/>
     </row>
-    <row r="846" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="846" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A846" s="2"/>
       <c r="B846" s="2"/>
       <c r="C846" s="2"/>
@@ -44804,7 +44805,7 @@
       <c r="AW846" s="2"/>
       <c r="AX846" s="2"/>
     </row>
-    <row r="847" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="847" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A847" s="2"/>
       <c r="B847" s="2"/>
       <c r="C847" s="2"/>
@@ -44856,7 +44857,7 @@
       <c r="AW847" s="2"/>
       <c r="AX847" s="2"/>
     </row>
-    <row r="848" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="848" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A848" s="2"/>
       <c r="B848" s="2"/>
       <c r="C848" s="2"/>
@@ -44908,7 +44909,7 @@
       <c r="AW848" s="2"/>
       <c r="AX848" s="2"/>
     </row>
-    <row r="849" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="849" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A849" s="2"/>
       <c r="B849" s="2"/>
       <c r="C849" s="2"/>
@@ -44960,7 +44961,7 @@
       <c r="AW849" s="2"/>
       <c r="AX849" s="2"/>
     </row>
-    <row r="850" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="850" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A850" s="2"/>
       <c r="B850" s="2"/>
       <c r="C850" s="2"/>
@@ -45012,7 +45013,7 @@
       <c r="AW850" s="2"/>
       <c r="AX850" s="2"/>
     </row>
-    <row r="851" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="851" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A851" s="2"/>
       <c r="B851" s="2"/>
       <c r="C851" s="2"/>
@@ -45064,7 +45065,7 @@
       <c r="AW851" s="2"/>
       <c r="AX851" s="2"/>
     </row>
-    <row r="852" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="852" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A852" s="2"/>
       <c r="B852" s="2"/>
       <c r="C852" s="2"/>
@@ -45116,7 +45117,7 @@
       <c r="AW852" s="2"/>
       <c r="AX852" s="2"/>
     </row>
-    <row r="853" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="853" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A853" s="2"/>
       <c r="B853" s="2"/>
       <c r="C853" s="2"/>
@@ -45168,7 +45169,7 @@
       <c r="AW853" s="2"/>
       <c r="AX853" s="2"/>
     </row>
-    <row r="854" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="854" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A854" s="2"/>
       <c r="B854" s="2"/>
       <c r="C854" s="2"/>
@@ -45220,7 +45221,7 @@
       <c r="AW854" s="2"/>
       <c r="AX854" s="2"/>
     </row>
-    <row r="855" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="855" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A855" s="2"/>
       <c r="B855" s="2"/>
       <c r="C855" s="2"/>
@@ -45272,7 +45273,7 @@
       <c r="AW855" s="2"/>
       <c r="AX855" s="2"/>
     </row>
-    <row r="856" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="856" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A856" s="2"/>
       <c r="B856" s="2"/>
       <c r="C856" s="2"/>
@@ -45324,7 +45325,7 @@
       <c r="AW856" s="2"/>
       <c r="AX856" s="2"/>
     </row>
-    <row r="857" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="857" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A857" s="2"/>
       <c r="B857" s="2"/>
       <c r="C857" s="2"/>
@@ -45376,7 +45377,7 @@
       <c r="AW857" s="2"/>
       <c r="AX857" s="2"/>
     </row>
-    <row r="858" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="858" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A858" s="2"/>
       <c r="B858" s="2"/>
       <c r="C858" s="2"/>
@@ -45428,7 +45429,7 @@
       <c r="AW858" s="2"/>
       <c r="AX858" s="2"/>
     </row>
-    <row r="859" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="859" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A859" s="2"/>
       <c r="B859" s="2"/>
       <c r="C859" s="2"/>
@@ -45480,7 +45481,7 @@
       <c r="AW859" s="2"/>
       <c r="AX859" s="2"/>
     </row>
-    <row r="860" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="860" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A860" s="2"/>
       <c r="B860" s="2"/>
       <c r="C860" s="2"/>
@@ -45532,7 +45533,7 @@
       <c r="AW860" s="2"/>
       <c r="AX860" s="2"/>
     </row>
-    <row r="861" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="861" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A861" s="2"/>
       <c r="B861" s="2"/>
       <c r="C861" s="2"/>
@@ -45584,7 +45585,7 @@
       <c r="AW861" s="2"/>
       <c r="AX861" s="2"/>
     </row>
-    <row r="862" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="862" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A862" s="2"/>
       <c r="B862" s="2"/>
       <c r="C862" s="2"/>
@@ -45636,7 +45637,7 @@
       <c r="AW862" s="2"/>
       <c r="AX862" s="2"/>
     </row>
-    <row r="863" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="863" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A863" s="2"/>
       <c r="B863" s="2"/>
       <c r="C863" s="2"/>
@@ -45688,7 +45689,7 @@
       <c r="AW863" s="2"/>
       <c r="AX863" s="2"/>
     </row>
-    <row r="864" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="864" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A864" s="2"/>
       <c r="B864" s="2"/>
       <c r="C864" s="2"/>
@@ -45740,7 +45741,7 @@
       <c r="AW864" s="2"/>
       <c r="AX864" s="2"/>
     </row>
-    <row r="865" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="865" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A865" s="2"/>
       <c r="B865" s="2"/>
       <c r="C865" s="2"/>
@@ -45792,7 +45793,7 @@
       <c r="AW865" s="2"/>
       <c r="AX865" s="2"/>
     </row>
-    <row r="866" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="866" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A866" s="2"/>
       <c r="B866" s="2"/>
       <c r="C866" s="2"/>
@@ -45844,7 +45845,7 @@
       <c r="AW866" s="2"/>
       <c r="AX866" s="2"/>
     </row>
-    <row r="867" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="867" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A867" s="2"/>
       <c r="B867" s="2"/>
       <c r="C867" s="2"/>
@@ -45896,7 +45897,7 @@
       <c r="AW867" s="2"/>
       <c r="AX867" s="2"/>
     </row>
-    <row r="868" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="868" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A868" s="2"/>
       <c r="B868" s="2"/>
       <c r="C868" s="2"/>
@@ -45948,7 +45949,7 @@
       <c r="AW868" s="2"/>
       <c r="AX868" s="2"/>
     </row>
-    <row r="869" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="869" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A869" s="2"/>
       <c r="B869" s="2"/>
       <c r="C869" s="2"/>
@@ -46000,7 +46001,7 @@
       <c r="AW869" s="2"/>
       <c r="AX869" s="2"/>
     </row>
-    <row r="870" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="870" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A870" s="2"/>
       <c r="B870" s="2"/>
       <c r="C870" s="2"/>
@@ -46052,7 +46053,7 @@
       <c r="AW870" s="2"/>
       <c r="AX870" s="2"/>
     </row>
-    <row r="871" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="871" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A871" s="2"/>
       <c r="B871" s="2"/>
       <c r="C871" s="2"/>
@@ -46104,7 +46105,7 @@
       <c r="AW871" s="2"/>
       <c r="AX871" s="2"/>
     </row>
-    <row r="872" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="872" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A872" s="2"/>
       <c r="B872" s="2"/>
       <c r="C872" s="2"/>
@@ -46156,7 +46157,7 @@
       <c r="AW872" s="2"/>
       <c r="AX872" s="2"/>
     </row>
-    <row r="873" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="873" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A873" s="2"/>
       <c r="B873" s="2"/>
       <c r="C873" s="2"/>
@@ -46208,7 +46209,7 @@
       <c r="AW873" s="2"/>
       <c r="AX873" s="2"/>
     </row>
-    <row r="874" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="874" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A874" s="2"/>
       <c r="B874" s="2"/>
       <c r="C874" s="2"/>
@@ -46260,7 +46261,7 @@
       <c r="AW874" s="2"/>
       <c r="AX874" s="2"/>
     </row>
-    <row r="875" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="875" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A875" s="2"/>
       <c r="B875" s="2"/>
       <c r="C875" s="2"/>
@@ -46312,7 +46313,7 @@
       <c r="AW875" s="2"/>
       <c r="AX875" s="2"/>
     </row>
-    <row r="876" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="876" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A876" s="2"/>
       <c r="B876" s="2"/>
       <c r="C876" s="2"/>
@@ -46364,7 +46365,7 @@
       <c r="AW876" s="2"/>
       <c r="AX876" s="2"/>
     </row>
-    <row r="877" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="877" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A877" s="2"/>
       <c r="B877" s="2"/>
       <c r="C877" s="2"/>
@@ -46416,7 +46417,7 @@
       <c r="AW877" s="2"/>
       <c r="AX877" s="2"/>
     </row>
-    <row r="878" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="878" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A878" s="2"/>
       <c r="B878" s="2"/>
       <c r="C878" s="2"/>
@@ -46468,7 +46469,7 @@
       <c r="AW878" s="2"/>
       <c r="AX878" s="2"/>
     </row>
-    <row r="879" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="879" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A879" s="2"/>
       <c r="B879" s="2"/>
       <c r="C879" s="2"/>
@@ -46520,7 +46521,7 @@
       <c r="AW879" s="2"/>
       <c r="AX879" s="2"/>
     </row>
-    <row r="880" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="880" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A880" s="2"/>
       <c r="B880" s="2"/>
       <c r="C880" s="2"/>
@@ -46572,7 +46573,7 @@
       <c r="AW880" s="2"/>
       <c r="AX880" s="2"/>
     </row>
-    <row r="881" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="881" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A881" s="2"/>
       <c r="B881" s="2"/>
       <c r="C881" s="2"/>
@@ -46624,7 +46625,7 @@
       <c r="AW881" s="2"/>
       <c r="AX881" s="2"/>
     </row>
-    <row r="882" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="882" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A882" s="2"/>
       <c r="B882" s="2"/>
       <c r="C882" s="2"/>
@@ -46676,7 +46677,7 @@
       <c r="AW882" s="2"/>
       <c r="AX882" s="2"/>
     </row>
-    <row r="883" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="883" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A883" s="2"/>
       <c r="B883" s="2"/>
       <c r="C883" s="2"/>
@@ -46728,7 +46729,7 @@
       <c r="AW883" s="2"/>
       <c r="AX883" s="2"/>
     </row>
-    <row r="884" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="884" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A884" s="2"/>
       <c r="B884" s="2"/>
       <c r="C884" s="2"/>
@@ -46780,7 +46781,7 @@
       <c r="AW884" s="2"/>
       <c r="AX884" s="2"/>
     </row>
-    <row r="885" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="885" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A885" s="2"/>
       <c r="B885" s="2"/>
       <c r="C885" s="2"/>
@@ -46832,7 +46833,7 @@
       <c r="AW885" s="2"/>
       <c r="AX885" s="2"/>
     </row>
-    <row r="886" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="886" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A886" s="2"/>
       <c r="B886" s="2"/>
       <c r="C886" s="2"/>
@@ -46884,7 +46885,7 @@
       <c r="AW886" s="2"/>
       <c r="AX886" s="2"/>
     </row>
-    <row r="887" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="887" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A887" s="2"/>
       <c r="B887" s="2"/>
       <c r="C887" s="2"/>
@@ -46936,7 +46937,7 @@
       <c r="AW887" s="2"/>
       <c r="AX887" s="2"/>
     </row>
-    <row r="888" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="888" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A888" s="2"/>
       <c r="B888" s="2"/>
       <c r="C888" s="2"/>
@@ -46988,7 +46989,7 @@
       <c r="AW888" s="2"/>
       <c r="AX888" s="2"/>
     </row>
-    <row r="889" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="889" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A889" s="2"/>
       <c r="B889" s="2"/>
       <c r="C889" s="2"/>
@@ -47040,7 +47041,7 @@
       <c r="AW889" s="2"/>
       <c r="AX889" s="2"/>
     </row>
-    <row r="890" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="890" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A890" s="2"/>
       <c r="B890" s="2"/>
       <c r="C890" s="2"/>
@@ -47092,7 +47093,7 @@
       <c r="AW890" s="2"/>
       <c r="AX890" s="2"/>
     </row>
-    <row r="891" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="891" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A891" s="2"/>
       <c r="B891" s="2"/>
       <c r="C891" s="2"/>
@@ -47144,7 +47145,7 @@
       <c r="AW891" s="2"/>
       <c r="AX891" s="2"/>
     </row>
-    <row r="892" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="892" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A892" s="2"/>
       <c r="B892" s="2"/>
       <c r="C892" s="2"/>
@@ -47196,7 +47197,7 @@
       <c r="AW892" s="2"/>
       <c r="AX892" s="2"/>
     </row>
-    <row r="893" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="893" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A893" s="2"/>
       <c r="B893" s="2"/>
       <c r="C893" s="2"/>
@@ -47248,7 +47249,7 @@
       <c r="AW893" s="2"/>
       <c r="AX893" s="2"/>
     </row>
-    <row r="894" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="894" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A894" s="2"/>
       <c r="B894" s="2"/>
       <c r="C894" s="2"/>
@@ -47300,7 +47301,7 @@
       <c r="AW894" s="2"/>
       <c r="AX894" s="2"/>
     </row>
-    <row r="895" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="895" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A895" s="2"/>
       <c r="B895" s="2"/>
       <c r="C895" s="2"/>
@@ -47352,7 +47353,7 @@
       <c r="AW895" s="2"/>
       <c r="AX895" s="2"/>
     </row>
-    <row r="896" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="896" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A896" s="2"/>
       <c r="B896" s="2"/>
       <c r="C896" s="2"/>
@@ -47404,7 +47405,7 @@
       <c r="AW896" s="2"/>
       <c r="AX896" s="2"/>
     </row>
-    <row r="897" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="897" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A897" s="2"/>
       <c r="B897" s="2"/>
       <c r="C897" s="2"/>
@@ -47456,7 +47457,7 @@
       <c r="AW897" s="2"/>
       <c r="AX897" s="2"/>
     </row>
-    <row r="898" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="898" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A898" s="2"/>
       <c r="B898" s="2"/>
       <c r="C898" s="2"/>
@@ -47508,7 +47509,7 @@
       <c r="AW898" s="2"/>
       <c r="AX898" s="2"/>
     </row>
-    <row r="899" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="899" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A899" s="2"/>
       <c r="B899" s="2"/>
       <c r="C899" s="2"/>
@@ -47560,7 +47561,7 @@
       <c r="AW899" s="2"/>
       <c r="AX899" s="2"/>
     </row>
-    <row r="900" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="900" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A900" s="2"/>
       <c r="B900" s="2"/>
       <c r="C900" s="2"/>
@@ -47612,7 +47613,7 @@
       <c r="AW900" s="2"/>
       <c r="AX900" s="2"/>
     </row>
-    <row r="901" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="901" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A901" s="2"/>
       <c r="B901" s="2"/>
       <c r="C901" s="2"/>
@@ -47664,7 +47665,7 @@
       <c r="AW901" s="2"/>
       <c r="AX901" s="2"/>
     </row>
-    <row r="902" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="902" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A902" s="2"/>
       <c r="B902" s="2"/>
       <c r="C902" s="2"/>
@@ -47716,7 +47717,7 @@
       <c r="AW902" s="2"/>
       <c r="AX902" s="2"/>
     </row>
-    <row r="903" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="903" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A903" s="2"/>
       <c r="B903" s="2"/>
       <c r="C903" s="2"/>
@@ -47768,7 +47769,7 @@
       <c r="AW903" s="2"/>
       <c r="AX903" s="2"/>
     </row>
-    <row r="904" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="904" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A904" s="2"/>
       <c r="B904" s="2"/>
       <c r="C904" s="2"/>
@@ -47820,7 +47821,7 @@
       <c r="AW904" s="2"/>
       <c r="AX904" s="2"/>
     </row>
-    <row r="905" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="905" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A905" s="2"/>
       <c r="B905" s="2"/>
       <c r="C905" s="2"/>
@@ -47872,7 +47873,7 @@
       <c r="AW905" s="2"/>
       <c r="AX905" s="2"/>
     </row>
-    <row r="906" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="906" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A906" s="2"/>
       <c r="B906" s="2"/>
       <c r="C906" s="2"/>
@@ -47924,7 +47925,7 @@
       <c r="AW906" s="2"/>
       <c r="AX906" s="2"/>
     </row>
-    <row r="907" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="907" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A907" s="2"/>
       <c r="B907" s="2"/>
       <c r="C907" s="2"/>
@@ -47976,7 +47977,7 @@
       <c r="AW907" s="2"/>
       <c r="AX907" s="2"/>
     </row>
-    <row r="908" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="908" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A908" s="2"/>
       <c r="B908" s="2"/>
       <c r="C908" s="2"/>
@@ -48028,7 +48029,7 @@
       <c r="AW908" s="2"/>
       <c r="AX908" s="2"/>
     </row>
-    <row r="909" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="909" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A909" s="2"/>
       <c r="B909" s="2"/>
       <c r="C909" s="2"/>
@@ -48080,7 +48081,7 @@
       <c r="AW909" s="2"/>
       <c r="AX909" s="2"/>
     </row>
-    <row r="910" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="910" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A910" s="2"/>
       <c r="B910" s="2"/>
       <c r="C910" s="2"/>
@@ -48132,7 +48133,7 @@
       <c r="AW910" s="2"/>
       <c r="AX910" s="2"/>
     </row>
-    <row r="911" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="911" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A911" s="2"/>
       <c r="B911" s="2"/>
       <c r="C911" s="2"/>
@@ -48184,7 +48185,7 @@
       <c r="AW911" s="2"/>
       <c r="AX911" s="2"/>
     </row>
-    <row r="912" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="912" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A912" s="2"/>
       <c r="B912" s="2"/>
       <c r="C912" s="2"/>
@@ -48236,7 +48237,7 @@
       <c r="AW912" s="2"/>
       <c r="AX912" s="2"/>
     </row>
-    <row r="913" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="913" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A913" s="2"/>
       <c r="B913" s="2"/>
       <c r="C913" s="2"/>
@@ -48288,7 +48289,7 @@
       <c r="AW913" s="2"/>
       <c r="AX913" s="2"/>
     </row>
-    <row r="914" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="914" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A914" s="2"/>
       <c r="B914" s="2"/>
       <c r="C914" s="2"/>
@@ -48340,7 +48341,7 @@
       <c r="AW914" s="2"/>
       <c r="AX914" s="2"/>
     </row>
-    <row r="915" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="915" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A915" s="2"/>
       <c r="B915" s="2"/>
       <c r="C915" s="2"/>
@@ -48392,7 +48393,7 @@
       <c r="AW915" s="2"/>
       <c r="AX915" s="2"/>
     </row>
-    <row r="916" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="916" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A916" s="2"/>
       <c r="B916" s="2"/>
       <c r="C916" s="2"/>
@@ -48444,7 +48445,7 @@
       <c r="AW916" s="2"/>
       <c r="AX916" s="2"/>
     </row>
-    <row r="917" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="917" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A917" s="2"/>
       <c r="B917" s="2"/>
       <c r="C917" s="2"/>
@@ -48496,7 +48497,7 @@
       <c r="AW917" s="2"/>
       <c r="AX917" s="2"/>
     </row>
-    <row r="918" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="918" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A918" s="2"/>
       <c r="B918" s="2"/>
       <c r="C918" s="2"/>
@@ -48548,7 +48549,7 @@
       <c r="AW918" s="2"/>
       <c r="AX918" s="2"/>
     </row>
-    <row r="919" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="919" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A919" s="2"/>
       <c r="B919" s="2"/>
       <c r="C919" s="2"/>
@@ -48600,7 +48601,7 @@
       <c r="AW919" s="2"/>
       <c r="AX919" s="2"/>
     </row>
-    <row r="920" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="920" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A920" s="2"/>
       <c r="B920" s="2"/>
       <c r="C920" s="2"/>
@@ -48652,7 +48653,7 @@
       <c r="AW920" s="2"/>
       <c r="AX920" s="2"/>
     </row>
-    <row r="921" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="921" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A921" s="2"/>
       <c r="B921" s="2"/>
       <c r="C921" s="2"/>
@@ -48704,7 +48705,7 @@
       <c r="AW921" s="2"/>
       <c r="AX921" s="2"/>
     </row>
-    <row r="922" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="922" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A922" s="2"/>
       <c r="B922" s="2"/>
       <c r="C922" s="2"/>
@@ -48756,7 +48757,7 @@
       <c r="AW922" s="2"/>
       <c r="AX922" s="2"/>
     </row>
-    <row r="923" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="923" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A923" s="2"/>
       <c r="B923" s="2"/>
       <c r="C923" s="2"/>
@@ -48808,7 +48809,7 @@
       <c r="AW923" s="2"/>
       <c r="AX923" s="2"/>
     </row>
-    <row r="924" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="924" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A924" s="2"/>
       <c r="B924" s="2"/>
       <c r="C924" s="2"/>
@@ -48860,7 +48861,7 @@
       <c r="AW924" s="2"/>
       <c r="AX924" s="2"/>
     </row>
-    <row r="925" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="925" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A925" s="2"/>
       <c r="B925" s="2"/>
       <c r="C925" s="2"/>
@@ -48912,7 +48913,7 @@
       <c r="AW925" s="2"/>
       <c r="AX925" s="2"/>
     </row>
-    <row r="926" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="926" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A926" s="2"/>
       <c r="B926" s="2"/>
       <c r="C926" s="2"/>
@@ -48964,7 +48965,7 @@
       <c r="AW926" s="2"/>
       <c r="AX926" s="2"/>
     </row>
-    <row r="927" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="927" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A927" s="2"/>
       <c r="B927" s="2"/>
       <c r="C927" s="2"/>
@@ -49016,7 +49017,7 @@
       <c r="AW927" s="2"/>
       <c r="AX927" s="2"/>
     </row>
-    <row r="928" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="928" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A928" s="2"/>
       <c r="B928" s="2"/>
       <c r="C928" s="2"/>
@@ -49068,7 +49069,7 @@
       <c r="AW928" s="2"/>
       <c r="AX928" s="2"/>
     </row>
-    <row r="929" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="929" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A929" s="2"/>
       <c r="B929" s="2"/>
       <c r="C929" s="2"/>
@@ -49120,7 +49121,7 @@
       <c r="AW929" s="2"/>
       <c r="AX929" s="2"/>
     </row>
-    <row r="930" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="930" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A930" s="2"/>
       <c r="B930" s="2"/>
       <c r="C930" s="2"/>
@@ -49172,7 +49173,7 @@
       <c r="AW930" s="2"/>
       <c r="AX930" s="2"/>
     </row>
-    <row r="931" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="931" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A931" s="2"/>
       <c r="B931" s="2"/>
       <c r="C931" s="2"/>
@@ -49224,7 +49225,7 @@
       <c r="AW931" s="2"/>
       <c r="AX931" s="2"/>
     </row>
-    <row r="932" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="932" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A932" s="2"/>
       <c r="B932" s="2"/>
       <c r="C932" s="2"/>
@@ -49276,7 +49277,7 @@
       <c r="AW932" s="2"/>
       <c r="AX932" s="2"/>
     </row>
-    <row r="933" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="933" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A933" s="2"/>
       <c r="B933" s="2"/>
       <c r="C933" s="2"/>
@@ -49328,7 +49329,7 @@
       <c r="AW933" s="2"/>
       <c r="AX933" s="2"/>
     </row>
-    <row r="934" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="934" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A934" s="2"/>
       <c r="B934" s="2"/>
       <c r="C934" s="2"/>
@@ -49380,7 +49381,7 @@
       <c r="AW934" s="2"/>
       <c r="AX934" s="2"/>
     </row>
-    <row r="935" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="935" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A935" s="2"/>
       <c r="B935" s="2"/>
       <c r="C935" s="2"/>
@@ -49432,7 +49433,7 @@
       <c r="AW935" s="2"/>
       <c r="AX935" s="2"/>
     </row>
-    <row r="936" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="936" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A936" s="2"/>
       <c r="B936" s="2"/>
       <c r="C936" s="2"/>
@@ -49484,7 +49485,7 @@
       <c r="AW936" s="2"/>
       <c r="AX936" s="2"/>
     </row>
-    <row r="937" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="937" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A937" s="2"/>
       <c r="B937" s="2"/>
       <c r="C937" s="2"/>
@@ -49536,7 +49537,7 @@
       <c r="AW937" s="2"/>
       <c r="AX937" s="2"/>
     </row>
-    <row r="938" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="938" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A938" s="2"/>
       <c r="B938" s="2"/>
       <c r="C938" s="2"/>
@@ -49588,7 +49589,7 @@
       <c r="AW938" s="2"/>
       <c r="AX938" s="2"/>
     </row>
-    <row r="939" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="939" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A939" s="2"/>
       <c r="B939" s="2"/>
       <c r="C939" s="2"/>
@@ -49640,7 +49641,7 @@
       <c r="AW939" s="2"/>
       <c r="AX939" s="2"/>
     </row>
-    <row r="940" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="940" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A940" s="2"/>
       <c r="B940" s="2"/>
       <c r="C940" s="2"/>
@@ -49692,7 +49693,7 @@
       <c r="AW940" s="2"/>
       <c r="AX940" s="2"/>
     </row>
-    <row r="941" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="941" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A941" s="2"/>
       <c r="B941" s="2"/>
       <c r="C941" s="2"/>
@@ -49744,7 +49745,7 @@
       <c r="AW941" s="2"/>
       <c r="AX941" s="2"/>
     </row>
-    <row r="942" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="942" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A942" s="2"/>
       <c r="B942" s="2"/>
       <c r="C942" s="2"/>
@@ -49796,7 +49797,7 @@
       <c r="AW942" s="2"/>
       <c r="AX942" s="2"/>
     </row>
-    <row r="943" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="943" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A943" s="2"/>
       <c r="B943" s="2"/>
       <c r="C943" s="2"/>
@@ -49848,7 +49849,7 @@
       <c r="AW943" s="2"/>
       <c r="AX943" s="2"/>
     </row>
-    <row r="944" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="944" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A944" s="2"/>
       <c r="B944" s="2"/>
       <c r="C944" s="2"/>
@@ -49900,7 +49901,7 @@
       <c r="AW944" s="2"/>
       <c r="AX944" s="2"/>
     </row>
-    <row r="945" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="945" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A945" s="2"/>
       <c r="B945" s="2"/>
       <c r="C945" s="2"/>
@@ -49952,7 +49953,7 @@
       <c r="AW945" s="2"/>
       <c r="AX945" s="2"/>
     </row>
-    <row r="946" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="946" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A946" s="2"/>
       <c r="B946" s="2"/>
       <c r="C946" s="2"/>
@@ -50004,7 +50005,7 @@
       <c r="AW946" s="2"/>
       <c r="AX946" s="2"/>
     </row>
-    <row r="947" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="947" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A947" s="2"/>
       <c r="B947" s="2"/>
       <c r="C947" s="2"/>
@@ -50056,7 +50057,7 @@
       <c r="AW947" s="2"/>
       <c r="AX947" s="2"/>
     </row>
-    <row r="948" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="948" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A948" s="2"/>
       <c r="B948" s="2"/>
       <c r="C948" s="2"/>
@@ -50108,7 +50109,7 @@
       <c r="AW948" s="2"/>
       <c r="AX948" s="2"/>
     </row>
-    <row r="949" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="949" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A949" s="2"/>
       <c r="B949" s="2"/>
       <c r="C949" s="2"/>
@@ -50160,7 +50161,7 @@
       <c r="AW949" s="2"/>
       <c r="AX949" s="2"/>
     </row>
-    <row r="950" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="950" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A950" s="2"/>
       <c r="B950" s="2"/>
       <c r="C950" s="2"/>
@@ -50212,7 +50213,7 @@
       <c r="AW950" s="2"/>
       <c r="AX950" s="2"/>
     </row>
-    <row r="951" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="951" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A951" s="2"/>
       <c r="B951" s="2"/>
       <c r="C951" s="2"/>
@@ -50264,7 +50265,7 @@
       <c r="AW951" s="2"/>
       <c r="AX951" s="2"/>
     </row>
-    <row r="952" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="952" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A952" s="2"/>
       <c r="B952" s="2"/>
       <c r="C952" s="2"/>
@@ -50316,7 +50317,7 @@
       <c r="AW952" s="2"/>
       <c r="AX952" s="2"/>
     </row>
-    <row r="953" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="953" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A953" s="2"/>
       <c r="B953" s="2"/>
       <c r="C953" s="2"/>
@@ -50368,7 +50369,7 @@
       <c r="AW953" s="2"/>
       <c r="AX953" s="2"/>
     </row>
-    <row r="954" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="954" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A954" s="2"/>
       <c r="B954" s="2"/>
       <c r="C954" s="2"/>
@@ -50420,7 +50421,7 @@
       <c r="AW954" s="2"/>
       <c r="AX954" s="2"/>
     </row>
-    <row r="955" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="955" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A955" s="2"/>
       <c r="B955" s="2"/>
       <c r="C955" s="2"/>
@@ -50472,7 +50473,7 @@
       <c r="AW955" s="2"/>
       <c r="AX955" s="2"/>
     </row>
-    <row r="956" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="956" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A956" s="2"/>
       <c r="B956" s="2"/>
       <c r="C956" s="2"/>
@@ -50524,7 +50525,7 @@
       <c r="AW956" s="2"/>
       <c r="AX956" s="2"/>
     </row>
-    <row r="957" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="957" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A957" s="2"/>
       <c r="B957" s="2"/>
       <c r="C957" s="2"/>
@@ -50576,7 +50577,7 @@
       <c r="AW957" s="2"/>
       <c r="AX957" s="2"/>
     </row>
-    <row r="958" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="958" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A958" s="2"/>
       <c r="B958" s="2"/>
       <c r="C958" s="2"/>
@@ -50628,7 +50629,7 @@
       <c r="AW958" s="2"/>
       <c r="AX958" s="2"/>
     </row>
-    <row r="959" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="959" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A959" s="2"/>
       <c r="B959" s="2"/>
       <c r="C959" s="2"/>
@@ -50680,7 +50681,7 @@
       <c r="AW959" s="2"/>
       <c r="AX959" s="2"/>
     </row>
-    <row r="960" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="960" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A960" s="2"/>
       <c r="B960" s="2"/>
       <c r="C960" s="2"/>
@@ -50732,7 +50733,7 @@
       <c r="AW960" s="2"/>
       <c r="AX960" s="2"/>
     </row>
-    <row r="961" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="961" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A961" s="2"/>
       <c r="B961" s="2"/>
       <c r="C961" s="2"/>
@@ -50784,7 +50785,7 @@
       <c r="AW961" s="2"/>
       <c r="AX961" s="2"/>
     </row>
-    <row r="962" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="962" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A962" s="2"/>
       <c r="B962" s="2"/>
       <c r="C962" s="2"/>
@@ -50836,7 +50837,7 @@
       <c r="AW962" s="2"/>
       <c r="AX962" s="2"/>
     </row>
-    <row r="963" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="963" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A963" s="2"/>
       <c r="B963" s="2"/>
       <c r="C963" s="2"/>
@@ -50888,7 +50889,7 @@
       <c r="AW963" s="2"/>
       <c r="AX963" s="2"/>
     </row>
-    <row r="964" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="964" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A964" s="2"/>
       <c r="B964" s="2"/>
       <c r="C964" s="2"/>
@@ -50940,7 +50941,7 @@
       <c r="AW964" s="2"/>
       <c r="AX964" s="2"/>
     </row>
-    <row r="965" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="965" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A965" s="2"/>
       <c r="B965" s="2"/>
       <c r="C965" s="2"/>
@@ -50992,7 +50993,7 @@
       <c r="AW965" s="2"/>
       <c r="AX965" s="2"/>
     </row>
-    <row r="966" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="966" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A966" s="2"/>
       <c r="B966" s="2"/>
       <c r="C966" s="2"/>
@@ -51044,7 +51045,7 @@
       <c r="AW966" s="2"/>
       <c r="AX966" s="2"/>
     </row>
-    <row r="967" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="967" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A967" s="2"/>
       <c r="B967" s="2"/>
       <c r="C967" s="2"/>
@@ -51096,7 +51097,7 @@
       <c r="AW967" s="2"/>
       <c r="AX967" s="2"/>
     </row>
-    <row r="968" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="968" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A968" s="2"/>
       <c r="B968" s="2"/>
       <c r="C968" s="2"/>
@@ -51148,7 +51149,7 @@
       <c r="AW968" s="2"/>
       <c r="AX968" s="2"/>
     </row>
-    <row r="969" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="969" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A969" s="2"/>
       <c r="B969" s="2"/>
       <c r="C969" s="2"/>
@@ -51200,7 +51201,7 @@
       <c r="AW969" s="2"/>
       <c r="AX969" s="2"/>
     </row>
-    <row r="970" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="970" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A970" s="2"/>
       <c r="B970" s="2"/>
       <c r="C970" s="2"/>
@@ -51252,7 +51253,7 @@
       <c r="AW970" s="2"/>
       <c r="AX970" s="2"/>
     </row>
-    <row r="971" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="971" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A971" s="2"/>
       <c r="B971" s="2"/>
       <c r="C971" s="2"/>
@@ -51304,7 +51305,7 @@
       <c r="AW971" s="2"/>
       <c r="AX971" s="2"/>
     </row>
-    <row r="972" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="972" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A972" s="2"/>
       <c r="B972" s="2"/>
       <c r="C972" s="2"/>
@@ -51356,7 +51357,7 @@
       <c r="AW972" s="2"/>
       <c r="AX972" s="2"/>
     </row>
-    <row r="973" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="973" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A973" s="2"/>
       <c r="B973" s="2"/>
       <c r="C973" s="2"/>
@@ -51408,7 +51409,7 @@
       <c r="AW973" s="2"/>
       <c r="AX973" s="2"/>
     </row>
-    <row r="974" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="974" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A974" s="2"/>
       <c r="B974" s="2"/>
       <c r="C974" s="2"/>
@@ -51460,7 +51461,7 @@
       <c r="AW974" s="2"/>
       <c r="AX974" s="2"/>
     </row>
-    <row r="975" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="975" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A975" s="2"/>
       <c r="B975" s="2"/>
       <c r="C975" s="2"/>
@@ -51512,7 +51513,7 @@
       <c r="AW975" s="2"/>
       <c r="AX975" s="2"/>
     </row>
-    <row r="976" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="976" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A976" s="2"/>
       <c r="B976" s="2"/>
       <c r="C976" s="2"/>
@@ -51564,7 +51565,7 @@
       <c r="AW976" s="2"/>
       <c r="AX976" s="2"/>
     </row>
-    <row r="977" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="977" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A977" s="2"/>
       <c r="B977" s="2"/>
       <c r="C977" s="2"/>
@@ -51616,7 +51617,7 @@
       <c r="AW977" s="2"/>
       <c r="AX977" s="2"/>
     </row>
-    <row r="978" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="978" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A978" s="2"/>
       <c r="B978" s="2"/>
       <c r="C978" s="2"/>
@@ -51668,7 +51669,7 @@
       <c r="AW978" s="2"/>
       <c r="AX978" s="2"/>
     </row>
-    <row r="979" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="979" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A979" s="2"/>
       <c r="B979" s="2"/>
       <c r="C979" s="2"/>
@@ -51720,7 +51721,7 @@
       <c r="AW979" s="2"/>
       <c r="AX979" s="2"/>
     </row>
-    <row r="980" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="980" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A980" s="2"/>
       <c r="B980" s="2"/>
       <c r="C980" s="2"/>
@@ -51772,7 +51773,7 @@
       <c r="AW980" s="2"/>
       <c r="AX980" s="2"/>
     </row>
-    <row r="981" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="981" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A981" s="2"/>
       <c r="B981" s="2"/>
       <c r="C981" s="2"/>
@@ -51824,7 +51825,7 @@
       <c r="AW981" s="2"/>
       <c r="AX981" s="2"/>
     </row>
-    <row r="982" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="982" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A982" s="2"/>
       <c r="B982" s="2"/>
       <c r="C982" s="2"/>
@@ -51876,7 +51877,7 @@
       <c r="AW982" s="2"/>
       <c r="AX982" s="2"/>
     </row>
-    <row r="983" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="983" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A983" s="2"/>
       <c r="B983" s="2"/>
       <c r="C983" s="2"/>
@@ -51928,7 +51929,7 @@
       <c r="AW983" s="2"/>
       <c r="AX983" s="2"/>
     </row>
-    <row r="984" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="984" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A984" s="2"/>
       <c r="B984" s="2"/>
       <c r="C984" s="2"/>
@@ -51980,7 +51981,7 @@
       <c r="AW984" s="2"/>
       <c r="AX984" s="2"/>
     </row>
-    <row r="985" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="985" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A985" s="2"/>
       <c r="B985" s="2"/>
       <c r="C985" s="2"/>
@@ -52032,7 +52033,7 @@
       <c r="AW985" s="2"/>
       <c r="AX985" s="2"/>
     </row>
-    <row r="986" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="986" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A986" s="2"/>
       <c r="B986" s="2"/>
       <c r="C986" s="2"/>
@@ -52084,7 +52085,7 @@
       <c r="AW986" s="2"/>
       <c r="AX986" s="2"/>
     </row>
-    <row r="987" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="987" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A987" s="2"/>
       <c r="B987" s="2"/>
       <c r="C987" s="2"/>
@@ -52136,7 +52137,7 @@
       <c r="AW987" s="2"/>
       <c r="AX987" s="2"/>
     </row>
-    <row r="988" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="988" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A988" s="2"/>
       <c r="B988" s="2"/>
       <c r="C988" s="2"/>
@@ -52188,7 +52189,7 @@
       <c r="AW988" s="2"/>
       <c r="AX988" s="2"/>
     </row>
-    <row r="989" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="989" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A989" s="2"/>
       <c r="B989" s="2"/>
       <c r="C989" s="2"/>
@@ -52240,7 +52241,7 @@
       <c r="AW989" s="2"/>
       <c r="AX989" s="2"/>
     </row>
-    <row r="990" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="990" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A990" s="2"/>
       <c r="B990" s="2"/>
       <c r="C990" s="2"/>
@@ -52292,7 +52293,7 @@
       <c r="AW990" s="2"/>
       <c r="AX990" s="2"/>
     </row>
-    <row r="991" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="991" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A991" s="2"/>
       <c r="B991" s="2"/>
       <c r="C991" s="2"/>
@@ -52344,7 +52345,7 @@
       <c r="AW991" s="2"/>
       <c r="AX991" s="2"/>
     </row>
-    <row r="992" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="992" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A992" s="2"/>
       <c r="B992" s="2"/>
       <c r="C992" s="2"/>
@@ -52396,7 +52397,7 @@
       <c r="AW992" s="2"/>
       <c r="AX992" s="2"/>
     </row>
-    <row r="993" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="993" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A993" s="2"/>
       <c r="B993" s="2"/>
       <c r="C993" s="2"/>
@@ -52448,7 +52449,7 @@
       <c r="AW993" s="2"/>
       <c r="AX993" s="2"/>
     </row>
-    <row r="994" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="994" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A994" s="2"/>
       <c r="B994" s="2"/>
       <c r="C994" s="2"/>
@@ -52500,7 +52501,7 @@
       <c r="AW994" s="2"/>
       <c r="AX994" s="2"/>
     </row>
-    <row r="995" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="995" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A995" s="2"/>
       <c r="B995" s="2"/>
       <c r="C995" s="2"/>
@@ -52552,7 +52553,7 @@
       <c r="AW995" s="2"/>
       <c r="AX995" s="2"/>
     </row>
-    <row r="996" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="996" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A996" s="2"/>
       <c r="B996" s="2"/>
       <c r="C996" s="2"/>

--- a/Data Files/Input Validation/02. receivedate/Auto_ReceiveDate_C2-1.xlsx
+++ b/Data Files/Input Validation/02. receivedate/Auto_ReceiveDate_C2-1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\test gestamp\Data Files\Input Validation\02. receivedate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A2C2416-A5FD-4A73-A8C1-A2D59C1275B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63DC6D8A-3552-42EF-B2F5-300BAB3F6AB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1125" yWindow="2340" windowWidth="27675" windowHeight="12675" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1125" yWindow="1125" windowWidth="9690" windowHeight="12675" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="71">
   <si>
     <t>contractNo</t>
   </si>
@@ -234,13 +234,10 @@
     <t>AS9</t>
   </si>
   <si>
-    <t>2023-09-16</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
-    <t>2023-11-16</t>
+    <t>2024-01-02</t>
   </si>
 </sst>
 </file>
@@ -608,7 +605,7 @@
   <dimension ref="A1:XFD996"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -807,10 +804,10 @@
         <v>45</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>46</v>
@@ -903,7 +900,7 @@
       <c r="AM2" s="2"/>
       <c r="AN2" s="2"/>
       <c r="AO2" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="AP2" s="2" t="s">
         <v>52</v>

--- a/Data Files/Input Validation/02. receivedate/Auto_ReceiveDate_C2-1.xlsx
+++ b/Data Files/Input Validation/02. receivedate/Auto_ReceiveDate_C2-1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\test gestamp\Data Files\Input Validation\02. receivedate\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63DC6D8A-3552-42EF-B2F5-300BAB3F6AB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D989312-88FD-4C32-BB49-CDBB4AF8083F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1125" yWindow="1125" windowWidth="9690" windowHeight="12675" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="72">
   <si>
     <t>contractNo</t>
   </si>
@@ -239,6 +239,9 @@
   <si>
     <t>2024-01-02</t>
   </si>
+  <si>
+    <t>2024-01-16</t>
+  </si>
 </sst>
 </file>
 
@@ -305,9 +308,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -345,7 +348,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -451,7 +454,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -593,7 +596,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -804,7 +807,7 @@
         <v>45</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>70</v>

--- a/Data Files/Input Validation/02. receivedate/Auto_ReceiveDate_C2-1.xlsx
+++ b/Data Files/Input Validation/02. receivedate/Auto_ReceiveDate_C2-1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEECDAB5-3BF7-466B-B270-CA37EEDA5FBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2ADDEE8-80C3-480F-A9BB-788E3F55E9E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="12915" windowHeight="12615" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -237,10 +237,10 @@
     <t/>
   </si>
   <si>
-    <t>2024-01-02</t>
+    <t>2024-02-16</t>
   </si>
   <si>
-    <t>2024-02-16</t>
+    <t>2024-04-16</t>
   </si>
 </sst>
 </file>
@@ -308,9 +308,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -348,7 +348,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -454,7 +454,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -596,7 +596,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>

--- a/Data Files/Input Validation/02. receivedate/Auto_ReceiveDate_C2-1.xlsx
+++ b/Data Files/Input Validation/02. receivedate/Auto_ReceiveDate_C2-1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2ADDEE8-80C3-480F-A9BB-788E3F55E9E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FBFB1D2-A50E-4713-9970-F442BB487283}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="12915" windowHeight="12615" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8850" yWindow="2685" windowWidth="12915" windowHeight="12660" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -240,7 +240,7 @@
     <t>2024-02-16</t>
   </si>
   <si>
-    <t>2024-04-16</t>
+    <t>2024-07-01</t>
   </si>
 </sst>
 </file>

--- a/Data Files/Input Validation/02. receivedate/Auto_ReceiveDate_C2-1.xlsx
+++ b/Data Files/Input Validation/02. receivedate/Auto_ReceiveDate_C2-1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FBFB1D2-A50E-4713-9970-F442BB487283}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BE67308-8BCF-4794-9FEE-7DA6F3E62782}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8850" yWindow="2685" windowWidth="12915" windowHeight="12660" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="7305" windowHeight="13260" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -240,7 +240,7 @@
     <t>2024-02-16</t>
   </si>
   <si>
-    <t>2024-07-01</t>
+    <t>2024-08-16</t>
   </si>
 </sst>
 </file>
